--- a/genSpacecraft/DownlinkSpecLTM.xlsx
+++ b/genSpacecraft/DownlinkSpecLTM.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="515">
   <si>
     <t xml:space="preserve">//</t>
   </si>
@@ -851,12 +851,18 @@
     <t xml:space="preserve">Number of software commands since last reset</t>
   </si>
   <si>
-    <t xml:space="preserve">I2c Fail Host Temp</t>
+    <t xml:space="preserve">Host Tmp Fail</t>
   </si>
   <si>
     <t xml:space="preserve">I2CfailureHostTemp</t>
   </si>
   <si>
+    <t xml:space="preserve">BIN5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bits</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bits Indicate Host Temp Sensor Failure</t>
   </si>
   <si>
@@ -1533,9 +1539,6 @@
   </si>
   <si>
     <t xml:space="preserve">Total Bytes per Frame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bits</t>
   </si>
   <si>
     <t xml:space="preserve">Time to Downlink</t>
@@ -1940,8 +1943,8 @@
   </sheetPr>
   <dimension ref="A1:Q263"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G123" activeCellId="0" sqref="G123"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B104" activeCellId="0" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6538,13 +6541,13 @@
       </c>
       <c r="F104" s="23"/>
       <c r="G104" s="23" t="s">
-        <v>133</v>
+        <v>278</v>
       </c>
       <c r="H104" s="22" t="s">
-        <v>27</v>
+        <v>279</v>
       </c>
       <c r="I104" s="23" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J104" s="29" t="n">
         <f aca="false">J103+D103</f>
@@ -6577,10 +6580,10 @@
     </row>
     <row r="105" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="31" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D105" s="32" t="n">
         <v>1</v>
@@ -6590,13 +6593,13 @@
       </c>
       <c r="F105" s="23"/>
       <c r="G105" s="22" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H105" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I105" s="32" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J105" s="29" t="n">
         <f aca="false">J104+D104</f>
@@ -6629,10 +6632,10 @@
     </row>
     <row r="106" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="31" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D106" s="32" t="n">
         <v>1</v>
@@ -6642,7 +6645,7 @@
       </c>
       <c r="F106" s="23"/>
       <c r="G106" s="22" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H106" s="22" t="s">
         <v>27</v>
@@ -6679,10 +6682,10 @@
     </row>
     <row r="107" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="31" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D107" s="32" t="n">
         <v>1</v>
@@ -6692,7 +6695,7 @@
       </c>
       <c r="F107" s="23"/>
       <c r="G107" s="22" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H107" s="22" t="s">
         <v>27</v>
@@ -6729,10 +6732,10 @@
     </row>
     <row r="108" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="31" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D108" s="32" t="n">
         <v>1</v>
@@ -6742,7 +6745,7 @@
       </c>
       <c r="F108" s="23"/>
       <c r="G108" s="22" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H108" s="22" t="s">
         <v>27</v>
@@ -6779,10 +6782,10 @@
     </row>
     <row r="109" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="31" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D109" s="32" t="n">
         <v>1</v>
@@ -6792,7 +6795,7 @@
       </c>
       <c r="F109" s="23"/>
       <c r="G109" s="22" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H109" s="22" t="s">
         <v>27</v>
@@ -6815,7 +6818,7 @@
         <v>17.125</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O109" s="24" t="n">
         <v>9</v>
@@ -6829,10 +6832,10 @@
     </row>
     <row r="110" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="31" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D110" s="32" t="n">
         <v>1</v>
@@ -6842,7 +6845,7 @@
       </c>
       <c r="F110" s="23"/>
       <c r="G110" s="22" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H110" s="22" t="s">
         <v>27</v>
@@ -6865,7 +6868,7 @@
         <v>17.15625</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O110" s="24" t="n">
         <v>9</v>
@@ -6879,10 +6882,10 @@
     </row>
     <row r="111" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="31" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D111" s="32" t="n">
         <v>1</v>
@@ -6892,7 +6895,7 @@
       </c>
       <c r="F111" s="23"/>
       <c r="G111" s="22" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H111" s="22" t="s">
         <v>27</v>
@@ -6915,7 +6918,7 @@
         <v>17.1875</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O111" s="24" t="n">
         <v>9</v>
@@ -6929,10 +6932,10 @@
     </row>
     <row r="112" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="31" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D112" s="32" t="n">
         <v>1</v>
@@ -6942,7 +6945,7 @@
       </c>
       <c r="F112" s="23"/>
       <c r="G112" s="22" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H112" s="22" t="s">
         <v>27</v>
@@ -6965,7 +6968,7 @@
         <v>17.21875</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O112" s="24" t="n">
         <v>9</v>
@@ -6979,10 +6982,10 @@
     </row>
     <row r="113" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="31" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D113" s="32" t="n">
         <v>1</v>
@@ -6992,13 +6995,13 @@
       </c>
       <c r="F113" s="23"/>
       <c r="G113" s="22" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H113" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I113" s="32" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J113" s="29" t="n">
         <f aca="false">J112+D112</f>
@@ -7017,7 +7020,7 @@
         <v>17.25</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O113" s="24" t="n">
         <v>9</v>
@@ -7031,10 +7034,10 @@
     </row>
     <row r="114" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="31" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D114" s="32" t="n">
         <v>1</v>
@@ -7044,7 +7047,7 @@
       </c>
       <c r="F114" s="23"/>
       <c r="G114" s="22" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H114" s="22" t="s">
         <v>27</v>
@@ -7067,7 +7070,7 @@
         <v>17.28125</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O114" s="24" t="n">
         <v>9</v>
@@ -7081,10 +7084,10 @@
     </row>
     <row r="115" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="31" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D115" s="32" t="n">
         <v>1</v>
@@ -7094,7 +7097,7 @@
       </c>
       <c r="F115" s="23"/>
       <c r="G115" s="22" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H115" s="22" t="s">
         <v>27</v>
@@ -7117,7 +7120,7 @@
         <v>17.3125</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O115" s="24" t="n">
         <v>9</v>
@@ -7131,10 +7134,10 @@
     </row>
     <row r="116" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="31" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D116" s="32" t="n">
         <v>1</v>
@@ -7144,7 +7147,7 @@
       </c>
       <c r="F116" s="23"/>
       <c r="G116" s="22" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H116" s="22" t="s">
         <v>27</v>
@@ -7167,7 +7170,7 @@
         <v>17.34375</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O116" s="24" t="n">
         <v>9</v>
@@ -7181,10 +7184,10 @@
     </row>
     <row r="117" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="31" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D117" s="32" t="n">
         <v>1</v>
@@ -7194,7 +7197,7 @@
       </c>
       <c r="F117" s="23"/>
       <c r="G117" s="22" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H117" s="22" t="s">
         <v>27</v>
@@ -7217,7 +7220,7 @@
         <v>17.375</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O117" s="24" t="n">
         <v>9</v>
@@ -7231,10 +7234,10 @@
     </row>
     <row r="118" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="31" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D118" s="32" t="n">
         <v>1</v>
@@ -7244,7 +7247,7 @@
       </c>
       <c r="F118" s="23"/>
       <c r="G118" s="22" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H118" s="22" t="s">
         <v>27</v>
@@ -7267,7 +7270,7 @@
         <v>17.40625</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O118" s="24" t="n">
         <v>9</v>
@@ -7281,10 +7284,10 @@
     </row>
     <row r="119" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="31" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D119" s="32" t="n">
         <v>1</v>
@@ -7294,7 +7297,7 @@
       </c>
       <c r="F119" s="23"/>
       <c r="G119" s="22" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H119" s="22" t="s">
         <v>27</v>
@@ -7317,7 +7320,7 @@
         <v>17.4375</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O119" s="24" t="n">
         <v>9</v>
@@ -7331,10 +7334,10 @@
     </row>
     <row r="120" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="31" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D120" s="32" t="n">
         <v>1</v>
@@ -7344,7 +7347,7 @@
       </c>
       <c r="F120" s="23"/>
       <c r="G120" s="22" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H120" s="22" t="s">
         <v>27</v>
@@ -7367,7 +7370,7 @@
         <v>17.46875</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O120" s="24" t="n">
         <v>9</v>
@@ -7381,10 +7384,10 @@
     </row>
     <row r="121" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="31" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D121" s="32" t="n">
         <v>1</v>
@@ -7394,13 +7397,13 @@
       </c>
       <c r="F121" s="23"/>
       <c r="G121" s="22" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H121" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I121" s="32" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J121" s="29" t="n">
         <f aca="false">J120+D120</f>
@@ -7419,7 +7422,7 @@
         <v>17.5</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O121" s="24" t="n">
         <v>9</v>
@@ -7433,10 +7436,10 @@
     </row>
     <row r="122" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="31" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D122" s="32" t="n">
         <v>1</v>
@@ -7446,7 +7449,7 @@
       </c>
       <c r="F122" s="23"/>
       <c r="G122" s="22" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H122" s="22" t="s">
         <v>27</v>
@@ -7469,7 +7472,7 @@
         <v>17.53125</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O122" s="24" t="n">
         <v>9</v>
@@ -7483,10 +7486,10 @@
     </row>
     <row r="123" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="31" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D123" s="32" t="n">
         <v>1</v>
@@ -7496,7 +7499,7 @@
       </c>
       <c r="F123" s="23"/>
       <c r="G123" s="22" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H123" s="22" t="s">
         <v>27</v>
@@ -7519,7 +7522,7 @@
         <v>17.5625</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O123" s="24" t="n">
         <v>9</v>
@@ -7533,10 +7536,10 @@
     </row>
     <row r="124" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="31" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D124" s="32" t="n">
         <v>1</v>
@@ -7546,7 +7549,7 @@
       </c>
       <c r="F124" s="23"/>
       <c r="G124" s="22" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H124" s="22" t="s">
         <v>27</v>
@@ -7569,7 +7572,7 @@
         <v>17.59375</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O124" s="24" t="n">
         <v>9</v>
@@ -7583,10 +7586,10 @@
     </row>
     <row r="125" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="31" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D125" s="32" t="n">
         <v>1</v>
@@ -7596,7 +7599,7 @@
       </c>
       <c r="F125" s="23"/>
       <c r="G125" s="22" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H125" s="22" t="s">
         <v>27</v>
@@ -7619,7 +7622,7 @@
         <v>17.625</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O125" s="24" t="n">
         <v>9</v>
@@ -7633,10 +7636,10 @@
     </row>
     <row r="126" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="31" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D126" s="32" t="n">
         <v>1</v>
@@ -7646,7 +7649,7 @@
       </c>
       <c r="F126" s="23"/>
       <c r="G126" s="22" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H126" s="22" t="s">
         <v>27</v>
@@ -7669,7 +7672,7 @@
         <v>17.65625</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O126" s="24" t="n">
         <v>9</v>
@@ -7683,10 +7686,10 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="31" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D127" s="32" t="n">
         <v>2</v>
@@ -7733,10 +7736,10 @@
     </row>
     <row r="128" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="31" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D128" s="32" t="n">
         <v>1</v>
@@ -7746,7 +7749,7 @@
       </c>
       <c r="F128" s="23"/>
       <c r="G128" s="22" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H128" s="22" t="s">
         <v>27</v>
@@ -7783,10 +7786,10 @@
     </row>
     <row r="129" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="31" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D129" s="32" t="n">
         <v>1</v>
@@ -7796,7 +7799,7 @@
       </c>
       <c r="F129" s="23"/>
       <c r="G129" s="22" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H129" s="22" t="s">
         <v>27</v>
@@ -7833,10 +7836,10 @@
     </row>
     <row r="130" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="31" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D130" s="32" t="n">
         <v>1</v>
@@ -7846,7 +7849,7 @@
       </c>
       <c r="F130" s="23"/>
       <c r="G130" s="22" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H130" s="22" t="s">
         <v>27</v>
@@ -7883,10 +7886,10 @@
     </row>
     <row r="131" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="31" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D131" s="32" t="n">
         <v>1</v>
@@ -7896,7 +7899,7 @@
       </c>
       <c r="F131" s="23"/>
       <c r="G131" s="22" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H131" s="22" t="s">
         <v>27</v>
@@ -7933,10 +7936,10 @@
     </row>
     <row r="132" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="31" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D132" s="32" t="n">
         <v>1</v>
@@ -7946,7 +7949,7 @@
       </c>
       <c r="F132" s="23"/>
       <c r="G132" s="22" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H132" s="22"/>
       <c r="I132" s="32"/>
@@ -7967,7 +7970,7 @@
         <v>17.875</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O132" s="24" t="n">
         <v>9</v>
@@ -7981,10 +7984,10 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="31" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D133" s="32" t="n">
         <v>3</v>
@@ -8031,10 +8034,10 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="31" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D134" s="32" t="n">
         <v>8</v>
@@ -8083,10 +8086,10 @@
     </row>
     <row r="135" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="31" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D135" s="32" t="n">
         <v>8</v>
@@ -8102,7 +8105,7 @@
         <v>27</v>
       </c>
       <c r="I135" s="23" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="J135" s="29" t="n">
         <f aca="false">J134+D134</f>
@@ -8135,10 +8138,10 @@
     </row>
     <row r="136" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="31" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D136" s="32" t="n">
         <v>8</v>
@@ -8154,7 +8157,7 @@
         <v>27</v>
       </c>
       <c r="I136" s="23" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J136" s="29" t="n">
         <f aca="false">J135+D135</f>
@@ -8187,10 +8190,10 @@
     </row>
     <row r="137" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="31" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D137" s="32" t="n">
         <v>8</v>
@@ -8206,7 +8209,7 @@
         <v>27</v>
       </c>
       <c r="I137" s="23" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J137" s="29" t="n">
         <f aca="false">J136+D136</f>
@@ -8239,10 +8242,10 @@
     </row>
     <row r="138" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="31" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D138" s="32" t="n">
         <v>8</v>
@@ -8258,7 +8261,7 @@
         <v>27</v>
       </c>
       <c r="I138" s="23" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J138" s="29" t="n">
         <f aca="false">J137+D137</f>
@@ -8291,10 +8294,10 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="31" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D139" s="32" t="n">
         <v>8</v>
@@ -8341,10 +8344,10 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="31" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D140" s="32" t="n">
         <v>8</v>
@@ -8391,10 +8394,10 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="31" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D141" s="32" t="n">
         <v>8</v>
@@ -8441,10 +8444,10 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="31" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D142" s="32" t="n">
         <v>8</v>
@@ -8491,10 +8494,10 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="31" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D143" s="32" t="n">
         <v>8</v>
@@ -8541,10 +8544,10 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="31" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D144" s="32" t="n">
         <v>8</v>
@@ -8613,10 +8616,10 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="31" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D146" s="32" t="n">
         <v>1</v>
@@ -8662,10 +8665,10 @@
     </row>
     <row r="147" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="31" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D147" s="32" t="n">
         <v>1</v>
@@ -8681,7 +8684,7 @@
         <v>27</v>
       </c>
       <c r="I147" s="23" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="J147" s="29" t="n">
         <f aca="false">J146+D146</f>
@@ -8714,10 +8717,10 @@
     </row>
     <row r="148" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="31" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D148" s="32" t="n">
         <v>3</v>
@@ -8727,7 +8730,7 @@
       </c>
       <c r="F148" s="23"/>
       <c r="G148" s="23" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H148" s="22" t="s">
         <v>27</v>
@@ -8764,10 +8767,10 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="31" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C149" s="32" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D149" s="32" t="n">
         <v>1</v>
@@ -8814,10 +8817,10 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="31" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C150" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D150" s="32" t="n">
         <v>1</v>
@@ -8833,7 +8836,7 @@
         <v>27</v>
       </c>
       <c r="I150" s="23" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J150" s="29" t="n">
         <f aca="false">J149+D149</f>
@@ -8866,10 +8869,10 @@
     </row>
     <row r="151" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="31" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D151" s="32" t="n">
         <v>1</v>
@@ -8885,7 +8888,7 @@
         <v>27</v>
       </c>
       <c r="I151" s="23" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J151" s="29" t="n">
         <f aca="false">J150+D150</f>
@@ -8938,10 +8941,10 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="31" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D153" s="32" t="n">
         <v>8</v>
@@ -8988,10 +8991,10 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="31" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D154" s="32" t="n">
         <v>8</v>
@@ -9038,10 +9041,10 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="31" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D155" s="32" t="n">
         <v>8</v>
@@ -9088,10 +9091,10 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="31" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D156" s="32" t="n">
         <v>8</v>
@@ -9148,7 +9151,7 @@
       <c r="G157" s="36"/>
       <c r="H157" s="35"/>
       <c r="I157" s="36" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J157" s="29" t="n">
         <f aca="false">J156+D156</f>
@@ -9175,7 +9178,7 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B160" s="31"/>
       <c r="C160" s="32"/>
@@ -9195,7 +9198,7 @@
         <v>57</v>
       </c>
       <c r="C161" s="32" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D161" s="32" t="n">
         <v>32</v>
@@ -9253,7 +9256,7 @@
       <c r="G162" s="36"/>
       <c r="H162" s="35"/>
       <c r="I162" s="36" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J162" s="29" t="n">
         <f aca="false">J161+D161</f>
@@ -9290,31 +9293,31 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="31" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C165" s="32" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D165" s="27" t="n">
         <v>32</v>
       </c>
       <c r="E165" s="38" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F165" s="23"/>
       <c r="G165" s="39" t="n">
         <v>1</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I165" s="28" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="J165" s="29" t="n">
         <f aca="false">J83</f>
@@ -9333,7 +9336,7 @@
         <v>14</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="O165" s="3" t="n">
         <v>5</v>
@@ -9347,10 +9350,10 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="31" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C166" s="32" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D166" s="27" t="n">
         <v>16</v>
@@ -9363,10 +9366,10 @@
         <v>1</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I166" s="28" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J166" s="29" t="n">
         <f aca="false">J165+D165</f>
@@ -9385,7 +9388,7 @@
         <v>15</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="O166" s="3" t="n">
         <v>5</v>
@@ -9399,16 +9402,16 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="31" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C167" s="32" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D167" s="27" t="n">
         <v>8</v>
       </c>
       <c r="E167" s="38" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F167" s="23"/>
       <c r="G167" s="22" t="n">
@@ -9418,7 +9421,7 @@
         <v>27</v>
       </c>
       <c r="I167" s="28" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="J167" s="29" t="n">
         <f aca="false">J166+D166</f>
@@ -9437,7 +9440,7 @@
         <v>15.5</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="O167" s="3" t="n">
         <v>5</v>
@@ -9451,10 +9454,10 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="31" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C168" s="32" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D168" s="27" t="n">
         <v>8</v>
@@ -9468,7 +9471,7 @@
         <v>27</v>
       </c>
       <c r="I168" s="28" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="J168" s="29" t="n">
         <f aca="false">J167+D167</f>
@@ -9510,7 +9513,7 @@
       <c r="G169" s="36"/>
       <c r="H169" s="35"/>
       <c r="I169" s="36" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J169" s="29" t="n">
         <f aca="false">J168+D168</f>
@@ -9531,15 +9534,15 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="31" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C173" s="32" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D173" s="27" t="n">
         <v>32</v>
@@ -9550,10 +9553,10 @@
         <v>1</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I173" s="28" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="J173" s="29" t="n">
         <f aca="false">J83</f>
@@ -9572,7 +9575,7 @@
         <v>14</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="O173" s="3" t="n">
         <v>5</v>
@@ -9586,10 +9589,10 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="31" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C174" s="32" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D174" s="27" t="n">
         <v>16</v>
@@ -9602,10 +9605,10 @@
         <v>1</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I174" s="28" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="J174" s="29" t="n">
         <f aca="false">J173+D173</f>
@@ -9624,7 +9627,7 @@
         <v>15</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="O174" s="3" t="n">
         <v>5</v>
@@ -9638,10 +9641,10 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="31" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C175" s="32" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D175" s="27" t="n">
         <v>16</v>
@@ -9652,7 +9655,7 @@
         <v>1</v>
       </c>
       <c r="I175" s="28" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J175" s="29" t="n">
         <f aca="false">J174+D174</f>
@@ -9671,7 +9674,7 @@
         <v>15.5</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="O175" s="3" t="n">
         <v>5</v>
@@ -9685,10 +9688,10 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="31" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C176" s="32" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D176" s="27" t="n">
         <v>32</v>
@@ -9699,7 +9702,7 @@
         <v>1</v>
       </c>
       <c r="I176" s="28" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J176" s="29" t="n">
         <f aca="false">J175+D175</f>
@@ -9718,7 +9721,7 @@
         <v>16</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="O176" s="3" t="n">
         <v>5</v>
@@ -9732,16 +9735,16 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="31" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C177" s="32" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D177" s="27" t="n">
         <v>8</v>
       </c>
       <c r="E177" s="38" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F177" s="23"/>
       <c r="G177" s="22" t="n">
@@ -9751,7 +9754,7 @@
         <v>27</v>
       </c>
       <c r="I177" s="28" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="J177" s="29" t="n">
         <f aca="false">J176+D176</f>
@@ -9770,7 +9773,7 @@
         <v>17</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="O177" s="3" t="n">
         <v>5</v>
@@ -9784,10 +9787,10 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="31" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C178" s="32" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D178" s="27" t="n">
         <v>24</v>
@@ -9844,7 +9847,7 @@
       <c r="G179" s="36"/>
       <c r="H179" s="35"/>
       <c r="I179" s="36" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J179" s="29" t="n">
         <f aca="false">J178+D178</f>
@@ -9870,15 +9873,15 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="31" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C184" s="32" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D184" s="27" t="n">
         <v>32</v>
@@ -9891,10 +9894,10 @@
         <v>1</v>
       </c>
       <c r="H184" s="39" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I184" s="28" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="J184" s="29" t="n">
         <f aca="false">J157</f>
@@ -9913,7 +9916,7 @@
         <v>22</v>
       </c>
       <c r="N184" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="O184" s="3" t="n">
         <v>10</v>
@@ -9927,10 +9930,10 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="31" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C185" s="32" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D185" s="27" t="n">
         <v>16</v>
@@ -9946,7 +9949,7 @@
         <v>27</v>
       </c>
       <c r="I185" s="28" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="J185" s="29" t="n">
         <f aca="false">J184+D184</f>
@@ -9965,7 +9968,7 @@
         <v>23</v>
       </c>
       <c r="N185" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="O185" s="3" t="n">
         <v>10</v>
@@ -9979,10 +9982,10 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="31" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C186" s="32" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D186" s="27" t="n">
         <v>8</v>
@@ -9998,7 +10001,7 @@
         <v>27</v>
       </c>
       <c r="I186" s="28" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J186" s="29" t="n">
         <f aca="false">J185+D185</f>
@@ -10017,7 +10020,7 @@
         <v>23.5</v>
       </c>
       <c r="N186" s="5" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="O186" s="24" t="n">
         <v>10</v>
@@ -10296,7 +10299,7 @@
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="40" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B194" s="11"/>
       <c r="C194" s="41"/>
@@ -10362,10 +10365,10 @@
     </row>
     <row r="196" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="31" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C196" s="22" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D196" s="22" t="n">
         <v>5248</v>
@@ -10383,7 +10386,7 @@
         <v>27</v>
       </c>
       <c r="I196" s="23" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="J196" s="4" t="n">
         <v>0</v>
@@ -10415,10 +10418,10 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="31" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C197" s="22" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D197" s="22" t="n">
         <v>7</v>
@@ -10455,10 +10458,10 @@
     </row>
     <row r="198" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="31" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C198" s="22" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D198" s="22" t="n">
         <v>1</v>
@@ -10472,7 +10475,7 @@
       </c>
       <c r="H198" s="22"/>
       <c r="I198" s="23" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="J198" s="4" t="n">
         <f aca="false">J197+D197</f>
@@ -10536,7 +10539,7 @@
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="42" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B201" s="11"/>
       <c r="C201" s="41"/>
@@ -10602,10 +10605,10 @@
     </row>
     <row r="203" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="31" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C203" s="22" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D203" s="22" t="n">
         <v>664</v>
@@ -10623,7 +10626,7 @@
         <v>27</v>
       </c>
       <c r="I203" s="23" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="J203" s="4" t="n">
         <v>0</v>
@@ -10655,10 +10658,10 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="31" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C204" s="22" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D204" s="22" t="n">
         <v>7</v>
@@ -10707,10 +10710,10 @@
     </row>
     <row r="205" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="31" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C205" s="22" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D205" s="22" t="n">
         <v>1</v>
@@ -10724,7 +10727,7 @@
       </c>
       <c r="H205" s="22"/>
       <c r="I205" s="23" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="J205" s="4" t="n">
         <f aca="false">J204+D204</f>
@@ -10781,7 +10784,7 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="42" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B210" s="11"/>
       <c r="C210" s="41"/>
@@ -10847,10 +10850,10 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="31" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D212" s="27" t="n">
         <v>32</v>
@@ -10863,10 +10866,10 @@
         <v>1</v>
       </c>
       <c r="H212" s="39" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="I212" s="28" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="J212" s="4" t="n">
         <f aca="false">J206</f>
@@ -10885,7 +10888,7 @@
         <v>21</v>
       </c>
       <c r="N212" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="O212" s="3" t="n">
         <v>8</v>
@@ -10899,10 +10902,10 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="31" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C213" s="32" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D213" s="27" t="n">
         <v>16</v>
@@ -10911,7 +10914,7 @@
         <v>26</v>
       </c>
       <c r="F213" s="23" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G213" s="39" t="n">
         <v>1</v>
@@ -10920,7 +10923,7 @@
         <v>27</v>
       </c>
       <c r="I213" s="28" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="J213" s="4" t="n">
         <f aca="false">J212+D212</f>
@@ -10939,7 +10942,7 @@
         <v>22</v>
       </c>
       <c r="N213" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="O213" s="3" t="n">
         <v>8</v>
@@ -10956,7 +10959,7 @@
         <v>28</v>
       </c>
       <c r="C214" s="32" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D214" s="27" t="n">
         <v>8</v>
@@ -10970,7 +10973,7 @@
         <v>27</v>
       </c>
       <c r="I214" s="28" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="J214" s="4" t="n">
         <f aca="false">J213+D213</f>
@@ -10989,7 +10992,7 @@
         <v>22.5</v>
       </c>
       <c r="N214" s="5" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="O214" s="24" t="n">
         <v>8</v>
@@ -11006,7 +11009,7 @@
         <v>28</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D215" s="27" t="n">
         <v>8</v>
@@ -11089,7 +11092,7 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="42" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="219" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11147,10 +11150,10 @@
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="43" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C220" s="38" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D220" s="38" t="n">
         <v>32</v>
@@ -11163,10 +11166,10 @@
         <v>133</v>
       </c>
       <c r="H220" s="38" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I220" s="38" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="J220" s="44" t="n">
         <v>0</v>
@@ -11184,7 +11187,7 @@
         <v>0</v>
       </c>
       <c r="N220" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="O220" s="3" t="n">
         <v>1</v>
@@ -11198,7 +11201,7 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B221" s="43"/>
       <c r="C221" s="38"/>
@@ -11215,10 +11218,10 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="43" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C222" s="38" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D222" s="38" t="n">
         <v>1</v>
@@ -11228,13 +11231,13 @@
       </c>
       <c r="F222" s="38"/>
       <c r="G222" s="38" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H222" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I222" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J222" s="44" t="n">
         <f aca="false">J220+D220</f>
@@ -11253,7 +11256,7 @@
         <v>1</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="O222" s="3" t="n">
         <v>1</v>
@@ -11267,10 +11270,10 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="43" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C223" s="38" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D223" s="38" t="n">
         <v>5</v>
@@ -11284,7 +11287,7 @@
       </c>
       <c r="H223" s="38"/>
       <c r="I223" s="38" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J223" s="44" t="n">
         <f aca="false">J222+D222</f>
@@ -11303,7 +11306,7 @@
         <v>1.03125</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="O223" s="3" t="n">
         <v>1</v>
@@ -11317,10 +11320,10 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="43" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C224" s="38" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D224" s="38" t="n">
         <v>4</v>
@@ -11336,7 +11339,7 @@
         <v>27</v>
       </c>
       <c r="I224" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J224" s="44" t="n">
         <f aca="false">J223+D223</f>
@@ -11355,7 +11358,7 @@
         <v>1.1875</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="O224" s="3" t="n">
         <v>1</v>
@@ -11369,10 +11372,10 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="43" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C225" s="38" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D225" s="38" t="n">
         <v>5</v>
@@ -11388,7 +11391,7 @@
         <v>27</v>
       </c>
       <c r="I225" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J225" s="44" t="n">
         <f aca="false">J224+D224</f>
@@ -11407,7 +11410,7 @@
         <v>1.3125</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="O225" s="3" t="n">
         <v>1</v>
@@ -11421,10 +11424,10 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="43" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C226" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D226" s="38" t="n">
         <v>6</v>
@@ -11440,7 +11443,7 @@
         <v>27</v>
       </c>
       <c r="I226" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J226" s="44" t="n">
         <f aca="false">J225+D225</f>
@@ -11459,7 +11462,7 @@
         <v>1.46875</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="O226" s="3" t="n">
         <v>1</v>
@@ -11473,10 +11476,10 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="43" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C227" s="38" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D227" s="38" t="n">
         <v>6</v>
@@ -11492,7 +11495,7 @@
         <v>27</v>
       </c>
       <c r="I227" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J227" s="44" t="n">
         <f aca="false">J226+D226</f>
@@ -11511,7 +11514,7 @@
         <v>1.65625</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="O227" s="3" t="n">
         <v>1</v>
@@ -11525,10 +11528,10 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="43" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C228" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D228" s="38" t="n">
         <v>5</v>
@@ -11544,7 +11547,7 @@
         <v>27</v>
       </c>
       <c r="I228" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J228" s="44" t="n">
         <f aca="false">J227+D227</f>
@@ -11563,7 +11566,7 @@
         <v>1.84375</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="O228" s="3" t="n">
         <v>1</v>
@@ -11577,7 +11580,7 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B229" s="43"/>
       <c r="C229" s="38"/>
@@ -11594,10 +11597,10 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="43" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C230" s="38" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D230" s="38" t="n">
         <v>8</v>
@@ -11613,7 +11616,7 @@
         <v>71</v>
       </c>
       <c r="I230" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J230" s="44" t="n">
         <f aca="false">J228+D228</f>
@@ -11632,7 +11635,7 @@
         <v>2</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="O230" s="3" t="n">
         <v>1</v>
@@ -11646,10 +11649,10 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="43" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C231" s="38" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D231" s="38" t="n">
         <v>8</v>
@@ -11665,7 +11668,7 @@
         <v>71</v>
       </c>
       <c r="I231" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J231" s="44" t="n">
         <f aca="false">J230+D230</f>
@@ -11684,7 +11687,7 @@
         <v>2.25</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="O231" s="3" t="n">
         <v>1</v>
@@ -11698,10 +11701,10 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="43" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C232" s="38" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D232" s="38" t="n">
         <v>16</v>
@@ -11717,7 +11720,7 @@
         <v>27</v>
       </c>
       <c r="I232" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J232" s="44" t="n">
         <f aca="false">J231+D231</f>
@@ -11780,7 +11783,7 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="42" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F234" s="38"/>
       <c r="G234" s="38"/>
@@ -11864,10 +11867,10 @@
     </row>
     <row r="237" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="21" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C237" s="45" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D237" s="1" t="n">
         <v>5</v>
@@ -11883,7 +11886,7 @@
         <v>27</v>
       </c>
       <c r="I237" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J237" s="44" t="n">
         <f aca="false">J233</f>
@@ -11916,10 +11919,10 @@
     </row>
     <row r="238" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="21" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C238" s="45" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D238" s="1" t="n">
         <v>1</v>
@@ -11929,13 +11932,13 @@
       </c>
       <c r="F238" s="46"/>
       <c r="G238" s="38" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H238" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I238" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J238" s="44" t="n">
         <f aca="false">J237+D237</f>
@@ -11954,7 +11957,7 @@
         <v>3.15625</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="O238" s="3" t="n">
         <v>1</v>
@@ -11968,10 +11971,10 @@
     </row>
     <row r="239" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="21" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C239" s="45" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D239" s="1" t="n">
         <v>1</v>
@@ -11981,13 +11984,13 @@
       </c>
       <c r="F239" s="46"/>
       <c r="G239" s="38" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H239" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I239" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J239" s="44" t="n">
         <f aca="false">J238+D238</f>
@@ -12006,7 +12009,7 @@
         <v>3.1875</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="O239" s="3" t="n">
         <v>2</v>
@@ -12020,10 +12023,10 @@
     </row>
     <row r="240" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="21" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C240" s="45" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D240" s="1" t="n">
         <v>3</v>
@@ -12039,7 +12042,7 @@
         <v>27</v>
       </c>
       <c r="I240" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J240" s="44" t="n">
         <f aca="false">J239+D239</f>
@@ -12058,7 +12061,7 @@
         <v>3.21875</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="O240" s="3" t="n">
         <v>2</v>
@@ -12072,10 +12075,10 @@
     </row>
     <row r="241" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="21" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C241" s="45" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D241" s="1" t="n">
         <v>4</v>
@@ -12085,13 +12088,13 @@
       </c>
       <c r="F241" s="46"/>
       <c r="G241" s="38" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H241" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I241" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J241" s="44" t="n">
         <f aca="false">J240+D240</f>
@@ -12110,7 +12113,7 @@
         <v>3.3125</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="O241" s="3" t="n">
         <v>2</v>
@@ -12124,10 +12127,10 @@
     </row>
     <row r="242" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="21" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C242" s="45" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D242" s="1" t="n">
         <v>4</v>
@@ -12137,13 +12140,13 @@
       </c>
       <c r="F242" s="46"/>
       <c r="G242" s="38" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H242" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I242" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J242" s="44" t="n">
         <f aca="false">J241+D241</f>
@@ -12162,7 +12165,7 @@
         <v>3.4375</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="O242" s="3" t="n">
         <v>2</v>
@@ -12176,10 +12179,10 @@
     </row>
     <row r="243" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="21" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C243" s="45" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D243" s="1" t="n">
         <v>5</v>
@@ -12189,13 +12192,13 @@
       </c>
       <c r="F243" s="46"/>
       <c r="G243" s="38" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H243" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I243" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J243" s="44" t="n">
         <f aca="false">J242+D242</f>
@@ -12214,7 +12217,7 @@
         <v>3.5625</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="O243" s="3" t="n">
         <v>2</v>
@@ -12228,10 +12231,10 @@
     </row>
     <row r="244" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="21" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C244" s="45" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D244" s="1" t="n">
         <v>9</v>
@@ -12247,7 +12250,7 @@
         <v>27</v>
       </c>
       <c r="I244" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J244" s="44" t="n">
         <f aca="false">J243+D243</f>
@@ -12266,7 +12269,7 @@
         <v>3.71875</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="O244" s="3" t="n">
         <v>2</v>
@@ -12299,10 +12302,10 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="47" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D246" s="1" t="n">
         <v>8</v>
@@ -12318,7 +12321,7 @@
         <v>27</v>
       </c>
       <c r="I246" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J246" s="44" t="n">
         <f aca="false">J244+D244</f>
@@ -12337,7 +12340,7 @@
         <v>4</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O246" s="3" t="n">
         <v>3</v>
@@ -12351,10 +12354,10 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="47" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D247" s="1" t="n">
         <v>8</v>
@@ -12370,7 +12373,7 @@
         <v>27</v>
       </c>
       <c r="I247" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J247" s="44" t="n">
         <f aca="false">J246+D246</f>
@@ -12389,7 +12392,7 @@
         <v>4.25</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O247" s="3" t="n">
         <v>3</v>
@@ -12403,10 +12406,10 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="47" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D248" s="1" t="n">
         <v>8</v>
@@ -12422,7 +12425,7 @@
         <v>27</v>
       </c>
       <c r="I248" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J248" s="44" t="n">
         <f aca="false">J247+D247</f>
@@ -12441,7 +12444,7 @@
         <v>4.5</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O248" s="3" t="n">
         <v>3</v>
@@ -12455,10 +12458,10 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="47" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D249" s="1" t="n">
         <v>8</v>
@@ -12474,7 +12477,7 @@
         <v>27</v>
       </c>
       <c r="I249" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J249" s="44" t="n">
         <f aca="false">J248+D248</f>
@@ -12493,7 +12496,7 @@
         <v>4.75</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O249" s="3" t="n">
         <v>3</v>
@@ -12507,10 +12510,10 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="47" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D250" s="1" t="n">
         <v>8</v>
@@ -12526,7 +12529,7 @@
         <v>27</v>
       </c>
       <c r="I250" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J250" s="44" t="n">
         <f aca="false">J249+D249</f>
@@ -12545,7 +12548,7 @@
         <v>5</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O250" s="3" t="n">
         <v>3</v>
@@ -12559,10 +12562,10 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="47" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D251" s="1" t="n">
         <v>8</v>
@@ -12578,7 +12581,7 @@
         <v>27</v>
       </c>
       <c r="I251" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J251" s="44" t="n">
         <f aca="false">J250+D250</f>
@@ -12597,7 +12600,7 @@
         <v>5.25</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O251" s="3" t="n">
         <v>3</v>
@@ -12611,10 +12614,10 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="47" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D252" s="1" t="n">
         <v>8</v>
@@ -12630,7 +12633,7 @@
         <v>27</v>
       </c>
       <c r="I252" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J252" s="44" t="n">
         <f aca="false">J251+D251</f>
@@ -12649,7 +12652,7 @@
         <v>5.5</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O252" s="3" t="n">
         <v>3</v>
@@ -12663,10 +12666,10 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="47" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D253" s="1" t="n">
         <v>8</v>
@@ -12682,7 +12685,7 @@
         <v>27</v>
       </c>
       <c r="I253" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J253" s="44" t="n">
         <f aca="false">J252+D252</f>
@@ -12701,7 +12704,7 @@
         <v>5.75</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O253" s="3" t="n">
         <v>3</v>
@@ -12715,10 +12718,10 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="47" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D254" s="1" t="n">
         <v>8</v>
@@ -12734,7 +12737,7 @@
         <v>27</v>
       </c>
       <c r="I254" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J254" s="44" t="n">
         <f aca="false">J253+D253</f>
@@ -12753,7 +12756,7 @@
         <v>6</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O254" s="3" t="n">
         <v>3</v>
@@ -12767,10 +12770,10 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="47" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D255" s="1" t="n">
         <v>8</v>
@@ -12786,7 +12789,7 @@
         <v>27</v>
       </c>
       <c r="I255" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J255" s="44" t="n">
         <f aca="false">J254+D254</f>
@@ -12805,7 +12808,7 @@
         <v>6.25</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O255" s="3" t="n">
         <v>3</v>
@@ -12819,10 +12822,10 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="47" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D256" s="1" t="n">
         <v>8</v>
@@ -12838,7 +12841,7 @@
         <v>27</v>
       </c>
       <c r="I256" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J256" s="44" t="n">
         <f aca="false">J255+D255</f>
@@ -12857,7 +12860,7 @@
         <v>6.5</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O256" s="3" t="n">
         <v>3</v>
@@ -12871,10 +12874,10 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="47" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D257" s="1" t="n">
         <v>8</v>
@@ -12890,7 +12893,7 @@
         <v>27</v>
       </c>
       <c r="I257" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J257" s="44" t="n">
         <f aca="false">J256+D256</f>
@@ -12909,7 +12912,7 @@
         <v>6.75</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O257" s="3" t="n">
         <v>3</v>
@@ -12923,10 +12926,10 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="47" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D258" s="1" t="n">
         <v>8</v>
@@ -12942,7 +12945,7 @@
         <v>27</v>
       </c>
       <c r="I258" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J258" s="44" t="n">
         <f aca="false">J257+D257</f>
@@ -12961,7 +12964,7 @@
         <v>7</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O258" s="3" t="n">
         <v>3</v>
@@ -12975,10 +12978,10 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="47" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D259" s="1" t="n">
         <v>16</v>
@@ -12996,7 +12999,7 @@
         <v>27</v>
       </c>
       <c r="I259" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J259" s="44" t="n">
         <f aca="false">J258+D258</f>
@@ -13015,7 +13018,7 @@
         <v>7.25</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="O259" s="3" t="n">
         <v>1</v>
@@ -13029,10 +13032,10 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="47" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D260" s="1" t="n">
         <v>8</v>
@@ -13048,7 +13051,7 @@
         <v>27</v>
       </c>
       <c r="I260" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J260" s="44" t="n">
         <f aca="false">J259+D259</f>
@@ -13067,7 +13070,7 @@
         <v>7.75</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="O260" s="3" t="n">
         <v>2</v>
@@ -13155,7 +13158,7 @@
   <dimension ref="B6:Q1031"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="1" sqref="G123 C33"/>
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13169,22 +13172,22 @@
     <row r="6" s="49" customFormat="true" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="50"/>
       <c r="C6" s="50" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>504</v>
+        <v>279</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I6" s="50"/>
     </row>
@@ -13554,10 +13557,10 @@
     </row>
     <row r="26" s="1" customFormat="true" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="32" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D26" s="27" t="n">
         <v>16</v>
@@ -13570,10 +13573,10 @@
         <v>1</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J26" s="29" t="n">
         <f aca="false">DownlinkSpecLTM!J166+DownlinkSpecLTM!D166</f>
@@ -13592,7 +13595,7 @@
         <v>15.5</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="O26" s="3" t="n">
         <v>6</v>
@@ -13606,10 +13609,10 @@
     </row>
     <row r="27" s="1" customFormat="true" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="32" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D27" s="27" t="n">
         <v>32</v>
@@ -13620,10 +13623,10 @@
         <v>1</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="J27" s="29" t="n">
         <f aca="false">J26+D26</f>
@@ -13642,7 +13645,7 @@
         <v>16</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="O27" s="3" t="n">
         <v>6</v>
@@ -13656,16 +13659,16 @@
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="52" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E30" s="52" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F30" s="52"/>
     </row>

--- a/genSpacecraft/DownlinkSpecLTM.xlsx
+++ b/genSpacecraft/DownlinkSpecLTM.xlsx
@@ -731,22 +731,22 @@
     <t xml:space="preserve">Structure: commonRtWodPayload_t,file:common2Downlink.h</t>
   </si>
   <si>
-    <t xml:space="preserve">Deploy Sense via CAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeploySenseCan</t>
+    <t xml:space="preserve">Deployable Sense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeploySense</t>
   </si>
   <si>
     <t xml:space="preserve">DeployableStatus_t</t>
   </si>
   <si>
+    <t xml:space="preserve">BIN8</t>
+  </si>
+  <si>
     <t xml:space="preserve">TBD</t>
   </si>
   <si>
-    <t xml:space="preserve">Deploy Sense via I2c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeploySenseI2c</t>
+    <t xml:space="preserve">spare28</t>
   </si>
   <si>
     <t xml:space="preserve">de</t>
@@ -794,16 +794,19 @@
     <t xml:space="preserve">I2CfailureICR</t>
   </si>
   <si>
-    <t xml:space="preserve">Antenna is not communicating over bus 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2c Deploy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2CFailureDeploy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antenna is not communicating over bus 1</t>
+    <t xml:space="preserve">ICR I2c ADC Not Working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deploy Sense Ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeploySenseOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATUS_1_EQ_OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antenna sensor is ok</t>
   </si>
   <si>
     <t xml:space="preserve">Min/Max Resets</t>
@@ -975,9 +978,6 @@
   </si>
   <si>
     <t xml:space="preserve">hostBits19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATUS_1_EQ_OK</t>
   </si>
   <si>
     <t xml:space="preserve">Detumble</t>
@@ -1943,8 +1943,8 @@
   </sheetPr>
   <dimension ref="A1:Q263"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B104" activeCellId="0" sqref="B104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G97" activeCellId="0" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5705,7 +5705,7 @@
       <c r="L86" s="28"/>
       <c r="M86" s="28"/>
     </row>
-    <row r="87" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="31" t="s">
         <v>236</v>
       </c>
@@ -5721,14 +5721,14 @@
       <c r="F87" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="G87" s="22" t="n">
-        <v>16</v>
+      <c r="G87" s="22" t="s">
+        <v>239</v>
       </c>
       <c r="H87" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I87" s="23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J87" s="29" t="n">
         <f aca="false">J83</f>
@@ -5759,9 +5759,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="31" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C88" s="32" t="s">
         <v>241</v>
@@ -5772,17 +5772,13 @@
       <c r="E88" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F88" s="23" t="s">
-        <v>238</v>
-      </c>
+      <c r="F88" s="23"/>
       <c r="G88" s="22" t="n">
-        <v>16</v>
-      </c>
-      <c r="H88" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I88" s="23" t="s">
-        <v>239</v>
+        <v>0</v>
+      </c>
+      <c r="H88" s="22"/>
+      <c r="I88" s="32" t="s">
+        <v>230</v>
       </c>
       <c r="J88" s="29" t="n">
         <f aca="false">J87+D87</f>
@@ -5800,14 +5796,14 @@
         <f aca="false">J88/32</f>
         <v>14.25</v>
       </c>
-      <c r="N88" s="5" t="s">
-        <v>185</v>
+      <c r="N88" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="O88" s="24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P88" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q88" s="1" t="n">
         <v>0</v>
@@ -5928,7 +5924,7 @@
         <v>2</v>
       </c>
       <c r="P91" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q91" s="1" t="n">
         <v>0</v>
@@ -5980,7 +5976,7 @@
         <v>2</v>
       </c>
       <c r="P92" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q92" s="1" t="n">
         <v>0</v>
@@ -6140,7 +6136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="33" t="s">
         <v>255</v>
       </c>
@@ -6192,7 +6188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="33" t="s">
         <v>258</v>
       </c>
@@ -6206,14 +6202,14 @@
         <v>26</v>
       </c>
       <c r="F97" s="23"/>
-      <c r="G97" s="23" t="n">
-        <v>17</v>
+      <c r="G97" s="22" t="s">
+        <v>260</v>
       </c>
       <c r="H97" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I97" s="23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J97" s="29" t="n">
         <f aca="false">J96+D96</f>
@@ -6238,7 +6234,7 @@
         <v>2</v>
       </c>
       <c r="P97" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q97" s="1" t="n">
         <v>0</v>
@@ -6266,10 +6262,10 @@
     </row>
     <row r="99" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="31" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D99" s="32" t="n">
         <v>8</v>
@@ -6285,7 +6281,7 @@
         <v>27</v>
       </c>
       <c r="I99" s="23" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J99" s="29" t="n">
         <f aca="false">J97+D97</f>
@@ -6310,7 +6306,7 @@
         <v>2</v>
       </c>
       <c r="P99" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q99" s="1" t="n">
         <v>0</v>
@@ -6318,10 +6314,10 @@
     </row>
     <row r="100" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="31" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D100" s="32" t="n">
         <v>8</v>
@@ -6337,7 +6333,7 @@
         <v>27</v>
       </c>
       <c r="I100" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J100" s="29" t="n">
         <f aca="false">J99+D99</f>
@@ -6362,7 +6358,7 @@
         <v>2</v>
       </c>
       <c r="P100" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q100" s="1" t="n">
         <v>0</v>
@@ -6370,10 +6366,10 @@
     </row>
     <row r="101" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D101" s="32" t="n">
         <v>32</v>
@@ -6391,7 +6387,7 @@
         <v>27</v>
       </c>
       <c r="I101" s="23" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J101" s="29" t="n">
         <f aca="false">J100+D100</f>
@@ -6424,10 +6420,10 @@
     </row>
     <row r="102" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D102" s="32" t="n">
         <v>8</v>
@@ -6443,7 +6439,7 @@
         <v>27</v>
       </c>
       <c r="I102" s="23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J102" s="29" t="n">
         <f aca="false">J101+D101</f>
@@ -6476,10 +6472,10 @@
     </row>
     <row r="103" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D103" s="32" t="n">
         <v>8</v>
@@ -6495,7 +6491,7 @@
         <v>27</v>
       </c>
       <c r="I103" s="23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J103" s="29" t="n">
         <f aca="false">J102+D102</f>
@@ -6528,10 +6524,10 @@
     </row>
     <row r="104" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D104" s="32" t="n">
         <v>8</v>
@@ -6541,13 +6537,13 @@
       </c>
       <c r="F104" s="23"/>
       <c r="G104" s="23" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H104" s="22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I104" s="23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J104" s="29" t="n">
         <f aca="false">J103+D103</f>
@@ -6580,10 +6576,10 @@
     </row>
     <row r="105" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D105" s="32" t="n">
         <v>1</v>
@@ -6593,13 +6589,13 @@
       </c>
       <c r="F105" s="23"/>
       <c r="G105" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H105" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I105" s="32" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J105" s="29" t="n">
         <f aca="false">J104+D104</f>
@@ -6632,10 +6628,10 @@
     </row>
     <row r="106" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="31" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D106" s="32" t="n">
         <v>1</v>
@@ -6645,7 +6641,7 @@
       </c>
       <c r="F106" s="23"/>
       <c r="G106" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H106" s="22" t="s">
         <v>27</v>
@@ -6682,10 +6678,10 @@
     </row>
     <row r="107" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D107" s="32" t="n">
         <v>1</v>
@@ -6695,7 +6691,7 @@
       </c>
       <c r="F107" s="23"/>
       <c r="G107" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H107" s="22" t="s">
         <v>27</v>
@@ -6732,10 +6728,10 @@
     </row>
     <row r="108" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D108" s="32" t="n">
         <v>1</v>
@@ -6745,7 +6741,7 @@
       </c>
       <c r="F108" s="23"/>
       <c r="G108" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H108" s="22" t="s">
         <v>27</v>
@@ -6782,10 +6778,10 @@
     </row>
     <row r="109" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D109" s="32" t="n">
         <v>1</v>
@@ -6795,7 +6791,7 @@
       </c>
       <c r="F109" s="23"/>
       <c r="G109" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H109" s="22" t="s">
         <v>27</v>
@@ -6818,7 +6814,7 @@
         <v>17.125</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O109" s="24" t="n">
         <v>9</v>
@@ -6832,10 +6828,10 @@
     </row>
     <row r="110" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="31" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D110" s="32" t="n">
         <v>1</v>
@@ -6845,7 +6841,7 @@
       </c>
       <c r="F110" s="23"/>
       <c r="G110" s="22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H110" s="22" t="s">
         <v>27</v>
@@ -6868,7 +6864,7 @@
         <v>17.15625</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O110" s="24" t="n">
         <v>9</v>
@@ -6882,10 +6878,10 @@
     </row>
     <row r="111" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="31" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D111" s="32" t="n">
         <v>1</v>
@@ -6895,7 +6891,7 @@
       </c>
       <c r="F111" s="23"/>
       <c r="G111" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H111" s="22" t="s">
         <v>27</v>
@@ -6918,7 +6914,7 @@
         <v>17.1875</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O111" s="24" t="n">
         <v>9</v>
@@ -6932,10 +6928,10 @@
     </row>
     <row r="112" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="31" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D112" s="32" t="n">
         <v>1</v>
@@ -6945,7 +6941,7 @@
       </c>
       <c r="F112" s="23"/>
       <c r="G112" s="22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H112" s="22" t="s">
         <v>27</v>
@@ -6968,7 +6964,7 @@
         <v>17.21875</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O112" s="24" t="n">
         <v>9</v>
@@ -6982,10 +6978,10 @@
     </row>
     <row r="113" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="31" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D113" s="32" t="n">
         <v>1</v>
@@ -6995,13 +6991,13 @@
       </c>
       <c r="F113" s="23"/>
       <c r="G113" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H113" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I113" s="32" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J113" s="29" t="n">
         <f aca="false">J112+D112</f>
@@ -7020,7 +7016,7 @@
         <v>17.25</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O113" s="24" t="n">
         <v>9</v>
@@ -7034,10 +7030,10 @@
     </row>
     <row r="114" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="31" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D114" s="32" t="n">
         <v>1</v>
@@ -7047,7 +7043,7 @@
       </c>
       <c r="F114" s="23"/>
       <c r="G114" s="22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H114" s="22" t="s">
         <v>27</v>
@@ -7070,7 +7066,7 @@
         <v>17.28125</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O114" s="24" t="n">
         <v>9</v>
@@ -7084,10 +7080,10 @@
     </row>
     <row r="115" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D115" s="32" t="n">
         <v>1</v>
@@ -7097,7 +7093,7 @@
       </c>
       <c r="F115" s="23"/>
       <c r="G115" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H115" s="22" t="s">
         <v>27</v>
@@ -7120,7 +7116,7 @@
         <v>17.3125</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O115" s="24" t="n">
         <v>9</v>
@@ -7134,10 +7130,10 @@
     </row>
     <row r="116" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="31" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D116" s="32" t="n">
         <v>1</v>
@@ -7147,7 +7143,7 @@
       </c>
       <c r="F116" s="23"/>
       <c r="G116" s="22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H116" s="22" t="s">
         <v>27</v>
@@ -7170,7 +7166,7 @@
         <v>17.34375</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O116" s="24" t="n">
         <v>9</v>
@@ -7184,10 +7180,10 @@
     </row>
     <row r="117" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="31" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D117" s="32" t="n">
         <v>1</v>
@@ -7197,7 +7193,7 @@
       </c>
       <c r="F117" s="23"/>
       <c r="G117" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H117" s="22" t="s">
         <v>27</v>
@@ -7220,7 +7216,7 @@
         <v>17.375</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O117" s="24" t="n">
         <v>9</v>
@@ -7234,10 +7230,10 @@
     </row>
     <row r="118" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="31" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D118" s="32" t="n">
         <v>1</v>
@@ -7247,7 +7243,7 @@
       </c>
       <c r="F118" s="23"/>
       <c r="G118" s="22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H118" s="22" t="s">
         <v>27</v>
@@ -7270,7 +7266,7 @@
         <v>17.40625</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O118" s="24" t="n">
         <v>9</v>
@@ -7284,10 +7280,10 @@
     </row>
     <row r="119" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D119" s="32" t="n">
         <v>1</v>
@@ -7297,7 +7293,7 @@
       </c>
       <c r="F119" s="23"/>
       <c r="G119" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H119" s="22" t="s">
         <v>27</v>
@@ -7320,7 +7316,7 @@
         <v>17.4375</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O119" s="24" t="n">
         <v>9</v>
@@ -7334,10 +7330,10 @@
     </row>
     <row r="120" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="31" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D120" s="32" t="n">
         <v>1</v>
@@ -7347,7 +7343,7 @@
       </c>
       <c r="F120" s="23"/>
       <c r="G120" s="22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H120" s="22" t="s">
         <v>27</v>
@@ -7370,7 +7366,7 @@
         <v>17.46875</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O120" s="24" t="n">
         <v>9</v>
@@ -7384,10 +7380,10 @@
     </row>
     <row r="121" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="31" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D121" s="32" t="n">
         <v>1</v>
@@ -7397,13 +7393,13 @@
       </c>
       <c r="F121" s="23"/>
       <c r="G121" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H121" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I121" s="32" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J121" s="29" t="n">
         <f aca="false">J120+D120</f>
@@ -7422,7 +7418,7 @@
         <v>17.5</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O121" s="24" t="n">
         <v>9</v>
@@ -7436,10 +7432,10 @@
     </row>
     <row r="122" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="31" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D122" s="32" t="n">
         <v>1</v>
@@ -7449,7 +7445,7 @@
       </c>
       <c r="F122" s="23"/>
       <c r="G122" s="22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H122" s="22" t="s">
         <v>27</v>
@@ -7472,7 +7468,7 @@
         <v>17.53125</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O122" s="24" t="n">
         <v>9</v>
@@ -7486,10 +7482,10 @@
     </row>
     <row r="123" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D123" s="32" t="n">
         <v>1</v>
@@ -7499,7 +7495,7 @@
       </c>
       <c r="F123" s="23"/>
       <c r="G123" s="22" t="s">
-        <v>318</v>
+        <v>260</v>
       </c>
       <c r="H123" s="22" t="s">
         <v>27</v>
@@ -7522,7 +7518,7 @@
         <v>17.5625</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O123" s="24" t="n">
         <v>9</v>
@@ -7549,7 +7545,7 @@
       </c>
       <c r="F124" s="23"/>
       <c r="G124" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H124" s="22" t="s">
         <v>27</v>
@@ -7572,7 +7568,7 @@
         <v>17.59375</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O124" s="24" t="n">
         <v>9</v>
@@ -7586,7 +7582,7 @@
     </row>
     <row r="125" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="31" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C125" s="32" t="s">
         <v>321</v>
@@ -7599,7 +7595,7 @@
       </c>
       <c r="F125" s="23"/>
       <c r="G125" s="22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H125" s="22" t="s">
         <v>27</v>
@@ -7622,7 +7618,7 @@
         <v>17.625</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O125" s="24" t="n">
         <v>9</v>
@@ -7636,7 +7632,7 @@
     </row>
     <row r="126" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C126" s="32" t="s">
         <v>322</v>
@@ -7649,7 +7645,7 @@
       </c>
       <c r="F126" s="23"/>
       <c r="G126" s="22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H126" s="22" t="s">
         <v>27</v>
@@ -7672,7 +7668,7 @@
         <v>17.65625</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O126" s="24" t="n">
         <v>9</v>
@@ -7799,7 +7795,7 @@
       </c>
       <c r="F129" s="23"/>
       <c r="G129" s="22" t="s">
-        <v>318</v>
+        <v>260</v>
       </c>
       <c r="H129" s="22" t="s">
         <v>27</v>
@@ -7849,7 +7845,7 @@
       </c>
       <c r="F130" s="23"/>
       <c r="G130" s="22" t="s">
-        <v>318</v>
+        <v>260</v>
       </c>
       <c r="H130" s="22" t="s">
         <v>27</v>
@@ -7899,7 +7895,7 @@
       </c>
       <c r="F131" s="23"/>
       <c r="G131" s="22" t="s">
-        <v>318</v>
+        <v>260</v>
       </c>
       <c r="H131" s="22" t="s">
         <v>27</v>
@@ -7949,7 +7945,7 @@
       </c>
       <c r="F132" s="23"/>
       <c r="G132" s="22" t="s">
-        <v>318</v>
+        <v>260</v>
       </c>
       <c r="H132" s="22"/>
       <c r="I132" s="32"/>
@@ -7970,7 +7966,7 @@
         <v>17.875</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O132" s="24" t="n">
         <v>9</v>
@@ -8053,7 +8049,7 @@
         <v>27</v>
       </c>
       <c r="I134" s="23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J134" s="29" t="n">
         <f aca="false">J133+D133</f>
@@ -8078,7 +8074,7 @@
         <v>2</v>
       </c>
       <c r="P134" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q134" s="1" t="n">
         <v>0</v>
@@ -8759,7 +8755,7 @@
         <v>2</v>
       </c>
       <c r="P148" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q148" s="1" t="n">
         <v>0</v>
@@ -8809,7 +8805,7 @@
         <v>2</v>
       </c>
       <c r="P149" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q149" s="1" t="n">
         <v>0</v>
@@ -10095,7 +10091,7 @@
         <v>2</v>
       </c>
       <c r="P188" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q188" s="1" t="n">
         <v>0</v>
@@ -10147,7 +10143,7 @@
         <v>2</v>
       </c>
       <c r="P189" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q189" s="1" t="n">
         <v>0</v>
@@ -10199,7 +10195,7 @@
         <v>2</v>
       </c>
       <c r="P190" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q190" s="1" t="n">
         <v>0</v>
@@ -11023,7 +11019,7 @@
         <v>27</v>
       </c>
       <c r="I215" s="28" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J215" s="4" t="n">
         <f aca="false">J214+D214</f>
@@ -13158,10 +13154,10 @@
   <dimension ref="B6:Q1031"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+      <selection pane="topLeft" activeCell="C33" activeCellId="1" sqref="G97 C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="40" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="40" width="16.11"/>
@@ -13184,7 +13180,7 @@
         <v>505</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H6" s="50" t="s">
         <v>506</v>

--- a/genSpacecraft/DownlinkSpecLTM.xlsx
+++ b/genSpacecraft/DownlinkSpecLTM.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="518">
   <si>
     <t xml:space="preserve">//</t>
   </si>
@@ -1341,6 +1341,15 @@
   </si>
   <si>
     <t xml:space="preserve">General Info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SecondsInEpoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secsInEpoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seconds within current Epoch</t>
   </si>
   <si>
     <t xml:space="preserve">#ifdef LEGACY_IHU</t>
@@ -1941,10 +1950,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q263"/>
+  <dimension ref="A1:Q264"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G97" activeCellId="0" sqref="G97"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A211" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q221" activeCellId="0" sqref="Q221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11196,73 +11205,73 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="1" t="s">
+      <c r="B221" s="43" t="s">
         <v>440</v>
       </c>
-      <c r="B221" s="43"/>
-      <c r="C221" s="38"/>
-      <c r="D221" s="38"/>
-      <c r="E221" s="38"/>
+      <c r="C221" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="D221" s="38" t="n">
+        <v>32</v>
+      </c>
+      <c r="E221" s="38" t="s">
+        <v>26</v>
+      </c>
       <c r="F221" s="38"/>
-      <c r="G221" s="38"/>
-      <c r="H221" s="38"/>
-      <c r="I221" s="38"/>
-      <c r="J221" s="44"/>
-      <c r="K221" s="38"/>
-      <c r="L221" s="28"/>
-      <c r="M221" s="28"/>
-    </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B222" s="43" t="s">
-        <v>441</v>
-      </c>
-      <c r="C222" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="D222" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="E222" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="F222" s="38"/>
-      <c r="G222" s="38" t="s">
+      <c r="G221" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="H221" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="I221" s="38" t="s">
         <v>442</v>
       </c>
-      <c r="H222" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="I222" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="J222" s="44" t="n">
+      <c r="J221" s="44" t="n">
         <f aca="false">J220+D220</f>
         <v>32</v>
       </c>
-      <c r="K222" s="38" t="n">
-        <f aca="false">J222/8</f>
+      <c r="K221" s="38" t="n">
+        <f aca="false">J221/8</f>
         <v>4</v>
       </c>
-      <c r="L222" s="28" t="n">
-        <f aca="false">J222/16</f>
+      <c r="L221" s="28" t="n">
+        <f aca="false">J221/16</f>
         <v>2</v>
       </c>
-      <c r="M222" s="28" t="n">
-        <f aca="false">J222/32</f>
+      <c r="M221" s="28" t="n">
+        <f aca="false">J221/32</f>
         <v>1</v>
       </c>
-      <c r="N222" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="O222" s="3" t="n">
+      <c r="O221" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="P222" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q222" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="P221" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q221" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B222" s="43"/>
+      <c r="C222" s="38"/>
+      <c r="D222" s="38"/>
+      <c r="E222" s="38"/>
+      <c r="F222" s="38"/>
+      <c r="G222" s="38"/>
+      <c r="H222" s="38"/>
+      <c r="I222" s="38"/>
+      <c r="J222" s="44"/>
+      <c r="K222" s="38"/>
+      <c r="L222" s="28"/>
+      <c r="M222" s="28"/>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="43" t="s">
@@ -11272,34 +11281,36 @@
         <v>444</v>
       </c>
       <c r="D223" s="38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E223" s="38" t="s">
         <v>26</v>
       </c>
       <c r="F223" s="38"/>
       <c r="G223" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="H223" s="38"/>
+        <v>445</v>
+      </c>
+      <c r="H223" s="38" t="s">
+        <v>27</v>
+      </c>
       <c r="I223" s="38" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J223" s="44" t="n">
-        <f aca="false">J222+D222</f>
-        <v>33</v>
+        <f aca="false">J221+D221</f>
+        <v>64</v>
       </c>
       <c r="K223" s="38" t="n">
         <f aca="false">J223/8</f>
-        <v>4.125</v>
+        <v>8</v>
       </c>
       <c r="L223" s="28" t="n">
         <f aca="false">J223/16</f>
-        <v>2.0625</v>
+        <v>4</v>
       </c>
       <c r="M223" s="28" t="n">
         <f aca="false">J223/32</f>
-        <v>1.03125</v>
+        <v>2</v>
       </c>
       <c r="N223" s="1" t="s">
         <v>439</v>
@@ -11308,7 +11319,7 @@
         <v>1</v>
       </c>
       <c r="P223" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q223" s="1" t="n">
         <v>0</v>
@@ -11316,13 +11327,13 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="43" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C224" s="38" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D224" s="38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E224" s="38" t="s">
         <v>26</v>
@@ -11331,27 +11342,25 @@
       <c r="G224" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="H224" s="38" t="s">
-        <v>27</v>
-      </c>
+      <c r="H224" s="38"/>
       <c r="I224" s="38" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="J224" s="44" t="n">
         <f aca="false">J223+D223</f>
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="K224" s="38" t="n">
         <f aca="false">J224/8</f>
-        <v>4.75</v>
+        <v>8.125</v>
       </c>
       <c r="L224" s="28" t="n">
         <f aca="false">J224/16</f>
-        <v>2.375</v>
+        <v>4.0625</v>
       </c>
       <c r="M224" s="28" t="n">
         <f aca="false">J224/32</f>
-        <v>1.1875</v>
+        <v>2.03125</v>
       </c>
       <c r="N224" s="1" t="s">
         <v>439</v>
@@ -11360,7 +11369,7 @@
         <v>1</v>
       </c>
       <c r="P224" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q224" s="1" t="n">
         <v>0</v>
@@ -11368,13 +11377,13 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="43" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C225" s="38" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D225" s="38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E225" s="38" t="s">
         <v>26</v>
@@ -11387,23 +11396,23 @@
         <v>27</v>
       </c>
       <c r="I225" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J225" s="44" t="n">
         <f aca="false">J224+D224</f>
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="K225" s="38" t="n">
         <f aca="false">J225/8</f>
-        <v>5.25</v>
+        <v>8.75</v>
       </c>
       <c r="L225" s="28" t="n">
         <f aca="false">J225/16</f>
-        <v>2.625</v>
+        <v>4.375</v>
       </c>
       <c r="M225" s="28" t="n">
         <f aca="false">J225/32</f>
-        <v>1.3125</v>
+        <v>2.1875</v>
       </c>
       <c r="N225" s="1" t="s">
         <v>439</v>
@@ -11412,7 +11421,7 @@
         <v>1</v>
       </c>
       <c r="P225" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q225" s="1" t="n">
         <v>0</v>
@@ -11420,13 +11429,13 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="43" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C226" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D226" s="38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E226" s="38" t="s">
         <v>26</v>
@@ -11439,23 +11448,23 @@
         <v>27</v>
       </c>
       <c r="I226" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J226" s="44" t="n">
         <f aca="false">J225+D225</f>
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="K226" s="38" t="n">
         <f aca="false">J226/8</f>
-        <v>5.875</v>
+        <v>9.25</v>
       </c>
       <c r="L226" s="28" t="n">
         <f aca="false">J226/16</f>
-        <v>2.9375</v>
+        <v>4.625</v>
       </c>
       <c r="M226" s="28" t="n">
         <f aca="false">J226/32</f>
-        <v>1.46875</v>
+        <v>2.3125</v>
       </c>
       <c r="N226" s="1" t="s">
         <v>439</v>
@@ -11464,7 +11473,7 @@
         <v>1</v>
       </c>
       <c r="P226" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q226" s="1" t="n">
         <v>0</v>
@@ -11472,10 +11481,10 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="43" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C227" s="38" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D227" s="38" t="n">
         <v>6</v>
@@ -11491,23 +11500,23 @@
         <v>27</v>
       </c>
       <c r="I227" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J227" s="44" t="n">
         <f aca="false">J226+D226</f>
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="K227" s="38" t="n">
         <f aca="false">J227/8</f>
-        <v>6.625</v>
+        <v>9.875</v>
       </c>
       <c r="L227" s="28" t="n">
         <f aca="false">J227/16</f>
-        <v>3.3125</v>
+        <v>4.9375</v>
       </c>
       <c r="M227" s="28" t="n">
         <f aca="false">J227/32</f>
-        <v>1.65625</v>
+        <v>2.46875</v>
       </c>
       <c r="N227" s="1" t="s">
         <v>439</v>
@@ -11516,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="P227" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q227" s="1" t="n">
         <v>0</v>
@@ -11524,13 +11533,13 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="43" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C228" s="38" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D228" s="38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E228" s="38" t="s">
         <v>26</v>
@@ -11543,23 +11552,23 @@
         <v>27</v>
       </c>
       <c r="I228" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J228" s="44" t="n">
         <f aca="false">J227+D227</f>
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="K228" s="38" t="n">
         <f aca="false">J228/8</f>
-        <v>7.375</v>
+        <v>10.625</v>
       </c>
       <c r="L228" s="28" t="n">
         <f aca="false">J228/16</f>
-        <v>3.6875</v>
+        <v>5.3125</v>
       </c>
       <c r="M228" s="28" t="n">
         <f aca="false">J228/32</f>
-        <v>1.84375</v>
+        <v>2.65625</v>
       </c>
       <c r="N228" s="1" t="s">
         <v>439</v>
@@ -11568,87 +11577,87 @@
         <v>1</v>
       </c>
       <c r="P228" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q228" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B229" s="43"/>
-      <c r="C229" s="38"/>
-      <c r="D229" s="38"/>
-      <c r="E229" s="38"/>
+      <c r="B229" s="43" t="s">
+        <v>453</v>
+      </c>
+      <c r="C229" s="38" t="s">
+        <v>453</v>
+      </c>
+      <c r="D229" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E229" s="38" t="s">
+        <v>26</v>
+      </c>
       <c r="F229" s="38"/>
-      <c r="G229" s="38"/>
-      <c r="H229" s="38"/>
-      <c r="I229" s="38"/>
-      <c r="J229" s="44"/>
-      <c r="K229" s="38"/>
-      <c r="L229" s="28"/>
-      <c r="M229" s="28"/>
+      <c r="G229" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="H229" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I229" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="J229" s="44" t="n">
+        <f aca="false">J228+D228</f>
+        <v>91</v>
+      </c>
+      <c r="K229" s="38" t="n">
+        <f aca="false">J229/8</f>
+        <v>11.375</v>
+      </c>
+      <c r="L229" s="28" t="n">
+        <f aca="false">J229/16</f>
+        <v>5.6875</v>
+      </c>
+      <c r="M229" s="28" t="n">
+        <f aca="false">J229/32</f>
+        <v>2.84375</v>
+      </c>
+      <c r="N229" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="O229" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P229" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q229" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B230" s="43" t="s">
-        <v>452</v>
-      </c>
-      <c r="C230" s="38" t="s">
-        <v>452</v>
-      </c>
-      <c r="D230" s="38" t="n">
-        <v>8</v>
-      </c>
-      <c r="E230" s="38" t="s">
-        <v>26</v>
-      </c>
+      <c r="A230" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B230" s="43"/>
+      <c r="C230" s="38"/>
+      <c r="D230" s="38"/>
+      <c r="E230" s="38"/>
       <c r="F230" s="38"/>
-      <c r="G230" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="H230" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="I230" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="J230" s="44" t="n">
-        <f aca="false">J228+D228</f>
-        <v>64</v>
-      </c>
-      <c r="K230" s="38" t="n">
-        <f aca="false">J230/8</f>
-        <v>8</v>
-      </c>
-      <c r="L230" s="28" t="n">
-        <f aca="false">J230/16</f>
-        <v>4</v>
-      </c>
-      <c r="M230" s="28" t="n">
-        <f aca="false">J230/32</f>
-        <v>2</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="O230" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P230" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q230" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="G230" s="38"/>
+      <c r="H230" s="38"/>
+      <c r="I230" s="38"/>
+      <c r="J230" s="44"/>
+      <c r="K230" s="38"/>
+      <c r="L230" s="28"/>
+      <c r="M230" s="28"/>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="43" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C231" s="38" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D231" s="38" t="n">
         <v>8</v>
@@ -11664,23 +11673,23 @@
         <v>71</v>
       </c>
       <c r="I231" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J231" s="44" t="n">
-        <f aca="false">J230+D230</f>
-        <v>72</v>
+        <f aca="false">J229+D229</f>
+        <v>96</v>
       </c>
       <c r="K231" s="38" t="n">
         <f aca="false">J231/8</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L231" s="28" t="n">
         <f aca="false">J231/16</f>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M231" s="28" t="n">
         <f aca="false">J231/32</f>
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N231" s="1" t="s">
         <v>439</v>
@@ -11697,269 +11706,269 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="43" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C232" s="38" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D232" s="38" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E232" s="38" t="s">
         <v>26</v>
       </c>
       <c r="F232" s="38"/>
-      <c r="G232" s="38" t="n">
-        <v>0</v>
+      <c r="G232" s="38" t="s">
+        <v>138</v>
       </c>
       <c r="H232" s="38" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="I232" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J232" s="44" t="n">
         <f aca="false">J231+D231</f>
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="K232" s="38" t="n">
         <f aca="false">J232/8</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L232" s="28" t="n">
         <f aca="false">J232/16</f>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M232" s="28" t="n">
         <f aca="false">J232/32</f>
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>28</v>
+        <v>439</v>
       </c>
       <c r="O232" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P232" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q232" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B233" s="43"/>
-      <c r="C233" s="38"/>
-      <c r="D233" s="38"/>
+      <c r="B233" s="43" t="s">
+        <v>457</v>
+      </c>
+      <c r="C233" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="D233" s="38" t="n">
+        <v>16</v>
+      </c>
+      <c r="E233" s="38" t="s">
+        <v>26</v>
+      </c>
       <c r="F233" s="38"/>
-      <c r="G233" s="38"/>
-      <c r="H233" s="38"/>
+      <c r="G233" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" s="38" t="s">
+        <v>27</v>
+      </c>
       <c r="I233" s="38" t="s">
-        <v>233</v>
+        <v>446</v>
       </c>
       <c r="J233" s="44" t="n">
         <f aca="false">J232+D232</f>
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="K233" s="38" t="n">
         <f aca="false">J233/8</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L233" s="28" t="n">
         <f aca="false">J233/16</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M233" s="28" t="n">
         <f aca="false">J233/32</f>
-        <v>3</v>
+        <v>3.5</v>
+      </c>
+      <c r="N233" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O233" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q233" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="42" t="s">
-        <v>456</v>
-      </c>
+      <c r="A234" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B234" s="43"/>
+      <c r="C234" s="38"/>
+      <c r="D234" s="38"/>
       <c r="F234" s="38"/>
       <c r="G234" s="38"/>
       <c r="H234" s="38"/>
-      <c r="I234" s="38"/>
-      <c r="J234" s="44"/>
-      <c r="K234" s="38"/>
-      <c r="L234" s="28"/>
-      <c r="M234" s="28"/>
-    </row>
-    <row r="235" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B235" s="15" t="s">
+      <c r="I234" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="J234" s="44" t="n">
+        <f aca="false">J233+D233</f>
+        <v>128</v>
+      </c>
+      <c r="K234" s="38" t="n">
+        <f aca="false">J234/8</f>
+        <v>16</v>
+      </c>
+      <c r="L234" s="28" t="n">
+        <f aca="false">J234/16</f>
         <v>8</v>
       </c>
-      <c r="C235" s="12" t="s">
+      <c r="M234" s="28" t="n">
+        <f aca="false">J234/32</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="F235" s="38"/>
+      <c r="G235" s="38"/>
+      <c r="H235" s="38"/>
+      <c r="I235" s="38"/>
+      <c r="J235" s="44"/>
+      <c r="K235" s="38"/>
+      <c r="L235" s="28"/>
+      <c r="M235" s="28"/>
+    </row>
+    <row r="236" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B236" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D235" s="12" t="s">
+      <c r="D236" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E235" s="12" t="s">
+      <c r="E236" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F235" s="12" t="s">
+      <c r="F236" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G235" s="12" t="s">
+      <c r="G236" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H235" s="12" t="s">
+      <c r="H236" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I235" s="13" t="s">
+      <c r="I236" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J235" s="30" t="s">
+      <c r="J236" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="K235" s="14" t="s">
+      <c r="K236" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L235" s="14" t="s">
+      <c r="L236" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M235" s="14" t="s">
+      <c r="M236" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="N235" s="19" t="s">
+      <c r="N236" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="O235" s="20" t="s">
+      <c r="O236" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="P235" s="14" t="s">
+      <c r="P236" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Q235" s="14" t="s">
+      <c r="Q236" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="236" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1" t="s">
+    <row r="237" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B236" s="21"/>
-      <c r="C236" s="45"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="38"/>
-      <c r="F236" s="46"/>
-      <c r="G236" s="38"/>
-      <c r="H236" s="38"/>
-      <c r="I236" s="38"/>
-      <c r="J236" s="44"/>
-      <c r="K236" s="28"/>
-      <c r="L236" s="28"/>
-      <c r="M236" s="28"/>
-      <c r="O236" s="3"/>
-    </row>
-    <row r="237" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="C237" s="45" t="s">
-        <v>458</v>
-      </c>
-      <c r="D237" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E237" s="38" t="s">
-        <v>26</v>
-      </c>
+      <c r="B237" s="21"/>
+      <c r="C237" s="45"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="38"/>
       <c r="F237" s="46"/>
-      <c r="G237" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H237" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="I237" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="J237" s="44" t="n">
-        <f aca="false">J233</f>
-        <v>96</v>
-      </c>
-      <c r="K237" s="28" t="n">
-        <f aca="false">J237/8</f>
-        <v>12</v>
-      </c>
-      <c r="L237" s="28" t="n">
-        <f aca="false">J237/16</f>
-        <v>6</v>
-      </c>
-      <c r="M237" s="28" t="n">
-        <f aca="false">J237/32</f>
-        <v>3</v>
-      </c>
-      <c r="N237" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="O237" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P237" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q237" s="47" t="n">
-        <v>0</v>
-      </c>
+      <c r="G237" s="38"/>
+      <c r="H237" s="38"/>
+      <c r="I237" s="38"/>
+      <c r="J237" s="44"/>
+      <c r="K237" s="28"/>
+      <c r="L237" s="28"/>
+      <c r="M237" s="28"/>
+      <c r="O237" s="3"/>
     </row>
     <row r="238" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="21" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C238" s="45" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D238" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E238" s="38" t="s">
         <v>26</v>
       </c>
       <c r="F238" s="46"/>
-      <c r="G238" s="38" t="s">
-        <v>442</v>
+      <c r="G238" s="38" t="n">
+        <v>0</v>
       </c>
       <c r="H238" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I238" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J238" s="44" t="n">
-        <f aca="false">J237+D237</f>
-        <v>101</v>
+        <f aca="false">J234</f>
+        <v>128</v>
       </c>
       <c r="K238" s="28" t="n">
         <f aca="false">J238/8</f>
-        <v>12.625</v>
+        <v>16</v>
       </c>
       <c r="L238" s="28" t="n">
         <f aca="false">J238/16</f>
-        <v>6.3125</v>
+        <v>8</v>
       </c>
       <c r="M238" s="28" t="n">
         <f aca="false">J238/32</f>
-        <v>3.15625</v>
-      </c>
-      <c r="N238" s="1" t="s">
-        <v>439</v>
+        <v>4</v>
+      </c>
+      <c r="N238" s="47" t="s">
+        <v>28</v>
       </c>
       <c r="O238" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P238" s="47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q238" s="47" t="n">
         <v>0</v>
@@ -11967,10 +11976,10 @@
     </row>
     <row r="239" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="21" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C239" s="45" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D239" s="1" t="n">
         <v>1</v>
@@ -11980,38 +11989,38 @@
       </c>
       <c r="F239" s="46"/>
       <c r="G239" s="38" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H239" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I239" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J239" s="44" t="n">
         <f aca="false">J238+D238</f>
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="K239" s="28" t="n">
         <f aca="false">J239/8</f>
-        <v>12.75</v>
+        <v>16.625</v>
       </c>
       <c r="L239" s="28" t="n">
         <f aca="false">J239/16</f>
-        <v>6.375</v>
+        <v>8.3125</v>
       </c>
       <c r="M239" s="28" t="n">
         <f aca="false">J239/32</f>
-        <v>3.1875</v>
+        <v>4.15625</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="O239" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P239" s="47" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q239" s="47" t="n">
         <v>0</v>
@@ -12025,45 +12034,45 @@
         <v>465</v>
       </c>
       <c r="D240" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E240" s="38" t="s">
         <v>26</v>
       </c>
       <c r="F240" s="46"/>
       <c r="G240" s="38" t="s">
-        <v>133</v>
+        <v>445</v>
       </c>
       <c r="H240" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I240" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J240" s="44" t="n">
         <f aca="false">J239+D239</f>
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="K240" s="28" t="n">
         <f aca="false">J240/8</f>
-        <v>12.875</v>
+        <v>16.75</v>
       </c>
       <c r="L240" s="28" t="n">
         <f aca="false">J240/16</f>
-        <v>6.4375</v>
+        <v>8.375</v>
       </c>
       <c r="M240" s="28" t="n">
         <f aca="false">J240/32</f>
-        <v>3.21875</v>
+        <v>4.1875</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="O240" s="3" t="n">
         <v>2</v>
       </c>
       <c r="P240" s="47" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q240" s="47" t="n">
         <v>0</v>
@@ -12071,51 +12080,51 @@
     </row>
     <row r="241" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="21" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C241" s="45" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D241" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E241" s="38" t="s">
         <v>26</v>
       </c>
       <c r="F241" s="46"/>
       <c r="G241" s="38" t="s">
-        <v>468</v>
+        <v>133</v>
       </c>
       <c r="H241" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I241" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J241" s="44" t="n">
         <f aca="false">J240+D240</f>
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="K241" s="28" t="n">
         <f aca="false">J241/8</f>
-        <v>13.25</v>
+        <v>16.875</v>
       </c>
       <c r="L241" s="28" t="n">
         <f aca="false">J241/16</f>
-        <v>6.625</v>
+        <v>8.4375</v>
       </c>
       <c r="M241" s="28" t="n">
         <f aca="false">J241/32</f>
-        <v>3.3125</v>
+        <v>4.21875</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="O241" s="3" t="n">
         <v>2</v>
       </c>
       <c r="P241" s="47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q241" s="47" t="n">
         <v>0</v>
@@ -12136,38 +12145,38 @@
       </c>
       <c r="F242" s="46"/>
       <c r="G242" s="38" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H242" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I242" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J242" s="44" t="n">
         <f aca="false">J241+D241</f>
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="K242" s="28" t="n">
         <f aca="false">J242/8</f>
-        <v>13.75</v>
+        <v>17.25</v>
       </c>
       <c r="L242" s="28" t="n">
         <f aca="false">J242/16</f>
-        <v>6.875</v>
+        <v>8.625</v>
       </c>
       <c r="M242" s="28" t="n">
         <f aca="false">J242/32</f>
-        <v>3.4375</v>
+        <v>4.3125</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="O242" s="3" t="n">
         <v>2</v>
       </c>
       <c r="P242" s="47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q242" s="47" t="n">
         <v>0</v>
@@ -12175,51 +12184,51 @@
     </row>
     <row r="243" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="21" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C243" s="45" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D243" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E243" s="38" t="s">
         <v>26</v>
       </c>
       <c r="F243" s="46"/>
       <c r="G243" s="38" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H243" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I243" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J243" s="44" t="n">
         <f aca="false">J242+D242</f>
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="K243" s="28" t="n">
         <f aca="false">J243/8</f>
-        <v>14.25</v>
+        <v>17.75</v>
       </c>
       <c r="L243" s="28" t="n">
         <f aca="false">J243/16</f>
-        <v>7.125</v>
+        <v>8.875</v>
       </c>
       <c r="M243" s="28" t="n">
         <f aca="false">J243/32</f>
-        <v>3.5625</v>
+        <v>4.4375</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="O243" s="3" t="n">
         <v>2</v>
       </c>
       <c r="P243" s="47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q243" s="47" t="n">
         <v>0</v>
@@ -12233,120 +12242,120 @@
         <v>475</v>
       </c>
       <c r="D244" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E244" s="38" t="s">
         <v>26</v>
       </c>
       <c r="F244" s="46"/>
       <c r="G244" s="38" t="s">
-        <v>133</v>
+        <v>476</v>
       </c>
       <c r="H244" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I244" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J244" s="44" t="n">
         <f aca="false">J243+D243</f>
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="K244" s="28" t="n">
         <f aca="false">J244/8</f>
-        <v>14.875</v>
+        <v>18.25</v>
       </c>
       <c r="L244" s="28" t="n">
         <f aca="false">J244/16</f>
-        <v>7.4375</v>
+        <v>9.125</v>
       </c>
       <c r="M244" s="28" t="n">
         <f aca="false">J244/32</f>
-        <v>3.71875</v>
+        <v>4.5625</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="O244" s="3" t="n">
         <v>2</v>
       </c>
       <c r="P244" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q244" s="47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B245" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="C245" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="D245" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="E245" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F245" s="46"/>
+      <c r="G245" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="H245" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I245" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="J245" s="44" t="n">
+        <f aca="false">J244+D244</f>
+        <v>151</v>
+      </c>
+      <c r="K245" s="28" t="n">
+        <f aca="false">J245/8</f>
+        <v>18.875</v>
+      </c>
+      <c r="L245" s="28" t="n">
+        <f aca="false">J245/16</f>
+        <v>9.4375</v>
+      </c>
+      <c r="M245" s="28" t="n">
+        <f aca="false">J245/32</f>
+        <v>4.71875</v>
+      </c>
+      <c r="N245" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="O245" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P245" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="Q244" s="47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="47" t="s">
+      <c r="Q245" s="47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="B245" s="21"/>
-      <c r="C245" s="45"/>
-      <c r="D245" s="1"/>
-      <c r="E245" s="38"/>
-      <c r="F245" s="46"/>
-      <c r="G245" s="38"/>
-      <c r="H245" s="38"/>
-      <c r="I245" s="38"/>
-      <c r="J245" s="44"/>
-      <c r="K245" s="28"/>
-      <c r="L245" s="28"/>
-      <c r="M245" s="28"/>
-      <c r="N245" s="40"/>
-      <c r="O245" s="3"/>
-    </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B246" s="47" t="s">
-        <v>476</v>
-      </c>
-      <c r="C246" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="D246" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E246" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="F246" s="38"/>
-      <c r="G246" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="H246" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="I246" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="J246" s="44" t="n">
-        <f aca="false">J244+D244</f>
-        <v>128</v>
-      </c>
-      <c r="K246" s="28" t="n">
-        <f aca="false">J246/8</f>
-        <v>16</v>
-      </c>
-      <c r="L246" s="28" t="n">
-        <f aca="false">J246/16</f>
-        <v>8</v>
-      </c>
-      <c r="M246" s="28" t="n">
-        <f aca="false">J246/32</f>
-        <v>4</v>
-      </c>
-      <c r="N246" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="O246" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P246" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q246" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="B246" s="21"/>
+      <c r="C246" s="45"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="38"/>
+      <c r="F246" s="46"/>
+      <c r="G246" s="38"/>
+      <c r="H246" s="38"/>
+      <c r="I246" s="38"/>
+      <c r="J246" s="44"/>
+      <c r="K246" s="28"/>
+      <c r="L246" s="28"/>
+      <c r="M246" s="28"/>
+      <c r="N246" s="40"/>
+      <c r="O246" s="3"/>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="47" t="s">
@@ -12369,32 +12378,32 @@
         <v>27</v>
       </c>
       <c r="I247" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J247" s="44" t="n">
-        <f aca="false">J246+D246</f>
-        <v>136</v>
+        <f aca="false">J245+D245</f>
+        <v>160</v>
       </c>
       <c r="K247" s="28" t="n">
         <f aca="false">J247/8</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L247" s="28" t="n">
         <f aca="false">J247/16</f>
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="M247" s="28" t="n">
         <f aca="false">J247/32</f>
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="O247" s="3" t="n">
         <v>3</v>
       </c>
       <c r="P247" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q247" s="1" t="n">
         <v>0</v>
@@ -12402,10 +12411,10 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="47" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D248" s="1" t="n">
         <v>8</v>
@@ -12421,32 +12430,32 @@
         <v>27</v>
       </c>
       <c r="I248" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J248" s="44" t="n">
         <f aca="false">J247+D247</f>
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="K248" s="28" t="n">
         <f aca="false">J248/8</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L248" s="28" t="n">
         <f aca="false">J248/16</f>
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="M248" s="28" t="n">
         <f aca="false">J248/32</f>
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="O248" s="3" t="n">
         <v>3</v>
       </c>
       <c r="P248" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q248" s="1" t="n">
         <v>0</v>
@@ -12454,10 +12463,10 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="47" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D249" s="1" t="n">
         <v>8</v>
@@ -12473,32 +12482,32 @@
         <v>27</v>
       </c>
       <c r="I249" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J249" s="44" t="n">
         <f aca="false">J248+D248</f>
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="K249" s="28" t="n">
         <f aca="false">J249/8</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L249" s="28" t="n">
         <f aca="false">J249/16</f>
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="M249" s="28" t="n">
         <f aca="false">J249/32</f>
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="O249" s="3" t="n">
         <v>3</v>
       </c>
       <c r="P249" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q249" s="1" t="n">
         <v>0</v>
@@ -12506,10 +12515,10 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="47" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D250" s="1" t="n">
         <v>8</v>
@@ -12525,32 +12534,32 @@
         <v>27</v>
       </c>
       <c r="I250" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J250" s="44" t="n">
         <f aca="false">J249+D249</f>
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="K250" s="28" t="n">
         <f aca="false">J250/8</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L250" s="28" t="n">
         <f aca="false">J250/16</f>
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="M250" s="28" t="n">
         <f aca="false">J250/32</f>
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="O250" s="3" t="n">
         <v>3</v>
       </c>
       <c r="P250" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q250" s="1" t="n">
         <v>0</v>
@@ -12558,10 +12567,10 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="47" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D251" s="1" t="n">
         <v>8</v>
@@ -12577,32 +12586,32 @@
         <v>27</v>
       </c>
       <c r="I251" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J251" s="44" t="n">
         <f aca="false">J250+D250</f>
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="K251" s="28" t="n">
         <f aca="false">J251/8</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L251" s="28" t="n">
         <f aca="false">J251/16</f>
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="M251" s="28" t="n">
         <f aca="false">J251/32</f>
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="O251" s="3" t="n">
         <v>3</v>
       </c>
       <c r="P251" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q251" s="1" t="n">
         <v>0</v>
@@ -12610,10 +12619,10 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="47" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D252" s="1" t="n">
         <v>8</v>
@@ -12629,32 +12638,32 @@
         <v>27</v>
       </c>
       <c r="I252" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J252" s="44" t="n">
         <f aca="false">J251+D251</f>
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="K252" s="28" t="n">
         <f aca="false">J252/8</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L252" s="28" t="n">
         <f aca="false">J252/16</f>
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="M252" s="28" t="n">
         <f aca="false">J252/32</f>
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="O252" s="3" t="n">
         <v>3</v>
       </c>
       <c r="P252" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q252" s="1" t="n">
         <v>0</v>
@@ -12662,10 +12671,10 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="47" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D253" s="1" t="n">
         <v>8</v>
@@ -12681,32 +12690,32 @@
         <v>27</v>
       </c>
       <c r="I253" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J253" s="44" t="n">
         <f aca="false">J252+D252</f>
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="K253" s="28" t="n">
         <f aca="false">J253/8</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L253" s="28" t="n">
         <f aca="false">J253/16</f>
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="M253" s="28" t="n">
         <f aca="false">J253/32</f>
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="O253" s="3" t="n">
         <v>3</v>
       </c>
       <c r="P253" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q253" s="1" t="n">
         <v>0</v>
@@ -12714,10 +12723,10 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="47" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D254" s="1" t="n">
         <v>8</v>
@@ -12733,32 +12742,32 @@
         <v>27</v>
       </c>
       <c r="I254" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J254" s="44" t="n">
         <f aca="false">J253+D253</f>
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="K254" s="28" t="n">
         <f aca="false">J254/8</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L254" s="28" t="n">
         <f aca="false">J254/16</f>
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="M254" s="28" t="n">
         <f aca="false">J254/32</f>
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="O254" s="3" t="n">
         <v>3</v>
       </c>
       <c r="P254" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q254" s="1" t="n">
         <v>0</v>
@@ -12766,10 +12775,10 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="47" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D255" s="1" t="n">
         <v>8</v>
@@ -12785,32 +12794,32 @@
         <v>27</v>
       </c>
       <c r="I255" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J255" s="44" t="n">
         <f aca="false">J254+D254</f>
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="K255" s="28" t="n">
         <f aca="false">J255/8</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L255" s="28" t="n">
         <f aca="false">J255/16</f>
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="M255" s="28" t="n">
         <f aca="false">J255/32</f>
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="O255" s="3" t="n">
         <v>3</v>
       </c>
       <c r="P255" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q255" s="1" t="n">
         <v>0</v>
@@ -12818,10 +12827,10 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="47" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D256" s="1" t="n">
         <v>8</v>
@@ -12837,32 +12846,32 @@
         <v>27</v>
       </c>
       <c r="I256" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J256" s="44" t="n">
         <f aca="false">J255+D255</f>
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="K256" s="28" t="n">
         <f aca="false">J256/8</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L256" s="28" t="n">
         <f aca="false">J256/16</f>
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="M256" s="28" t="n">
         <f aca="false">J256/32</f>
-        <v>6.5</v>
+        <v>7.25</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="O256" s="3" t="n">
         <v>3</v>
       </c>
       <c r="P256" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q256" s="1" t="n">
         <v>0</v>
@@ -12870,10 +12879,10 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="47" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D257" s="1" t="n">
         <v>8</v>
@@ -12889,32 +12898,32 @@
         <v>27</v>
       </c>
       <c r="I257" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J257" s="44" t="n">
         <f aca="false">J256+D256</f>
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="K257" s="28" t="n">
         <f aca="false">J257/8</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L257" s="28" t="n">
         <f aca="false">J257/16</f>
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="M257" s="28" t="n">
         <f aca="false">J257/32</f>
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="O257" s="3" t="n">
         <v>3</v>
       </c>
       <c r="P257" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q257" s="1" t="n">
         <v>0</v>
@@ -12922,10 +12931,10 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="47" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D258" s="1" t="n">
         <v>8</v>
@@ -12941,32 +12950,32 @@
         <v>27</v>
       </c>
       <c r="I258" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J258" s="44" t="n">
         <f aca="false">J257+D257</f>
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="K258" s="28" t="n">
         <f aca="false">J258/8</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L258" s="28" t="n">
         <f aca="false">J258/16</f>
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="M258" s="28" t="n">
         <f aca="false">J258/32</f>
-        <v>7</v>
+        <v>7.75</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="O258" s="3" t="n">
         <v>3</v>
       </c>
       <c r="P258" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q258" s="1" t="n">
         <v>0</v>
@@ -12974,20 +12983,18 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="47" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D259" s="1" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E259" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="F259" s="38" t="s">
-        <v>116</v>
-      </c>
+      <c r="F259" s="38"/>
       <c r="G259" s="38" t="s">
         <v>133</v>
       </c>
@@ -12995,32 +13002,32 @@
         <v>27</v>
       </c>
       <c r="I259" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J259" s="44" t="n">
         <f aca="false">J258+D258</f>
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="K259" s="28" t="n">
         <f aca="false">J259/8</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L259" s="28" t="n">
         <f aca="false">J259/16</f>
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="M259" s="28" t="n">
         <f aca="false">J259/32</f>
-        <v>7.25</v>
+        <v>8</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>439</v>
+        <v>481</v>
       </c>
       <c r="O259" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P259" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q259" s="1" t="n">
         <v>0</v>
@@ -13028,18 +13035,20 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="47" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D260" s="1" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E260" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="F260" s="38"/>
+      <c r="F260" s="38" t="s">
+        <v>116</v>
+      </c>
       <c r="G260" s="38" t="s">
         <v>133</v>
       </c>
@@ -13047,78 +13056,130 @@
         <v>27</v>
       </c>
       <c r="I260" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J260" s="44" t="n">
         <f aca="false">J259+D259</f>
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="K260" s="28" t="n">
         <f aca="false">J260/8</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L260" s="28" t="n">
         <f aca="false">J260/16</f>
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="M260" s="28" t="n">
         <f aca="false">J260/32</f>
-        <v>7.75</v>
+        <v>8.25</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="O260" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P260" s="1" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q260" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="1" t="s">
-        <v>59</v>
+      <c r="B261" s="47" t="s">
+        <v>503</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D261" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E261" s="38" t="s">
+        <v>26</v>
       </c>
       <c r="F261" s="38"/>
-      <c r="G261" s="38"/>
-      <c r="H261" s="38"/>
-      <c r="I261" s="38"/>
+      <c r="G261" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="H261" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I261" s="38" t="s">
+        <v>446</v>
+      </c>
       <c r="J261" s="44" t="n">
         <f aca="false">J260+D260</f>
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="K261" s="28" t="n">
         <f aca="false">J261/8</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L261" s="28" t="n">
         <f aca="false">J261/16</f>
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="M261" s="28" t="n">
         <f aca="false">J261/32</f>
-        <v>8</v>
+        <v>8.75</v>
+      </c>
+      <c r="N261" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="O261" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P261" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q261" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F262" s="38"/>
       <c r="G262" s="38"/>
       <c r="H262" s="38"/>
       <c r="I262" s="38"/>
-      <c r="J262" s="44"/>
-      <c r="K262" s="28"/>
-      <c r="L262" s="28"/>
-      <c r="M262" s="28"/>
+      <c r="J262" s="44" t="n">
+        <f aca="false">J261+D261</f>
+        <v>288</v>
+      </c>
+      <c r="K262" s="28" t="n">
+        <f aca="false">J262/8</f>
+        <v>36</v>
+      </c>
+      <c r="L262" s="28" t="n">
+        <f aca="false">J262/16</f>
+        <v>18</v>
+      </c>
+      <c r="M262" s="28" t="n">
+        <f aca="false">J262/32</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B263" s="47"/>
-      <c r="J263" s="48"/>
-      <c r="K263" s="1"/>
-      <c r="L263" s="1"/>
-      <c r="M263" s="1"/>
+      <c r="F263" s="38"/>
+      <c r="G263" s="38"/>
+      <c r="H263" s="38"/>
+      <c r="I263" s="38"/>
+      <c r="J263" s="44"/>
+      <c r="K263" s="28"/>
+      <c r="L263" s="28"/>
+      <c r="M263" s="28"/>
+    </row>
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B264" s="47"/>
+      <c r="J264" s="48"/>
+      <c r="K264" s="1"/>
+      <c r="L264" s="1"/>
+      <c r="M264" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -13134,7 +13195,7 @@
     <hyperlink ref="A201" r:id="rId2" display="Structure:science_t, file:sciDownlink.h"/>
     <hyperlink ref="A210" r:id="rId3" display="Structure:sciWodSpecific_t,file:sciWodSpecificDownlink.h"/>
     <hyperlink ref="A218" r:id="rId4" display="Structure:infrequentDownlink_t,file:infrequentDownlink.h"/>
-    <hyperlink ref="A234" r:id="rId5" display="Structure:legacyErrors_t,file:legacyErrorsDownlink.h"/>
+    <hyperlink ref="A235" r:id="rId5" display="Structure:legacyErrors_t,file:legacyErrorsDownlink.h"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -13154,10 +13215,10 @@
   <dimension ref="B6:Q1031"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="1" sqref="G97 C33"/>
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="40" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="40" width="16.11"/>
@@ -13168,22 +13229,22 @@
     <row r="6" s="49" customFormat="true" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="50"/>
       <c r="C6" s="50" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="G6" s="50" t="s">
         <v>280</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="I6" s="50"/>
     </row>
@@ -13553,10 +13614,10 @@
     </row>
     <row r="26" s="1" customFormat="true" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="32" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D26" s="27" t="n">
         <v>16</v>
@@ -13605,10 +13666,10 @@
     </row>
     <row r="27" s="1" customFormat="true" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="32" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D27" s="27" t="n">
         <v>32</v>
@@ -13655,16 +13716,16 @@
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="52" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="E30" s="52" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F30" s="52"/>
     </row>

--- a/genSpacecraft/DownlinkSpecLTM.xlsx
+++ b/genSpacecraft/DownlinkSpecLTM.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -443,6 +443,9 @@
     <t xml:space="preserve">Vbatt Bus voltage</t>
   </si>
   <si>
+    <t xml:space="preserve">Spacecraft Status</t>
+  </si>
+  <si>
     <t xml:space="preserve">PA Current</t>
   </si>
   <si>
@@ -578,9 +581,6 @@
     <t xml:space="preserve">Internal Temperature of IHU</t>
   </si>
   <si>
-    <t xml:space="preserve">Spacecraft Status</t>
-  </si>
-  <si>
     <t xml:space="preserve">Modulator Temp</t>
   </si>
   <si>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">Antenna sensor is ok</t>
   </si>
   <si>
-    <t xml:space="preserve">Min/Max Resets</t>
+    <t xml:space="preserve">Min/Max Reset Count</t>
   </si>
   <si>
     <t xml:space="preserve">TLMresets</t>
@@ -1952,8 +1952,8 @@
   </sheetPr>
   <dimension ref="A1:Q264"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A211" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q221" activeCellId="0" sqref="Q221"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N188" activeCellId="0" sqref="N188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3842,13 +3842,13 @@
         <v>4.75</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q47" s="1" t="n">
         <v>3</v>
@@ -3856,10 +3856,10 @@
     </row>
     <row r="48" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="32" t="n">
         <v>8</v>
@@ -3869,13 +3869,13 @@
       </c>
       <c r="F48" s="23"/>
       <c r="G48" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J48" s="29" t="n">
         <f aca="false">J47+D47</f>
@@ -3908,10 +3908,10 @@
     </row>
     <row r="49" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="32" t="n">
         <v>8</v>
@@ -3927,7 +3927,7 @@
         <v>77</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J49" s="29" t="n">
         <f aca="false">J48+D48</f>
@@ -3960,10 +3960,10 @@
     </row>
     <row r="50" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="32" t="n">
         <v>8</v>
@@ -3979,7 +3979,7 @@
         <v>65</v>
       </c>
       <c r="I50" s="23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J50" s="29" t="n">
         <f aca="false">J49+D49</f>
@@ -4012,10 +4012,10 @@
     </row>
     <row r="51" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="32" t="n">
         <v>8</v>
@@ -4025,13 +4025,13 @@
       </c>
       <c r="F51" s="23"/>
       <c r="G51" s="23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I51" s="23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J51" s="29" t="n">
         <f aca="false">J50+D50</f>
@@ -4064,10 +4064,10 @@
     </row>
     <row r="52" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="32" t="n">
         <v>8</v>
@@ -4083,7 +4083,7 @@
         <v>71</v>
       </c>
       <c r="I52" s="23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J52" s="29" t="n">
         <f aca="false">J51+D51</f>
@@ -4116,10 +4116,10 @@
     </row>
     <row r="53" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="32" t="n">
         <v>8</v>
@@ -4135,7 +4135,7 @@
         <v>71</v>
       </c>
       <c r="I53" s="32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J53" s="29" t="n">
         <f aca="false">J52+D52</f>
@@ -4171,7 +4171,7 @@
         <v>131</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="32" t="n">
         <v>8</v>
@@ -4187,7 +4187,7 @@
         <v>71</v>
       </c>
       <c r="I54" s="32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J54" s="29" t="n">
         <f aca="false">J53+D53</f>
@@ -4220,10 +4220,10 @@
     </row>
     <row r="55" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="32" t="n">
         <v>8</v>
@@ -4239,7 +4239,7 @@
         <v>71</v>
       </c>
       <c r="I55" s="32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J55" s="29" t="n">
         <f aca="false">J54+D54</f>
@@ -4270,12 +4270,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="32" t="n">
         <v>8</v>
@@ -4291,7 +4291,7 @@
         <v>77</v>
       </c>
       <c r="I56" s="23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J56" s="29" t="n">
         <f aca="false">J55+D55</f>
@@ -4316,18 +4316,18 @@
         <v>7</v>
       </c>
       <c r="P56" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="32" t="n">
         <v>8</v>
@@ -4343,7 +4343,7 @@
         <v>77</v>
       </c>
       <c r="I57" s="32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J57" s="29" t="n">
         <f aca="false">J56+D56</f>
@@ -4368,18 +4368,18 @@
         <v>7</v>
       </c>
       <c r="P57" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q57" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="32" t="n">
         <v>8</v>
@@ -4395,7 +4395,7 @@
         <v>77</v>
       </c>
       <c r="I58" s="32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J58" s="29" t="n">
         <f aca="false">J57+D57</f>
@@ -4420,18 +4420,18 @@
         <v>7</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q58" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="32" t="n">
         <v>8</v>
@@ -4447,7 +4447,7 @@
         <v>77</v>
       </c>
       <c r="I59" s="32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J59" s="29" t="n">
         <f aca="false">J58+D58</f>
@@ -4472,7 +4472,7 @@
         <v>7</v>
       </c>
       <c r="P59" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q59" s="1" t="n">
         <v>3</v>
@@ -4480,10 +4480,10 @@
     </row>
     <row r="60" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="32" t="n">
         <v>8</v>
@@ -4499,7 +4499,7 @@
         <v>71</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J60" s="29" t="n">
         <f aca="false">J59+D59</f>
@@ -4532,10 +4532,10 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="32" t="n">
         <v>8</v>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="H61" s="22"/>
       <c r="I61" s="32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J61" s="29" t="n">
         <f aca="false">J60+D60</f>
@@ -4574,7 +4574,7 @@
         <v>7</v>
       </c>
       <c r="P61" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q61" s="1" t="n">
         <v>3</v>
@@ -4582,10 +4582,10 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="32" t="n">
         <v>8</v>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="H62" s="22"/>
       <c r="I62" s="32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J62" s="29" t="n">
         <f aca="false">J61+D61</f>
@@ -4624,7 +4624,7 @@
         <v>7</v>
       </c>
       <c r="P62" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q62" s="1" t="n">
         <v>4</v>
@@ -4632,10 +4632,10 @@
     </row>
     <row r="63" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="32" t="n">
         <v>8</v>
@@ -4651,7 +4651,7 @@
         <v>77</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J63" s="29" t="n">
         <f aca="false">J62+D62</f>
@@ -4670,7 +4670,7 @@
         <v>8.75</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="O63" s="3" t="n">
         <v>2</v>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C65" s="32" t="s">
         <v>189</v>
@@ -4778,7 +4778,7 @@
         <v>7</v>
       </c>
       <c r="P65" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q65" s="1" t="n">
         <v>3</v>
@@ -5756,13 +5756,13 @@
         <v>14</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="O87" s="24" t="n">
         <v>2</v>
       </c>
       <c r="P87" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q87" s="1" t="n">
         <v>0</v>
@@ -5927,13 +5927,13 @@
         <v>14.53125</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="O91" s="24" t="n">
         <v>2</v>
       </c>
       <c r="P91" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q91" s="1" t="n">
         <v>0</v>
@@ -5979,13 +5979,13 @@
         <v>14.5625</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="O92" s="24" t="n">
         <v>2</v>
       </c>
       <c r="P92" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q92" s="1" t="n">
         <v>0</v>
@@ -6237,13 +6237,13 @@
         <v>14.71875</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="O97" s="3" t="n">
         <v>2</v>
       </c>
       <c r="P97" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q97" s="1" t="n">
         <v>0</v>
@@ -6309,13 +6309,13 @@
         <v>14.75</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="O99" s="3" t="n">
         <v>2</v>
       </c>
       <c r="P99" s="1" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q99" s="1" t="n">
         <v>0</v>
@@ -6361,7 +6361,7 @@
         <v>15</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="O100" s="3" t="n">
         <v>2</v>
@@ -7883,7 +7883,7 @@
         <v>7</v>
       </c>
       <c r="P130" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q130" s="1" t="n">
         <v>0</v>
@@ -8077,7 +8077,7 @@
         <v>18</v>
       </c>
       <c r="N134" s="5" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="O134" s="24" t="n">
         <v>2</v>
@@ -8758,7 +8758,7 @@
         <v>20.8125</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="O148" s="3" t="n">
         <v>2</v>
@@ -8808,7 +8808,7 @@
         <v>20.90625</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="O149" s="3" t="n">
         <v>2</v>
@@ -9315,8 +9315,8 @@
         <v>382</v>
       </c>
       <c r="F165" s="23"/>
-      <c r="G165" s="39" t="n">
-        <v>1</v>
+      <c r="G165" s="23" t="n">
+        <v>36</v>
       </c>
       <c r="H165" s="3" t="s">
         <v>383</v>
@@ -9367,8 +9367,8 @@
         <v>26</v>
       </c>
       <c r="F166" s="23"/>
-      <c r="G166" s="39" t="n">
-        <v>1</v>
+      <c r="G166" s="23" t="n">
+        <v>36</v>
       </c>
       <c r="H166" s="3" t="s">
         <v>383</v>
@@ -9419,8 +9419,8 @@
         <v>382</v>
       </c>
       <c r="F167" s="23"/>
-      <c r="G167" s="22" t="n">
-        <v>1</v>
+      <c r="G167" s="23" t="n">
+        <v>36</v>
       </c>
       <c r="H167" s="22" t="s">
         <v>27</v>
@@ -9554,8 +9554,8 @@
       </c>
       <c r="E173" s="38"/>
       <c r="F173" s="23"/>
-      <c r="G173" s="39" t="n">
-        <v>1</v>
+      <c r="G173" s="23" t="n">
+        <v>36</v>
       </c>
       <c r="H173" s="3" t="s">
         <v>383</v>
@@ -9606,8 +9606,8 @@
         <v>26</v>
       </c>
       <c r="F174" s="23"/>
-      <c r="G174" s="39" t="n">
-        <v>1</v>
+      <c r="G174" s="23" t="n">
+        <v>36</v>
       </c>
       <c r="H174" s="3" t="s">
         <v>383</v>
@@ -9656,8 +9656,8 @@
       </c>
       <c r="E175" s="38"/>
       <c r="F175" s="23"/>
-      <c r="G175" s="39" t="n">
-        <v>1</v>
+      <c r="G175" s="23" t="n">
+        <v>36</v>
       </c>
       <c r="I175" s="28" t="s">
         <v>403</v>
@@ -9703,8 +9703,8 @@
       </c>
       <c r="E176" s="38"/>
       <c r="F176" s="23"/>
-      <c r="G176" s="39" t="n">
-        <v>1</v>
+      <c r="G176" s="23" t="n">
+        <v>36</v>
       </c>
       <c r="I176" s="28" t="s">
         <v>406</v>
@@ -9752,8 +9752,8 @@
         <v>382</v>
       </c>
       <c r="F177" s="23"/>
-      <c r="G177" s="22" t="n">
-        <v>1</v>
+      <c r="G177" s="23" t="n">
+        <v>36</v>
       </c>
       <c r="H177" s="22" t="s">
         <v>27</v>
@@ -10094,13 +10094,13 @@
         <v>23.75</v>
       </c>
       <c r="N188" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="O188" s="24" t="n">
         <v>2</v>
       </c>
       <c r="P188" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q188" s="1" t="n">
         <v>0</v>
@@ -10146,13 +10146,13 @@
         <v>23.78125</v>
       </c>
       <c r="N189" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="O189" s="24" t="n">
         <v>2</v>
       </c>
       <c r="P189" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q189" s="1" t="n">
         <v>0</v>
@@ -10198,13 +10198,13 @@
         <v>23.8125</v>
       </c>
       <c r="N190" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="O190" s="24" t="n">
         <v>2</v>
       </c>
       <c r="P190" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q190" s="1" t="n">
         <v>0</v>
@@ -13218,7 +13218,7 @@
       <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="40" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="40" width="16.11"/>

--- a/genSpacecraft/DownlinkSpecLTM.xlsx
+++ b/genSpacecraft/DownlinkSpecLTM.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="520">
   <si>
     <t xml:space="preserve">//</t>
   </si>
@@ -710,16 +710,16 @@
     <t xml:space="preserve">Host OBC Temp</t>
   </si>
   <si>
-    <t xml:space="preserve">spare19</t>
+    <t xml:space="preserve">commonSpare1</t>
   </si>
   <si>
     <t xml:space="preserve">spare</t>
   </si>
   <si>
-    <t xml:space="preserve">spare20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spare21</t>
+    <t xml:space="preserve">commonSpare2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commonSpare3</t>
   </si>
   <si>
     <t xml:space="preserve">Totals:</t>
@@ -746,13 +746,13 @@
     <t xml:space="preserve">TBD</t>
   </si>
   <si>
-    <t xml:space="preserve">spare28</t>
+    <t xml:space="preserve">wodSpare1</t>
   </si>
   <si>
     <t xml:space="preserve">de</t>
   </si>
   <si>
-    <t xml:space="preserve">SpareBit1</t>
+    <t xml:space="preserve">wodSpare2</t>
   </si>
   <si>
     <t xml:space="preserve">Auto Safe Allowed</t>
@@ -773,13 +773,16 @@
     <t xml:space="preserve">Autosafe Mode Active</t>
   </si>
   <si>
-    <t xml:space="preserve">Spare Bit 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spareBit1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpareBit3</t>
+    <t xml:space="preserve">com2 Spare Bit 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com2spareBit2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com2 Spare Bit 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com2spareBit3</t>
   </si>
   <si>
     <t xml:space="preserve">Transponder Enabled</t>
@@ -1073,28 +1076,25 @@
     <t xml:space="preserve">Modulator Register 8 - Mode</t>
   </si>
   <si>
-    <t xml:space="preserve">spare29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spare30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spare31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spare32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spare33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spare34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpareBit4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpareBit1a</t>
+    <t xml:space="preserve">com2spare4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com2spare5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com2spare6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com2spare7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com2spare8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com2spare9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com2Spare10</t>
   </si>
   <si>
     <t xml:space="preserve">Modulator Valid</t>
@@ -1139,16 +1139,16 @@
     <t xml:space="preserve">ICR Receiving Carrier</t>
   </si>
   <si>
-    <t xml:space="preserve">spare341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spare35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spare36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spare37</t>
+    <t xml:space="preserve">com2spare11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com2spare12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com2spare13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com2spare14</t>
   </si>
   <si>
     <t xml:space="preserve">Total Length</t>
@@ -1298,24 +1298,30 @@
     <t xml:space="preserve">Opaque CAN data from host experiment</t>
   </si>
   <si>
+    <t xml:space="preserve">LongSciSparebits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longscisparebits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One or more CAN messages lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure:science_t, file:sciDownlink.h</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sparebits</t>
   </si>
   <si>
     <t xml:space="preserve">sparebits</t>
   </si>
   <si>
-    <t xml:space="preserve">Overflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One or more CAN messages lost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure:science_t, file:sciDownlink.h</t>
-  </si>
-  <si>
     <t xml:space="preserve">Structure:sciWodSpecific_t,file:sciWodSpecificDownlink.h</t>
   </si>
   <si>
@@ -1397,7 +1403,7 @@
     <t xml:space="preserve">Fill to 32-bits</t>
   </si>
   <si>
-    <t xml:space="preserve">pad1</t>
+    <t xml:space="preserve">infreqSpare1</t>
   </si>
   <si>
     <t xml:space="preserve">Structure:legacyErrors_t,file:legacyErrorsDownlink.h</t>
@@ -1952,8 +1958,8 @@
   </sheetPr>
   <dimension ref="A1:Q264"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N188" activeCellId="0" sqref="N188"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B229" activeCellId="0" sqref="B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5491,7 +5497,7 @@
       <c r="B80" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="C80" s="32" t="s">
+      <c r="C80" s="31" t="s">
         <v>229</v>
       </c>
       <c r="D80" s="32" t="n">
@@ -5541,7 +5547,7 @@
       <c r="B81" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="C81" s="32" t="s">
+      <c r="C81" s="31" t="s">
         <v>231</v>
       </c>
       <c r="D81" s="32" t="n">
@@ -5591,7 +5597,7 @@
       <c r="B82" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="C82" s="32" t="s">
+      <c r="C82" s="31" t="s">
         <v>232</v>
       </c>
       <c r="D82" s="32" t="n">
@@ -5772,7 +5778,7 @@
       <c r="B88" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="C88" s="32" t="s">
+      <c r="C88" s="31" t="s">
         <v>241</v>
       </c>
       <c r="D88" s="32" t="n">
@@ -5841,7 +5847,7 @@
       <c r="B90" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="C90" s="32" t="s">
+      <c r="C90" s="31" t="s">
         <v>243</v>
       </c>
       <c r="D90" s="32" t="n">
@@ -6048,7 +6054,7 @@
         <v>252</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D94" s="32" t="n">
         <v>1</v>
@@ -6097,10 +6103,10 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D95" s="32" t="n">
         <v>1</v>
@@ -6147,10 +6153,10 @@
     </row>
     <row r="96" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="33" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D96" s="32" t="n">
         <v>1</v>
@@ -6166,7 +6172,7 @@
         <v>27</v>
       </c>
       <c r="I96" s="23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J96" s="29" t="n">
         <f aca="false">J95+D95</f>
@@ -6199,10 +6205,10 @@
     </row>
     <row r="97" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="33" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D97" s="32" t="n">
         <v>1</v>
@@ -6212,13 +6218,13 @@
       </c>
       <c r="F97" s="23"/>
       <c r="G97" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H97" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I97" s="23" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J97" s="29" t="n">
         <f aca="false">J96+D96</f>
@@ -6271,10 +6277,10 @@
     </row>
     <row r="99" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="31" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D99" s="32" t="n">
         <v>8</v>
@@ -6290,7 +6296,7 @@
         <v>27</v>
       </c>
       <c r="I99" s="23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J99" s="29" t="n">
         <f aca="false">J97+D97</f>
@@ -6323,10 +6329,10 @@
     </row>
     <row r="100" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D100" s="32" t="n">
         <v>8</v>
@@ -6342,7 +6348,7 @@
         <v>27</v>
       </c>
       <c r="I100" s="23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J100" s="29" t="n">
         <f aca="false">J99+D99</f>
@@ -6375,10 +6381,10 @@
     </row>
     <row r="101" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D101" s="32" t="n">
         <v>32</v>
@@ -6396,7 +6402,7 @@
         <v>27</v>
       </c>
       <c r="I101" s="23" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J101" s="29" t="n">
         <f aca="false">J100+D100</f>
@@ -6429,10 +6435,10 @@
     </row>
     <row r="102" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D102" s="32" t="n">
         <v>8</v>
@@ -6448,7 +6454,7 @@
         <v>27</v>
       </c>
       <c r="I102" s="23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J102" s="29" t="n">
         <f aca="false">J101+D101</f>
@@ -6481,10 +6487,10 @@
     </row>
     <row r="103" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D103" s="32" t="n">
         <v>8</v>
@@ -6500,7 +6506,7 @@
         <v>27</v>
       </c>
       <c r="I103" s="23" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J103" s="29" t="n">
         <f aca="false">J102+D102</f>
@@ -6533,10 +6539,10 @@
     </row>
     <row r="104" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="31" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D104" s="32" t="n">
         <v>8</v>
@@ -6546,13 +6552,13 @@
       </c>
       <c r="F104" s="23"/>
       <c r="G104" s="23" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H104" s="22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I104" s="23" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J104" s="29" t="n">
         <f aca="false">J103+D103</f>
@@ -6585,10 +6591,10 @@
     </row>
     <row r="105" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D105" s="32" t="n">
         <v>1</v>
@@ -6598,13 +6604,13 @@
       </c>
       <c r="F105" s="23"/>
       <c r="G105" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H105" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I105" s="32" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J105" s="29" t="n">
         <f aca="false">J104+D104</f>
@@ -6637,10 +6643,10 @@
     </row>
     <row r="106" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="31" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D106" s="32" t="n">
         <v>1</v>
@@ -6650,7 +6656,7 @@
       </c>
       <c r="F106" s="23"/>
       <c r="G106" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H106" s="22" t="s">
         <v>27</v>
@@ -6687,10 +6693,10 @@
     </row>
     <row r="107" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D107" s="32" t="n">
         <v>1</v>
@@ -6700,7 +6706,7 @@
       </c>
       <c r="F107" s="23"/>
       <c r="G107" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H107" s="22" t="s">
         <v>27</v>
@@ -6737,10 +6743,10 @@
     </row>
     <row r="108" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="31" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D108" s="32" t="n">
         <v>1</v>
@@ -6750,7 +6756,7 @@
       </c>
       <c r="F108" s="23"/>
       <c r="G108" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H108" s="22" t="s">
         <v>27</v>
@@ -6787,10 +6793,10 @@
     </row>
     <row r="109" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D109" s="32" t="n">
         <v>1</v>
@@ -6800,7 +6806,7 @@
       </c>
       <c r="F109" s="23"/>
       <c r="G109" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H109" s="22" t="s">
         <v>27</v>
@@ -6823,7 +6829,7 @@
         <v>17.125</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O109" s="24" t="n">
         <v>9</v>
@@ -6837,10 +6843,10 @@
     </row>
     <row r="110" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D110" s="32" t="n">
         <v>1</v>
@@ -6850,7 +6856,7 @@
       </c>
       <c r="F110" s="23"/>
       <c r="G110" s="22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H110" s="22" t="s">
         <v>27</v>
@@ -6873,7 +6879,7 @@
         <v>17.15625</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O110" s="24" t="n">
         <v>9</v>
@@ -6887,10 +6893,10 @@
     </row>
     <row r="111" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="31" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D111" s="32" t="n">
         <v>1</v>
@@ -6900,7 +6906,7 @@
       </c>
       <c r="F111" s="23"/>
       <c r="G111" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H111" s="22" t="s">
         <v>27</v>
@@ -6923,7 +6929,7 @@
         <v>17.1875</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O111" s="24" t="n">
         <v>9</v>
@@ -6937,10 +6943,10 @@
     </row>
     <row r="112" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D112" s="32" t="n">
         <v>1</v>
@@ -6950,7 +6956,7 @@
       </c>
       <c r="F112" s="23"/>
       <c r="G112" s="22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H112" s="22" t="s">
         <v>27</v>
@@ -6973,7 +6979,7 @@
         <v>17.21875</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O112" s="24" t="n">
         <v>9</v>
@@ -6987,10 +6993,10 @@
     </row>
     <row r="113" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="31" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D113" s="32" t="n">
         <v>1</v>
@@ -7000,13 +7006,13 @@
       </c>
       <c r="F113" s="23"/>
       <c r="G113" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H113" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I113" s="32" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J113" s="29" t="n">
         <f aca="false">J112+D112</f>
@@ -7025,7 +7031,7 @@
         <v>17.25</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O113" s="24" t="n">
         <v>9</v>
@@ -7039,10 +7045,10 @@
     </row>
     <row r="114" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D114" s="32" t="n">
         <v>1</v>
@@ -7052,7 +7058,7 @@
       </c>
       <c r="F114" s="23"/>
       <c r="G114" s="22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H114" s="22" t="s">
         <v>27</v>
@@ -7075,7 +7081,7 @@
         <v>17.28125</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O114" s="24" t="n">
         <v>9</v>
@@ -7089,10 +7095,10 @@
     </row>
     <row r="115" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="31" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D115" s="32" t="n">
         <v>1</v>
@@ -7102,7 +7108,7 @@
       </c>
       <c r="F115" s="23"/>
       <c r="G115" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H115" s="22" t="s">
         <v>27</v>
@@ -7125,7 +7131,7 @@
         <v>17.3125</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O115" s="24" t="n">
         <v>9</v>
@@ -7139,10 +7145,10 @@
     </row>
     <row r="116" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D116" s="32" t="n">
         <v>1</v>
@@ -7152,7 +7158,7 @@
       </c>
       <c r="F116" s="23"/>
       <c r="G116" s="22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H116" s="22" t="s">
         <v>27</v>
@@ -7175,7 +7181,7 @@
         <v>17.34375</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O116" s="24" t="n">
         <v>9</v>
@@ -7189,10 +7195,10 @@
     </row>
     <row r="117" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D117" s="32" t="n">
         <v>1</v>
@@ -7202,7 +7208,7 @@
       </c>
       <c r="F117" s="23"/>
       <c r="G117" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H117" s="22" t="s">
         <v>27</v>
@@ -7225,7 +7231,7 @@
         <v>17.375</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O117" s="24" t="n">
         <v>9</v>
@@ -7239,10 +7245,10 @@
     </row>
     <row r="118" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D118" s="32" t="n">
         <v>1</v>
@@ -7252,7 +7258,7 @@
       </c>
       <c r="F118" s="23"/>
       <c r="G118" s="22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H118" s="22" t="s">
         <v>27</v>
@@ -7275,7 +7281,7 @@
         <v>17.40625</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O118" s="24" t="n">
         <v>9</v>
@@ -7289,10 +7295,10 @@
     </row>
     <row r="119" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D119" s="32" t="n">
         <v>1</v>
@@ -7302,7 +7308,7 @@
       </c>
       <c r="F119" s="23"/>
       <c r="G119" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H119" s="22" t="s">
         <v>27</v>
@@ -7325,7 +7331,7 @@
         <v>17.4375</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O119" s="24" t="n">
         <v>9</v>
@@ -7339,10 +7345,10 @@
     </row>
     <row r="120" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D120" s="32" t="n">
         <v>1</v>
@@ -7352,7 +7358,7 @@
       </c>
       <c r="F120" s="23"/>
       <c r="G120" s="22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H120" s="22" t="s">
         <v>27</v>
@@ -7375,7 +7381,7 @@
         <v>17.46875</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O120" s="24" t="n">
         <v>9</v>
@@ -7389,10 +7395,10 @@
     </row>
     <row r="121" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D121" s="32" t="n">
         <v>1</v>
@@ -7402,13 +7408,13 @@
       </c>
       <c r="F121" s="23"/>
       <c r="G121" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H121" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I121" s="32" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J121" s="29" t="n">
         <f aca="false">J120+D120</f>
@@ -7427,7 +7433,7 @@
         <v>17.5</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O121" s="24" t="n">
         <v>9</v>
@@ -7441,10 +7447,10 @@
     </row>
     <row r="122" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D122" s="32" t="n">
         <v>1</v>
@@ -7454,7 +7460,7 @@
       </c>
       <c r="F122" s="23"/>
       <c r="G122" s="22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H122" s="22" t="s">
         <v>27</v>
@@ -7477,7 +7483,7 @@
         <v>17.53125</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O122" s="24" t="n">
         <v>9</v>
@@ -7491,10 +7497,10 @@
     </row>
     <row r="123" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D123" s="32" t="n">
         <v>1</v>
@@ -7504,7 +7510,7 @@
       </c>
       <c r="F123" s="23"/>
       <c r="G123" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H123" s="22" t="s">
         <v>27</v>
@@ -7527,7 +7533,7 @@
         <v>17.5625</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O123" s="24" t="n">
         <v>9</v>
@@ -7541,10 +7547,10 @@
     </row>
     <row r="124" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="31" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D124" s="32" t="n">
         <v>1</v>
@@ -7554,7 +7560,7 @@
       </c>
       <c r="F124" s="23"/>
       <c r="G124" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H124" s="22" t="s">
         <v>27</v>
@@ -7577,7 +7583,7 @@
         <v>17.59375</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O124" s="24" t="n">
         <v>9</v>
@@ -7591,10 +7597,10 @@
     </row>
     <row r="125" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D125" s="32" t="n">
         <v>1</v>
@@ -7604,7 +7610,7 @@
       </c>
       <c r="F125" s="23"/>
       <c r="G125" s="22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H125" s="22" t="s">
         <v>27</v>
@@ -7627,7 +7633,7 @@
         <v>17.625</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O125" s="24" t="n">
         <v>9</v>
@@ -7641,10 +7647,10 @@
     </row>
     <row r="126" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D126" s="32" t="n">
         <v>1</v>
@@ -7654,7 +7660,7 @@
       </c>
       <c r="F126" s="23"/>
       <c r="G126" s="22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H126" s="22" t="s">
         <v>27</v>
@@ -7677,7 +7683,7 @@
         <v>17.65625</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O126" s="24" t="n">
         <v>9</v>
@@ -7691,10 +7697,10 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="31" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D127" s="32" t="n">
         <v>2</v>
@@ -7741,10 +7747,10 @@
     </row>
     <row r="128" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="31" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D128" s="32" t="n">
         <v>1</v>
@@ -7754,7 +7760,7 @@
       </c>
       <c r="F128" s="23"/>
       <c r="G128" s="22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H128" s="22" t="s">
         <v>27</v>
@@ -7791,10 +7797,10 @@
     </row>
     <row r="129" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D129" s="32" t="n">
         <v>1</v>
@@ -7804,7 +7810,7 @@
       </c>
       <c r="F129" s="23"/>
       <c r="G129" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H129" s="22" t="s">
         <v>27</v>
@@ -7841,10 +7847,10 @@
     </row>
     <row r="130" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="31" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D130" s="32" t="n">
         <v>1</v>
@@ -7854,7 +7860,7 @@
       </c>
       <c r="F130" s="23"/>
       <c r="G130" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H130" s="22" t="s">
         <v>27</v>
@@ -7891,10 +7897,10 @@
     </row>
     <row r="131" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D131" s="32" t="n">
         <v>1</v>
@@ -7904,7 +7910,7 @@
       </c>
       <c r="F131" s="23"/>
       <c r="G131" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H131" s="22" t="s">
         <v>27</v>
@@ -7941,10 +7947,10 @@
     </row>
     <row r="132" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="31" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D132" s="32" t="n">
         <v>1</v>
@@ -7954,7 +7960,7 @@
       </c>
       <c r="F132" s="23"/>
       <c r="G132" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H132" s="22"/>
       <c r="I132" s="32"/>
@@ -7975,7 +7981,7 @@
         <v>17.875</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O132" s="24" t="n">
         <v>9</v>
@@ -7989,10 +7995,10 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D133" s="32" t="n">
         <v>3</v>
@@ -8039,10 +8045,10 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="31" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D134" s="32" t="n">
         <v>8</v>
@@ -8091,10 +8097,10 @@
     </row>
     <row r="135" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="31" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D135" s="32" t="n">
         <v>8</v>
@@ -8110,7 +8116,7 @@
         <v>27</v>
       </c>
       <c r="I135" s="23" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J135" s="29" t="n">
         <f aca="false">J134+D134</f>
@@ -8143,10 +8149,10 @@
     </row>
     <row r="136" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="31" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D136" s="32" t="n">
         <v>8</v>
@@ -8162,7 +8168,7 @@
         <v>27</v>
       </c>
       <c r="I136" s="23" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J136" s="29" t="n">
         <f aca="false">J135+D135</f>
@@ -8195,10 +8201,10 @@
     </row>
     <row r="137" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D137" s="32" t="n">
         <v>8</v>
@@ -8214,7 +8220,7 @@
         <v>27</v>
       </c>
       <c r="I137" s="23" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J137" s="29" t="n">
         <f aca="false">J136+D136</f>
@@ -8247,10 +8253,10 @@
     </row>
     <row r="138" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="31" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D138" s="32" t="n">
         <v>8</v>
@@ -8266,7 +8272,7 @@
         <v>27</v>
       </c>
       <c r="I138" s="23" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J138" s="29" t="n">
         <f aca="false">J137+D137</f>
@@ -8299,10 +8305,10 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="31" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D139" s="32" t="n">
         <v>8</v>
@@ -8349,10 +8355,10 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="31" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D140" s="32" t="n">
         <v>8</v>
@@ -8399,10 +8405,10 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="31" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D141" s="32" t="n">
         <v>8</v>
@@ -8449,10 +8455,10 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D142" s="32" t="n">
         <v>8</v>
@@ -8499,10 +8505,10 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="31" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D143" s="32" t="n">
         <v>8</v>
@@ -8549,10 +8555,10 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="31" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D144" s="32" t="n">
         <v>8</v>
@@ -8621,9 +8627,9 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="C146" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="C146" s="31" t="s">
         <v>357</v>
       </c>
       <c r="D146" s="32" t="n">
@@ -8948,7 +8954,7 @@
       <c r="B153" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="C153" s="32" t="s">
+      <c r="C153" s="31" t="s">
         <v>372</v>
       </c>
       <c r="D153" s="32" t="n">
@@ -8998,7 +9004,7 @@
       <c r="B154" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="C154" s="32" t="s">
+      <c r="C154" s="31" t="s">
         <v>373</v>
       </c>
       <c r="D154" s="32" t="n">
@@ -9048,7 +9054,7 @@
       <c r="B155" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="C155" s="32" t="s">
+      <c r="C155" s="31" t="s">
         <v>374</v>
       </c>
       <c r="D155" s="32" t="n">
@@ -9098,7 +9104,7 @@
       <c r="B156" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="C156" s="32" t="s">
+      <c r="C156" s="31" t="s">
         <v>375</v>
       </c>
       <c r="D156" s="32" t="n">
@@ -10663,10 +10669,10 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="31" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C204" s="22" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D204" s="22" t="n">
         <v>7</v>
@@ -10789,7 +10795,7 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="42" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B210" s="11"/>
       <c r="C210" s="41"/>
@@ -10871,7 +10877,7 @@
         <v>1</v>
       </c>
       <c r="H212" s="39" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="I212" s="28" t="s">
         <v>414</v>
@@ -10907,7 +10913,7 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="31" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C213" s="32" t="s">
         <v>417</v>
@@ -10919,7 +10925,7 @@
         <v>26</v>
       </c>
       <c r="F213" s="23" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G213" s="39" t="n">
         <v>1</v>
@@ -10978,7 +10984,7 @@
         <v>27</v>
       </c>
       <c r="I214" s="28" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="J214" s="4" t="n">
         <f aca="false">J213+D213</f>
@@ -11097,7 +11103,7 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="42" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="219" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11171,10 +11177,10 @@
         <v>133</v>
       </c>
       <c r="H220" s="38" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="I220" s="38" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="J220" s="44" t="n">
         <v>0</v>
@@ -11192,7 +11198,7 @@
         <v>0</v>
       </c>
       <c r="N220" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O220" s="3" t="n">
         <v>1</v>
@@ -11206,10 +11212,10 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="43" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C221" s="38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D221" s="38" t="n">
         <v>32</v>
@@ -11222,10 +11228,10 @@
         <v>133</v>
       </c>
       <c r="H221" s="38" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="I221" s="38" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J221" s="44" t="n">
         <f aca="false">J220+D220</f>
@@ -11244,7 +11250,7 @@
         <v>1</v>
       </c>
       <c r="N221" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O221" s="3" t="n">
         <v>1</v>
@@ -11258,7 +11264,7 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B222" s="43"/>
       <c r="C222" s="38"/>
@@ -11275,10 +11281,10 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="43" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C223" s="38" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D223" s="38" t="n">
         <v>1</v>
@@ -11288,13 +11294,13 @@
       </c>
       <c r="F223" s="38"/>
       <c r="G223" s="38" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H223" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I223" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J223" s="44" t="n">
         <f aca="false">J221+D221</f>
@@ -11313,7 +11319,7 @@
         <v>2</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O223" s="3" t="n">
         <v>1</v>
@@ -11327,10 +11333,10 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="43" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C224" s="38" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D224" s="38" t="n">
         <v>5</v>
@@ -11344,7 +11350,7 @@
       </c>
       <c r="H224" s="38"/>
       <c r="I224" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J224" s="44" t="n">
         <f aca="false">J223+D223</f>
@@ -11363,7 +11369,7 @@
         <v>2.03125</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O224" s="3" t="n">
         <v>1</v>
@@ -11377,10 +11383,10 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="43" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C225" s="38" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D225" s="38" t="n">
         <v>4</v>
@@ -11396,7 +11402,7 @@
         <v>27</v>
       </c>
       <c r="I225" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J225" s="44" t="n">
         <f aca="false">J224+D224</f>
@@ -11415,7 +11421,7 @@
         <v>2.1875</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O225" s="3" t="n">
         <v>1</v>
@@ -11429,10 +11435,10 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="43" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C226" s="38" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D226" s="38" t="n">
         <v>5</v>
@@ -11448,7 +11454,7 @@
         <v>27</v>
       </c>
       <c r="I226" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J226" s="44" t="n">
         <f aca="false">J225+D225</f>
@@ -11467,7 +11473,7 @@
         <v>2.3125</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O226" s="3" t="n">
         <v>1</v>
@@ -11481,10 +11487,10 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="43" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C227" s="38" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D227" s="38" t="n">
         <v>6</v>
@@ -11500,7 +11506,7 @@
         <v>27</v>
       </c>
       <c r="I227" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J227" s="44" t="n">
         <f aca="false">J226+D226</f>
@@ -11519,7 +11525,7 @@
         <v>2.46875</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O227" s="3" t="n">
         <v>1</v>
@@ -11533,10 +11539,10 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="43" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C228" s="38" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D228" s="38" t="n">
         <v>6</v>
@@ -11552,7 +11558,7 @@
         <v>27</v>
       </c>
       <c r="I228" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J228" s="44" t="n">
         <f aca="false">J227+D227</f>
@@ -11571,7 +11577,7 @@
         <v>2.65625</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O228" s="3" t="n">
         <v>1</v>
@@ -11585,10 +11591,10 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="43" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C229" s="38" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D229" s="38" t="n">
         <v>5</v>
@@ -11604,7 +11610,7 @@
         <v>27</v>
       </c>
       <c r="I229" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J229" s="44" t="n">
         <f aca="false">J228+D228</f>
@@ -11623,7 +11629,7 @@
         <v>2.84375</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O229" s="3" t="n">
         <v>1</v>
@@ -11637,7 +11643,7 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B230" s="43"/>
       <c r="C230" s="38"/>
@@ -11654,10 +11660,10 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="43" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C231" s="38" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D231" s="38" t="n">
         <v>8</v>
@@ -11673,7 +11679,7 @@
         <v>71</v>
       </c>
       <c r="I231" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J231" s="44" t="n">
         <f aca="false">J229+D229</f>
@@ -11692,7 +11698,7 @@
         <v>3</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O231" s="3" t="n">
         <v>1</v>
@@ -11706,10 +11712,10 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="43" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C232" s="38" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D232" s="38" t="n">
         <v>8</v>
@@ -11725,7 +11731,7 @@
         <v>71</v>
       </c>
       <c r="I232" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J232" s="44" t="n">
         <f aca="false">J231+D231</f>
@@ -11744,7 +11750,7 @@
         <v>3.25</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O232" s="3" t="n">
         <v>1</v>
@@ -11758,10 +11764,10 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="43" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C233" s="38" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D233" s="38" t="n">
         <v>16</v>
@@ -11777,7 +11783,7 @@
         <v>27</v>
       </c>
       <c r="I233" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J233" s="44" t="n">
         <f aca="false">J232+D232</f>
@@ -11840,7 +11846,7 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="42" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F235" s="38"/>
       <c r="G235" s="38"/>
@@ -11924,10 +11930,10 @@
     </row>
     <row r="238" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="21" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C238" s="45" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D238" s="1" t="n">
         <v>5</v>
@@ -11943,7 +11949,7 @@
         <v>27</v>
       </c>
       <c r="I238" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J238" s="44" t="n">
         <f aca="false">J234</f>
@@ -11976,10 +11982,10 @@
     </row>
     <row r="239" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="21" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C239" s="45" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D239" s="1" t="n">
         <v>1</v>
@@ -11989,13 +11995,13 @@
       </c>
       <c r="F239" s="46"/>
       <c r="G239" s="38" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H239" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I239" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J239" s="44" t="n">
         <f aca="false">J238+D238</f>
@@ -12014,7 +12020,7 @@
         <v>4.15625</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O239" s="3" t="n">
         <v>1</v>
@@ -12028,10 +12034,10 @@
     </row>
     <row r="240" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="21" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C240" s="45" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D240" s="1" t="n">
         <v>1</v>
@@ -12041,13 +12047,13 @@
       </c>
       <c r="F240" s="46"/>
       <c r="G240" s="38" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H240" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I240" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J240" s="44" t="n">
         <f aca="false">J239+D239</f>
@@ -12066,7 +12072,7 @@
         <v>4.1875</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O240" s="3" t="n">
         <v>2</v>
@@ -12080,10 +12086,10 @@
     </row>
     <row r="241" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="21" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C241" s="45" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D241" s="1" t="n">
         <v>3</v>
@@ -12099,7 +12105,7 @@
         <v>27</v>
       </c>
       <c r="I241" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J241" s="44" t="n">
         <f aca="false">J240+D240</f>
@@ -12118,7 +12124,7 @@
         <v>4.21875</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O241" s="3" t="n">
         <v>2</v>
@@ -12132,10 +12138,10 @@
     </row>
     <row r="242" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="21" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C242" s="45" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D242" s="1" t="n">
         <v>4</v>
@@ -12145,13 +12151,13 @@
       </c>
       <c r="F242" s="46"/>
       <c r="G242" s="38" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H242" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I242" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J242" s="44" t="n">
         <f aca="false">J241+D241</f>
@@ -12170,7 +12176,7 @@
         <v>4.3125</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O242" s="3" t="n">
         <v>2</v>
@@ -12184,10 +12190,10 @@
     </row>
     <row r="243" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="21" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C243" s="45" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D243" s="1" t="n">
         <v>4</v>
@@ -12197,13 +12203,13 @@
       </c>
       <c r="F243" s="46"/>
       <c r="G243" s="38" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H243" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I243" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J243" s="44" t="n">
         <f aca="false">J242+D242</f>
@@ -12222,7 +12228,7 @@
         <v>4.4375</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O243" s="3" t="n">
         <v>2</v>
@@ -12236,10 +12242,10 @@
     </row>
     <row r="244" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="21" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C244" s="45" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D244" s="1" t="n">
         <v>5</v>
@@ -12249,13 +12255,13 @@
       </c>
       <c r="F244" s="46"/>
       <c r="G244" s="38" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H244" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I244" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J244" s="44" t="n">
         <f aca="false">J243+D243</f>
@@ -12274,7 +12280,7 @@
         <v>4.5625</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O244" s="3" t="n">
         <v>2</v>
@@ -12288,10 +12294,10 @@
     </row>
     <row r="245" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="21" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C245" s="45" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D245" s="1" t="n">
         <v>9</v>
@@ -12307,7 +12313,7 @@
         <v>27</v>
       </c>
       <c r="I245" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J245" s="44" t="n">
         <f aca="false">J244+D244</f>
@@ -12326,7 +12332,7 @@
         <v>4.71875</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O245" s="3" t="n">
         <v>2</v>
@@ -12359,10 +12365,10 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="47" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D247" s="1" t="n">
         <v>8</v>
@@ -12378,7 +12384,7 @@
         <v>27</v>
       </c>
       <c r="I247" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J247" s="44" t="n">
         <f aca="false">J245+D245</f>
@@ -12397,7 +12403,7 @@
         <v>5</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="O247" s="3" t="n">
         <v>3</v>
@@ -12411,10 +12417,10 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="47" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D248" s="1" t="n">
         <v>8</v>
@@ -12430,7 +12436,7 @@
         <v>27</v>
       </c>
       <c r="I248" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J248" s="44" t="n">
         <f aca="false">J247+D247</f>
@@ -12449,7 +12455,7 @@
         <v>5.25</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="O248" s="3" t="n">
         <v>3</v>
@@ -12463,10 +12469,10 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="47" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D249" s="1" t="n">
         <v>8</v>
@@ -12482,7 +12488,7 @@
         <v>27</v>
       </c>
       <c r="I249" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J249" s="44" t="n">
         <f aca="false">J248+D248</f>
@@ -12501,7 +12507,7 @@
         <v>5.5</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="O249" s="3" t="n">
         <v>3</v>
@@ -12515,10 +12521,10 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="47" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D250" s="1" t="n">
         <v>8</v>
@@ -12534,7 +12540,7 @@
         <v>27</v>
       </c>
       <c r="I250" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J250" s="44" t="n">
         <f aca="false">J249+D249</f>
@@ -12553,7 +12559,7 @@
         <v>5.75</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="O250" s="3" t="n">
         <v>3</v>
@@ -12567,10 +12573,10 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="47" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D251" s="1" t="n">
         <v>8</v>
@@ -12586,7 +12592,7 @@
         <v>27</v>
       </c>
       <c r="I251" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J251" s="44" t="n">
         <f aca="false">J250+D250</f>
@@ -12605,7 +12611,7 @@
         <v>6</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="O251" s="3" t="n">
         <v>3</v>
@@ -12619,10 +12625,10 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="47" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D252" s="1" t="n">
         <v>8</v>
@@ -12638,7 +12644,7 @@
         <v>27</v>
       </c>
       <c r="I252" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J252" s="44" t="n">
         <f aca="false">J251+D251</f>
@@ -12657,7 +12663,7 @@
         <v>6.25</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="O252" s="3" t="n">
         <v>3</v>
@@ -12671,10 +12677,10 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="47" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D253" s="1" t="n">
         <v>8</v>
@@ -12690,7 +12696,7 @@
         <v>27</v>
       </c>
       <c r="I253" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J253" s="44" t="n">
         <f aca="false">J252+D252</f>
@@ -12709,7 +12715,7 @@
         <v>6.5</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="O253" s="3" t="n">
         <v>3</v>
@@ -12723,10 +12729,10 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="47" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D254" s="1" t="n">
         <v>8</v>
@@ -12742,7 +12748,7 @@
         <v>27</v>
       </c>
       <c r="I254" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J254" s="44" t="n">
         <f aca="false">J253+D253</f>
@@ -12761,7 +12767,7 @@
         <v>6.75</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="O254" s="3" t="n">
         <v>3</v>
@@ -12775,10 +12781,10 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="47" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D255" s="1" t="n">
         <v>8</v>
@@ -12794,7 +12800,7 @@
         <v>27</v>
       </c>
       <c r="I255" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J255" s="44" t="n">
         <f aca="false">J254+D254</f>
@@ -12813,7 +12819,7 @@
         <v>7</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="O255" s="3" t="n">
         <v>3</v>
@@ -12827,10 +12833,10 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="47" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D256" s="1" t="n">
         <v>8</v>
@@ -12846,7 +12852,7 @@
         <v>27</v>
       </c>
       <c r="I256" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J256" s="44" t="n">
         <f aca="false">J255+D255</f>
@@ -12865,7 +12871,7 @@
         <v>7.25</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="O256" s="3" t="n">
         <v>3</v>
@@ -12879,10 +12885,10 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="47" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D257" s="1" t="n">
         <v>8</v>
@@ -12898,7 +12904,7 @@
         <v>27</v>
       </c>
       <c r="I257" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J257" s="44" t="n">
         <f aca="false">J256+D256</f>
@@ -12917,7 +12923,7 @@
         <v>7.5</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="O257" s="3" t="n">
         <v>3</v>
@@ -12931,10 +12937,10 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="47" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D258" s="1" t="n">
         <v>8</v>
@@ -12950,7 +12956,7 @@
         <v>27</v>
       </c>
       <c r="I258" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J258" s="44" t="n">
         <f aca="false">J257+D257</f>
@@ -12969,7 +12975,7 @@
         <v>7.75</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="O258" s="3" t="n">
         <v>3</v>
@@ -12983,10 +12989,10 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="47" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D259" s="1" t="n">
         <v>8</v>
@@ -13002,7 +13008,7 @@
         <v>27</v>
       </c>
       <c r="I259" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J259" s="44" t="n">
         <f aca="false">J258+D258</f>
@@ -13021,7 +13027,7 @@
         <v>8</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="O259" s="3" t="n">
         <v>3</v>
@@ -13035,10 +13041,10 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="47" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D260" s="1" t="n">
         <v>16</v>
@@ -13056,7 +13062,7 @@
         <v>27</v>
       </c>
       <c r="I260" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J260" s="44" t="n">
         <f aca="false">J259+D259</f>
@@ -13075,7 +13081,7 @@
         <v>8.25</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O260" s="3" t="n">
         <v>1</v>
@@ -13089,10 +13095,10 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="47" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D261" s="1" t="n">
         <v>8</v>
@@ -13108,7 +13114,7 @@
         <v>27</v>
       </c>
       <c r="I261" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J261" s="44" t="n">
         <f aca="false">J260+D260</f>
@@ -13127,7 +13133,7 @@
         <v>8.75</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O261" s="3" t="n">
         <v>2</v>
@@ -13218,7 +13224,7 @@
       <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="40" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="40" width="16.11"/>
@@ -13229,22 +13235,22 @@
     <row r="6" s="49" customFormat="true" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="50"/>
       <c r="C6" s="50" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="I6" s="50"/>
     </row>
@@ -13614,10 +13620,10 @@
     </row>
     <row r="26" s="1" customFormat="true" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="32" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D26" s="27" t="n">
         <v>16</v>
@@ -13666,10 +13672,10 @@
     </row>
     <row r="27" s="1" customFormat="true" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="32" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D27" s="27" t="n">
         <v>32</v>
@@ -13716,16 +13722,16 @@
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="52" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E30" s="52" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F30" s="52"/>
     </row>

--- a/genSpacecraft/DownlinkSpecLTM.xlsx
+++ b/genSpacecraft/DownlinkSpecLTM.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="522">
   <si>
     <t xml:space="preserve">//</t>
   </si>
@@ -191,7 +191,7 @@
     <t xml:space="preserve">Pad10</t>
   </si>
   <si>
-    <t xml:space="preserve">pad10</t>
+    <t xml:space="preserve">pad20</t>
   </si>
   <si>
     <t xml:space="preserve">Pad</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">Structure: realtimeSpecific_t, file:realtimeDownlink.h</t>
   </si>
   <si>
-    <t xml:space="preserve">Pad5</t>
+    <t xml:space="preserve">Pad161</t>
   </si>
   <si>
     <t xml:space="preserve">Structure: maxSpecific_t, file: maxDownlink.h</t>
@@ -1202,7 +1202,7 @@
     <t xml:space="preserve">Filler</t>
   </si>
   <si>
-    <t xml:space="preserve">pad0</t>
+    <t xml:space="preserve">pad168</t>
   </si>
   <si>
     <t xml:space="preserve">Make same length as WOD</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">CRC Error for the min payload</t>
   </si>
   <si>
-    <t xml:space="preserve">Pad4</t>
+    <t xml:space="preserve">Pad178</t>
   </si>
   <si>
     <t xml:space="preserve">Structure:wodSpecific_t,file:wodSpecificDownlink.h</t>
@@ -1286,6 +1286,9 @@
     <t xml:space="preserve">CRC Error for the WOD Payload</t>
   </si>
   <si>
+    <t xml:space="preserve">pad191</t>
+  </si>
+  <si>
     <t xml:space="preserve">Structure:scienceLong_t, file:sciLongDownlink.h</t>
   </si>
   <si>
@@ -1335,6 +1338,9 @@
   </si>
   <si>
     <t xml:space="preserve">CRC Error for VU Radiataion Payload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pad215</t>
   </si>
   <si>
     <t xml:space="preserve">Structure:infrequentDownlink_t,file:infrequentDownlink.h</t>
@@ -1958,8 +1964,8 @@
   </sheetPr>
   <dimension ref="A1:Q264"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B229" activeCellId="0" sqref="B229"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10221,7 +10227,7 @@
         <v>55</v>
       </c>
       <c r="C191" s="22" t="s">
-        <v>56</v>
+        <v>421</v>
       </c>
       <c r="D191" s="22" t="n">
         <v>5</v>
@@ -10310,7 +10316,7 @@
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="40" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B194" s="11"/>
       <c r="C194" s="41"/>
@@ -10376,10 +10382,10 @@
     </row>
     <row r="196" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="31" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C196" s="22" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D196" s="22" t="n">
         <v>5248</v>
@@ -10397,7 +10403,7 @@
         <v>27</v>
       </c>
       <c r="I196" s="23" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J196" s="4" t="n">
         <v>0</v>
@@ -10429,10 +10435,10 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="31" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C197" s="22" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D197" s="22" t="n">
         <v>7</v>
@@ -10469,10 +10475,10 @@
     </row>
     <row r="198" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="31" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C198" s="22" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D198" s="22" t="n">
         <v>1</v>
@@ -10486,7 +10492,7 @@
       </c>
       <c r="H198" s="22"/>
       <c r="I198" s="23" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J198" s="4" t="n">
         <f aca="false">J197+D197</f>
@@ -10550,7 +10556,7 @@
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="42" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B201" s="11"/>
       <c r="C201" s="41"/>
@@ -10616,10 +10622,10 @@
     </row>
     <row r="203" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="31" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C203" s="22" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D203" s="22" t="n">
         <v>664</v>
@@ -10637,7 +10643,7 @@
         <v>27</v>
       </c>
       <c r="I203" s="23" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J203" s="4" t="n">
         <v>0</v>
@@ -10669,10 +10675,10 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="31" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C204" s="22" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D204" s="22" t="n">
         <v>7</v>
@@ -10721,10 +10727,10 @@
     </row>
     <row r="205" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="31" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C205" s="22" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D205" s="22" t="n">
         <v>1</v>
@@ -10738,7 +10744,7 @@
       </c>
       <c r="H205" s="22"/>
       <c r="I205" s="23" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J205" s="4" t="n">
         <f aca="false">J204+D204</f>
@@ -10795,7 +10801,7 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="42" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B210" s="11"/>
       <c r="C210" s="41"/>
@@ -10877,7 +10883,7 @@
         <v>1</v>
       </c>
       <c r="H212" s="39" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I212" s="28" t="s">
         <v>414</v>
@@ -10913,7 +10919,7 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="31" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C213" s="32" t="s">
         <v>417</v>
@@ -10925,7 +10931,7 @@
         <v>26</v>
       </c>
       <c r="F213" s="23" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G213" s="39" t="n">
         <v>1</v>
@@ -10984,7 +10990,7 @@
         <v>27</v>
       </c>
       <c r="I214" s="28" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="J214" s="4" t="n">
         <f aca="false">J213+D213</f>
@@ -11020,7 +11026,7 @@
         <v>28</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="D215" s="27" t="n">
         <v>8</v>
@@ -11103,7 +11109,7 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="42" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="219" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11177,10 +11183,10 @@
         <v>133</v>
       </c>
       <c r="H220" s="38" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I220" s="38" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="J220" s="44" t="n">
         <v>0</v>
@@ -11198,7 +11204,7 @@
         <v>0</v>
       </c>
       <c r="N220" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="O220" s="3" t="n">
         <v>1</v>
@@ -11212,10 +11218,10 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="43" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C221" s="38" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D221" s="38" t="n">
         <v>32</v>
@@ -11228,10 +11234,10 @@
         <v>133</v>
       </c>
       <c r="H221" s="38" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I221" s="38" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="J221" s="44" t="n">
         <f aca="false">J220+D220</f>
@@ -11250,7 +11256,7 @@
         <v>1</v>
       </c>
       <c r="N221" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="O221" s="3" t="n">
         <v>1</v>
@@ -11264,7 +11270,7 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B222" s="43"/>
       <c r="C222" s="38"/>
@@ -11281,10 +11287,10 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="43" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C223" s="38" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D223" s="38" t="n">
         <v>1</v>
@@ -11294,13 +11300,13 @@
       </c>
       <c r="F223" s="38"/>
       <c r="G223" s="38" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H223" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I223" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J223" s="44" t="n">
         <f aca="false">J221+D221</f>
@@ -11319,7 +11325,7 @@
         <v>2</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="O223" s="3" t="n">
         <v>1</v>
@@ -11333,10 +11339,10 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="43" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C224" s="38" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D224" s="38" t="n">
         <v>5</v>
@@ -11350,7 +11356,7 @@
       </c>
       <c r="H224" s="38"/>
       <c r="I224" s="38" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J224" s="44" t="n">
         <f aca="false">J223+D223</f>
@@ -11369,7 +11375,7 @@
         <v>2.03125</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="O224" s="3" t="n">
         <v>1</v>
@@ -11383,10 +11389,10 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="43" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C225" s="38" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D225" s="38" t="n">
         <v>4</v>
@@ -11402,7 +11408,7 @@
         <v>27</v>
       </c>
       <c r="I225" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J225" s="44" t="n">
         <f aca="false">J224+D224</f>
@@ -11421,7 +11427,7 @@
         <v>2.1875</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="O225" s="3" t="n">
         <v>1</v>
@@ -11435,10 +11441,10 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="43" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C226" s="38" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D226" s="38" t="n">
         <v>5</v>
@@ -11454,7 +11460,7 @@
         <v>27</v>
       </c>
       <c r="I226" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J226" s="44" t="n">
         <f aca="false">J225+D225</f>
@@ -11473,7 +11479,7 @@
         <v>2.3125</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="O226" s="3" t="n">
         <v>1</v>
@@ -11487,10 +11493,10 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="43" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C227" s="38" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D227" s="38" t="n">
         <v>6</v>
@@ -11506,7 +11512,7 @@
         <v>27</v>
       </c>
       <c r="I227" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J227" s="44" t="n">
         <f aca="false">J226+D226</f>
@@ -11525,7 +11531,7 @@
         <v>2.46875</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="O227" s="3" t="n">
         <v>1</v>
@@ -11539,10 +11545,10 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="43" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C228" s="38" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D228" s="38" t="n">
         <v>6</v>
@@ -11558,7 +11564,7 @@
         <v>27</v>
       </c>
       <c r="I228" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J228" s="44" t="n">
         <f aca="false">J227+D227</f>
@@ -11577,7 +11583,7 @@
         <v>2.65625</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="O228" s="3" t="n">
         <v>1</v>
@@ -11591,10 +11597,10 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="43" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C229" s="38" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D229" s="38" t="n">
         <v>5</v>
@@ -11610,7 +11616,7 @@
         <v>27</v>
       </c>
       <c r="I229" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J229" s="44" t="n">
         <f aca="false">J228+D228</f>
@@ -11629,7 +11635,7 @@
         <v>2.84375</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="O229" s="3" t="n">
         <v>1</v>
@@ -11643,7 +11649,7 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B230" s="43"/>
       <c r="C230" s="38"/>
@@ -11660,10 +11666,10 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="43" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C231" s="38" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D231" s="38" t="n">
         <v>8</v>
@@ -11679,7 +11685,7 @@
         <v>71</v>
       </c>
       <c r="I231" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J231" s="44" t="n">
         <f aca="false">J229+D229</f>
@@ -11698,7 +11704,7 @@
         <v>3</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="O231" s="3" t="n">
         <v>1</v>
@@ -11712,10 +11718,10 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="43" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C232" s="38" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D232" s="38" t="n">
         <v>8</v>
@@ -11731,7 +11737,7 @@
         <v>71</v>
       </c>
       <c r="I232" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J232" s="44" t="n">
         <f aca="false">J231+D231</f>
@@ -11750,7 +11756,7 @@
         <v>3.25</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="O232" s="3" t="n">
         <v>1</v>
@@ -11764,10 +11770,10 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="43" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C233" s="38" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D233" s="38" t="n">
         <v>16</v>
@@ -11783,7 +11789,7 @@
         <v>27</v>
       </c>
       <c r="I233" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J233" s="44" t="n">
         <f aca="false">J232+D232</f>
@@ -11846,7 +11852,7 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="42" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F235" s="38"/>
       <c r="G235" s="38"/>
@@ -11930,10 +11936,10 @@
     </row>
     <row r="238" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="21" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C238" s="45" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D238" s="1" t="n">
         <v>5</v>
@@ -11949,7 +11955,7 @@
         <v>27</v>
       </c>
       <c r="I238" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J238" s="44" t="n">
         <f aca="false">J234</f>
@@ -11982,10 +11988,10 @@
     </row>
     <row r="239" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="21" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C239" s="45" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D239" s="1" t="n">
         <v>1</v>
@@ -11995,13 +12001,13 @@
       </c>
       <c r="F239" s="46"/>
       <c r="G239" s="38" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H239" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I239" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J239" s="44" t="n">
         <f aca="false">J238+D238</f>
@@ -12020,7 +12026,7 @@
         <v>4.15625</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="O239" s="3" t="n">
         <v>1</v>
@@ -12034,10 +12040,10 @@
     </row>
     <row r="240" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="21" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C240" s="45" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D240" s="1" t="n">
         <v>1</v>
@@ -12047,13 +12053,13 @@
       </c>
       <c r="F240" s="46"/>
       <c r="G240" s="38" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H240" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I240" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J240" s="44" t="n">
         <f aca="false">J239+D239</f>
@@ -12072,7 +12078,7 @@
         <v>4.1875</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="O240" s="3" t="n">
         <v>2</v>
@@ -12086,10 +12092,10 @@
     </row>
     <row r="241" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="21" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C241" s="45" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D241" s="1" t="n">
         <v>3</v>
@@ -12105,7 +12111,7 @@
         <v>27</v>
       </c>
       <c r="I241" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J241" s="44" t="n">
         <f aca="false">J240+D240</f>
@@ -12124,7 +12130,7 @@
         <v>4.21875</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="O241" s="3" t="n">
         <v>2</v>
@@ -12138,10 +12144,10 @@
     </row>
     <row r="242" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="21" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C242" s="45" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D242" s="1" t="n">
         <v>4</v>
@@ -12151,13 +12157,13 @@
       </c>
       <c r="F242" s="46"/>
       <c r="G242" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H242" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I242" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J242" s="44" t="n">
         <f aca="false">J241+D241</f>
@@ -12176,7 +12182,7 @@
         <v>4.3125</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="O242" s="3" t="n">
         <v>2</v>
@@ -12190,10 +12196,10 @@
     </row>
     <row r="243" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="21" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C243" s="45" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D243" s="1" t="n">
         <v>4</v>
@@ -12203,13 +12209,13 @@
       </c>
       <c r="F243" s="46"/>
       <c r="G243" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H243" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I243" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J243" s="44" t="n">
         <f aca="false">J242+D242</f>
@@ -12228,7 +12234,7 @@
         <v>4.4375</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="O243" s="3" t="n">
         <v>2</v>
@@ -12242,10 +12248,10 @@
     </row>
     <row r="244" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="21" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C244" s="45" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D244" s="1" t="n">
         <v>5</v>
@@ -12255,13 +12261,13 @@
       </c>
       <c r="F244" s="46"/>
       <c r="G244" s="38" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H244" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I244" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J244" s="44" t="n">
         <f aca="false">J243+D243</f>
@@ -12280,7 +12286,7 @@
         <v>4.5625</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="O244" s="3" t="n">
         <v>2</v>
@@ -12294,10 +12300,10 @@
     </row>
     <row r="245" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="21" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C245" s="45" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D245" s="1" t="n">
         <v>9</v>
@@ -12313,7 +12319,7 @@
         <v>27</v>
       </c>
       <c r="I245" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J245" s="44" t="n">
         <f aca="false">J244+D244</f>
@@ -12332,7 +12338,7 @@
         <v>4.71875</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="O245" s="3" t="n">
         <v>2</v>
@@ -12365,10 +12371,10 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="47" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D247" s="1" t="n">
         <v>8</v>
@@ -12384,7 +12390,7 @@
         <v>27</v>
       </c>
       <c r="I247" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J247" s="44" t="n">
         <f aca="false">J245+D245</f>
@@ -12403,7 +12409,7 @@
         <v>5</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O247" s="3" t="n">
         <v>3</v>
@@ -12417,10 +12423,10 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="47" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D248" s="1" t="n">
         <v>8</v>
@@ -12436,7 +12442,7 @@
         <v>27</v>
       </c>
       <c r="I248" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J248" s="44" t="n">
         <f aca="false">J247+D247</f>
@@ -12455,7 +12461,7 @@
         <v>5.25</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O248" s="3" t="n">
         <v>3</v>
@@ -12469,10 +12475,10 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="47" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D249" s="1" t="n">
         <v>8</v>
@@ -12488,7 +12494,7 @@
         <v>27</v>
       </c>
       <c r="I249" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J249" s="44" t="n">
         <f aca="false">J248+D248</f>
@@ -12507,7 +12513,7 @@
         <v>5.5</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O249" s="3" t="n">
         <v>3</v>
@@ -12521,10 +12527,10 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="47" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D250" s="1" t="n">
         <v>8</v>
@@ -12540,7 +12546,7 @@
         <v>27</v>
       </c>
       <c r="I250" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J250" s="44" t="n">
         <f aca="false">J249+D249</f>
@@ -12559,7 +12565,7 @@
         <v>5.75</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O250" s="3" t="n">
         <v>3</v>
@@ -12573,10 +12579,10 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="47" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D251" s="1" t="n">
         <v>8</v>
@@ -12592,7 +12598,7 @@
         <v>27</v>
       </c>
       <c r="I251" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J251" s="44" t="n">
         <f aca="false">J250+D250</f>
@@ -12611,7 +12617,7 @@
         <v>6</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O251" s="3" t="n">
         <v>3</v>
@@ -12625,10 +12631,10 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="47" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D252" s="1" t="n">
         <v>8</v>
@@ -12644,7 +12650,7 @@
         <v>27</v>
       </c>
       <c r="I252" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J252" s="44" t="n">
         <f aca="false">J251+D251</f>
@@ -12663,7 +12669,7 @@
         <v>6.25</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O252" s="3" t="n">
         <v>3</v>
@@ -12677,10 +12683,10 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="47" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D253" s="1" t="n">
         <v>8</v>
@@ -12696,7 +12702,7 @@
         <v>27</v>
       </c>
       <c r="I253" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J253" s="44" t="n">
         <f aca="false">J252+D252</f>
@@ -12715,7 +12721,7 @@
         <v>6.5</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O253" s="3" t="n">
         <v>3</v>
@@ -12729,10 +12735,10 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="47" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D254" s="1" t="n">
         <v>8</v>
@@ -12748,7 +12754,7 @@
         <v>27</v>
       </c>
       <c r="I254" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J254" s="44" t="n">
         <f aca="false">J253+D253</f>
@@ -12767,7 +12773,7 @@
         <v>6.75</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O254" s="3" t="n">
         <v>3</v>
@@ -12781,10 +12787,10 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="47" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D255" s="1" t="n">
         <v>8</v>
@@ -12800,7 +12806,7 @@
         <v>27</v>
       </c>
       <c r="I255" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J255" s="44" t="n">
         <f aca="false">J254+D254</f>
@@ -12819,7 +12825,7 @@
         <v>7</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O255" s="3" t="n">
         <v>3</v>
@@ -12833,10 +12839,10 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="47" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D256" s="1" t="n">
         <v>8</v>
@@ -12852,7 +12858,7 @@
         <v>27</v>
       </c>
       <c r="I256" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J256" s="44" t="n">
         <f aca="false">J255+D255</f>
@@ -12871,7 +12877,7 @@
         <v>7.25</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O256" s="3" t="n">
         <v>3</v>
@@ -12885,10 +12891,10 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="47" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D257" s="1" t="n">
         <v>8</v>
@@ -12904,7 +12910,7 @@
         <v>27</v>
       </c>
       <c r="I257" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J257" s="44" t="n">
         <f aca="false">J256+D256</f>
@@ -12923,7 +12929,7 @@
         <v>7.5</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O257" s="3" t="n">
         <v>3</v>
@@ -12937,10 +12943,10 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="47" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D258" s="1" t="n">
         <v>8</v>
@@ -12956,7 +12962,7 @@
         <v>27</v>
       </c>
       <c r="I258" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J258" s="44" t="n">
         <f aca="false">J257+D257</f>
@@ -12975,7 +12981,7 @@
         <v>7.75</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O258" s="3" t="n">
         <v>3</v>
@@ -12989,10 +12995,10 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="47" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D259" s="1" t="n">
         <v>8</v>
@@ -13008,7 +13014,7 @@
         <v>27</v>
       </c>
       <c r="I259" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J259" s="44" t="n">
         <f aca="false">J258+D258</f>
@@ -13027,7 +13033,7 @@
         <v>8</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O259" s="3" t="n">
         <v>3</v>
@@ -13041,10 +13047,10 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="47" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D260" s="1" t="n">
         <v>16</v>
@@ -13062,7 +13068,7 @@
         <v>27</v>
       </c>
       <c r="I260" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J260" s="44" t="n">
         <f aca="false">J259+D259</f>
@@ -13081,7 +13087,7 @@
         <v>8.25</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="O260" s="3" t="n">
         <v>1</v>
@@ -13095,10 +13101,10 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="47" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D261" s="1" t="n">
         <v>8</v>
@@ -13114,7 +13120,7 @@
         <v>27</v>
       </c>
       <c r="I261" s="38" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J261" s="44" t="n">
         <f aca="false">J260+D260</f>
@@ -13133,7 +13139,7 @@
         <v>8.75</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="O261" s="3" t="n">
         <v>2</v>
@@ -13224,7 +13230,7 @@
       <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="40" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="40" width="16.11"/>
@@ -13235,22 +13241,22 @@
     <row r="6" s="49" customFormat="true" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="50"/>
       <c r="C6" s="50" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G6" s="50" t="s">
         <v>281</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="I6" s="50"/>
     </row>
@@ -13620,10 +13626,10 @@
     </row>
     <row r="26" s="1" customFormat="true" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="32" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D26" s="27" t="n">
         <v>16</v>
@@ -13672,10 +13678,10 @@
     </row>
     <row r="27" s="1" customFormat="true" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="32" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D27" s="27" t="n">
         <v>32</v>
@@ -13722,16 +13728,16 @@
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="52" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E30" s="52" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F30" s="52"/>
     </row>

--- a/genSpacecraft/DownlinkSpecLTM.xlsx
+++ b/genSpacecraft/DownlinkSpecLTM.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="529">
   <si>
     <t xml:space="preserve">//</t>
   </si>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">Min Last Change Epoch</t>
   </si>
   <si>
-    <t xml:space="preserve">Last Reset Time</t>
+    <t xml:space="preserve">MinMax Reset Time</t>
   </si>
   <si>
     <t xml:space="preserve">minmaxResetEpoch</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">Time Whole Orbit Data was collected</t>
   </si>
   <si>
-    <t xml:space="preserve">Reset</t>
+    <t xml:space="preserve">Data Capture Time</t>
   </si>
   <si>
     <t xml:space="preserve">WODTimestampReset</t>
@@ -1350,9 +1350,6 @@
   </si>
   <si>
     <t xml:space="preserve">sec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reset Count</t>
   </si>
   <si>
     <t xml:space="preserve">uint16_t</t>
@@ -1988,8 +1985,8 @@
   </sheetPr>
   <dimension ref="A1:Q264"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D166" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P186" activeCellId="0" sqref="P186"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A156" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B175" activeCellId="0" sqref="B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10946,7 +10943,7 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="31" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="C213" s="32" t="s">
         <v>421</v>
@@ -10958,7 +10955,7 @@
         <v>26</v>
       </c>
       <c r="F213" s="23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G213" s="23" t="s">
         <v>422</v>
@@ -11000,7 +10997,7 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C214" s="32" t="s">
         <v>425</v>
@@ -11017,7 +11014,7 @@
         <v>27</v>
       </c>
       <c r="I214" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J214" s="4" t="n">
         <f aca="false">J213+D213</f>
@@ -11053,7 +11050,7 @@
         <v>28</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D215" s="27" t="n">
         <v>8</v>
@@ -11136,7 +11133,7 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="43" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="219" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11210,10 +11207,10 @@
         <v>133</v>
       </c>
       <c r="H220" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="I220" s="38" t="s">
         <v>449</v>
-      </c>
-      <c r="I220" s="38" t="s">
-        <v>450</v>
       </c>
       <c r="J220" s="45" t="n">
         <v>0</v>
@@ -11231,7 +11228,7 @@
         <v>0</v>
       </c>
       <c r="N220" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O220" s="3" t="n">
         <v>1</v>
@@ -11245,10 +11242,10 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="C221" s="38" t="s">
         <v>452</v>
-      </c>
-      <c r="C221" s="38" t="s">
-        <v>453</v>
       </c>
       <c r="D221" s="38" t="n">
         <v>32</v>
@@ -11261,10 +11258,10 @@
         <v>133</v>
       </c>
       <c r="H221" s="38" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I221" s="38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J221" s="45" t="n">
         <f aca="false">J220+D220</f>
@@ -11283,7 +11280,7 @@
         <v>1</v>
       </c>
       <c r="N221" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O221" s="3" t="n">
         <v>1</v>
@@ -11297,7 +11294,7 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B222" s="44"/>
       <c r="C222" s="38"/>
@@ -11314,10 +11311,10 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C223" s="38" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D223" s="38" t="n">
         <v>1</v>
@@ -11327,13 +11324,13 @@
       </c>
       <c r="F223" s="38"/>
       <c r="G223" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H223" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I223" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J223" s="45" t="n">
         <f aca="false">J221+D221</f>
@@ -11352,7 +11349,7 @@
         <v>2</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O223" s="3" t="n">
         <v>1</v>
@@ -11366,10 +11363,10 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="44" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C224" s="38" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D224" s="38" t="n">
         <v>5</v>
@@ -11383,7 +11380,7 @@
       </c>
       <c r="H224" s="38"/>
       <c r="I224" s="38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J224" s="45" t="n">
         <f aca="false">J223+D223</f>
@@ -11402,7 +11399,7 @@
         <v>2.03125</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O224" s="3" t="n">
         <v>1</v>
@@ -11416,10 +11413,10 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="44" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C225" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D225" s="38" t="n">
         <v>4</v>
@@ -11435,7 +11432,7 @@
         <v>27</v>
       </c>
       <c r="I225" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J225" s="45" t="n">
         <f aca="false">J224+D224</f>
@@ -11454,7 +11451,7 @@
         <v>2.1875</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O225" s="3" t="n">
         <v>1</v>
@@ -11468,10 +11465,10 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C226" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D226" s="38" t="n">
         <v>5</v>
@@ -11487,7 +11484,7 @@
         <v>27</v>
       </c>
       <c r="I226" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J226" s="45" t="n">
         <f aca="false">J225+D225</f>
@@ -11506,7 +11503,7 @@
         <v>2.3125</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O226" s="3" t="n">
         <v>1</v>
@@ -11520,10 +11517,10 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="44" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C227" s="38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D227" s="38" t="n">
         <v>6</v>
@@ -11539,7 +11536,7 @@
         <v>27</v>
       </c>
       <c r="I227" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J227" s="45" t="n">
         <f aca="false">J226+D226</f>
@@ -11558,7 +11555,7 @@
         <v>2.46875</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O227" s="3" t="n">
         <v>1</v>
@@ -11572,10 +11569,10 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="44" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C228" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D228" s="38" t="n">
         <v>6</v>
@@ -11591,7 +11588,7 @@
         <v>27</v>
       </c>
       <c r="I228" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J228" s="45" t="n">
         <f aca="false">J227+D227</f>
@@ -11610,7 +11607,7 @@
         <v>2.65625</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O228" s="3" t="n">
         <v>1</v>
@@ -11624,10 +11621,10 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="44" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C229" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D229" s="38" t="n">
         <v>5</v>
@@ -11643,7 +11640,7 @@
         <v>27</v>
       </c>
       <c r="I229" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J229" s="45" t="n">
         <f aca="false">J228+D228</f>
@@ -11662,7 +11659,7 @@
         <v>2.84375</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O229" s="3" t="n">
         <v>1</v>
@@ -11676,7 +11673,7 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B230" s="44"/>
       <c r="C230" s="38"/>
@@ -11693,10 +11690,10 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="44" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C231" s="38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D231" s="38" t="n">
         <v>8</v>
@@ -11712,7 +11709,7 @@
         <v>71</v>
       </c>
       <c r="I231" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J231" s="45" t="n">
         <f aca="false">J229+D229</f>
@@ -11731,7 +11728,7 @@
         <v>3</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O231" s="3" t="n">
         <v>1</v>
@@ -11745,10 +11742,10 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="44" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C232" s="38" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D232" s="38" t="n">
         <v>8</v>
@@ -11764,7 +11761,7 @@
         <v>71</v>
       </c>
       <c r="I232" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J232" s="45" t="n">
         <f aca="false">J231+D231</f>
@@ -11783,7 +11780,7 @@
         <v>3.25</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O232" s="3" t="n">
         <v>1</v>
@@ -11797,10 +11794,10 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="C233" s="38" t="s">
         <v>469</v>
-      </c>
-      <c r="C233" s="38" t="s">
-        <v>470</v>
       </c>
       <c r="D233" s="38" t="n">
         <v>16</v>
@@ -11816,7 +11813,7 @@
         <v>27</v>
       </c>
       <c r="I233" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J233" s="45" t="n">
         <f aca="false">J232+D232</f>
@@ -11879,7 +11876,7 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="43" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F235" s="38"/>
       <c r="G235" s="38"/>
@@ -11963,10 +11960,10 @@
     </row>
     <row r="238" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="C238" s="46" t="s">
         <v>472</v>
-      </c>
-      <c r="C238" s="46" t="s">
-        <v>473</v>
       </c>
       <c r="D238" s="1" t="n">
         <v>5</v>
@@ -11982,7 +11979,7 @@
         <v>27</v>
       </c>
       <c r="I238" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J238" s="45" t="n">
         <f aca="false">J234</f>
@@ -12015,10 +12012,10 @@
     </row>
     <row r="239" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="C239" s="46" t="s">
         <v>474</v>
-      </c>
-      <c r="C239" s="46" t="s">
-        <v>475</v>
       </c>
       <c r="D239" s="1" t="n">
         <v>1</v>
@@ -12028,13 +12025,13 @@
       </c>
       <c r="F239" s="47"/>
       <c r="G239" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H239" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I239" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J239" s="45" t="n">
         <f aca="false">J238+D238</f>
@@ -12053,7 +12050,7 @@
         <v>4.15625</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O239" s="3" t="n">
         <v>1</v>
@@ -12067,10 +12064,10 @@
     </row>
     <row r="240" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="C240" s="46" t="s">
         <v>476</v>
-      </c>
-      <c r="C240" s="46" t="s">
-        <v>477</v>
       </c>
       <c r="D240" s="1" t="n">
         <v>1</v>
@@ -12080,13 +12077,13 @@
       </c>
       <c r="F240" s="47"/>
       <c r="G240" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H240" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I240" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J240" s="45" t="n">
         <f aca="false">J239+D239</f>
@@ -12105,7 +12102,7 @@
         <v>4.1875</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O240" s="3" t="n">
         <v>2</v>
@@ -12119,10 +12116,10 @@
     </row>
     <row r="241" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="C241" s="46" t="s">
         <v>479</v>
-      </c>
-      <c r="C241" s="46" t="s">
-        <v>480</v>
       </c>
       <c r="D241" s="1" t="n">
         <v>3</v>
@@ -12138,7 +12135,7 @@
         <v>27</v>
       </c>
       <c r="I241" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J241" s="45" t="n">
         <f aca="false">J240+D240</f>
@@ -12157,7 +12154,7 @@
         <v>4.21875</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O241" s="3" t="n">
         <v>2</v>
@@ -12171,10 +12168,10 @@
     </row>
     <row r="242" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="C242" s="46" t="s">
         <v>481</v>
-      </c>
-      <c r="C242" s="46" t="s">
-        <v>482</v>
       </c>
       <c r="D242" s="1" t="n">
         <v>4</v>
@@ -12184,13 +12181,13 @@
       </c>
       <c r="F242" s="47"/>
       <c r="G242" s="38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H242" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I242" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J242" s="45" t="n">
         <f aca="false">J241+D241</f>
@@ -12209,7 +12206,7 @@
         <v>4.3125</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O242" s="3" t="n">
         <v>2</v>
@@ -12223,10 +12220,10 @@
     </row>
     <row r="243" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="C243" s="46" t="s">
         <v>484</v>
-      </c>
-      <c r="C243" s="46" t="s">
-        <v>485</v>
       </c>
       <c r="D243" s="1" t="n">
         <v>4</v>
@@ -12236,13 +12233,13 @@
       </c>
       <c r="F243" s="47"/>
       <c r="G243" s="38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H243" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I243" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J243" s="45" t="n">
         <f aca="false">J242+D242</f>
@@ -12261,7 +12258,7 @@
         <v>4.4375</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O243" s="3" t="n">
         <v>2</v>
@@ -12275,10 +12272,10 @@
     </row>
     <row r="244" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="C244" s="46" t="s">
         <v>486</v>
-      </c>
-      <c r="C244" s="46" t="s">
-        <v>487</v>
       </c>
       <c r="D244" s="1" t="n">
         <v>5</v>
@@ -12288,13 +12285,13 @@
       </c>
       <c r="F244" s="47"/>
       <c r="G244" s="38" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H244" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I244" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J244" s="45" t="n">
         <f aca="false">J243+D243</f>
@@ -12313,7 +12310,7 @@
         <v>4.5625</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O244" s="3" t="n">
         <v>2</v>
@@ -12327,10 +12324,10 @@
     </row>
     <row r="245" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="C245" s="46" t="s">
         <v>489</v>
-      </c>
-      <c r="C245" s="46" t="s">
-        <v>490</v>
       </c>
       <c r="D245" s="1" t="n">
         <v>9</v>
@@ -12346,7 +12343,7 @@
         <v>27</v>
       </c>
       <c r="I245" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J245" s="45" t="n">
         <f aca="false">J244+D244</f>
@@ -12365,7 +12362,7 @@
         <v>4.71875</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O245" s="3" t="n">
         <v>2</v>
@@ -12398,10 +12395,10 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="48" t="s">
+        <v>490</v>
+      </c>
+      <c r="C247" s="3" t="s">
         <v>491</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>492</v>
       </c>
       <c r="D247" s="1" t="n">
         <v>8</v>
@@ -12417,7 +12414,7 @@
         <v>27</v>
       </c>
       <c r="I247" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J247" s="45" t="n">
         <f aca="false">J245+D245</f>
@@ -12436,7 +12433,7 @@
         <v>5</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O247" s="3" t="n">
         <v>3</v>
@@ -12450,10 +12447,10 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="48" t="s">
+        <v>493</v>
+      </c>
+      <c r="C248" s="3" t="s">
         <v>494</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>495</v>
       </c>
       <c r="D248" s="1" t="n">
         <v>8</v>
@@ -12469,7 +12466,7 @@
         <v>27</v>
       </c>
       <c r="I248" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J248" s="45" t="n">
         <f aca="false">J247+D247</f>
@@ -12488,7 +12485,7 @@
         <v>5.25</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O248" s="3" t="n">
         <v>3</v>
@@ -12502,10 +12499,10 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="C249" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>497</v>
       </c>
       <c r="D249" s="1" t="n">
         <v>8</v>
@@ -12521,7 +12518,7 @@
         <v>27</v>
       </c>
       <c r="I249" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J249" s="45" t="n">
         <f aca="false">J248+D248</f>
@@ -12540,7 +12537,7 @@
         <v>5.5</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O249" s="3" t="n">
         <v>3</v>
@@ -12554,10 +12551,10 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="48" t="s">
+        <v>497</v>
+      </c>
+      <c r="C250" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>499</v>
       </c>
       <c r="D250" s="1" t="n">
         <v>8</v>
@@ -12573,7 +12570,7 @@
         <v>27</v>
       </c>
       <c r="I250" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J250" s="45" t="n">
         <f aca="false">J249+D249</f>
@@ -12592,7 +12589,7 @@
         <v>5.75</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O250" s="3" t="n">
         <v>3</v>
@@ -12606,10 +12603,10 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="48" t="s">
+        <v>499</v>
+      </c>
+      <c r="C251" s="3" t="s">
         <v>500</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>501</v>
       </c>
       <c r="D251" s="1" t="n">
         <v>8</v>
@@ -12625,7 +12622,7 @@
         <v>27</v>
       </c>
       <c r="I251" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J251" s="45" t="n">
         <f aca="false">J250+D250</f>
@@ -12644,7 +12641,7 @@
         <v>6</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O251" s="3" t="n">
         <v>3</v>
@@ -12658,10 +12655,10 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="48" t="s">
+        <v>501</v>
+      </c>
+      <c r="C252" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>503</v>
       </c>
       <c r="D252" s="1" t="n">
         <v>8</v>
@@ -12677,7 +12674,7 @@
         <v>27</v>
       </c>
       <c r="I252" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J252" s="45" t="n">
         <f aca="false">J251+D251</f>
@@ -12696,7 +12693,7 @@
         <v>6.25</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O252" s="3" t="n">
         <v>3</v>
@@ -12710,10 +12707,10 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="C253" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>505</v>
       </c>
       <c r="D253" s="1" t="n">
         <v>8</v>
@@ -12729,7 +12726,7 @@
         <v>27</v>
       </c>
       <c r="I253" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J253" s="45" t="n">
         <f aca="false">J252+D252</f>
@@ -12748,7 +12745,7 @@
         <v>6.5</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O253" s="3" t="n">
         <v>3</v>
@@ -12762,10 +12759,10 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="48" t="s">
+        <v>505</v>
+      </c>
+      <c r="C254" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>507</v>
       </c>
       <c r="D254" s="1" t="n">
         <v>8</v>
@@ -12781,7 +12778,7 @@
         <v>27</v>
       </c>
       <c r="I254" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J254" s="45" t="n">
         <f aca="false">J253+D253</f>
@@ -12800,7 +12797,7 @@
         <v>6.75</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O254" s="3" t="n">
         <v>3</v>
@@ -12814,10 +12811,10 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="48" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D255" s="1" t="n">
         <v>8</v>
@@ -12833,7 +12830,7 @@
         <v>27</v>
       </c>
       <c r="I255" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J255" s="45" t="n">
         <f aca="false">J254+D254</f>
@@ -12852,7 +12849,7 @@
         <v>7</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O255" s="3" t="n">
         <v>3</v>
@@ -12866,10 +12863,10 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="48" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D256" s="1" t="n">
         <v>8</v>
@@ -12885,7 +12882,7 @@
         <v>27</v>
       </c>
       <c r="I256" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J256" s="45" t="n">
         <f aca="false">J255+D255</f>
@@ -12904,7 +12901,7 @@
         <v>7.25</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O256" s="3" t="n">
         <v>3</v>
@@ -12918,10 +12915,10 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="48" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D257" s="1" t="n">
         <v>8</v>
@@ -12937,7 +12934,7 @@
         <v>27</v>
       </c>
       <c r="I257" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J257" s="45" t="n">
         <f aca="false">J256+D256</f>
@@ -12956,7 +12953,7 @@
         <v>7.5</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O257" s="3" t="n">
         <v>3</v>
@@ -12970,10 +12967,10 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D258" s="1" t="n">
         <v>8</v>
@@ -12989,7 +12986,7 @@
         <v>27</v>
       </c>
       <c r="I258" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J258" s="45" t="n">
         <f aca="false">J257+D257</f>
@@ -13008,7 +13005,7 @@
         <v>7.75</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O258" s="3" t="n">
         <v>3</v>
@@ -13022,10 +13019,10 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="48" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D259" s="1" t="n">
         <v>8</v>
@@ -13041,7 +13038,7 @@
         <v>27</v>
       </c>
       <c r="I259" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J259" s="45" t="n">
         <f aca="false">J258+D258</f>
@@ -13060,7 +13057,7 @@
         <v>8</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O259" s="3" t="n">
         <v>3</v>
@@ -13074,10 +13071,10 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="48" t="s">
+        <v>512</v>
+      </c>
+      <c r="C260" s="3" t="s">
         <v>513</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>514</v>
       </c>
       <c r="D260" s="1" t="n">
         <v>16</v>
@@ -13095,7 +13092,7 @@
         <v>27</v>
       </c>
       <c r="I260" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J260" s="45" t="n">
         <f aca="false">J259+D259</f>
@@ -13114,7 +13111,7 @@
         <v>8.25</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O260" s="3" t="n">
         <v>1</v>
@@ -13128,10 +13125,10 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="48" t="s">
+        <v>514</v>
+      </c>
+      <c r="C261" s="3" t="s">
         <v>515</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>516</v>
       </c>
       <c r="D261" s="1" t="n">
         <v>8</v>
@@ -13147,7 +13144,7 @@
         <v>27</v>
       </c>
       <c r="I261" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J261" s="45" t="n">
         <f aca="false">J260+D260</f>
@@ -13166,7 +13163,7 @@
         <v>8.75</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O261" s="3" t="n">
         <v>2</v>
@@ -13269,22 +13266,22 @@
     <row r="6" s="51" customFormat="true" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="52"/>
       <c r="C6" s="52" t="s">
+        <v>516</v>
+      </c>
+      <c r="D6" s="52" t="s">
         <v>517</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="E6" s="52" t="s">
         <v>518</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="F6" s="52" t="s">
         <v>519</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>520</v>
       </c>
       <c r="G6" s="52" t="s">
         <v>282</v>
       </c>
       <c r="H6" s="52" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I6" s="52"/>
     </row>
@@ -13654,10 +13651,10 @@
     </row>
     <row r="26" s="1" customFormat="true" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>522</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>523</v>
       </c>
       <c r="D26" s="27" t="n">
         <v>16</v>
@@ -13706,10 +13703,10 @@
     </row>
     <row r="27" s="1" customFormat="true" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>524</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>525</v>
       </c>
       <c r="D27" s="27" t="n">
         <v>32</v>
@@ -13756,16 +13753,16 @@
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="50" t="s">
+        <v>525</v>
+      </c>
+      <c r="C30" s="50" t="s">
         <v>526</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="D30" s="50" t="s">
         <v>527</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="E30" s="50" t="s">
         <v>528</v>
-      </c>
-      <c r="E30" s="50" t="s">
-        <v>529</v>
       </c>
       <c r="F30" s="50"/>
     </row>

--- a/genSpacecraft/DownlinkSpecLTM.xlsx
+++ b/genSpacecraft/DownlinkSpecLTM.xlsx
@@ -215,7 +215,7 @@
     <t xml:space="preserve">ReflectedPwr</t>
   </si>
   <si>
-    <t xml:space="preserve">icr_8bit_volts|tx_ref_pwr|dBm_to_mW</t>
+    <t xml:space="preserve">icr_8bit_volts|txv2_ref_pwr</t>
   </si>
   <si>
     <t xml:space="preserve">mW</t>
@@ -476,7 +476,7 @@
     <t xml:space="preserve">FwdPower</t>
   </si>
   <si>
-    <t xml:space="preserve">icr_8bit_volts|tx_pwr1|dBm_to_mW</t>
+    <t xml:space="preserve">icr_8bit_volts|txv2_fwd_pwr|dBm_to_mW</t>
   </si>
   <si>
     <t xml:space="preserve">Receiver card temperature</t>
@@ -488,7 +488,7 @@
     <t xml:space="preserve">rssi</t>
   </si>
   <si>
-    <t xml:space="preserve">icr_8bit_volts|icr_rssi </t>
+    <t xml:space="preserve">icr_8bit_volts|icrv2_rssi </t>
   </si>
   <si>
     <t xml:space="preserve">dBm</t>
@@ -1985,8 +1985,8 @@
   </sheetPr>
   <dimension ref="A1:Q264"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A156" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B175" activeCellId="0" sqref="B175"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G50" activeCellId="0" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4043,7 +4043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="31" t="s">
         <v>153</v>
       </c>

--- a/genSpacecraft/DownlinkSpecLTM.xlsx
+++ b/genSpacecraft/DownlinkSpecLTM.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="530">
   <si>
     <t xml:space="preserve">//</t>
   </si>
@@ -1365,6 +1365,9 @@
   </si>
   <si>
     <t xml:space="preserve">Structure:infrequentDownlink_t,file:infrequentDownlink.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Uptime</t>
   </si>
   <si>
     <t xml:space="preserve">secs</t>
@@ -1624,7 +1627,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1645,14 +1647,12 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1660,35 +1660,30 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1985,8 +1980,8 @@
   </sheetPr>
   <dimension ref="A1:Q264"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G50" activeCellId="0" sqref="G50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A229" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B220" activeCellId="0" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2206,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="21" t="s">
         <v>29</v>
       </c>
@@ -2258,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="21" t="s">
         <v>31</v>
       </c>
@@ -2310,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="21" t="s">
         <v>34</v>
       </c>
@@ -2911,7 +2906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="31" t="s">
         <v>68</v>
       </c>
@@ -3067,7 +3062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="31" t="s">
         <v>83</v>
       </c>
@@ -3119,7 +3114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="31" t="s">
         <v>88</v>
       </c>
@@ -3171,7 +3166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="31" t="s">
         <v>91</v>
       </c>
@@ -3223,7 +3218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="31" t="s">
         <v>94</v>
       </c>
@@ -3275,7 +3270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="31" t="s">
         <v>99</v>
       </c>
@@ -3327,7 +3322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="31" t="s">
         <v>102</v>
       </c>
@@ -3379,7 +3374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="31" t="s">
         <v>105</v>
       </c>
@@ -3431,7 +3426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="31" t="s">
         <v>110</v>
       </c>
@@ -3483,7 +3478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="31" t="s">
         <v>112</v>
       </c>
@@ -3939,7 +3934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="31" t="s">
         <v>146</v>
       </c>
@@ -4095,7 +4090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="31" t="s">
         <v>158</v>
       </c>
@@ -4147,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="31" t="s">
         <v>161</v>
       </c>
@@ -4199,7 +4194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="31" t="s">
         <v>131</v>
       </c>
@@ -4251,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="31" t="s">
         <v>166</v>
       </c>
@@ -4511,7 +4506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="31" t="s">
         <v>177</v>
       </c>
@@ -4663,7 +4658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="31" t="s">
         <v>184</v>
       </c>
@@ -4715,7 +4710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="31" t="s">
         <v>187</v>
       </c>
@@ -5972,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="31" t="s">
         <v>248</v>
       </c>
@@ -6230,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="33" t="s">
         <v>260</v>
       </c>
@@ -6302,7 +6297,7 @@
       <c r="L98" s="28"/>
       <c r="M98" s="28"/>
     </row>
-    <row r="99" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="31" t="s">
         <v>264</v>
       </c>
@@ -6354,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="31" t="s">
         <v>267</v>
       </c>
@@ -6406,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="31" t="s">
         <v>270</v>
       </c>
@@ -6460,7 +6455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="31" t="s">
         <v>273</v>
       </c>
@@ -6512,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="31" t="s">
         <v>276</v>
       </c>
@@ -6616,7 +6611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="31" t="s">
         <v>284</v>
       </c>
@@ -6668,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="31" t="s">
         <v>288</v>
       </c>
@@ -6718,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="31" t="s">
         <v>290</v>
       </c>
@@ -6768,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="31" t="s">
         <v>292</v>
       </c>
@@ -6818,7 +6813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="31" t="s">
         <v>294</v>
       </c>
@@ -6868,7 +6863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="31" t="s">
         <v>297</v>
       </c>
@@ -6918,7 +6913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="31" t="s">
         <v>300</v>
       </c>
@@ -6968,7 +6963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="31" t="s">
         <v>297</v>
       </c>
@@ -7018,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="31" t="s">
         <v>303</v>
       </c>
@@ -7070,7 +7065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="31" t="s">
         <v>297</v>
       </c>
@@ -7120,7 +7115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="31" t="s">
         <v>306</v>
       </c>
@@ -7170,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="31" t="s">
         <v>297</v>
       </c>
@@ -7220,7 +7215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="31" t="s">
         <v>309</v>
       </c>
@@ -7270,7 +7265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="31" t="s">
         <v>297</v>
       </c>
@@ -7320,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="31" t="s">
         <v>312</v>
       </c>
@@ -7370,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="31" t="s">
         <v>297</v>
       </c>
@@ -7420,7 +7415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="31" t="s">
         <v>315</v>
       </c>
@@ -7472,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="31" t="s">
         <v>317</v>
       </c>
@@ -7522,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="31" t="s">
         <v>319</v>
       </c>
@@ -7572,7 +7567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="31" t="s">
         <v>321</v>
       </c>
@@ -7622,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="31" t="s">
         <v>317</v>
       </c>
@@ -7672,7 +7667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="31" t="s">
         <v>319</v>
       </c>
@@ -7772,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="31" t="s">
         <v>326</v>
       </c>
@@ -7822,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="31" t="s">
         <v>329</v>
       </c>
@@ -7872,7 +7867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="31" t="s">
         <v>331</v>
       </c>
@@ -7922,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="31" t="s">
         <v>333</v>
       </c>
@@ -7972,7 +7967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="31" t="s">
         <v>335</v>
       </c>
@@ -8753,7 +8748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="31" t="s">
         <v>362</v>
       </c>
@@ -8905,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="31" t="s">
         <v>370</v>
       </c>
@@ -10392,7 +10387,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="31" t="s">
         <v>429</v>
       </c>
@@ -10497,7 +10492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="31" t="s">
         <v>434</v>
       </c>
@@ -10644,7 +10639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="31" t="s">
         <v>429</v>
       </c>
@@ -10749,7 +10744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="31" t="s">
         <v>434</v>
       </c>
@@ -11191,7 +11186,7 @@
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="44" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="C220" s="38" t="s">
         <v>417</v>
@@ -11207,10 +11202,10 @@
         <v>133</v>
       </c>
       <c r="H220" s="38" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I220" s="38" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J220" s="45" t="n">
         <v>0</v>
@@ -11228,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="N220" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O220" s="3" t="n">
         <v>1</v>
@@ -11242,10 +11237,10 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="44" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C221" s="38" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D221" s="38" t="n">
         <v>32</v>
@@ -11258,10 +11253,10 @@
         <v>133</v>
       </c>
       <c r="H221" s="38" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I221" s="38" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J221" s="45" t="n">
         <f aca="false">J220+D220</f>
@@ -11280,7 +11275,7 @@
         <v>1</v>
       </c>
       <c r="N221" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O221" s="3" t="n">
         <v>1</v>
@@ -11294,7 +11289,7 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B222" s="44"/>
       <c r="C222" s="38"/>
@@ -11311,10 +11306,10 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="44" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C223" s="38" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D223" s="38" t="n">
         <v>1</v>
@@ -11324,13 +11319,13 @@
       </c>
       <c r="F223" s="38"/>
       <c r="G223" s="38" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H223" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I223" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J223" s="45" t="n">
         <f aca="false">J221+D221</f>
@@ -11349,7 +11344,7 @@
         <v>2</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O223" s="3" t="n">
         <v>1</v>
@@ -11363,10 +11358,10 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="44" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C224" s="38" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D224" s="38" t="n">
         <v>5</v>
@@ -11380,7 +11375,7 @@
       </c>
       <c r="H224" s="38"/>
       <c r="I224" s="38" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J224" s="45" t="n">
         <f aca="false">J223+D223</f>
@@ -11399,7 +11394,7 @@
         <v>2.03125</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O224" s="3" t="n">
         <v>1</v>
@@ -11413,10 +11408,10 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="44" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C225" s="38" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D225" s="38" t="n">
         <v>4</v>
@@ -11432,7 +11427,7 @@
         <v>27</v>
       </c>
       <c r="I225" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J225" s="45" t="n">
         <f aca="false">J224+D224</f>
@@ -11451,7 +11446,7 @@
         <v>2.1875</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O225" s="3" t="n">
         <v>1</v>
@@ -11465,10 +11460,10 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="44" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C226" s="38" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D226" s="38" t="n">
         <v>5</v>
@@ -11484,7 +11479,7 @@
         <v>27</v>
       </c>
       <c r="I226" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J226" s="45" t="n">
         <f aca="false">J225+D225</f>
@@ -11503,7 +11498,7 @@
         <v>2.3125</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O226" s="3" t="n">
         <v>1</v>
@@ -11517,10 +11512,10 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="44" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C227" s="38" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D227" s="38" t="n">
         <v>6</v>
@@ -11536,7 +11531,7 @@
         <v>27</v>
       </c>
       <c r="I227" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J227" s="45" t="n">
         <f aca="false">J226+D226</f>
@@ -11555,7 +11550,7 @@
         <v>2.46875</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O227" s="3" t="n">
         <v>1</v>
@@ -11569,10 +11564,10 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="44" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C228" s="38" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D228" s="38" t="n">
         <v>6</v>
@@ -11588,7 +11583,7 @@
         <v>27</v>
       </c>
       <c r="I228" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J228" s="45" t="n">
         <f aca="false">J227+D227</f>
@@ -11607,7 +11602,7 @@
         <v>2.65625</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O228" s="3" t="n">
         <v>1</v>
@@ -11621,10 +11616,10 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="44" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C229" s="38" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D229" s="38" t="n">
         <v>5</v>
@@ -11640,7 +11635,7 @@
         <v>27</v>
       </c>
       <c r="I229" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J229" s="45" t="n">
         <f aca="false">J228+D228</f>
@@ -11659,7 +11654,7 @@
         <v>2.84375</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O229" s="3" t="n">
         <v>1</v>
@@ -11673,7 +11668,7 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B230" s="44"/>
       <c r="C230" s="38"/>
@@ -11690,10 +11685,10 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="44" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C231" s="38" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D231" s="38" t="n">
         <v>8</v>
@@ -11709,7 +11704,7 @@
         <v>71</v>
       </c>
       <c r="I231" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J231" s="45" t="n">
         <f aca="false">J229+D229</f>
@@ -11728,7 +11723,7 @@
         <v>3</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O231" s="3" t="n">
         <v>1</v>
@@ -11742,10 +11737,10 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="44" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C232" s="38" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D232" s="38" t="n">
         <v>8</v>
@@ -11761,7 +11756,7 @@
         <v>71</v>
       </c>
       <c r="I232" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J232" s="45" t="n">
         <f aca="false">J231+D231</f>
@@ -11780,7 +11775,7 @@
         <v>3.25</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O232" s="3" t="n">
         <v>1</v>
@@ -11794,10 +11789,10 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="44" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C233" s="38" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D233" s="38" t="n">
         <v>16</v>
@@ -11813,7 +11808,7 @@
         <v>27</v>
       </c>
       <c r="I233" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J233" s="45" t="n">
         <f aca="false">J232+D232</f>
@@ -11876,7 +11871,7 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="43" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F235" s="38"/>
       <c r="G235" s="38"/>
@@ -11960,10 +11955,10 @@
     </row>
     <row r="238" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="21" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C238" s="46" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D238" s="1" t="n">
         <v>5</v>
@@ -11979,7 +11974,7 @@
         <v>27</v>
       </c>
       <c r="I238" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J238" s="45" t="n">
         <f aca="false">J234</f>
@@ -12012,10 +12007,10 @@
     </row>
     <row r="239" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="21" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C239" s="46" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D239" s="1" t="n">
         <v>1</v>
@@ -12025,13 +12020,13 @@
       </c>
       <c r="F239" s="47"/>
       <c r="G239" s="38" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H239" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I239" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J239" s="45" t="n">
         <f aca="false">J238+D238</f>
@@ -12050,7 +12045,7 @@
         <v>4.15625</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O239" s="3" t="n">
         <v>1</v>
@@ -12064,10 +12059,10 @@
     </row>
     <row r="240" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="21" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C240" s="46" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D240" s="1" t="n">
         <v>1</v>
@@ -12077,13 +12072,13 @@
       </c>
       <c r="F240" s="47"/>
       <c r="G240" s="38" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H240" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I240" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J240" s="45" t="n">
         <f aca="false">J239+D239</f>
@@ -12102,7 +12097,7 @@
         <v>4.1875</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O240" s="3" t="n">
         <v>2</v>
@@ -12116,10 +12111,10 @@
     </row>
     <row r="241" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="21" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C241" s="46" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D241" s="1" t="n">
         <v>3</v>
@@ -12135,7 +12130,7 @@
         <v>27</v>
       </c>
       <c r="I241" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J241" s="45" t="n">
         <f aca="false">J240+D240</f>
@@ -12154,7 +12149,7 @@
         <v>4.21875</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O241" s="3" t="n">
         <v>2</v>
@@ -12168,10 +12163,10 @@
     </row>
     <row r="242" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="21" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C242" s="46" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D242" s="1" t="n">
         <v>4</v>
@@ -12181,13 +12176,13 @@
       </c>
       <c r="F242" s="47"/>
       <c r="G242" s="38" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H242" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I242" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J242" s="45" t="n">
         <f aca="false">J241+D241</f>
@@ -12206,7 +12201,7 @@
         <v>4.3125</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O242" s="3" t="n">
         <v>2</v>
@@ -12220,10 +12215,10 @@
     </row>
     <row r="243" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="21" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C243" s="46" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D243" s="1" t="n">
         <v>4</v>
@@ -12233,13 +12228,13 @@
       </c>
       <c r="F243" s="47"/>
       <c r="G243" s="38" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H243" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I243" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J243" s="45" t="n">
         <f aca="false">J242+D242</f>
@@ -12258,7 +12253,7 @@
         <v>4.4375</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O243" s="3" t="n">
         <v>2</v>
@@ -12272,10 +12267,10 @@
     </row>
     <row r="244" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="21" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C244" s="46" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D244" s="1" t="n">
         <v>5</v>
@@ -12285,13 +12280,13 @@
       </c>
       <c r="F244" s="47"/>
       <c r="G244" s="38" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H244" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I244" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J244" s="45" t="n">
         <f aca="false">J243+D243</f>
@@ -12310,7 +12305,7 @@
         <v>4.5625</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O244" s="3" t="n">
         <v>2</v>
@@ -12324,10 +12319,10 @@
     </row>
     <row r="245" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="21" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C245" s="46" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D245" s="1" t="n">
         <v>9</v>
@@ -12343,7 +12338,7 @@
         <v>27</v>
       </c>
       <c r="I245" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J245" s="45" t="n">
         <f aca="false">J244+D244</f>
@@ -12362,7 +12357,7 @@
         <v>4.71875</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O245" s="3" t="n">
         <v>2</v>
@@ -12395,10 +12390,10 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="48" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D247" s="1" t="n">
         <v>8</v>
@@ -12414,7 +12409,7 @@
         <v>27</v>
       </c>
       <c r="I247" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J247" s="45" t="n">
         <f aca="false">J245+D245</f>
@@ -12433,7 +12428,7 @@
         <v>5</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O247" s="3" t="n">
         <v>3</v>
@@ -12447,10 +12442,10 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="48" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D248" s="1" t="n">
         <v>8</v>
@@ -12466,7 +12461,7 @@
         <v>27</v>
       </c>
       <c r="I248" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J248" s="45" t="n">
         <f aca="false">J247+D247</f>
@@ -12485,7 +12480,7 @@
         <v>5.25</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O248" s="3" t="n">
         <v>3</v>
@@ -12499,10 +12494,10 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="48" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D249" s="1" t="n">
         <v>8</v>
@@ -12518,7 +12513,7 @@
         <v>27</v>
       </c>
       <c r="I249" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J249" s="45" t="n">
         <f aca="false">J248+D248</f>
@@ -12537,7 +12532,7 @@
         <v>5.5</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O249" s="3" t="n">
         <v>3</v>
@@ -12551,10 +12546,10 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="48" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D250" s="1" t="n">
         <v>8</v>
@@ -12570,7 +12565,7 @@
         <v>27</v>
       </c>
       <c r="I250" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J250" s="45" t="n">
         <f aca="false">J249+D249</f>
@@ -12589,7 +12584,7 @@
         <v>5.75</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O250" s="3" t="n">
         <v>3</v>
@@ -12603,10 +12598,10 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="48" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D251" s="1" t="n">
         <v>8</v>
@@ -12622,7 +12617,7 @@
         <v>27</v>
       </c>
       <c r="I251" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J251" s="45" t="n">
         <f aca="false">J250+D250</f>
@@ -12641,7 +12636,7 @@
         <v>6</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O251" s="3" t="n">
         <v>3</v>
@@ -12655,10 +12650,10 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="48" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D252" s="1" t="n">
         <v>8</v>
@@ -12674,7 +12669,7 @@
         <v>27</v>
       </c>
       <c r="I252" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J252" s="45" t="n">
         <f aca="false">J251+D251</f>
@@ -12693,7 +12688,7 @@
         <v>6.25</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O252" s="3" t="n">
         <v>3</v>
@@ -12707,10 +12702,10 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="48" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D253" s="1" t="n">
         <v>8</v>
@@ -12726,7 +12721,7 @@
         <v>27</v>
       </c>
       <c r="I253" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J253" s="45" t="n">
         <f aca="false">J252+D252</f>
@@ -12745,7 +12740,7 @@
         <v>6.5</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O253" s="3" t="n">
         <v>3</v>
@@ -12759,10 +12754,10 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="48" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D254" s="1" t="n">
         <v>8</v>
@@ -12778,7 +12773,7 @@
         <v>27</v>
       </c>
       <c r="I254" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J254" s="45" t="n">
         <f aca="false">J253+D253</f>
@@ -12797,7 +12792,7 @@
         <v>6.75</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O254" s="3" t="n">
         <v>3</v>
@@ -12811,10 +12806,10 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="48" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D255" s="1" t="n">
         <v>8</v>
@@ -12830,7 +12825,7 @@
         <v>27</v>
       </c>
       <c r="I255" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J255" s="45" t="n">
         <f aca="false">J254+D254</f>
@@ -12849,7 +12844,7 @@
         <v>7</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O255" s="3" t="n">
         <v>3</v>
@@ -12863,10 +12858,10 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="48" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D256" s="1" t="n">
         <v>8</v>
@@ -12882,7 +12877,7 @@
         <v>27</v>
       </c>
       <c r="I256" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J256" s="45" t="n">
         <f aca="false">J255+D255</f>
@@ -12901,7 +12896,7 @@
         <v>7.25</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O256" s="3" t="n">
         <v>3</v>
@@ -12915,10 +12910,10 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="48" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D257" s="1" t="n">
         <v>8</v>
@@ -12934,7 +12929,7 @@
         <v>27</v>
       </c>
       <c r="I257" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J257" s="45" t="n">
         <f aca="false">J256+D256</f>
@@ -12953,7 +12948,7 @@
         <v>7.5</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O257" s="3" t="n">
         <v>3</v>
@@ -12967,10 +12962,10 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="48" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D258" s="1" t="n">
         <v>8</v>
@@ -12986,7 +12981,7 @@
         <v>27</v>
       </c>
       <c r="I258" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J258" s="45" t="n">
         <f aca="false">J257+D257</f>
@@ -13005,7 +13000,7 @@
         <v>7.75</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O258" s="3" t="n">
         <v>3</v>
@@ -13019,10 +13014,10 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="48" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D259" s="1" t="n">
         <v>8</v>
@@ -13038,7 +13033,7 @@
         <v>27</v>
       </c>
       <c r="I259" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J259" s="45" t="n">
         <f aca="false">J258+D258</f>
@@ -13057,7 +13052,7 @@
         <v>8</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O259" s="3" t="n">
         <v>3</v>
@@ -13071,10 +13066,10 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="48" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D260" s="1" t="n">
         <v>16</v>
@@ -13092,7 +13087,7 @@
         <v>27</v>
       </c>
       <c r="I260" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J260" s="45" t="n">
         <f aca="false">J259+D259</f>
@@ -13111,7 +13106,7 @@
         <v>8.25</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O260" s="3" t="n">
         <v>1</v>
@@ -13125,10 +13120,10 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="48" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D261" s="1" t="n">
         <v>8</v>
@@ -13144,7 +13139,7 @@
         <v>27</v>
       </c>
       <c r="I261" s="38" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J261" s="45" t="n">
         <f aca="false">J260+D260</f>
@@ -13163,7 +13158,7 @@
         <v>8.75</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O261" s="3" t="n">
         <v>2</v>
@@ -13254,7 +13249,7 @@
       <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="41" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="41" width="16.11"/>
@@ -13266,26 +13261,26 @@
     <row r="6" s="51" customFormat="true" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="52"/>
       <c r="C6" s="52" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G6" s="52" t="s">
         <v>282</v>
       </c>
       <c r="H6" s="52" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I6" s="52"/>
     </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="39"/>
       <c r="C7" s="39" t="n">
         <v>1</v>
@@ -13311,7 +13306,7 @@
       </c>
       <c r="I7" s="39"/>
     </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="39"/>
       <c r="C8" s="39" t="n">
         <v>6</v>
@@ -13337,7 +13332,7 @@
       </c>
       <c r="I8" s="39"/>
     </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="39"/>
       <c r="C9" s="39" t="n">
         <v>7</v>
@@ -13363,7 +13358,7 @@
       </c>
       <c r="I9" s="39"/>
     </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="39"/>
       <c r="C10" s="39" t="n">
         <v>8</v>
@@ -13389,7 +13384,7 @@
       </c>
       <c r="I10" s="39"/>
     </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="39"/>
       <c r="C11" s="39" t="n">
         <v>9</v>
@@ -13415,7 +13410,7 @@
       </c>
       <c r="I11" s="39"/>
     </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="39"/>
       <c r="C12" s="39" t="n">
         <v>10</v>
@@ -13441,7 +13436,7 @@
       </c>
       <c r="I12" s="39"/>
     </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="39"/>
       <c r="C13" s="39" t="n">
         <v>11</v>
@@ -13467,7 +13462,7 @@
       </c>
       <c r="I13" s="39"/>
     </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="39"/>
       <c r="C14" s="39" t="n">
         <v>12</v>
@@ -13493,7 +13488,7 @@
       </c>
       <c r="I14" s="39"/>
     </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="39"/>
       <c r="C15" s="39" t="n">
         <v>13</v>
@@ -13519,7 +13514,7 @@
       </c>
       <c r="I15" s="39"/>
     </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="39"/>
       <c r="C16" s="39" t="n">
         <v>14</v>
@@ -13545,7 +13540,7 @@
       </c>
       <c r="I16" s="39"/>
     </row>
-    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="39"/>
       <c r="C17" s="39" t="n">
         <v>15</v>
@@ -13571,7 +13566,7 @@
       </c>
       <c r="I17" s="39"/>
     </row>
-    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="39"/>
       <c r="C18" s="39" t="n">
         <v>16</v>
@@ -13597,7 +13592,7 @@
       </c>
       <c r="I18" s="39"/>
     </row>
-    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="39"/>
       <c r="C19" s="39" t="n">
         <v>17</v>
@@ -13623,7 +13618,7 @@
       </c>
       <c r="I19" s="39"/>
     </row>
-    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="39"/>
       <c r="C20" s="39" t="n">
         <v>18</v>
@@ -13649,12 +13644,12 @@
       </c>
       <c r="I20" s="39"/>
     </row>
-    <row r="26" s="1" customFormat="true" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="1" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="32" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D26" s="27" t="n">
         <v>16</v>
@@ -13701,12 +13696,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="true" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="32" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D27" s="27" t="n">
         <v>32</v>
@@ -13751,22 +13746,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="50" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D30" s="50" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F30" s="50"/>
     </row>
-    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="50" t="n">
         <v>114</v>
       </c>
@@ -13784,6001 +13779,6001 @@
       </c>
       <c r="F31" s="50"/>
     </row>
-    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="50"/>
       <c r="D32" s="50"/>
       <c r="E32" s="50"/>
       <c r="F32" s="50"/>
     </row>
-    <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="50"/>
       <c r="D33" s="50"/>
       <c r="E33" s="50"/>
       <c r="F33" s="50"/>
     </row>
-    <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="50"/>
       <c r="D34" s="50"/>
       <c r="E34" s="50"/>
       <c r="F34" s="50"/>
     </row>
-    <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="50"/>
       <c r="D35" s="50"/>
       <c r="E35" s="50"/>
       <c r="F35" s="50"/>
     </row>
-    <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="50"/>
       <c r="D36" s="50"/>
       <c r="E36" s="50"/>
       <c r="F36" s="50"/>
     </row>
-    <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="50"/>
       <c r="D37" s="50"/>
       <c r="E37" s="50"/>
       <c r="F37" s="50"/>
     </row>
-    <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="50"/>
       <c r="D38" s="50"/>
       <c r="E38" s="50"/>
       <c r="F38" s="50"/>
     </row>
-    <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="50"/>
       <c r="D39" s="50"/>
       <c r="E39" s="50"/>
       <c r="F39" s="50"/>
     </row>
-    <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="50"/>
       <c r="D40" s="50"/>
       <c r="E40" s="50"/>
       <c r="F40" s="50"/>
     </row>
-    <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="50"/>
       <c r="D41" s="50"/>
       <c r="E41" s="50"/>
       <c r="F41" s="50"/>
     </row>
-    <row r="42" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="50"/>
       <c r="D42" s="50"/>
       <c r="E42" s="50"/>
       <c r="F42" s="50"/>
     </row>
-    <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="50"/>
       <c r="D43" s="50"/>
       <c r="E43" s="50"/>
       <c r="F43" s="50"/>
     </row>
-    <row r="44" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="50"/>
       <c r="D44" s="50"/>
       <c r="E44" s="50"/>
       <c r="F44" s="50"/>
     </row>
-    <row r="45" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="50"/>
       <c r="D45" s="50"/>
       <c r="E45" s="50"/>
       <c r="F45" s="50"/>
     </row>
-    <row r="46" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="50"/>
       <c r="D46" s="50"/>
       <c r="E46" s="50"/>
       <c r="F46" s="50"/>
     </row>
-    <row r="47" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="50"/>
       <c r="D47" s="50"/>
       <c r="E47" s="50"/>
       <c r="F47" s="50"/>
     </row>
-    <row r="48" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="50"/>
       <c r="D48" s="50"/>
       <c r="E48" s="50"/>
       <c r="F48" s="50"/>
     </row>
-    <row r="49" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="50"/>
       <c r="D49" s="50"/>
       <c r="E49" s="50"/>
       <c r="F49" s="50"/>
     </row>
-    <row r="50" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="50"/>
       <c r="D50" s="50"/>
       <c r="E50" s="50"/>
       <c r="F50" s="50"/>
     </row>
-    <row r="51" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="50"/>
       <c r="D51" s="50"/>
       <c r="E51" s="50"/>
       <c r="F51" s="50"/>
     </row>
-    <row r="52" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="50"/>
       <c r="D52" s="50"/>
       <c r="E52" s="50"/>
       <c r="F52" s="50"/>
     </row>
-    <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="50"/>
       <c r="D53" s="50"/>
       <c r="E53" s="50"/>
       <c r="F53" s="50"/>
     </row>
-    <row r="54" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="50"/>
       <c r="D54" s="50"/>
       <c r="E54" s="50"/>
       <c r="F54" s="50"/>
     </row>
-    <row r="55" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="50"/>
       <c r="D55" s="50"/>
       <c r="E55" s="50"/>
       <c r="F55" s="50"/>
     </row>
-    <row r="56" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="50"/>
       <c r="D56" s="50"/>
       <c r="E56" s="50"/>
       <c r="F56" s="50"/>
     </row>
-    <row r="57" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="50"/>
       <c r="D57" s="50"/>
       <c r="E57" s="50"/>
       <c r="F57" s="50"/>
     </row>
-    <row r="58" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="50"/>
       <c r="D58" s="50"/>
       <c r="E58" s="50"/>
       <c r="F58" s="50"/>
     </row>
-    <row r="59" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="50"/>
       <c r="D59" s="50"/>
       <c r="E59" s="50"/>
       <c r="F59" s="50"/>
     </row>
-    <row r="60" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="50"/>
       <c r="D60" s="50"/>
       <c r="E60" s="50"/>
       <c r="F60" s="50"/>
     </row>
-    <row r="61" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="50"/>
       <c r="D61" s="50"/>
       <c r="E61" s="50"/>
       <c r="F61" s="50"/>
     </row>
-    <row r="62" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="50"/>
       <c r="D62" s="50"/>
       <c r="E62" s="50"/>
       <c r="F62" s="50"/>
     </row>
-    <row r="63" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="50"/>
       <c r="D63" s="50"/>
       <c r="E63" s="50"/>
       <c r="F63" s="50"/>
     </row>
-    <row r="64" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="50"/>
       <c r="D64" s="50"/>
       <c r="E64" s="50"/>
       <c r="F64" s="50"/>
     </row>
-    <row r="65" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="50"/>
       <c r="D65" s="50"/>
       <c r="E65" s="50"/>
       <c r="F65" s="50"/>
     </row>
-    <row r="66" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="50"/>
       <c r="D66" s="50"/>
       <c r="E66" s="50"/>
       <c r="F66" s="50"/>
     </row>
-    <row r="67" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="50"/>
       <c r="D67" s="50"/>
       <c r="E67" s="50"/>
       <c r="F67" s="50"/>
     </row>
-    <row r="68" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="50"/>
       <c r="D68" s="50"/>
       <c r="E68" s="50"/>
       <c r="F68" s="50"/>
     </row>
-    <row r="69" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="50"/>
       <c r="D69" s="50"/>
       <c r="E69" s="50"/>
       <c r="F69" s="50"/>
     </row>
-    <row r="70" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="50"/>
       <c r="D70" s="50"/>
       <c r="E70" s="50"/>
       <c r="F70" s="50"/>
     </row>
-    <row r="71" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="50"/>
       <c r="D71" s="50"/>
       <c r="E71" s="50"/>
       <c r="F71" s="50"/>
     </row>
-    <row r="72" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="50"/>
       <c r="D72" s="50"/>
       <c r="E72" s="50"/>
       <c r="F72" s="50"/>
     </row>
-    <row r="73" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="50"/>
       <c r="D73" s="50"/>
       <c r="E73" s="50"/>
       <c r="F73" s="50"/>
     </row>
-    <row r="74" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="50"/>
       <c r="D74" s="50"/>
       <c r="E74" s="50"/>
       <c r="F74" s="50"/>
     </row>
-    <row r="75" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="50"/>
       <c r="D75" s="50"/>
       <c r="E75" s="50"/>
       <c r="F75" s="50"/>
     </row>
-    <row r="76" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="50"/>
       <c r="D76" s="50"/>
       <c r="E76" s="50"/>
       <c r="F76" s="50"/>
     </row>
-    <row r="77" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="50"/>
       <c r="D77" s="50"/>
       <c r="E77" s="50"/>
       <c r="F77" s="50"/>
     </row>
-    <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="50"/>
       <c r="D78" s="50"/>
       <c r="E78" s="50"/>
       <c r="F78" s="50"/>
     </row>
-    <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="50"/>
       <c r="D79" s="50"/>
       <c r="E79" s="50"/>
       <c r="F79" s="50"/>
     </row>
-    <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="50"/>
       <c r="D80" s="50"/>
       <c r="E80" s="50"/>
       <c r="F80" s="50"/>
     </row>
-    <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="50"/>
       <c r="D81" s="50"/>
       <c r="E81" s="50"/>
       <c r="F81" s="50"/>
     </row>
-    <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="50"/>
       <c r="D82" s="50"/>
       <c r="E82" s="50"/>
       <c r="F82" s="50"/>
     </row>
-    <row r="83" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="50"/>
       <c r="D83" s="50"/>
       <c r="E83" s="50"/>
       <c r="F83" s="50"/>
     </row>
-    <row r="84" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="50"/>
       <c r="D84" s="50"/>
       <c r="E84" s="50"/>
       <c r="F84" s="50"/>
     </row>
-    <row r="85" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="50"/>
       <c r="D85" s="50"/>
       <c r="E85" s="50"/>
       <c r="F85" s="50"/>
     </row>
-    <row r="86" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="50"/>
       <c r="D86" s="50"/>
       <c r="E86" s="50"/>
       <c r="F86" s="50"/>
     </row>
-    <row r="87" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="50"/>
       <c r="D87" s="50"/>
       <c r="E87" s="50"/>
       <c r="F87" s="50"/>
     </row>
-    <row r="88" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="50"/>
       <c r="D88" s="50"/>
       <c r="E88" s="50"/>
       <c r="F88" s="50"/>
     </row>
-    <row r="89" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="50"/>
       <c r="D89" s="50"/>
       <c r="E89" s="50"/>
       <c r="F89" s="50"/>
     </row>
-    <row r="90" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="50"/>
       <c r="D90" s="50"/>
       <c r="E90" s="50"/>
       <c r="F90" s="50"/>
     </row>
-    <row r="91" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="50"/>
       <c r="D91" s="50"/>
       <c r="E91" s="50"/>
       <c r="F91" s="50"/>
     </row>
-    <row r="92" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="50"/>
       <c r="D92" s="50"/>
       <c r="E92" s="50"/>
       <c r="F92" s="50"/>
     </row>
-    <row r="93" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="50"/>
       <c r="D93" s="50"/>
       <c r="E93" s="50"/>
       <c r="F93" s="50"/>
     </row>
-    <row r="94" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="50"/>
       <c r="D94" s="50"/>
       <c r="E94" s="50"/>
       <c r="F94" s="50"/>
     </row>
-    <row r="95" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="50"/>
       <c r="D95" s="50"/>
       <c r="E95" s="50"/>
       <c r="F95" s="50"/>
     </row>
-    <row r="96" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C96" s="50"/>
       <c r="D96" s="50"/>
       <c r="E96" s="50"/>
       <c r="F96" s="50"/>
     </row>
-    <row r="97" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="50"/>
       <c r="D97" s="50"/>
       <c r="E97" s="50"/>
       <c r="F97" s="50"/>
     </row>
-    <row r="98" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="50"/>
       <c r="D98" s="50"/>
       <c r="E98" s="50"/>
       <c r="F98" s="50"/>
     </row>
-    <row r="99" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="50"/>
       <c r="D99" s="50"/>
       <c r="E99" s="50"/>
       <c r="F99" s="50"/>
     </row>
-    <row r="100" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C100" s="50"/>
       <c r="D100" s="50"/>
       <c r="E100" s="50"/>
       <c r="F100" s="50"/>
     </row>
-    <row r="101" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C101" s="50"/>
       <c r="D101" s="50"/>
       <c r="E101" s="50"/>
       <c r="F101" s="50"/>
     </row>
-    <row r="102" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C102" s="50"/>
       <c r="D102" s="50"/>
       <c r="E102" s="50"/>
       <c r="F102" s="50"/>
     </row>
-    <row r="103" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C103" s="50"/>
       <c r="D103" s="50"/>
       <c r="E103" s="50"/>
       <c r="F103" s="50"/>
     </row>
-    <row r="104" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C104" s="50"/>
       <c r="D104" s="50"/>
       <c r="E104" s="50"/>
       <c r="F104" s="50"/>
     </row>
-    <row r="105" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C105" s="50"/>
       <c r="D105" s="50"/>
       <c r="E105" s="50"/>
       <c r="F105" s="50"/>
     </row>
-    <row r="106" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="50"/>
       <c r="D106" s="50"/>
       <c r="E106" s="50"/>
       <c r="F106" s="50"/>
     </row>
-    <row r="107" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C107" s="50"/>
       <c r="D107" s="50"/>
       <c r="E107" s="50"/>
       <c r="F107" s="50"/>
     </row>
-    <row r="108" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="50"/>
       <c r="D108" s="50"/>
       <c r="E108" s="50"/>
       <c r="F108" s="50"/>
     </row>
-    <row r="109" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C109" s="50"/>
       <c r="D109" s="50"/>
       <c r="E109" s="50"/>
       <c r="F109" s="50"/>
     </row>
-    <row r="110" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
       <c r="E110" s="50"/>
       <c r="F110" s="50"/>
     </row>
-    <row r="111" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="50"/>
       <c r="D111" s="50"/>
       <c r="E111" s="50"/>
       <c r="F111" s="50"/>
     </row>
-    <row r="112" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="50"/>
       <c r="D112" s="50"/>
       <c r="E112" s="50"/>
       <c r="F112" s="50"/>
     </row>
-    <row r="113" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="50"/>
       <c r="D113" s="50"/>
       <c r="E113" s="50"/>
       <c r="F113" s="50"/>
     </row>
-    <row r="114" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="50"/>
       <c r="D114" s="50"/>
       <c r="E114" s="50"/>
       <c r="F114" s="50"/>
     </row>
-    <row r="115" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C115" s="50"/>
       <c r="D115" s="50"/>
       <c r="E115" s="50"/>
       <c r="F115" s="50"/>
     </row>
-    <row r="116" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C116" s="50"/>
       <c r="D116" s="50"/>
       <c r="E116" s="50"/>
       <c r="F116" s="50"/>
     </row>
-    <row r="117" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="50"/>
       <c r="D117" s="50"/>
       <c r="E117" s="50"/>
       <c r="F117" s="50"/>
     </row>
-    <row r="118" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C118" s="50"/>
       <c r="D118" s="50"/>
       <c r="E118" s="50"/>
       <c r="F118" s="50"/>
     </row>
-    <row r="119" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C119" s="50"/>
       <c r="D119" s="50"/>
       <c r="E119" s="50"/>
       <c r="F119" s="50"/>
     </row>
-    <row r="120" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="50"/>
       <c r="D120" s="50"/>
       <c r="E120" s="50"/>
       <c r="F120" s="50"/>
     </row>
-    <row r="121" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C121" s="50"/>
       <c r="D121" s="50"/>
       <c r="E121" s="50"/>
       <c r="F121" s="50"/>
     </row>
-    <row r="122" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C122" s="50"/>
       <c r="D122" s="50"/>
       <c r="E122" s="50"/>
       <c r="F122" s="50"/>
     </row>
-    <row r="123" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C123" s="50"/>
       <c r="D123" s="50"/>
       <c r="E123" s="50"/>
       <c r="F123" s="50"/>
     </row>
-    <row r="124" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C124" s="50"/>
       <c r="D124" s="50"/>
       <c r="E124" s="50"/>
       <c r="F124" s="50"/>
     </row>
-    <row r="125" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C125" s="50"/>
       <c r="D125" s="50"/>
       <c r="E125" s="50"/>
       <c r="F125" s="50"/>
     </row>
-    <row r="126" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C126" s="50"/>
       <c r="D126" s="50"/>
       <c r="E126" s="50"/>
       <c r="F126" s="50"/>
     </row>
-    <row r="127" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C127" s="50"/>
       <c r="D127" s="50"/>
       <c r="E127" s="50"/>
       <c r="F127" s="50"/>
     </row>
-    <row r="128" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C128" s="50"/>
       <c r="D128" s="50"/>
       <c r="E128" s="50"/>
       <c r="F128" s="50"/>
     </row>
-    <row r="129" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C129" s="50"/>
       <c r="D129" s="50"/>
       <c r="E129" s="50"/>
       <c r="F129" s="50"/>
     </row>
-    <row r="130" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C130" s="50"/>
       <c r="D130" s="50"/>
       <c r="E130" s="50"/>
       <c r="F130" s="50"/>
     </row>
-    <row r="131" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C131" s="50"/>
       <c r="D131" s="50"/>
       <c r="E131" s="50"/>
       <c r="F131" s="50"/>
     </row>
-    <row r="132" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C132" s="50"/>
       <c r="D132" s="50"/>
       <c r="E132" s="50"/>
       <c r="F132" s="50"/>
     </row>
-    <row r="133" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C133" s="50"/>
       <c r="D133" s="50"/>
       <c r="E133" s="50"/>
       <c r="F133" s="50"/>
     </row>
-    <row r="134" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C134" s="50"/>
       <c r="D134" s="50"/>
       <c r="E134" s="50"/>
       <c r="F134" s="50"/>
     </row>
-    <row r="135" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C135" s="50"/>
       <c r="D135" s="50"/>
       <c r="E135" s="50"/>
       <c r="F135" s="50"/>
     </row>
-    <row r="136" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C136" s="50"/>
       <c r="D136" s="50"/>
       <c r="E136" s="50"/>
       <c r="F136" s="50"/>
     </row>
-    <row r="137" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C137" s="50"/>
       <c r="D137" s="50"/>
       <c r="E137" s="50"/>
       <c r="F137" s="50"/>
     </row>
-    <row r="138" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C138" s="50"/>
       <c r="D138" s="50"/>
       <c r="E138" s="50"/>
       <c r="F138" s="50"/>
     </row>
-    <row r="139" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C139" s="50"/>
       <c r="D139" s="50"/>
       <c r="E139" s="50"/>
       <c r="F139" s="50"/>
     </row>
-    <row r="140" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C140" s="50"/>
       <c r="D140" s="50"/>
       <c r="E140" s="50"/>
       <c r="F140" s="50"/>
     </row>
-    <row r="141" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C141" s="50"/>
       <c r="D141" s="50"/>
       <c r="E141" s="50"/>
       <c r="F141" s="50"/>
     </row>
-    <row r="142" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C142" s="50"/>
       <c r="D142" s="50"/>
       <c r="E142" s="50"/>
       <c r="F142" s="50"/>
     </row>
-    <row r="143" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C143" s="50"/>
       <c r="D143" s="50"/>
       <c r="E143" s="50"/>
       <c r="F143" s="50"/>
     </row>
-    <row r="144" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C144" s="50"/>
       <c r="D144" s="50"/>
       <c r="E144" s="50"/>
       <c r="F144" s="50"/>
     </row>
-    <row r="145" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C145" s="50"/>
       <c r="D145" s="50"/>
       <c r="E145" s="50"/>
       <c r="F145" s="50"/>
     </row>
-    <row r="146" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C146" s="50"/>
       <c r="D146" s="50"/>
       <c r="E146" s="50"/>
       <c r="F146" s="50"/>
     </row>
-    <row r="147" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C147" s="50"/>
       <c r="D147" s="50"/>
       <c r="E147" s="50"/>
       <c r="F147" s="50"/>
     </row>
-    <row r="148" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C148" s="50"/>
       <c r="D148" s="50"/>
       <c r="E148" s="50"/>
       <c r="F148" s="50"/>
     </row>
-    <row r="149" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C149" s="50"/>
       <c r="D149" s="50"/>
       <c r="E149" s="50"/>
       <c r="F149" s="50"/>
     </row>
-    <row r="150" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C150" s="50"/>
       <c r="D150" s="50"/>
       <c r="E150" s="50"/>
       <c r="F150" s="50"/>
     </row>
-    <row r="151" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C151" s="50"/>
       <c r="D151" s="50"/>
       <c r="E151" s="50"/>
       <c r="F151" s="50"/>
     </row>
-    <row r="152" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C152" s="50"/>
       <c r="D152" s="50"/>
       <c r="E152" s="50"/>
       <c r="F152" s="50"/>
     </row>
-    <row r="153" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C153" s="50"/>
       <c r="D153" s="50"/>
       <c r="E153" s="50"/>
       <c r="F153" s="50"/>
     </row>
-    <row r="154" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C154" s="50"/>
       <c r="D154" s="50"/>
       <c r="E154" s="50"/>
       <c r="F154" s="50"/>
     </row>
-    <row r="155" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C155" s="50"/>
       <c r="D155" s="50"/>
       <c r="E155" s="50"/>
       <c r="F155" s="50"/>
     </row>
-    <row r="156" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C156" s="50"/>
       <c r="D156" s="50"/>
       <c r="E156" s="50"/>
       <c r="F156" s="50"/>
     </row>
-    <row r="157" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C157" s="50"/>
       <c r="D157" s="50"/>
       <c r="E157" s="50"/>
       <c r="F157" s="50"/>
     </row>
-    <row r="158" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C158" s="50"/>
       <c r="D158" s="50"/>
       <c r="E158" s="50"/>
       <c r="F158" s="50"/>
     </row>
-    <row r="159" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C159" s="50"/>
       <c r="D159" s="50"/>
       <c r="E159" s="50"/>
       <c r="F159" s="50"/>
     </row>
-    <row r="160" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C160" s="50"/>
       <c r="D160" s="50"/>
       <c r="E160" s="50"/>
       <c r="F160" s="50"/>
     </row>
-    <row r="161" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C161" s="50"/>
       <c r="D161" s="50"/>
       <c r="E161" s="50"/>
       <c r="F161" s="50"/>
     </row>
-    <row r="162" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C162" s="50"/>
       <c r="D162" s="50"/>
       <c r="E162" s="50"/>
       <c r="F162" s="50"/>
     </row>
-    <row r="163" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C163" s="50"/>
       <c r="D163" s="50"/>
       <c r="E163" s="50"/>
       <c r="F163" s="50"/>
     </row>
-    <row r="164" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C164" s="50"/>
       <c r="D164" s="50"/>
       <c r="E164" s="50"/>
       <c r="F164" s="50"/>
     </row>
-    <row r="165" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C165" s="50"/>
       <c r="D165" s="50"/>
       <c r="E165" s="50"/>
       <c r="F165" s="50"/>
     </row>
-    <row r="166" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C166" s="50"/>
       <c r="D166" s="50"/>
       <c r="E166" s="50"/>
       <c r="F166" s="50"/>
     </row>
-    <row r="167" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C167" s="50"/>
       <c r="D167" s="50"/>
       <c r="E167" s="50"/>
       <c r="F167" s="50"/>
     </row>
-    <row r="168" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C168" s="50"/>
       <c r="D168" s="50"/>
       <c r="E168" s="50"/>
       <c r="F168" s="50"/>
     </row>
-    <row r="169" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C169" s="50"/>
       <c r="D169" s="50"/>
       <c r="E169" s="50"/>
       <c r="F169" s="50"/>
     </row>
-    <row r="170" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C170" s="50"/>
       <c r="D170" s="50"/>
       <c r="E170" s="50"/>
       <c r="F170" s="50"/>
     </row>
-    <row r="171" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C171" s="50"/>
       <c r="D171" s="50"/>
       <c r="E171" s="50"/>
       <c r="F171" s="50"/>
     </row>
-    <row r="172" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C172" s="50"/>
       <c r="D172" s="50"/>
       <c r="E172" s="50"/>
       <c r="F172" s="50"/>
     </row>
-    <row r="173" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C173" s="50"/>
       <c r="D173" s="50"/>
       <c r="E173" s="50"/>
       <c r="F173" s="50"/>
     </row>
-    <row r="174" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C174" s="50"/>
       <c r="D174" s="50"/>
       <c r="E174" s="50"/>
       <c r="F174" s="50"/>
     </row>
-    <row r="175" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C175" s="50"/>
       <c r="D175" s="50"/>
       <c r="E175" s="50"/>
       <c r="F175" s="50"/>
     </row>
-    <row r="176" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C176" s="50"/>
       <c r="D176" s="50"/>
       <c r="E176" s="50"/>
       <c r="F176" s="50"/>
     </row>
-    <row r="177" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C177" s="50"/>
       <c r="D177" s="50"/>
       <c r="E177" s="50"/>
       <c r="F177" s="50"/>
     </row>
-    <row r="178" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C178" s="50"/>
       <c r="D178" s="50"/>
       <c r="E178" s="50"/>
       <c r="F178" s="50"/>
     </row>
-    <row r="179" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C179" s="50"/>
       <c r="D179" s="50"/>
       <c r="E179" s="50"/>
       <c r="F179" s="50"/>
     </row>
-    <row r="180" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C180" s="50"/>
       <c r="D180" s="50"/>
       <c r="E180" s="50"/>
       <c r="F180" s="50"/>
     </row>
-    <row r="181" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C181" s="50"/>
       <c r="D181" s="50"/>
       <c r="E181" s="50"/>
       <c r="F181" s="50"/>
     </row>
-    <row r="182" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C182" s="50"/>
       <c r="D182" s="50"/>
       <c r="E182" s="50"/>
       <c r="F182" s="50"/>
     </row>
-    <row r="183" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C183" s="50"/>
       <c r="D183" s="50"/>
       <c r="E183" s="50"/>
       <c r="F183" s="50"/>
     </row>
-    <row r="184" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C184" s="50"/>
       <c r="D184" s="50"/>
       <c r="E184" s="50"/>
       <c r="F184" s="50"/>
     </row>
-    <row r="185" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C185" s="50"/>
       <c r="D185" s="50"/>
       <c r="E185" s="50"/>
       <c r="F185" s="50"/>
     </row>
-    <row r="186" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C186" s="50"/>
       <c r="D186" s="50"/>
       <c r="E186" s="50"/>
       <c r="F186" s="50"/>
     </row>
-    <row r="187" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C187" s="50"/>
       <c r="D187" s="50"/>
       <c r="E187" s="50"/>
       <c r="F187" s="50"/>
     </row>
-    <row r="188" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C188" s="50"/>
       <c r="D188" s="50"/>
       <c r="E188" s="50"/>
       <c r="F188" s="50"/>
     </row>
-    <row r="189" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C189" s="50"/>
       <c r="D189" s="50"/>
       <c r="E189" s="50"/>
       <c r="F189" s="50"/>
     </row>
-    <row r="190" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C190" s="50"/>
       <c r="D190" s="50"/>
       <c r="E190" s="50"/>
       <c r="F190" s="50"/>
     </row>
-    <row r="191" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C191" s="50"/>
       <c r="D191" s="50"/>
       <c r="E191" s="50"/>
       <c r="F191" s="50"/>
     </row>
-    <row r="192" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C192" s="50"/>
       <c r="D192" s="50"/>
       <c r="E192" s="50"/>
       <c r="F192" s="50"/>
     </row>
-    <row r="193" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C193" s="50"/>
       <c r="D193" s="50"/>
       <c r="E193" s="50"/>
       <c r="F193" s="50"/>
     </row>
-    <row r="194" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C194" s="50"/>
       <c r="D194" s="50"/>
       <c r="E194" s="50"/>
       <c r="F194" s="50"/>
     </row>
-    <row r="195" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C195" s="50"/>
       <c r="D195" s="50"/>
       <c r="E195" s="50"/>
       <c r="F195" s="50"/>
     </row>
-    <row r="196" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C196" s="50"/>
       <c r="D196" s="50"/>
       <c r="E196" s="50"/>
       <c r="F196" s="50"/>
     </row>
-    <row r="197" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C197" s="50"/>
       <c r="D197" s="50"/>
       <c r="E197" s="50"/>
       <c r="F197" s="50"/>
     </row>
-    <row r="198" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C198" s="50"/>
       <c r="D198" s="50"/>
       <c r="E198" s="50"/>
       <c r="F198" s="50"/>
     </row>
-    <row r="199" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C199" s="50"/>
       <c r="D199" s="50"/>
       <c r="E199" s="50"/>
       <c r="F199" s="50"/>
     </row>
-    <row r="200" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C200" s="50"/>
       <c r="D200" s="50"/>
       <c r="E200" s="50"/>
       <c r="F200" s="50"/>
     </row>
-    <row r="201" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C201" s="50"/>
       <c r="D201" s="50"/>
       <c r="E201" s="50"/>
       <c r="F201" s="50"/>
     </row>
-    <row r="202" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C202" s="50"/>
       <c r="D202" s="50"/>
       <c r="E202" s="50"/>
       <c r="F202" s="50"/>
     </row>
-    <row r="203" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C203" s="50"/>
       <c r="D203" s="50"/>
       <c r="E203" s="50"/>
       <c r="F203" s="50"/>
     </row>
-    <row r="204" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C204" s="50"/>
       <c r="D204" s="50"/>
       <c r="E204" s="50"/>
       <c r="F204" s="50"/>
     </row>
-    <row r="205" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C205" s="50"/>
       <c r="D205" s="50"/>
       <c r="E205" s="50"/>
       <c r="F205" s="50"/>
     </row>
-    <row r="206" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C206" s="50"/>
       <c r="D206" s="50"/>
       <c r="E206" s="50"/>
       <c r="F206" s="50"/>
     </row>
-    <row r="207" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C207" s="50"/>
       <c r="D207" s="50"/>
       <c r="E207" s="50"/>
       <c r="F207" s="50"/>
     </row>
-    <row r="208" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C208" s="50"/>
       <c r="D208" s="50"/>
       <c r="E208" s="50"/>
       <c r="F208" s="50"/>
     </row>
-    <row r="209" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C209" s="50"/>
       <c r="D209" s="50"/>
       <c r="E209" s="50"/>
       <c r="F209" s="50"/>
     </row>
-    <row r="210" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C210" s="50"/>
       <c r="D210" s="50"/>
       <c r="E210" s="50"/>
       <c r="F210" s="50"/>
     </row>
-    <row r="211" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C211" s="50"/>
       <c r="D211" s="50"/>
       <c r="E211" s="50"/>
       <c r="F211" s="50"/>
     </row>
-    <row r="212" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C212" s="50"/>
       <c r="D212" s="50"/>
       <c r="E212" s="50"/>
       <c r="F212" s="50"/>
     </row>
-    <row r="213" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C213" s="50"/>
       <c r="D213" s="50"/>
       <c r="E213" s="50"/>
       <c r="F213" s="50"/>
     </row>
-    <row r="214" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C214" s="50"/>
       <c r="D214" s="50"/>
       <c r="E214" s="50"/>
       <c r="F214" s="50"/>
     </row>
-    <row r="215" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C215" s="50"/>
       <c r="D215" s="50"/>
       <c r="E215" s="50"/>
       <c r="F215" s="50"/>
     </row>
-    <row r="216" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C216" s="50"/>
       <c r="D216" s="50"/>
       <c r="E216" s="50"/>
       <c r="F216" s="50"/>
     </row>
-    <row r="217" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C217" s="50"/>
       <c r="D217" s="50"/>
       <c r="E217" s="50"/>
       <c r="F217" s="50"/>
     </row>
-    <row r="218" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C218" s="50"/>
       <c r="D218" s="50"/>
       <c r="E218" s="50"/>
       <c r="F218" s="50"/>
     </row>
-    <row r="219" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C219" s="50"/>
       <c r="D219" s="50"/>
       <c r="E219" s="50"/>
       <c r="F219" s="50"/>
     </row>
-    <row r="220" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C220" s="50"/>
       <c r="D220" s="50"/>
       <c r="E220" s="50"/>
       <c r="F220" s="50"/>
     </row>
-    <row r="221" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C221" s="50"/>
       <c r="D221" s="50"/>
       <c r="E221" s="50"/>
       <c r="F221" s="50"/>
     </row>
-    <row r="222" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C222" s="50"/>
       <c r="D222" s="50"/>
       <c r="E222" s="50"/>
       <c r="F222" s="50"/>
     </row>
-    <row r="223" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C223" s="50"/>
       <c r="D223" s="50"/>
       <c r="E223" s="50"/>
       <c r="F223" s="50"/>
     </row>
-    <row r="224" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C224" s="50"/>
       <c r="D224" s="50"/>
       <c r="E224" s="50"/>
       <c r="F224" s="50"/>
     </row>
-    <row r="225" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C225" s="50"/>
       <c r="D225" s="50"/>
       <c r="E225" s="50"/>
       <c r="F225" s="50"/>
     </row>
-    <row r="226" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C226" s="50"/>
       <c r="D226" s="50"/>
       <c r="E226" s="50"/>
       <c r="F226" s="50"/>
     </row>
-    <row r="227" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C227" s="50"/>
       <c r="D227" s="50"/>
       <c r="E227" s="50"/>
       <c r="F227" s="50"/>
     </row>
-    <row r="228" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C228" s="50"/>
       <c r="D228" s="50"/>
       <c r="E228" s="50"/>
       <c r="F228" s="50"/>
     </row>
-    <row r="229" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C229" s="50"/>
       <c r="D229" s="50"/>
       <c r="E229" s="50"/>
       <c r="F229" s="50"/>
     </row>
-    <row r="230" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C230" s="50"/>
       <c r="D230" s="50"/>
       <c r="E230" s="50"/>
       <c r="F230" s="50"/>
     </row>
-    <row r="231" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C231" s="50"/>
       <c r="D231" s="50"/>
       <c r="E231" s="50"/>
       <c r="F231" s="50"/>
     </row>
-    <row r="232" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C232" s="50"/>
       <c r="D232" s="50"/>
       <c r="E232" s="50"/>
       <c r="F232" s="50"/>
     </row>
-    <row r="233" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C233" s="50"/>
       <c r="D233" s="50"/>
       <c r="E233" s="50"/>
       <c r="F233" s="50"/>
     </row>
-    <row r="234" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C234" s="50"/>
       <c r="D234" s="50"/>
       <c r="E234" s="50"/>
       <c r="F234" s="50"/>
     </row>
-    <row r="235" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C235" s="50"/>
       <c r="D235" s="50"/>
       <c r="E235" s="50"/>
       <c r="F235" s="50"/>
     </row>
-    <row r="236" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C236" s="50"/>
       <c r="D236" s="50"/>
       <c r="E236" s="50"/>
       <c r="F236" s="50"/>
     </row>
-    <row r="237" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C237" s="50"/>
       <c r="D237" s="50"/>
       <c r="E237" s="50"/>
       <c r="F237" s="50"/>
     </row>
-    <row r="238" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C238" s="50"/>
       <c r="D238" s="50"/>
       <c r="E238" s="50"/>
       <c r="F238" s="50"/>
     </row>
-    <row r="239" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C239" s="50"/>
       <c r="D239" s="50"/>
       <c r="E239" s="50"/>
       <c r="F239" s="50"/>
     </row>
-    <row r="240" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C240" s="50"/>
       <c r="D240" s="50"/>
       <c r="E240" s="50"/>
       <c r="F240" s="50"/>
     </row>
-    <row r="241" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C241" s="50"/>
       <c r="D241" s="50"/>
       <c r="E241" s="50"/>
       <c r="F241" s="50"/>
     </row>
-    <row r="242" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C242" s="50"/>
       <c r="D242" s="50"/>
       <c r="E242" s="50"/>
       <c r="F242" s="50"/>
     </row>
-    <row r="243" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C243" s="50"/>
       <c r="D243" s="50"/>
       <c r="E243" s="50"/>
       <c r="F243" s="50"/>
     </row>
-    <row r="244" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C244" s="50"/>
       <c r="D244" s="50"/>
       <c r="E244" s="50"/>
       <c r="F244" s="50"/>
     </row>
-    <row r="245" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C245" s="50"/>
       <c r="D245" s="50"/>
       <c r="E245" s="50"/>
       <c r="F245" s="50"/>
     </row>
-    <row r="246" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C246" s="50"/>
       <c r="D246" s="50"/>
       <c r="E246" s="50"/>
       <c r="F246" s="50"/>
     </row>
-    <row r="247" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C247" s="50"/>
       <c r="D247" s="50"/>
       <c r="E247" s="50"/>
       <c r="F247" s="50"/>
     </row>
-    <row r="248" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C248" s="50"/>
       <c r="D248" s="50"/>
       <c r="E248" s="50"/>
       <c r="F248" s="50"/>
     </row>
-    <row r="249" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C249" s="50"/>
       <c r="D249" s="50"/>
       <c r="E249" s="50"/>
       <c r="F249" s="50"/>
     </row>
-    <row r="250" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C250" s="50"/>
       <c r="D250" s="50"/>
       <c r="E250" s="50"/>
       <c r="F250" s="50"/>
     </row>
-    <row r="251" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C251" s="50"/>
       <c r="D251" s="50"/>
       <c r="E251" s="50"/>
       <c r="F251" s="50"/>
     </row>
-    <row r="252" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C252" s="50"/>
       <c r="D252" s="50"/>
       <c r="E252" s="50"/>
       <c r="F252" s="50"/>
     </row>
-    <row r="253" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C253" s="50"/>
       <c r="D253" s="50"/>
       <c r="E253" s="50"/>
       <c r="F253" s="50"/>
     </row>
-    <row r="254" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C254" s="50"/>
       <c r="D254" s="50"/>
       <c r="E254" s="50"/>
       <c r="F254" s="50"/>
     </row>
-    <row r="255" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C255" s="50"/>
       <c r="D255" s="50"/>
       <c r="E255" s="50"/>
       <c r="F255" s="50"/>
     </row>
-    <row r="256" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C256" s="50"/>
       <c r="D256" s="50"/>
       <c r="E256" s="50"/>
       <c r="F256" s="50"/>
     </row>
-    <row r="257" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C257" s="50"/>
       <c r="D257" s="50"/>
       <c r="E257" s="50"/>
       <c r="F257" s="50"/>
     </row>
-    <row r="258" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C258" s="50"/>
       <c r="D258" s="50"/>
       <c r="E258" s="50"/>
       <c r="F258" s="50"/>
     </row>
-    <row r="259" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C259" s="50"/>
       <c r="D259" s="50"/>
       <c r="E259" s="50"/>
       <c r="F259" s="50"/>
     </row>
-    <row r="260" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C260" s="50"/>
       <c r="D260" s="50"/>
       <c r="E260" s="50"/>
       <c r="F260" s="50"/>
     </row>
-    <row r="261" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C261" s="50"/>
       <c r="D261" s="50"/>
       <c r="E261" s="50"/>
       <c r="F261" s="50"/>
     </row>
-    <row r="262" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C262" s="50"/>
       <c r="D262" s="50"/>
       <c r="E262" s="50"/>
       <c r="F262" s="50"/>
     </row>
-    <row r="263" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C263" s="50"/>
       <c r="D263" s="50"/>
       <c r="E263" s="50"/>
       <c r="F263" s="50"/>
     </row>
-    <row r="264" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C264" s="50"/>
       <c r="D264" s="50"/>
       <c r="E264" s="50"/>
       <c r="F264" s="50"/>
     </row>
-    <row r="265" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C265" s="50"/>
       <c r="D265" s="50"/>
       <c r="E265" s="50"/>
       <c r="F265" s="50"/>
     </row>
-    <row r="266" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C266" s="50"/>
       <c r="D266" s="50"/>
       <c r="E266" s="50"/>
       <c r="F266" s="50"/>
     </row>
-    <row r="267" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C267" s="50"/>
       <c r="D267" s="50"/>
       <c r="E267" s="50"/>
       <c r="F267" s="50"/>
     </row>
-    <row r="268" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C268" s="50"/>
       <c r="D268" s="50"/>
       <c r="E268" s="50"/>
       <c r="F268" s="50"/>
     </row>
-    <row r="269" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C269" s="50"/>
       <c r="D269" s="50"/>
       <c r="E269" s="50"/>
       <c r="F269" s="50"/>
     </row>
-    <row r="270" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C270" s="50"/>
       <c r="D270" s="50"/>
       <c r="E270" s="50"/>
       <c r="F270" s="50"/>
     </row>
-    <row r="271" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C271" s="50"/>
       <c r="D271" s="50"/>
       <c r="E271" s="50"/>
       <c r="F271" s="50"/>
     </row>
-    <row r="272" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C272" s="50"/>
       <c r="D272" s="50"/>
       <c r="E272" s="50"/>
       <c r="F272" s="50"/>
     </row>
-    <row r="273" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C273" s="50"/>
       <c r="D273" s="50"/>
       <c r="E273" s="50"/>
       <c r="F273" s="50"/>
     </row>
-    <row r="274" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C274" s="50"/>
       <c r="D274" s="50"/>
       <c r="E274" s="50"/>
       <c r="F274" s="50"/>
     </row>
-    <row r="275" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C275" s="50"/>
       <c r="D275" s="50"/>
       <c r="E275" s="50"/>
       <c r="F275" s="50"/>
     </row>
-    <row r="276" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C276" s="50"/>
       <c r="D276" s="50"/>
       <c r="E276" s="50"/>
       <c r="F276" s="50"/>
     </row>
-    <row r="277" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C277" s="50"/>
       <c r="D277" s="50"/>
       <c r="E277" s="50"/>
       <c r="F277" s="50"/>
     </row>
-    <row r="278" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C278" s="50"/>
       <c r="D278" s="50"/>
       <c r="E278" s="50"/>
       <c r="F278" s="50"/>
     </row>
-    <row r="279" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C279" s="50"/>
       <c r="D279" s="50"/>
       <c r="E279" s="50"/>
       <c r="F279" s="50"/>
     </row>
-    <row r="280" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C280" s="50"/>
       <c r="D280" s="50"/>
       <c r="E280" s="50"/>
       <c r="F280" s="50"/>
     </row>
-    <row r="281" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C281" s="50"/>
       <c r="D281" s="50"/>
       <c r="E281" s="50"/>
       <c r="F281" s="50"/>
     </row>
-    <row r="282" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C282" s="50"/>
       <c r="D282" s="50"/>
       <c r="E282" s="50"/>
       <c r="F282" s="50"/>
     </row>
-    <row r="283" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C283" s="50"/>
       <c r="D283" s="50"/>
       <c r="E283" s="50"/>
       <c r="F283" s="50"/>
     </row>
-    <row r="284" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C284" s="50"/>
       <c r="D284" s="50"/>
       <c r="E284" s="50"/>
       <c r="F284" s="50"/>
     </row>
-    <row r="285" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C285" s="50"/>
       <c r="D285" s="50"/>
       <c r="E285" s="50"/>
       <c r="F285" s="50"/>
     </row>
-    <row r="286" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C286" s="50"/>
       <c r="D286" s="50"/>
       <c r="E286" s="50"/>
       <c r="F286" s="50"/>
     </row>
-    <row r="287" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C287" s="50"/>
       <c r="D287" s="50"/>
       <c r="E287" s="50"/>
       <c r="F287" s="50"/>
     </row>
-    <row r="288" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C288" s="50"/>
       <c r="D288" s="50"/>
       <c r="E288" s="50"/>
       <c r="F288" s="50"/>
     </row>
-    <row r="289" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C289" s="50"/>
       <c r="D289" s="50"/>
       <c r="E289" s="50"/>
       <c r="F289" s="50"/>
     </row>
-    <row r="290" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C290" s="50"/>
       <c r="D290" s="50"/>
       <c r="E290" s="50"/>
       <c r="F290" s="50"/>
     </row>
-    <row r="291" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C291" s="50"/>
       <c r="D291" s="50"/>
       <c r="E291" s="50"/>
       <c r="F291" s="50"/>
     </row>
-    <row r="292" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C292" s="50"/>
       <c r="D292" s="50"/>
       <c r="E292" s="50"/>
       <c r="F292" s="50"/>
     </row>
-    <row r="293" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C293" s="50"/>
       <c r="D293" s="50"/>
       <c r="E293" s="50"/>
       <c r="F293" s="50"/>
     </row>
-    <row r="294" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C294" s="50"/>
       <c r="D294" s="50"/>
       <c r="E294" s="50"/>
       <c r="F294" s="50"/>
     </row>
-    <row r="295" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C295" s="50"/>
       <c r="D295" s="50"/>
       <c r="E295" s="50"/>
       <c r="F295" s="50"/>
     </row>
-    <row r="296" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C296" s="50"/>
       <c r="D296" s="50"/>
       <c r="E296" s="50"/>
       <c r="F296" s="50"/>
     </row>
-    <row r="297" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C297" s="50"/>
       <c r="D297" s="50"/>
       <c r="E297" s="50"/>
       <c r="F297" s="50"/>
     </row>
-    <row r="298" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C298" s="50"/>
       <c r="D298" s="50"/>
       <c r="E298" s="50"/>
       <c r="F298" s="50"/>
     </row>
-    <row r="299" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C299" s="50"/>
       <c r="D299" s="50"/>
       <c r="E299" s="50"/>
       <c r="F299" s="50"/>
     </row>
-    <row r="300" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C300" s="50"/>
       <c r="D300" s="50"/>
       <c r="E300" s="50"/>
       <c r="F300" s="50"/>
     </row>
-    <row r="301" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C301" s="50"/>
       <c r="D301" s="50"/>
       <c r="E301" s="50"/>
       <c r="F301" s="50"/>
     </row>
-    <row r="302" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C302" s="50"/>
       <c r="D302" s="50"/>
       <c r="E302" s="50"/>
       <c r="F302" s="50"/>
     </row>
-    <row r="303" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C303" s="50"/>
       <c r="D303" s="50"/>
       <c r="E303" s="50"/>
       <c r="F303" s="50"/>
     </row>
-    <row r="304" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C304" s="50"/>
       <c r="D304" s="50"/>
       <c r="E304" s="50"/>
       <c r="F304" s="50"/>
     </row>
-    <row r="305" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C305" s="50"/>
       <c r="D305" s="50"/>
       <c r="E305" s="50"/>
       <c r="F305" s="50"/>
     </row>
-    <row r="306" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C306" s="50"/>
       <c r="D306" s="50"/>
       <c r="E306" s="50"/>
       <c r="F306" s="50"/>
     </row>
-    <row r="307" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C307" s="50"/>
       <c r="D307" s="50"/>
       <c r="E307" s="50"/>
       <c r="F307" s="50"/>
     </row>
-    <row r="308" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C308" s="50"/>
       <c r="D308" s="50"/>
       <c r="E308" s="50"/>
       <c r="F308" s="50"/>
     </row>
-    <row r="309" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C309" s="50"/>
       <c r="D309" s="50"/>
       <c r="E309" s="50"/>
       <c r="F309" s="50"/>
     </row>
-    <row r="310" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C310" s="50"/>
       <c r="D310" s="50"/>
       <c r="E310" s="50"/>
       <c r="F310" s="50"/>
     </row>
-    <row r="311" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C311" s="50"/>
       <c r="D311" s="50"/>
       <c r="E311" s="50"/>
       <c r="F311" s="50"/>
     </row>
-    <row r="312" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C312" s="50"/>
       <c r="D312" s="50"/>
       <c r="E312" s="50"/>
       <c r="F312" s="50"/>
     </row>
-    <row r="313" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C313" s="50"/>
       <c r="D313" s="50"/>
       <c r="E313" s="50"/>
       <c r="F313" s="50"/>
     </row>
-    <row r="314" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C314" s="50"/>
       <c r="D314" s="50"/>
       <c r="E314" s="50"/>
       <c r="F314" s="50"/>
     </row>
-    <row r="315" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C315" s="50"/>
       <c r="D315" s="50"/>
       <c r="E315" s="50"/>
       <c r="F315" s="50"/>
     </row>
-    <row r="316" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C316" s="50"/>
       <c r="D316" s="50"/>
       <c r="E316" s="50"/>
       <c r="F316" s="50"/>
     </row>
-    <row r="317" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C317" s="50"/>
       <c r="D317" s="50"/>
       <c r="E317" s="50"/>
       <c r="F317" s="50"/>
     </row>
-    <row r="318" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C318" s="50"/>
       <c r="D318" s="50"/>
       <c r="E318" s="50"/>
       <c r="F318" s="50"/>
     </row>
-    <row r="319" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C319" s="50"/>
       <c r="D319" s="50"/>
       <c r="E319" s="50"/>
       <c r="F319" s="50"/>
     </row>
-    <row r="320" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C320" s="50"/>
       <c r="D320" s="50"/>
       <c r="E320" s="50"/>
       <c r="F320" s="50"/>
     </row>
-    <row r="321" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C321" s="50"/>
       <c r="D321" s="50"/>
       <c r="E321" s="50"/>
       <c r="F321" s="50"/>
     </row>
-    <row r="322" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C322" s="50"/>
       <c r="D322" s="50"/>
       <c r="E322" s="50"/>
       <c r="F322" s="50"/>
     </row>
-    <row r="323" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C323" s="50"/>
       <c r="D323" s="50"/>
       <c r="E323" s="50"/>
       <c r="F323" s="50"/>
     </row>
-    <row r="324" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C324" s="50"/>
       <c r="D324" s="50"/>
       <c r="E324" s="50"/>
       <c r="F324" s="50"/>
     </row>
-    <row r="325" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C325" s="50"/>
       <c r="D325" s="50"/>
       <c r="E325" s="50"/>
       <c r="F325" s="50"/>
     </row>
-    <row r="326" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C326" s="50"/>
       <c r="D326" s="50"/>
       <c r="E326" s="50"/>
       <c r="F326" s="50"/>
     </row>
-    <row r="327" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C327" s="50"/>
       <c r="D327" s="50"/>
       <c r="E327" s="50"/>
       <c r="F327" s="50"/>
     </row>
-    <row r="328" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C328" s="50"/>
       <c r="D328" s="50"/>
       <c r="E328" s="50"/>
       <c r="F328" s="50"/>
     </row>
-    <row r="329" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C329" s="50"/>
       <c r="D329" s="50"/>
       <c r="E329" s="50"/>
       <c r="F329" s="50"/>
     </row>
-    <row r="330" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C330" s="50"/>
       <c r="D330" s="50"/>
       <c r="E330" s="50"/>
       <c r="F330" s="50"/>
     </row>
-    <row r="331" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C331" s="50"/>
       <c r="D331" s="50"/>
       <c r="E331" s="50"/>
       <c r="F331" s="50"/>
     </row>
-    <row r="332" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C332" s="50"/>
       <c r="D332" s="50"/>
       <c r="E332" s="50"/>
       <c r="F332" s="50"/>
     </row>
-    <row r="333" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C333" s="50"/>
       <c r="D333" s="50"/>
       <c r="E333" s="50"/>
       <c r="F333" s="50"/>
     </row>
-    <row r="334" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C334" s="50"/>
       <c r="D334" s="50"/>
       <c r="E334" s="50"/>
       <c r="F334" s="50"/>
     </row>
-    <row r="335" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C335" s="50"/>
       <c r="D335" s="50"/>
       <c r="E335" s="50"/>
       <c r="F335" s="50"/>
     </row>
-    <row r="336" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C336" s="50"/>
       <c r="D336" s="50"/>
       <c r="E336" s="50"/>
       <c r="F336" s="50"/>
     </row>
-    <row r="337" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C337" s="50"/>
       <c r="D337" s="50"/>
       <c r="E337" s="50"/>
       <c r="F337" s="50"/>
     </row>
-    <row r="338" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C338" s="50"/>
       <c r="D338" s="50"/>
       <c r="E338" s="50"/>
       <c r="F338" s="50"/>
     </row>
-    <row r="339" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C339" s="50"/>
       <c r="D339" s="50"/>
       <c r="E339" s="50"/>
       <c r="F339" s="50"/>
     </row>
-    <row r="340" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C340" s="50"/>
       <c r="D340" s="50"/>
       <c r="E340" s="50"/>
       <c r="F340" s="50"/>
     </row>
-    <row r="341" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C341" s="50"/>
       <c r="D341" s="50"/>
       <c r="E341" s="50"/>
       <c r="F341" s="50"/>
     </row>
-    <row r="342" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C342" s="50"/>
       <c r="D342" s="50"/>
       <c r="E342" s="50"/>
       <c r="F342" s="50"/>
     </row>
-    <row r="343" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C343" s="50"/>
       <c r="D343" s="50"/>
       <c r="E343" s="50"/>
       <c r="F343" s="50"/>
     </row>
-    <row r="344" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C344" s="50"/>
       <c r="D344" s="50"/>
       <c r="E344" s="50"/>
       <c r="F344" s="50"/>
     </row>
-    <row r="345" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C345" s="50"/>
       <c r="D345" s="50"/>
       <c r="E345" s="50"/>
       <c r="F345" s="50"/>
     </row>
-    <row r="346" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C346" s="50"/>
       <c r="D346" s="50"/>
       <c r="E346" s="50"/>
       <c r="F346" s="50"/>
     </row>
-    <row r="347" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C347" s="50"/>
       <c r="D347" s="50"/>
       <c r="E347" s="50"/>
       <c r="F347" s="50"/>
     </row>
-    <row r="348" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C348" s="50"/>
       <c r="D348" s="50"/>
       <c r="E348" s="50"/>
       <c r="F348" s="50"/>
     </row>
-    <row r="349" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C349" s="50"/>
       <c r="D349" s="50"/>
       <c r="E349" s="50"/>
       <c r="F349" s="50"/>
     </row>
-    <row r="350" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C350" s="50"/>
       <c r="D350" s="50"/>
       <c r="E350" s="50"/>
       <c r="F350" s="50"/>
     </row>
-    <row r="351" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C351" s="50"/>
       <c r="D351" s="50"/>
       <c r="E351" s="50"/>
       <c r="F351" s="50"/>
     </row>
-    <row r="352" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C352" s="50"/>
       <c r="D352" s="50"/>
       <c r="E352" s="50"/>
       <c r="F352" s="50"/>
     </row>
-    <row r="353" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C353" s="50"/>
       <c r="D353" s="50"/>
       <c r="E353" s="50"/>
       <c r="F353" s="50"/>
     </row>
-    <row r="354" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C354" s="50"/>
       <c r="D354" s="50"/>
       <c r="E354" s="50"/>
       <c r="F354" s="50"/>
     </row>
-    <row r="355" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C355" s="50"/>
       <c r="D355" s="50"/>
       <c r="E355" s="50"/>
       <c r="F355" s="50"/>
     </row>
-    <row r="356" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C356" s="50"/>
       <c r="D356" s="50"/>
       <c r="E356" s="50"/>
       <c r="F356" s="50"/>
     </row>
-    <row r="357" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C357" s="50"/>
       <c r="D357" s="50"/>
       <c r="E357" s="50"/>
       <c r="F357" s="50"/>
     </row>
-    <row r="358" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C358" s="50"/>
       <c r="D358" s="50"/>
       <c r="E358" s="50"/>
       <c r="F358" s="50"/>
     </row>
-    <row r="359" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C359" s="50"/>
       <c r="D359" s="50"/>
       <c r="E359" s="50"/>
       <c r="F359" s="50"/>
     </row>
-    <row r="360" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C360" s="50"/>
       <c r="D360" s="50"/>
       <c r="E360" s="50"/>
       <c r="F360" s="50"/>
     </row>
-    <row r="361" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C361" s="50"/>
       <c r="D361" s="50"/>
       <c r="E361" s="50"/>
       <c r="F361" s="50"/>
     </row>
-    <row r="362" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C362" s="50"/>
       <c r="D362" s="50"/>
       <c r="E362" s="50"/>
       <c r="F362" s="50"/>
     </row>
-    <row r="363" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C363" s="50"/>
       <c r="D363" s="50"/>
       <c r="E363" s="50"/>
       <c r="F363" s="50"/>
     </row>
-    <row r="364" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C364" s="50"/>
       <c r="D364" s="50"/>
       <c r="E364" s="50"/>
       <c r="F364" s="50"/>
     </row>
-    <row r="365" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C365" s="50"/>
       <c r="D365" s="50"/>
       <c r="E365" s="50"/>
       <c r="F365" s="50"/>
     </row>
-    <row r="366" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C366" s="50"/>
       <c r="D366" s="50"/>
       <c r="E366" s="50"/>
       <c r="F366" s="50"/>
     </row>
-    <row r="367" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C367" s="50"/>
       <c r="D367" s="50"/>
       <c r="E367" s="50"/>
       <c r="F367" s="50"/>
     </row>
-    <row r="368" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C368" s="50"/>
       <c r="D368" s="50"/>
       <c r="E368" s="50"/>
       <c r="F368" s="50"/>
     </row>
-    <row r="369" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C369" s="50"/>
       <c r="D369" s="50"/>
       <c r="E369" s="50"/>
       <c r="F369" s="50"/>
     </row>
-    <row r="370" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C370" s="50"/>
       <c r="D370" s="50"/>
       <c r="E370" s="50"/>
       <c r="F370" s="50"/>
     </row>
-    <row r="371" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C371" s="50"/>
       <c r="D371" s="50"/>
       <c r="E371" s="50"/>
       <c r="F371" s="50"/>
     </row>
-    <row r="372" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C372" s="50"/>
       <c r="D372" s="50"/>
       <c r="E372" s="50"/>
       <c r="F372" s="50"/>
     </row>
-    <row r="373" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C373" s="50"/>
       <c r="D373" s="50"/>
       <c r="E373" s="50"/>
       <c r="F373" s="50"/>
     </row>
-    <row r="374" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C374" s="50"/>
       <c r="D374" s="50"/>
       <c r="E374" s="50"/>
       <c r="F374" s="50"/>
     </row>
-    <row r="375" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C375" s="50"/>
       <c r="D375" s="50"/>
       <c r="E375" s="50"/>
       <c r="F375" s="50"/>
     </row>
-    <row r="376" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C376" s="50"/>
       <c r="D376" s="50"/>
       <c r="E376" s="50"/>
       <c r="F376" s="50"/>
     </row>
-    <row r="377" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C377" s="50"/>
       <c r="D377" s="50"/>
       <c r="E377" s="50"/>
       <c r="F377" s="50"/>
     </row>
-    <row r="378" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C378" s="50"/>
       <c r="D378" s="50"/>
       <c r="E378" s="50"/>
       <c r="F378" s="50"/>
     </row>
-    <row r="379" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C379" s="50"/>
       <c r="D379" s="50"/>
       <c r="E379" s="50"/>
       <c r="F379" s="50"/>
     </row>
-    <row r="380" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C380" s="50"/>
       <c r="D380" s="50"/>
       <c r="E380" s="50"/>
       <c r="F380" s="50"/>
     </row>
-    <row r="381" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C381" s="50"/>
       <c r="D381" s="50"/>
       <c r="E381" s="50"/>
       <c r="F381" s="50"/>
     </row>
-    <row r="382" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C382" s="50"/>
       <c r="D382" s="50"/>
       <c r="E382" s="50"/>
       <c r="F382" s="50"/>
     </row>
-    <row r="383" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C383" s="50"/>
       <c r="D383" s="50"/>
       <c r="E383" s="50"/>
       <c r="F383" s="50"/>
     </row>
-    <row r="384" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C384" s="50"/>
       <c r="D384" s="50"/>
       <c r="E384" s="50"/>
       <c r="F384" s="50"/>
     </row>
-    <row r="385" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C385" s="50"/>
       <c r="D385" s="50"/>
       <c r="E385" s="50"/>
       <c r="F385" s="50"/>
     </row>
-    <row r="386" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C386" s="50"/>
       <c r="D386" s="50"/>
       <c r="E386" s="50"/>
       <c r="F386" s="50"/>
     </row>
-    <row r="387" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C387" s="50"/>
       <c r="D387" s="50"/>
       <c r="E387" s="50"/>
       <c r="F387" s="50"/>
     </row>
-    <row r="388" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C388" s="50"/>
       <c r="D388" s="50"/>
       <c r="E388" s="50"/>
       <c r="F388" s="50"/>
     </row>
-    <row r="389" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C389" s="50"/>
       <c r="D389" s="50"/>
       <c r="E389" s="50"/>
       <c r="F389" s="50"/>
     </row>
-    <row r="390" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C390" s="50"/>
       <c r="D390" s="50"/>
       <c r="E390" s="50"/>
       <c r="F390" s="50"/>
     </row>
-    <row r="391" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C391" s="50"/>
       <c r="D391" s="50"/>
       <c r="E391" s="50"/>
       <c r="F391" s="50"/>
     </row>
-    <row r="392" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C392" s="50"/>
       <c r="D392" s="50"/>
       <c r="E392" s="50"/>
       <c r="F392" s="50"/>
     </row>
-    <row r="393" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C393" s="50"/>
       <c r="D393" s="50"/>
       <c r="E393" s="50"/>
       <c r="F393" s="50"/>
     </row>
-    <row r="394" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C394" s="50"/>
       <c r="D394" s="50"/>
       <c r="E394" s="50"/>
       <c r="F394" s="50"/>
     </row>
-    <row r="395" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C395" s="50"/>
       <c r="D395" s="50"/>
       <c r="E395" s="50"/>
       <c r="F395" s="50"/>
     </row>
-    <row r="396" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C396" s="50"/>
       <c r="D396" s="50"/>
       <c r="E396" s="50"/>
       <c r="F396" s="50"/>
     </row>
-    <row r="397" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C397" s="50"/>
       <c r="D397" s="50"/>
       <c r="E397" s="50"/>
       <c r="F397" s="50"/>
     </row>
-    <row r="398" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C398" s="50"/>
       <c r="D398" s="50"/>
       <c r="E398" s="50"/>
       <c r="F398" s="50"/>
     </row>
-    <row r="399" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C399" s="50"/>
       <c r="D399" s="50"/>
       <c r="E399" s="50"/>
       <c r="F399" s="50"/>
     </row>
-    <row r="400" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C400" s="50"/>
       <c r="D400" s="50"/>
       <c r="E400" s="50"/>
       <c r="F400" s="50"/>
     </row>
-    <row r="401" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C401" s="50"/>
       <c r="D401" s="50"/>
       <c r="E401" s="50"/>
       <c r="F401" s="50"/>
     </row>
-    <row r="402" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C402" s="50"/>
       <c r="D402" s="50"/>
       <c r="E402" s="50"/>
       <c r="F402" s="50"/>
     </row>
-    <row r="403" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C403" s="50"/>
       <c r="D403" s="50"/>
       <c r="E403" s="50"/>
       <c r="F403" s="50"/>
     </row>
-    <row r="404" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C404" s="50"/>
       <c r="D404" s="50"/>
       <c r="E404" s="50"/>
       <c r="F404" s="50"/>
     </row>
-    <row r="405" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C405" s="50"/>
       <c r="D405" s="50"/>
       <c r="E405" s="50"/>
       <c r="F405" s="50"/>
     </row>
-    <row r="406" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C406" s="50"/>
       <c r="D406" s="50"/>
       <c r="E406" s="50"/>
       <c r="F406" s="50"/>
     </row>
-    <row r="407" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C407" s="50"/>
       <c r="D407" s="50"/>
       <c r="E407" s="50"/>
       <c r="F407" s="50"/>
     </row>
-    <row r="408" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C408" s="50"/>
       <c r="D408" s="50"/>
       <c r="E408" s="50"/>
       <c r="F408" s="50"/>
     </row>
-    <row r="409" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C409" s="50"/>
       <c r="D409" s="50"/>
       <c r="E409" s="50"/>
       <c r="F409" s="50"/>
     </row>
-    <row r="410" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C410" s="50"/>
       <c r="D410" s="50"/>
       <c r="E410" s="50"/>
       <c r="F410" s="50"/>
     </row>
-    <row r="411" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C411" s="50"/>
       <c r="D411" s="50"/>
       <c r="E411" s="50"/>
       <c r="F411" s="50"/>
     </row>
-    <row r="412" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C412" s="50"/>
       <c r="D412" s="50"/>
       <c r="E412" s="50"/>
       <c r="F412" s="50"/>
     </row>
-    <row r="413" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C413" s="50"/>
       <c r="D413" s="50"/>
       <c r="E413" s="50"/>
       <c r="F413" s="50"/>
     </row>
-    <row r="414" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C414" s="50"/>
       <c r="D414" s="50"/>
       <c r="E414" s="50"/>
       <c r="F414" s="50"/>
     </row>
-    <row r="415" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C415" s="50"/>
       <c r="D415" s="50"/>
       <c r="E415" s="50"/>
       <c r="F415" s="50"/>
     </row>
-    <row r="416" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C416" s="50"/>
       <c r="D416" s="50"/>
       <c r="E416" s="50"/>
       <c r="F416" s="50"/>
     </row>
-    <row r="417" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C417" s="50"/>
       <c r="D417" s="50"/>
       <c r="E417" s="50"/>
       <c r="F417" s="50"/>
     </row>
-    <row r="418" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C418" s="50"/>
       <c r="D418" s="50"/>
       <c r="E418" s="50"/>
       <c r="F418" s="50"/>
     </row>
-    <row r="419" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C419" s="50"/>
       <c r="D419" s="50"/>
       <c r="E419" s="50"/>
       <c r="F419" s="50"/>
     </row>
-    <row r="420" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C420" s="50"/>
       <c r="D420" s="50"/>
       <c r="E420" s="50"/>
       <c r="F420" s="50"/>
     </row>
-    <row r="421" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C421" s="50"/>
       <c r="D421" s="50"/>
       <c r="E421" s="50"/>
       <c r="F421" s="50"/>
     </row>
-    <row r="422" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C422" s="50"/>
       <c r="D422" s="50"/>
       <c r="E422" s="50"/>
       <c r="F422" s="50"/>
     </row>
-    <row r="423" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C423" s="50"/>
       <c r="D423" s="50"/>
       <c r="E423" s="50"/>
       <c r="F423" s="50"/>
     </row>
-    <row r="424" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C424" s="50"/>
       <c r="D424" s="50"/>
       <c r="E424" s="50"/>
       <c r="F424" s="50"/>
     </row>
-    <row r="425" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C425" s="50"/>
       <c r="D425" s="50"/>
       <c r="E425" s="50"/>
       <c r="F425" s="50"/>
     </row>
-    <row r="426" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C426" s="50"/>
       <c r="D426" s="50"/>
       <c r="E426" s="50"/>
       <c r="F426" s="50"/>
     </row>
-    <row r="427" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C427" s="50"/>
       <c r="D427" s="50"/>
       <c r="E427" s="50"/>
       <c r="F427" s="50"/>
     </row>
-    <row r="428" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C428" s="50"/>
       <c r="D428" s="50"/>
       <c r="E428" s="50"/>
       <c r="F428" s="50"/>
     </row>
-    <row r="429" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C429" s="50"/>
       <c r="D429" s="50"/>
       <c r="E429" s="50"/>
       <c r="F429" s="50"/>
     </row>
-    <row r="430" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C430" s="50"/>
       <c r="D430" s="50"/>
       <c r="E430" s="50"/>
       <c r="F430" s="50"/>
     </row>
-    <row r="431" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C431" s="50"/>
       <c r="D431" s="50"/>
       <c r="E431" s="50"/>
       <c r="F431" s="50"/>
     </row>
-    <row r="432" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C432" s="50"/>
       <c r="D432" s="50"/>
       <c r="E432" s="50"/>
       <c r="F432" s="50"/>
     </row>
-    <row r="433" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C433" s="50"/>
       <c r="D433" s="50"/>
       <c r="E433" s="50"/>
       <c r="F433" s="50"/>
     </row>
-    <row r="434" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C434" s="50"/>
       <c r="D434" s="50"/>
       <c r="E434" s="50"/>
       <c r="F434" s="50"/>
     </row>
-    <row r="435" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C435" s="50"/>
       <c r="D435" s="50"/>
       <c r="E435" s="50"/>
       <c r="F435" s="50"/>
     </row>
-    <row r="436" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C436" s="50"/>
       <c r="D436" s="50"/>
       <c r="E436" s="50"/>
       <c r="F436" s="50"/>
     </row>
-    <row r="437" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C437" s="50"/>
       <c r="D437" s="50"/>
       <c r="E437" s="50"/>
       <c r="F437" s="50"/>
     </row>
-    <row r="438" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C438" s="50"/>
       <c r="D438" s="50"/>
       <c r="E438" s="50"/>
       <c r="F438" s="50"/>
     </row>
-    <row r="439" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C439" s="50"/>
       <c r="D439" s="50"/>
       <c r="E439" s="50"/>
       <c r="F439" s="50"/>
     </row>
-    <row r="440" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C440" s="50"/>
       <c r="D440" s="50"/>
       <c r="E440" s="50"/>
       <c r="F440" s="50"/>
     </row>
-    <row r="441" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C441" s="50"/>
       <c r="D441" s="50"/>
       <c r="E441" s="50"/>
       <c r="F441" s="50"/>
     </row>
-    <row r="442" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C442" s="50"/>
       <c r="D442" s="50"/>
       <c r="E442" s="50"/>
       <c r="F442" s="50"/>
     </row>
-    <row r="443" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C443" s="50"/>
       <c r="D443" s="50"/>
       <c r="E443" s="50"/>
       <c r="F443" s="50"/>
     </row>
-    <row r="444" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C444" s="50"/>
       <c r="D444" s="50"/>
       <c r="E444" s="50"/>
       <c r="F444" s="50"/>
     </row>
-    <row r="445" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C445" s="50"/>
       <c r="D445" s="50"/>
       <c r="E445" s="50"/>
       <c r="F445" s="50"/>
     </row>
-    <row r="446" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C446" s="50"/>
       <c r="D446" s="50"/>
       <c r="E446" s="50"/>
       <c r="F446" s="50"/>
     </row>
-    <row r="447" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C447" s="50"/>
       <c r="D447" s="50"/>
       <c r="E447" s="50"/>
       <c r="F447" s="50"/>
     </row>
-    <row r="448" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C448" s="50"/>
       <c r="D448" s="50"/>
       <c r="E448" s="50"/>
       <c r="F448" s="50"/>
     </row>
-    <row r="449" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C449" s="50"/>
       <c r="D449" s="50"/>
       <c r="E449" s="50"/>
       <c r="F449" s="50"/>
     </row>
-    <row r="450" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C450" s="50"/>
       <c r="D450" s="50"/>
       <c r="E450" s="50"/>
       <c r="F450" s="50"/>
     </row>
-    <row r="451" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C451" s="50"/>
       <c r="D451" s="50"/>
       <c r="E451" s="50"/>
       <c r="F451" s="50"/>
     </row>
-    <row r="452" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C452" s="50"/>
       <c r="D452" s="50"/>
       <c r="E452" s="50"/>
       <c r="F452" s="50"/>
     </row>
-    <row r="453" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C453" s="50"/>
       <c r="D453" s="50"/>
       <c r="E453" s="50"/>
       <c r="F453" s="50"/>
     </row>
-    <row r="454" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C454" s="50"/>
       <c r="D454" s="50"/>
       <c r="E454" s="50"/>
       <c r="F454" s="50"/>
     </row>
-    <row r="455" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C455" s="50"/>
       <c r="D455" s="50"/>
       <c r="E455" s="50"/>
       <c r="F455" s="50"/>
     </row>
-    <row r="456" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C456" s="50"/>
       <c r="D456" s="50"/>
       <c r="E456" s="50"/>
       <c r="F456" s="50"/>
     </row>
-    <row r="457" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C457" s="50"/>
       <c r="D457" s="50"/>
       <c r="E457" s="50"/>
       <c r="F457" s="50"/>
     </row>
-    <row r="458" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C458" s="50"/>
       <c r="D458" s="50"/>
       <c r="E458" s="50"/>
       <c r="F458" s="50"/>
     </row>
-    <row r="459" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C459" s="50"/>
       <c r="D459" s="50"/>
       <c r="E459" s="50"/>
       <c r="F459" s="50"/>
     </row>
-    <row r="460" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C460" s="50"/>
       <c r="D460" s="50"/>
       <c r="E460" s="50"/>
       <c r="F460" s="50"/>
     </row>
-    <row r="461" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C461" s="50"/>
       <c r="D461" s="50"/>
       <c r="E461" s="50"/>
       <c r="F461" s="50"/>
     </row>
-    <row r="462" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C462" s="50"/>
       <c r="D462" s="50"/>
       <c r="E462" s="50"/>
       <c r="F462" s="50"/>
     </row>
-    <row r="463" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C463" s="50"/>
       <c r="D463" s="50"/>
       <c r="E463" s="50"/>
       <c r="F463" s="50"/>
     </row>
-    <row r="464" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C464" s="50"/>
       <c r="D464" s="50"/>
       <c r="E464" s="50"/>
       <c r="F464" s="50"/>
     </row>
-    <row r="465" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C465" s="50"/>
       <c r="D465" s="50"/>
       <c r="E465" s="50"/>
       <c r="F465" s="50"/>
     </row>
-    <row r="466" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C466" s="50"/>
       <c r="D466" s="50"/>
       <c r="E466" s="50"/>
       <c r="F466" s="50"/>
     </row>
-    <row r="467" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C467" s="50"/>
       <c r="D467" s="50"/>
       <c r="E467" s="50"/>
       <c r="F467" s="50"/>
     </row>
-    <row r="468" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C468" s="50"/>
       <c r="D468" s="50"/>
       <c r="E468" s="50"/>
       <c r="F468" s="50"/>
     </row>
-    <row r="469" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C469" s="50"/>
       <c r="D469" s="50"/>
       <c r="E469" s="50"/>
       <c r="F469" s="50"/>
     </row>
-    <row r="470" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C470" s="50"/>
       <c r="D470" s="50"/>
       <c r="E470" s="50"/>
       <c r="F470" s="50"/>
     </row>
-    <row r="471" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C471" s="50"/>
       <c r="D471" s="50"/>
       <c r="E471" s="50"/>
       <c r="F471" s="50"/>
     </row>
-    <row r="472" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C472" s="50"/>
       <c r="D472" s="50"/>
       <c r="E472" s="50"/>
       <c r="F472" s="50"/>
     </row>
-    <row r="473" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C473" s="50"/>
       <c r="D473" s="50"/>
       <c r="E473" s="50"/>
       <c r="F473" s="50"/>
     </row>
-    <row r="474" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C474" s="50"/>
       <c r="D474" s="50"/>
       <c r="E474" s="50"/>
       <c r="F474" s="50"/>
     </row>
-    <row r="475" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C475" s="50"/>
       <c r="D475" s="50"/>
       <c r="E475" s="50"/>
       <c r="F475" s="50"/>
     </row>
-    <row r="476" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C476" s="50"/>
       <c r="D476" s="50"/>
       <c r="E476" s="50"/>
       <c r="F476" s="50"/>
     </row>
-    <row r="477" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C477" s="50"/>
       <c r="D477" s="50"/>
       <c r="E477" s="50"/>
       <c r="F477" s="50"/>
     </row>
-    <row r="478" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C478" s="50"/>
       <c r="D478" s="50"/>
       <c r="E478" s="50"/>
       <c r="F478" s="50"/>
     </row>
-    <row r="479" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C479" s="50"/>
       <c r="D479" s="50"/>
       <c r="E479" s="50"/>
       <c r="F479" s="50"/>
     </row>
-    <row r="480" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C480" s="50"/>
       <c r="D480" s="50"/>
       <c r="E480" s="50"/>
       <c r="F480" s="50"/>
     </row>
-    <row r="481" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C481" s="50"/>
       <c r="D481" s="50"/>
       <c r="E481" s="50"/>
       <c r="F481" s="50"/>
     </row>
-    <row r="482" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C482" s="50"/>
       <c r="D482" s="50"/>
       <c r="E482" s="50"/>
       <c r="F482" s="50"/>
     </row>
-    <row r="483" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C483" s="50"/>
       <c r="D483" s="50"/>
       <c r="E483" s="50"/>
       <c r="F483" s="50"/>
     </row>
-    <row r="484" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C484" s="50"/>
       <c r="D484" s="50"/>
       <c r="E484" s="50"/>
       <c r="F484" s="50"/>
     </row>
-    <row r="485" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C485" s="50"/>
       <c r="D485" s="50"/>
       <c r="E485" s="50"/>
       <c r="F485" s="50"/>
     </row>
-    <row r="486" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C486" s="50"/>
       <c r="D486" s="50"/>
       <c r="E486" s="50"/>
       <c r="F486" s="50"/>
     </row>
-    <row r="487" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C487" s="50"/>
       <c r="D487" s="50"/>
       <c r="E487" s="50"/>
       <c r="F487" s="50"/>
     </row>
-    <row r="488" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C488" s="50"/>
       <c r="D488" s="50"/>
       <c r="E488" s="50"/>
       <c r="F488" s="50"/>
     </row>
-    <row r="489" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C489" s="50"/>
       <c r="D489" s="50"/>
       <c r="E489" s="50"/>
       <c r="F489" s="50"/>
     </row>
-    <row r="490" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C490" s="50"/>
       <c r="D490" s="50"/>
       <c r="E490" s="50"/>
       <c r="F490" s="50"/>
     </row>
-    <row r="491" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C491" s="50"/>
       <c r="D491" s="50"/>
       <c r="E491" s="50"/>
       <c r="F491" s="50"/>
     </row>
-    <row r="492" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C492" s="50"/>
       <c r="D492" s="50"/>
       <c r="E492" s="50"/>
       <c r="F492" s="50"/>
     </row>
-    <row r="493" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C493" s="50"/>
       <c r="D493" s="50"/>
       <c r="E493" s="50"/>
       <c r="F493" s="50"/>
     </row>
-    <row r="494" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C494" s="50"/>
       <c r="D494" s="50"/>
       <c r="E494" s="50"/>
       <c r="F494" s="50"/>
     </row>
-    <row r="495" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C495" s="50"/>
       <c r="D495" s="50"/>
       <c r="E495" s="50"/>
       <c r="F495" s="50"/>
     </row>
-    <row r="496" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C496" s="50"/>
       <c r="D496" s="50"/>
       <c r="E496" s="50"/>
       <c r="F496" s="50"/>
     </row>
-    <row r="497" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C497" s="50"/>
       <c r="D497" s="50"/>
       <c r="E497" s="50"/>
       <c r="F497" s="50"/>
     </row>
-    <row r="498" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C498" s="50"/>
       <c r="D498" s="50"/>
       <c r="E498" s="50"/>
       <c r="F498" s="50"/>
     </row>
-    <row r="499" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C499" s="50"/>
       <c r="D499" s="50"/>
       <c r="E499" s="50"/>
       <c r="F499" s="50"/>
     </row>
-    <row r="500" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C500" s="50"/>
       <c r="D500" s="50"/>
       <c r="E500" s="50"/>
       <c r="F500" s="50"/>
     </row>
-    <row r="501" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C501" s="50"/>
       <c r="D501" s="50"/>
       <c r="E501" s="50"/>
       <c r="F501" s="50"/>
     </row>
-    <row r="502" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C502" s="50"/>
       <c r="D502" s="50"/>
       <c r="E502" s="50"/>
       <c r="F502" s="50"/>
     </row>
-    <row r="503" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C503" s="50"/>
       <c r="D503" s="50"/>
       <c r="E503" s="50"/>
       <c r="F503" s="50"/>
     </row>
-    <row r="504" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C504" s="50"/>
       <c r="D504" s="50"/>
       <c r="E504" s="50"/>
       <c r="F504" s="50"/>
     </row>
-    <row r="505" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C505" s="50"/>
       <c r="D505" s="50"/>
       <c r="E505" s="50"/>
       <c r="F505" s="50"/>
     </row>
-    <row r="506" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C506" s="50"/>
       <c r="D506" s="50"/>
       <c r="E506" s="50"/>
       <c r="F506" s="50"/>
     </row>
-    <row r="507" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C507" s="50"/>
       <c r="D507" s="50"/>
       <c r="E507" s="50"/>
       <c r="F507" s="50"/>
     </row>
-    <row r="508" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C508" s="50"/>
       <c r="D508" s="50"/>
       <c r="E508" s="50"/>
       <c r="F508" s="50"/>
     </row>
-    <row r="509" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C509" s="50"/>
       <c r="D509" s="50"/>
       <c r="E509" s="50"/>
       <c r="F509" s="50"/>
     </row>
-    <row r="510" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C510" s="50"/>
       <c r="D510" s="50"/>
       <c r="E510" s="50"/>
       <c r="F510" s="50"/>
     </row>
-    <row r="511" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C511" s="50"/>
       <c r="D511" s="50"/>
       <c r="E511" s="50"/>
       <c r="F511" s="50"/>
     </row>
-    <row r="512" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C512" s="50"/>
       <c r="D512" s="50"/>
       <c r="E512" s="50"/>
       <c r="F512" s="50"/>
     </row>
-    <row r="513" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C513" s="50"/>
       <c r="D513" s="50"/>
       <c r="E513" s="50"/>
       <c r="F513" s="50"/>
     </row>
-    <row r="514" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C514" s="50"/>
       <c r="D514" s="50"/>
       <c r="E514" s="50"/>
       <c r="F514" s="50"/>
     </row>
-    <row r="515" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C515" s="50"/>
       <c r="D515" s="50"/>
       <c r="E515" s="50"/>
       <c r="F515" s="50"/>
     </row>
-    <row r="516" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C516" s="50"/>
       <c r="D516" s="50"/>
       <c r="E516" s="50"/>
       <c r="F516" s="50"/>
     </row>
-    <row r="517" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C517" s="50"/>
       <c r="D517" s="50"/>
       <c r="E517" s="50"/>
       <c r="F517" s="50"/>
     </row>
-    <row r="518" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C518" s="50"/>
       <c r="D518" s="50"/>
       <c r="E518" s="50"/>
       <c r="F518" s="50"/>
     </row>
-    <row r="519" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C519" s="50"/>
       <c r="D519" s="50"/>
       <c r="E519" s="50"/>
       <c r="F519" s="50"/>
     </row>
-    <row r="520" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C520" s="50"/>
       <c r="D520" s="50"/>
       <c r="E520" s="50"/>
       <c r="F520" s="50"/>
     </row>
-    <row r="521" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C521" s="50"/>
       <c r="D521" s="50"/>
       <c r="E521" s="50"/>
       <c r="F521" s="50"/>
     </row>
-    <row r="522" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C522" s="50"/>
       <c r="D522" s="50"/>
       <c r="E522" s="50"/>
       <c r="F522" s="50"/>
     </row>
-    <row r="523" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C523" s="50"/>
       <c r="D523" s="50"/>
       <c r="E523" s="50"/>
       <c r="F523" s="50"/>
     </row>
-    <row r="524" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C524" s="50"/>
       <c r="D524" s="50"/>
       <c r="E524" s="50"/>
       <c r="F524" s="50"/>
     </row>
-    <row r="525" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C525" s="50"/>
       <c r="D525" s="50"/>
       <c r="E525" s="50"/>
       <c r="F525" s="50"/>
     </row>
-    <row r="526" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C526" s="50"/>
       <c r="D526" s="50"/>
       <c r="E526" s="50"/>
       <c r="F526" s="50"/>
     </row>
-    <row r="527" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C527" s="50"/>
       <c r="D527" s="50"/>
       <c r="E527" s="50"/>
       <c r="F527" s="50"/>
     </row>
-    <row r="528" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C528" s="50"/>
       <c r="D528" s="50"/>
       <c r="E528" s="50"/>
       <c r="F528" s="50"/>
     </row>
-    <row r="529" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C529" s="50"/>
       <c r="D529" s="50"/>
       <c r="E529" s="50"/>
       <c r="F529" s="50"/>
     </row>
-    <row r="530" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C530" s="50"/>
       <c r="D530" s="50"/>
       <c r="E530" s="50"/>
       <c r="F530" s="50"/>
     </row>
-    <row r="531" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C531" s="50"/>
       <c r="D531" s="50"/>
       <c r="E531" s="50"/>
       <c r="F531" s="50"/>
     </row>
-    <row r="532" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C532" s="50"/>
       <c r="D532" s="50"/>
       <c r="E532" s="50"/>
       <c r="F532" s="50"/>
     </row>
-    <row r="533" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C533" s="50"/>
       <c r="D533" s="50"/>
       <c r="E533" s="50"/>
       <c r="F533" s="50"/>
     </row>
-    <row r="534" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C534" s="50"/>
       <c r="D534" s="50"/>
       <c r="E534" s="50"/>
       <c r="F534" s="50"/>
     </row>
-    <row r="535" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C535" s="50"/>
       <c r="D535" s="50"/>
       <c r="E535" s="50"/>
       <c r="F535" s="50"/>
     </row>
-    <row r="536" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C536" s="50"/>
       <c r="D536" s="50"/>
       <c r="E536" s="50"/>
       <c r="F536" s="50"/>
     </row>
-    <row r="537" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C537" s="50"/>
       <c r="D537" s="50"/>
       <c r="E537" s="50"/>
       <c r="F537" s="50"/>
     </row>
-    <row r="538" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C538" s="50"/>
       <c r="D538" s="50"/>
       <c r="E538" s="50"/>
       <c r="F538" s="50"/>
     </row>
-    <row r="539" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C539" s="50"/>
       <c r="D539" s="50"/>
       <c r="E539" s="50"/>
       <c r="F539" s="50"/>
     </row>
-    <row r="540" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C540" s="50"/>
       <c r="D540" s="50"/>
       <c r="E540" s="50"/>
       <c r="F540" s="50"/>
     </row>
-    <row r="541" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C541" s="50"/>
       <c r="D541" s="50"/>
       <c r="E541" s="50"/>
       <c r="F541" s="50"/>
     </row>
-    <row r="542" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C542" s="50"/>
       <c r="D542" s="50"/>
       <c r="E542" s="50"/>
       <c r="F542" s="50"/>
     </row>
-    <row r="543" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C543" s="50"/>
       <c r="D543" s="50"/>
       <c r="E543" s="50"/>
       <c r="F543" s="50"/>
     </row>
-    <row r="544" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C544" s="50"/>
       <c r="D544" s="50"/>
       <c r="E544" s="50"/>
       <c r="F544" s="50"/>
     </row>
-    <row r="545" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C545" s="50"/>
       <c r="D545" s="50"/>
       <c r="E545" s="50"/>
       <c r="F545" s="50"/>
     </row>
-    <row r="546" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C546" s="50"/>
       <c r="D546" s="50"/>
       <c r="E546" s="50"/>
       <c r="F546" s="50"/>
     </row>
-    <row r="547" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C547" s="50"/>
       <c r="D547" s="50"/>
       <c r="E547" s="50"/>
       <c r="F547" s="50"/>
     </row>
-    <row r="548" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C548" s="50"/>
       <c r="D548" s="50"/>
       <c r="E548" s="50"/>
       <c r="F548" s="50"/>
     </row>
-    <row r="549" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C549" s="50"/>
       <c r="D549" s="50"/>
       <c r="E549" s="50"/>
       <c r="F549" s="50"/>
     </row>
-    <row r="550" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C550" s="50"/>
       <c r="D550" s="50"/>
       <c r="E550" s="50"/>
       <c r="F550" s="50"/>
     </row>
-    <row r="551" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C551" s="50"/>
       <c r="D551" s="50"/>
       <c r="E551" s="50"/>
       <c r="F551" s="50"/>
     </row>
-    <row r="552" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C552" s="50"/>
       <c r="D552" s="50"/>
       <c r="E552" s="50"/>
       <c r="F552" s="50"/>
     </row>
-    <row r="553" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C553" s="50"/>
       <c r="D553" s="50"/>
       <c r="E553" s="50"/>
       <c r="F553" s="50"/>
     </row>
-    <row r="554" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C554" s="50"/>
       <c r="D554" s="50"/>
       <c r="E554" s="50"/>
       <c r="F554" s="50"/>
     </row>
-    <row r="555" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C555" s="50"/>
       <c r="D555" s="50"/>
       <c r="E555" s="50"/>
       <c r="F555" s="50"/>
     </row>
-    <row r="556" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C556" s="50"/>
       <c r="D556" s="50"/>
       <c r="E556" s="50"/>
       <c r="F556" s="50"/>
     </row>
-    <row r="557" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C557" s="50"/>
       <c r="D557" s="50"/>
       <c r="E557" s="50"/>
       <c r="F557" s="50"/>
     </row>
-    <row r="558" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C558" s="50"/>
       <c r="D558" s="50"/>
       <c r="E558" s="50"/>
       <c r="F558" s="50"/>
     </row>
-    <row r="559" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C559" s="50"/>
       <c r="D559" s="50"/>
       <c r="E559" s="50"/>
       <c r="F559" s="50"/>
     </row>
-    <row r="560" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C560" s="50"/>
       <c r="D560" s="50"/>
       <c r="E560" s="50"/>
       <c r="F560" s="50"/>
     </row>
-    <row r="561" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C561" s="50"/>
       <c r="D561" s="50"/>
       <c r="E561" s="50"/>
       <c r="F561" s="50"/>
     </row>
-    <row r="562" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C562" s="50"/>
       <c r="D562" s="50"/>
       <c r="E562" s="50"/>
       <c r="F562" s="50"/>
     </row>
-    <row r="563" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C563" s="50"/>
       <c r="D563" s="50"/>
       <c r="E563" s="50"/>
       <c r="F563" s="50"/>
     </row>
-    <row r="564" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C564" s="50"/>
       <c r="D564" s="50"/>
       <c r="E564" s="50"/>
       <c r="F564" s="50"/>
     </row>
-    <row r="565" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C565" s="50"/>
       <c r="D565" s="50"/>
       <c r="E565" s="50"/>
       <c r="F565" s="50"/>
     </row>
-    <row r="566" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C566" s="50"/>
       <c r="D566" s="50"/>
       <c r="E566" s="50"/>
       <c r="F566" s="50"/>
     </row>
-    <row r="567" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C567" s="50"/>
       <c r="D567" s="50"/>
       <c r="E567" s="50"/>
       <c r="F567" s="50"/>
     </row>
-    <row r="568" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C568" s="50"/>
       <c r="D568" s="50"/>
       <c r="E568" s="50"/>
       <c r="F568" s="50"/>
     </row>
-    <row r="569" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C569" s="50"/>
       <c r="D569" s="50"/>
       <c r="E569" s="50"/>
       <c r="F569" s="50"/>
     </row>
-    <row r="570" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C570" s="50"/>
       <c r="D570" s="50"/>
       <c r="E570" s="50"/>
       <c r="F570" s="50"/>
     </row>
-    <row r="571" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C571" s="50"/>
       <c r="D571" s="50"/>
       <c r="E571" s="50"/>
       <c r="F571" s="50"/>
     </row>
-    <row r="572" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C572" s="50"/>
       <c r="D572" s="50"/>
       <c r="E572" s="50"/>
       <c r="F572" s="50"/>
     </row>
-    <row r="573" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C573" s="50"/>
       <c r="D573" s="50"/>
       <c r="E573" s="50"/>
       <c r="F573" s="50"/>
     </row>
-    <row r="574" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C574" s="50"/>
       <c r="D574" s="50"/>
       <c r="E574" s="50"/>
       <c r="F574" s="50"/>
     </row>
-    <row r="575" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C575" s="50"/>
       <c r="D575" s="50"/>
       <c r="E575" s="50"/>
       <c r="F575" s="50"/>
     </row>
-    <row r="576" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C576" s="50"/>
       <c r="D576" s="50"/>
       <c r="E576" s="50"/>
       <c r="F576" s="50"/>
     </row>
-    <row r="577" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C577" s="50"/>
       <c r="D577" s="50"/>
       <c r="E577" s="50"/>
       <c r="F577" s="50"/>
     </row>
-    <row r="578" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C578" s="50"/>
       <c r="D578" s="50"/>
       <c r="E578" s="50"/>
       <c r="F578" s="50"/>
     </row>
-    <row r="579" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C579" s="50"/>
       <c r="D579" s="50"/>
       <c r="E579" s="50"/>
       <c r="F579" s="50"/>
     </row>
-    <row r="580" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C580" s="50"/>
       <c r="D580" s="50"/>
       <c r="E580" s="50"/>
       <c r="F580" s="50"/>
     </row>
-    <row r="581" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C581" s="50"/>
       <c r="D581" s="50"/>
       <c r="E581" s="50"/>
       <c r="F581" s="50"/>
     </row>
-    <row r="582" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C582" s="50"/>
       <c r="D582" s="50"/>
       <c r="E582" s="50"/>
       <c r="F582" s="50"/>
     </row>
-    <row r="583" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C583" s="50"/>
       <c r="D583" s="50"/>
       <c r="E583" s="50"/>
       <c r="F583" s="50"/>
     </row>
-    <row r="584" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C584" s="50"/>
       <c r="D584" s="50"/>
       <c r="E584" s="50"/>
       <c r="F584" s="50"/>
     </row>
-    <row r="585" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C585" s="50"/>
       <c r="D585" s="50"/>
       <c r="E585" s="50"/>
       <c r="F585" s="50"/>
     </row>
-    <row r="586" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C586" s="50"/>
       <c r="D586" s="50"/>
       <c r="E586" s="50"/>
       <c r="F586" s="50"/>
     </row>
-    <row r="587" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C587" s="50"/>
       <c r="D587" s="50"/>
       <c r="E587" s="50"/>
       <c r="F587" s="50"/>
     </row>
-    <row r="588" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C588" s="50"/>
       <c r="D588" s="50"/>
       <c r="E588" s="50"/>
       <c r="F588" s="50"/>
     </row>
-    <row r="589" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C589" s="50"/>
       <c r="D589" s="50"/>
       <c r="E589" s="50"/>
       <c r="F589" s="50"/>
     </row>
-    <row r="590" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C590" s="50"/>
       <c r="D590" s="50"/>
       <c r="E590" s="50"/>
       <c r="F590" s="50"/>
     </row>
-    <row r="591" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C591" s="50"/>
       <c r="D591" s="50"/>
       <c r="E591" s="50"/>
       <c r="F591" s="50"/>
     </row>
-    <row r="592" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C592" s="50"/>
       <c r="D592" s="50"/>
       <c r="E592" s="50"/>
       <c r="F592" s="50"/>
     </row>
-    <row r="593" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C593" s="50"/>
       <c r="D593" s="50"/>
       <c r="E593" s="50"/>
       <c r="F593" s="50"/>
     </row>
-    <row r="594" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C594" s="50"/>
       <c r="D594" s="50"/>
       <c r="E594" s="50"/>
       <c r="F594" s="50"/>
     </row>
-    <row r="595" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C595" s="50"/>
       <c r="D595" s="50"/>
       <c r="E595" s="50"/>
       <c r="F595" s="50"/>
     </row>
-    <row r="596" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C596" s="50"/>
       <c r="D596" s="50"/>
       <c r="E596" s="50"/>
       <c r="F596" s="50"/>
     </row>
-    <row r="597" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C597" s="50"/>
       <c r="D597" s="50"/>
       <c r="E597" s="50"/>
       <c r="F597" s="50"/>
     </row>
-    <row r="598" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C598" s="50"/>
       <c r="D598" s="50"/>
       <c r="E598" s="50"/>
       <c r="F598" s="50"/>
     </row>
-    <row r="599" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C599" s="50"/>
       <c r="D599" s="50"/>
       <c r="E599" s="50"/>
       <c r="F599" s="50"/>
     </row>
-    <row r="600" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C600" s="50"/>
       <c r="D600" s="50"/>
       <c r="E600" s="50"/>
       <c r="F600" s="50"/>
     </row>
-    <row r="601" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C601" s="50"/>
       <c r="D601" s="50"/>
       <c r="E601" s="50"/>
       <c r="F601" s="50"/>
     </row>
-    <row r="602" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C602" s="50"/>
       <c r="D602" s="50"/>
       <c r="E602" s="50"/>
       <c r="F602" s="50"/>
     </row>
-    <row r="603" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C603" s="50"/>
       <c r="D603" s="50"/>
       <c r="E603" s="50"/>
       <c r="F603" s="50"/>
     </row>
-    <row r="604" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C604" s="50"/>
       <c r="D604" s="50"/>
       <c r="E604" s="50"/>
       <c r="F604" s="50"/>
     </row>
-    <row r="605" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C605" s="50"/>
       <c r="D605" s="50"/>
       <c r="E605" s="50"/>
       <c r="F605" s="50"/>
     </row>
-    <row r="606" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C606" s="50"/>
       <c r="D606" s="50"/>
       <c r="E606" s="50"/>
       <c r="F606" s="50"/>
     </row>
-    <row r="607" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C607" s="50"/>
       <c r="D607" s="50"/>
       <c r="E607" s="50"/>
       <c r="F607" s="50"/>
     </row>
-    <row r="608" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C608" s="50"/>
       <c r="D608" s="50"/>
       <c r="E608" s="50"/>
       <c r="F608" s="50"/>
     </row>
-    <row r="609" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C609" s="50"/>
       <c r="D609" s="50"/>
       <c r="E609" s="50"/>
       <c r="F609" s="50"/>
     </row>
-    <row r="610" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C610" s="50"/>
       <c r="D610" s="50"/>
       <c r="E610" s="50"/>
       <c r="F610" s="50"/>
     </row>
-    <row r="611" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C611" s="50"/>
       <c r="D611" s="50"/>
       <c r="E611" s="50"/>
       <c r="F611" s="50"/>
     </row>
-    <row r="612" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C612" s="50"/>
       <c r="D612" s="50"/>
       <c r="E612" s="50"/>
       <c r="F612" s="50"/>
     </row>
-    <row r="613" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C613" s="50"/>
       <c r="D613" s="50"/>
       <c r="E613" s="50"/>
       <c r="F613" s="50"/>
     </row>
-    <row r="614" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C614" s="50"/>
       <c r="D614" s="50"/>
       <c r="E614" s="50"/>
       <c r="F614" s="50"/>
     </row>
-    <row r="615" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C615" s="50"/>
       <c r="D615" s="50"/>
       <c r="E615" s="50"/>
       <c r="F615" s="50"/>
     </row>
-    <row r="616" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C616" s="50"/>
       <c r="D616" s="50"/>
       <c r="E616" s="50"/>
       <c r="F616" s="50"/>
     </row>
-    <row r="617" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C617" s="50"/>
       <c r="D617" s="50"/>
       <c r="E617" s="50"/>
       <c r="F617" s="50"/>
     </row>
-    <row r="618" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C618" s="50"/>
       <c r="D618" s="50"/>
       <c r="E618" s="50"/>
       <c r="F618" s="50"/>
     </row>
-    <row r="619" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C619" s="50"/>
       <c r="D619" s="50"/>
       <c r="E619" s="50"/>
       <c r="F619" s="50"/>
     </row>
-    <row r="620" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C620" s="50"/>
       <c r="D620" s="50"/>
       <c r="E620" s="50"/>
       <c r="F620" s="50"/>
     </row>
-    <row r="621" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C621" s="50"/>
       <c r="D621" s="50"/>
       <c r="E621" s="50"/>
       <c r="F621" s="50"/>
     </row>
-    <row r="622" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C622" s="50"/>
       <c r="D622" s="50"/>
       <c r="E622" s="50"/>
       <c r="F622" s="50"/>
     </row>
-    <row r="623" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C623" s="50"/>
       <c r="D623" s="50"/>
       <c r="E623" s="50"/>
       <c r="F623" s="50"/>
     </row>
-    <row r="624" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C624" s="50"/>
       <c r="D624" s="50"/>
       <c r="E624" s="50"/>
       <c r="F624" s="50"/>
     </row>
-    <row r="625" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C625" s="50"/>
       <c r="D625" s="50"/>
       <c r="E625" s="50"/>
       <c r="F625" s="50"/>
     </row>
-    <row r="626" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C626" s="50"/>
       <c r="D626" s="50"/>
       <c r="E626" s="50"/>
       <c r="F626" s="50"/>
     </row>
-    <row r="627" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C627" s="50"/>
       <c r="D627" s="50"/>
       <c r="E627" s="50"/>
       <c r="F627" s="50"/>
     </row>
-    <row r="628" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C628" s="50"/>
       <c r="D628" s="50"/>
       <c r="E628" s="50"/>
       <c r="F628" s="50"/>
     </row>
-    <row r="629" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C629" s="50"/>
       <c r="D629" s="50"/>
       <c r="E629" s="50"/>
       <c r="F629" s="50"/>
     </row>
-    <row r="630" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C630" s="50"/>
       <c r="D630" s="50"/>
       <c r="E630" s="50"/>
       <c r="F630" s="50"/>
     </row>
-    <row r="631" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C631" s="50"/>
       <c r="D631" s="50"/>
       <c r="E631" s="50"/>
       <c r="F631" s="50"/>
     </row>
-    <row r="632" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C632" s="50"/>
       <c r="D632" s="50"/>
       <c r="E632" s="50"/>
       <c r="F632" s="50"/>
     </row>
-    <row r="633" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C633" s="50"/>
       <c r="D633" s="50"/>
       <c r="E633" s="50"/>
       <c r="F633" s="50"/>
     </row>
-    <row r="634" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C634" s="50"/>
       <c r="D634" s="50"/>
       <c r="E634" s="50"/>
       <c r="F634" s="50"/>
     </row>
-    <row r="635" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C635" s="50"/>
       <c r="D635" s="50"/>
       <c r="E635" s="50"/>
       <c r="F635" s="50"/>
     </row>
-    <row r="636" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C636" s="50"/>
       <c r="D636" s="50"/>
       <c r="E636" s="50"/>
       <c r="F636" s="50"/>
     </row>
-    <row r="637" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C637" s="50"/>
       <c r="D637" s="50"/>
       <c r="E637" s="50"/>
       <c r="F637" s="50"/>
     </row>
-    <row r="638" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C638" s="50"/>
       <c r="D638" s="50"/>
       <c r="E638" s="50"/>
       <c r="F638" s="50"/>
     </row>
-    <row r="639" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C639" s="50"/>
       <c r="D639" s="50"/>
       <c r="E639" s="50"/>
       <c r="F639" s="50"/>
     </row>
-    <row r="640" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C640" s="50"/>
       <c r="D640" s="50"/>
       <c r="E640" s="50"/>
       <c r="F640" s="50"/>
     </row>
-    <row r="641" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C641" s="50"/>
       <c r="D641" s="50"/>
       <c r="E641" s="50"/>
       <c r="F641" s="50"/>
     </row>
-    <row r="642" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C642" s="50"/>
       <c r="D642" s="50"/>
       <c r="E642" s="50"/>
       <c r="F642" s="50"/>
     </row>
-    <row r="643" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C643" s="50"/>
       <c r="D643" s="50"/>
       <c r="E643" s="50"/>
       <c r="F643" s="50"/>
     </row>
-    <row r="644" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C644" s="50"/>
       <c r="D644" s="50"/>
       <c r="E644" s="50"/>
       <c r="F644" s="50"/>
     </row>
-    <row r="645" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C645" s="50"/>
       <c r="D645" s="50"/>
       <c r="E645" s="50"/>
       <c r="F645" s="50"/>
     </row>
-    <row r="646" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C646" s="50"/>
       <c r="D646" s="50"/>
       <c r="E646" s="50"/>
       <c r="F646" s="50"/>
     </row>
-    <row r="647" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C647" s="50"/>
       <c r="D647" s="50"/>
       <c r="E647" s="50"/>
       <c r="F647" s="50"/>
     </row>
-    <row r="648" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C648" s="50"/>
       <c r="D648" s="50"/>
       <c r="E648" s="50"/>
       <c r="F648" s="50"/>
     </row>
-    <row r="649" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C649" s="50"/>
       <c r="D649" s="50"/>
       <c r="E649" s="50"/>
       <c r="F649" s="50"/>
     </row>
-    <row r="650" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C650" s="50"/>
       <c r="D650" s="50"/>
       <c r="E650" s="50"/>
       <c r="F650" s="50"/>
     </row>
-    <row r="651" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C651" s="50"/>
       <c r="D651" s="50"/>
       <c r="E651" s="50"/>
       <c r="F651" s="50"/>
     </row>
-    <row r="652" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C652" s="50"/>
       <c r="D652" s="50"/>
       <c r="E652" s="50"/>
       <c r="F652" s="50"/>
     </row>
-    <row r="653" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C653" s="50"/>
       <c r="D653" s="50"/>
       <c r="E653" s="50"/>
       <c r="F653" s="50"/>
     </row>
-    <row r="654" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C654" s="50"/>
       <c r="D654" s="50"/>
       <c r="E654" s="50"/>
       <c r="F654" s="50"/>
     </row>
-    <row r="655" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C655" s="50"/>
       <c r="D655" s="50"/>
       <c r="E655" s="50"/>
       <c r="F655" s="50"/>
     </row>
-    <row r="656" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C656" s="50"/>
       <c r="D656" s="50"/>
       <c r="E656" s="50"/>
       <c r="F656" s="50"/>
     </row>
-    <row r="657" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C657" s="50"/>
       <c r="D657" s="50"/>
       <c r="E657" s="50"/>
       <c r="F657" s="50"/>
     </row>
-    <row r="658" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C658" s="50"/>
       <c r="D658" s="50"/>
       <c r="E658" s="50"/>
       <c r="F658" s="50"/>
     </row>
-    <row r="659" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C659" s="50"/>
       <c r="D659" s="50"/>
       <c r="E659" s="50"/>
       <c r="F659" s="50"/>
     </row>
-    <row r="660" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C660" s="50"/>
       <c r="D660" s="50"/>
       <c r="E660" s="50"/>
       <c r="F660" s="50"/>
     </row>
-    <row r="661" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C661" s="50"/>
       <c r="D661" s="50"/>
       <c r="E661" s="50"/>
       <c r="F661" s="50"/>
     </row>
-    <row r="662" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C662" s="50"/>
       <c r="D662" s="50"/>
       <c r="E662" s="50"/>
       <c r="F662" s="50"/>
     </row>
-    <row r="663" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C663" s="50"/>
       <c r="D663" s="50"/>
       <c r="E663" s="50"/>
       <c r="F663" s="50"/>
     </row>
-    <row r="664" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C664" s="50"/>
       <c r="D664" s="50"/>
       <c r="E664" s="50"/>
       <c r="F664" s="50"/>
     </row>
-    <row r="665" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C665" s="50"/>
       <c r="D665" s="50"/>
       <c r="E665" s="50"/>
       <c r="F665" s="50"/>
     </row>
-    <row r="666" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C666" s="50"/>
       <c r="D666" s="50"/>
       <c r="E666" s="50"/>
       <c r="F666" s="50"/>
     </row>
-    <row r="667" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C667" s="50"/>
       <c r="D667" s="50"/>
       <c r="E667" s="50"/>
       <c r="F667" s="50"/>
     </row>
-    <row r="668" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C668" s="50"/>
       <c r="D668" s="50"/>
       <c r="E668" s="50"/>
       <c r="F668" s="50"/>
     </row>
-    <row r="669" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C669" s="50"/>
       <c r="D669" s="50"/>
       <c r="E669" s="50"/>
       <c r="F669" s="50"/>
     </row>
-    <row r="670" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C670" s="50"/>
       <c r="D670" s="50"/>
       <c r="E670" s="50"/>
       <c r="F670" s="50"/>
     </row>
-    <row r="671" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C671" s="50"/>
       <c r="D671" s="50"/>
       <c r="E671" s="50"/>
       <c r="F671" s="50"/>
     </row>
-    <row r="672" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C672" s="50"/>
       <c r="D672" s="50"/>
       <c r="E672" s="50"/>
       <c r="F672" s="50"/>
     </row>
-    <row r="673" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C673" s="50"/>
       <c r="D673" s="50"/>
       <c r="E673" s="50"/>
       <c r="F673" s="50"/>
     </row>
-    <row r="674" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C674" s="50"/>
       <c r="D674" s="50"/>
       <c r="E674" s="50"/>
       <c r="F674" s="50"/>
     </row>
-    <row r="675" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C675" s="50"/>
       <c r="D675" s="50"/>
       <c r="E675" s="50"/>
       <c r="F675" s="50"/>
     </row>
-    <row r="676" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C676" s="50"/>
       <c r="D676" s="50"/>
       <c r="E676" s="50"/>
       <c r="F676" s="50"/>
     </row>
-    <row r="677" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C677" s="50"/>
       <c r="D677" s="50"/>
       <c r="E677" s="50"/>
       <c r="F677" s="50"/>
     </row>
-    <row r="678" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C678" s="50"/>
       <c r="D678" s="50"/>
       <c r="E678" s="50"/>
       <c r="F678" s="50"/>
     </row>
-    <row r="679" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C679" s="50"/>
       <c r="D679" s="50"/>
       <c r="E679" s="50"/>
       <c r="F679" s="50"/>
     </row>
-    <row r="680" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C680" s="50"/>
       <c r="D680" s="50"/>
       <c r="E680" s="50"/>
       <c r="F680" s="50"/>
     </row>
-    <row r="681" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C681" s="50"/>
       <c r="D681" s="50"/>
       <c r="E681" s="50"/>
       <c r="F681" s="50"/>
     </row>
-    <row r="682" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C682" s="50"/>
       <c r="D682" s="50"/>
       <c r="E682" s="50"/>
       <c r="F682" s="50"/>
     </row>
-    <row r="683" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C683" s="50"/>
       <c r="D683" s="50"/>
       <c r="E683" s="50"/>
       <c r="F683" s="50"/>
     </row>
-    <row r="684" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C684" s="50"/>
       <c r="D684" s="50"/>
       <c r="E684" s="50"/>
       <c r="F684" s="50"/>
     </row>
-    <row r="685" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C685" s="50"/>
       <c r="D685" s="50"/>
       <c r="E685" s="50"/>
       <c r="F685" s="50"/>
     </row>
-    <row r="686" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C686" s="50"/>
       <c r="D686" s="50"/>
       <c r="E686" s="50"/>
       <c r="F686" s="50"/>
     </row>
-    <row r="687" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C687" s="50"/>
       <c r="D687" s="50"/>
       <c r="E687" s="50"/>
       <c r="F687" s="50"/>
     </row>
-    <row r="688" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C688" s="50"/>
       <c r="D688" s="50"/>
       <c r="E688" s="50"/>
       <c r="F688" s="50"/>
     </row>
-    <row r="689" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C689" s="50"/>
       <c r="D689" s="50"/>
       <c r="E689" s="50"/>
       <c r="F689" s="50"/>
     </row>
-    <row r="690" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C690" s="50"/>
       <c r="D690" s="50"/>
       <c r="E690" s="50"/>
       <c r="F690" s="50"/>
     </row>
-    <row r="691" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C691" s="50"/>
       <c r="D691" s="50"/>
       <c r="E691" s="50"/>
       <c r="F691" s="50"/>
     </row>
-    <row r="692" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C692" s="50"/>
       <c r="D692" s="50"/>
       <c r="E692" s="50"/>
       <c r="F692" s="50"/>
     </row>
-    <row r="693" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C693" s="50"/>
       <c r="D693" s="50"/>
       <c r="E693" s="50"/>
       <c r="F693" s="50"/>
     </row>
-    <row r="694" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C694" s="50"/>
       <c r="D694" s="50"/>
       <c r="E694" s="50"/>
       <c r="F694" s="50"/>
     </row>
-    <row r="695" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C695" s="50"/>
       <c r="D695" s="50"/>
       <c r="E695" s="50"/>
       <c r="F695" s="50"/>
     </row>
-    <row r="696" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C696" s="50"/>
       <c r="D696" s="50"/>
       <c r="E696" s="50"/>
       <c r="F696" s="50"/>
     </row>
-    <row r="697" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C697" s="50"/>
       <c r="D697" s="50"/>
       <c r="E697" s="50"/>
       <c r="F697" s="50"/>
     </row>
-    <row r="698" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C698" s="50"/>
       <c r="D698" s="50"/>
       <c r="E698" s="50"/>
       <c r="F698" s="50"/>
     </row>
-    <row r="699" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C699" s="50"/>
       <c r="D699" s="50"/>
       <c r="E699" s="50"/>
       <c r="F699" s="50"/>
     </row>
-    <row r="700" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C700" s="50"/>
       <c r="D700" s="50"/>
       <c r="E700" s="50"/>
       <c r="F700" s="50"/>
     </row>
-    <row r="701" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C701" s="50"/>
       <c r="D701" s="50"/>
       <c r="E701" s="50"/>
       <c r="F701" s="50"/>
     </row>
-    <row r="702" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C702" s="50"/>
       <c r="D702" s="50"/>
       <c r="E702" s="50"/>
       <c r="F702" s="50"/>
     </row>
-    <row r="703" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C703" s="50"/>
       <c r="D703" s="50"/>
       <c r="E703" s="50"/>
       <c r="F703" s="50"/>
     </row>
-    <row r="704" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C704" s="50"/>
       <c r="D704" s="50"/>
       <c r="E704" s="50"/>
       <c r="F704" s="50"/>
     </row>
-    <row r="705" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C705" s="50"/>
       <c r="D705" s="50"/>
       <c r="E705" s="50"/>
       <c r="F705" s="50"/>
     </row>
-    <row r="706" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C706" s="50"/>
       <c r="D706" s="50"/>
       <c r="E706" s="50"/>
       <c r="F706" s="50"/>
     </row>
-    <row r="707" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C707" s="50"/>
       <c r="D707" s="50"/>
       <c r="E707" s="50"/>
       <c r="F707" s="50"/>
     </row>
-    <row r="708" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C708" s="50"/>
       <c r="D708" s="50"/>
       <c r="E708" s="50"/>
       <c r="F708" s="50"/>
     </row>
-    <row r="709" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C709" s="50"/>
       <c r="D709" s="50"/>
       <c r="E709" s="50"/>
       <c r="F709" s="50"/>
     </row>
-    <row r="710" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C710" s="50"/>
       <c r="D710" s="50"/>
       <c r="E710" s="50"/>
       <c r="F710" s="50"/>
     </row>
-    <row r="711" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C711" s="50"/>
       <c r="D711" s="50"/>
       <c r="E711" s="50"/>
       <c r="F711" s="50"/>
     </row>
-    <row r="712" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C712" s="50"/>
       <c r="D712" s="50"/>
       <c r="E712" s="50"/>
       <c r="F712" s="50"/>
     </row>
-    <row r="713" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C713" s="50"/>
       <c r="D713" s="50"/>
       <c r="E713" s="50"/>
       <c r="F713" s="50"/>
     </row>
-    <row r="714" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C714" s="50"/>
       <c r="D714" s="50"/>
       <c r="E714" s="50"/>
       <c r="F714" s="50"/>
     </row>
-    <row r="715" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C715" s="50"/>
       <c r="D715" s="50"/>
       <c r="E715" s="50"/>
       <c r="F715" s="50"/>
     </row>
-    <row r="716" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C716" s="50"/>
       <c r="D716" s="50"/>
       <c r="E716" s="50"/>
       <c r="F716" s="50"/>
     </row>
-    <row r="717" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C717" s="50"/>
       <c r="D717" s="50"/>
       <c r="E717" s="50"/>
       <c r="F717" s="50"/>
     </row>
-    <row r="718" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C718" s="50"/>
       <c r="D718" s="50"/>
       <c r="E718" s="50"/>
       <c r="F718" s="50"/>
     </row>
-    <row r="719" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C719" s="50"/>
       <c r="D719" s="50"/>
       <c r="E719" s="50"/>
       <c r="F719" s="50"/>
     </row>
-    <row r="720" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C720" s="50"/>
       <c r="D720" s="50"/>
       <c r="E720" s="50"/>
       <c r="F720" s="50"/>
     </row>
-    <row r="721" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C721" s="50"/>
       <c r="D721" s="50"/>
       <c r="E721" s="50"/>
       <c r="F721" s="50"/>
     </row>
-    <row r="722" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C722" s="50"/>
       <c r="D722" s="50"/>
       <c r="E722" s="50"/>
       <c r="F722" s="50"/>
     </row>
-    <row r="723" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C723" s="50"/>
       <c r="D723" s="50"/>
       <c r="E723" s="50"/>
       <c r="F723" s="50"/>
     </row>
-    <row r="724" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C724" s="50"/>
       <c r="D724" s="50"/>
       <c r="E724" s="50"/>
       <c r="F724" s="50"/>
     </row>
-    <row r="725" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C725" s="50"/>
       <c r="D725" s="50"/>
       <c r="E725" s="50"/>
       <c r="F725" s="50"/>
     </row>
-    <row r="726" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C726" s="50"/>
       <c r="D726" s="50"/>
       <c r="E726" s="50"/>
       <c r="F726" s="50"/>
     </row>
-    <row r="727" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C727" s="50"/>
       <c r="D727" s="50"/>
       <c r="E727" s="50"/>
       <c r="F727" s="50"/>
     </row>
-    <row r="728" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C728" s="50"/>
       <c r="D728" s="50"/>
       <c r="E728" s="50"/>
       <c r="F728" s="50"/>
     </row>
-    <row r="729" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C729" s="50"/>
       <c r="D729" s="50"/>
       <c r="E729" s="50"/>
       <c r="F729" s="50"/>
     </row>
-    <row r="730" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C730" s="50"/>
       <c r="D730" s="50"/>
       <c r="E730" s="50"/>
       <c r="F730" s="50"/>
     </row>
-    <row r="731" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C731" s="50"/>
       <c r="D731" s="50"/>
       <c r="E731" s="50"/>
       <c r="F731" s="50"/>
     </row>
-    <row r="732" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C732" s="50"/>
       <c r="D732" s="50"/>
       <c r="E732" s="50"/>
       <c r="F732" s="50"/>
     </row>
-    <row r="733" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C733" s="50"/>
       <c r="D733" s="50"/>
       <c r="E733" s="50"/>
       <c r="F733" s="50"/>
     </row>
-    <row r="734" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C734" s="50"/>
       <c r="D734" s="50"/>
       <c r="E734" s="50"/>
       <c r="F734" s="50"/>
     </row>
-    <row r="735" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C735" s="50"/>
       <c r="D735" s="50"/>
       <c r="E735" s="50"/>
       <c r="F735" s="50"/>
     </row>
-    <row r="736" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C736" s="50"/>
       <c r="D736" s="50"/>
       <c r="E736" s="50"/>
       <c r="F736" s="50"/>
     </row>
-    <row r="737" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C737" s="50"/>
       <c r="D737" s="50"/>
       <c r="E737" s="50"/>
       <c r="F737" s="50"/>
     </row>
-    <row r="738" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C738" s="50"/>
       <c r="D738" s="50"/>
       <c r="E738" s="50"/>
       <c r="F738" s="50"/>
     </row>
-    <row r="739" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C739" s="50"/>
       <c r="D739" s="50"/>
       <c r="E739" s="50"/>
       <c r="F739" s="50"/>
     </row>
-    <row r="740" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C740" s="50"/>
       <c r="D740" s="50"/>
       <c r="E740" s="50"/>
       <c r="F740" s="50"/>
     </row>
-    <row r="741" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C741" s="50"/>
       <c r="D741" s="50"/>
       <c r="E741" s="50"/>
       <c r="F741" s="50"/>
     </row>
-    <row r="742" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C742" s="50"/>
       <c r="D742" s="50"/>
       <c r="E742" s="50"/>
       <c r="F742" s="50"/>
     </row>
-    <row r="743" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C743" s="50"/>
       <c r="D743" s="50"/>
       <c r="E743" s="50"/>
       <c r="F743" s="50"/>
     </row>
-    <row r="744" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C744" s="50"/>
       <c r="D744" s="50"/>
       <c r="E744" s="50"/>
       <c r="F744" s="50"/>
     </row>
-    <row r="745" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C745" s="50"/>
       <c r="D745" s="50"/>
       <c r="E745" s="50"/>
       <c r="F745" s="50"/>
     </row>
-    <row r="746" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C746" s="50"/>
       <c r="D746" s="50"/>
       <c r="E746" s="50"/>
       <c r="F746" s="50"/>
     </row>
-    <row r="747" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C747" s="50"/>
       <c r="D747" s="50"/>
       <c r="E747" s="50"/>
       <c r="F747" s="50"/>
     </row>
-    <row r="748" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C748" s="50"/>
       <c r="D748" s="50"/>
       <c r="E748" s="50"/>
       <c r="F748" s="50"/>
     </row>
-    <row r="749" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C749" s="50"/>
       <c r="D749" s="50"/>
       <c r="E749" s="50"/>
       <c r="F749" s="50"/>
     </row>
-    <row r="750" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C750" s="50"/>
       <c r="D750" s="50"/>
       <c r="E750" s="50"/>
       <c r="F750" s="50"/>
     </row>
-    <row r="751" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C751" s="50"/>
       <c r="D751" s="50"/>
       <c r="E751" s="50"/>
       <c r="F751" s="50"/>
     </row>
-    <row r="752" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C752" s="50"/>
       <c r="D752" s="50"/>
       <c r="E752" s="50"/>
       <c r="F752" s="50"/>
     </row>
-    <row r="753" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C753" s="50"/>
       <c r="D753" s="50"/>
       <c r="E753" s="50"/>
       <c r="F753" s="50"/>
     </row>
-    <row r="754" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C754" s="50"/>
       <c r="D754" s="50"/>
       <c r="E754" s="50"/>
       <c r="F754" s="50"/>
     </row>
-    <row r="755" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C755" s="50"/>
       <c r="D755" s="50"/>
       <c r="E755" s="50"/>
       <c r="F755" s="50"/>
     </row>
-    <row r="756" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C756" s="50"/>
       <c r="D756" s="50"/>
       <c r="E756" s="50"/>
       <c r="F756" s="50"/>
     </row>
-    <row r="757" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C757" s="50"/>
       <c r="D757" s="50"/>
       <c r="E757" s="50"/>
       <c r="F757" s="50"/>
     </row>
-    <row r="758" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C758" s="50"/>
       <c r="D758" s="50"/>
       <c r="E758" s="50"/>
       <c r="F758" s="50"/>
     </row>
-    <row r="759" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C759" s="50"/>
       <c r="D759" s="50"/>
       <c r="E759" s="50"/>
       <c r="F759" s="50"/>
     </row>
-    <row r="760" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C760" s="50"/>
       <c r="D760" s="50"/>
       <c r="E760" s="50"/>
       <c r="F760" s="50"/>
     </row>
-    <row r="761" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C761" s="50"/>
       <c r="D761" s="50"/>
       <c r="E761" s="50"/>
       <c r="F761" s="50"/>
     </row>
-    <row r="762" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C762" s="50"/>
       <c r="D762" s="50"/>
       <c r="E762" s="50"/>
       <c r="F762" s="50"/>
     </row>
-    <row r="763" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C763" s="50"/>
       <c r="D763" s="50"/>
       <c r="E763" s="50"/>
       <c r="F763" s="50"/>
     </row>
-    <row r="764" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C764" s="50"/>
       <c r="D764" s="50"/>
       <c r="E764" s="50"/>
       <c r="F764" s="50"/>
     </row>
-    <row r="765" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C765" s="50"/>
       <c r="D765" s="50"/>
       <c r="E765" s="50"/>
       <c r="F765" s="50"/>
     </row>
-    <row r="766" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C766" s="50"/>
       <c r="D766" s="50"/>
       <c r="E766" s="50"/>
       <c r="F766" s="50"/>
     </row>
-    <row r="767" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C767" s="50"/>
       <c r="D767" s="50"/>
       <c r="E767" s="50"/>
       <c r="F767" s="50"/>
     </row>
-    <row r="768" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C768" s="50"/>
       <c r="D768" s="50"/>
       <c r="E768" s="50"/>
       <c r="F768" s="50"/>
     </row>
-    <row r="769" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C769" s="50"/>
       <c r="D769" s="50"/>
       <c r="E769" s="50"/>
       <c r="F769" s="50"/>
     </row>
-    <row r="770" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C770" s="50"/>
       <c r="D770" s="50"/>
       <c r="E770" s="50"/>
       <c r="F770" s="50"/>
     </row>
-    <row r="771" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C771" s="50"/>
       <c r="D771" s="50"/>
       <c r="E771" s="50"/>
       <c r="F771" s="50"/>
     </row>
-    <row r="772" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C772" s="50"/>
       <c r="D772" s="50"/>
       <c r="E772" s="50"/>
       <c r="F772" s="50"/>
     </row>
-    <row r="773" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C773" s="50"/>
       <c r="D773" s="50"/>
       <c r="E773" s="50"/>
       <c r="F773" s="50"/>
     </row>
-    <row r="774" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C774" s="50"/>
       <c r="D774" s="50"/>
       <c r="E774" s="50"/>
       <c r="F774" s="50"/>
     </row>
-    <row r="775" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C775" s="50"/>
       <c r="D775" s="50"/>
       <c r="E775" s="50"/>
       <c r="F775" s="50"/>
     </row>
-    <row r="776" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C776" s="50"/>
       <c r="D776" s="50"/>
       <c r="E776" s="50"/>
       <c r="F776" s="50"/>
     </row>
-    <row r="777" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C777" s="50"/>
       <c r="D777" s="50"/>
       <c r="E777" s="50"/>
       <c r="F777" s="50"/>
     </row>
-    <row r="778" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C778" s="50"/>
       <c r="D778" s="50"/>
       <c r="E778" s="50"/>
       <c r="F778" s="50"/>
     </row>
-    <row r="779" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C779" s="50"/>
       <c r="D779" s="50"/>
       <c r="E779" s="50"/>
       <c r="F779" s="50"/>
     </row>
-    <row r="780" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C780" s="50"/>
       <c r="D780" s="50"/>
       <c r="E780" s="50"/>
       <c r="F780" s="50"/>
     </row>
-    <row r="781" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C781" s="50"/>
       <c r="D781" s="50"/>
       <c r="E781" s="50"/>
       <c r="F781" s="50"/>
     </row>
-    <row r="782" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C782" s="50"/>
       <c r="D782" s="50"/>
       <c r="E782" s="50"/>
       <c r="F782" s="50"/>
     </row>
-    <row r="783" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C783" s="50"/>
       <c r="D783" s="50"/>
       <c r="E783" s="50"/>
       <c r="F783" s="50"/>
     </row>
-    <row r="784" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C784" s="50"/>
       <c r="D784" s="50"/>
       <c r="E784" s="50"/>
       <c r="F784" s="50"/>
     </row>
-    <row r="785" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C785" s="50"/>
       <c r="D785" s="50"/>
       <c r="E785" s="50"/>
       <c r="F785" s="50"/>
     </row>
-    <row r="786" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C786" s="50"/>
       <c r="D786" s="50"/>
       <c r="E786" s="50"/>
       <c r="F786" s="50"/>
     </row>
-    <row r="787" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C787" s="50"/>
       <c r="D787" s="50"/>
       <c r="E787" s="50"/>
       <c r="F787" s="50"/>
     </row>
-    <row r="788" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C788" s="50"/>
       <c r="D788" s="50"/>
       <c r="E788" s="50"/>
       <c r="F788" s="50"/>
     </row>
-    <row r="789" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C789" s="50"/>
       <c r="D789" s="50"/>
       <c r="E789" s="50"/>
       <c r="F789" s="50"/>
     </row>
-    <row r="790" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C790" s="50"/>
       <c r="D790" s="50"/>
       <c r="E790" s="50"/>
       <c r="F790" s="50"/>
     </row>
-    <row r="791" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C791" s="50"/>
       <c r="D791" s="50"/>
       <c r="E791" s="50"/>
       <c r="F791" s="50"/>
     </row>
-    <row r="792" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C792" s="50"/>
       <c r="D792" s="50"/>
       <c r="E792" s="50"/>
       <c r="F792" s="50"/>
     </row>
-    <row r="793" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C793" s="50"/>
       <c r="D793" s="50"/>
       <c r="E793" s="50"/>
       <c r="F793" s="50"/>
     </row>
-    <row r="794" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C794" s="50"/>
       <c r="D794" s="50"/>
       <c r="E794" s="50"/>
       <c r="F794" s="50"/>
     </row>
-    <row r="795" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C795" s="50"/>
       <c r="D795" s="50"/>
       <c r="E795" s="50"/>
       <c r="F795" s="50"/>
     </row>
-    <row r="796" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C796" s="50"/>
       <c r="D796" s="50"/>
       <c r="E796" s="50"/>
       <c r="F796" s="50"/>
     </row>
-    <row r="797" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C797" s="50"/>
       <c r="D797" s="50"/>
       <c r="E797" s="50"/>
       <c r="F797" s="50"/>
     </row>
-    <row r="798" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C798" s="50"/>
       <c r="D798" s="50"/>
       <c r="E798" s="50"/>
       <c r="F798" s="50"/>
     </row>
-    <row r="799" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C799" s="50"/>
       <c r="D799" s="50"/>
       <c r="E799" s="50"/>
       <c r="F799" s="50"/>
     </row>
-    <row r="800" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C800" s="50"/>
       <c r="D800" s="50"/>
       <c r="E800" s="50"/>
       <c r="F800" s="50"/>
     </row>
-    <row r="801" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C801" s="50"/>
       <c r="D801" s="50"/>
       <c r="E801" s="50"/>
       <c r="F801" s="50"/>
     </row>
-    <row r="802" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C802" s="50"/>
       <c r="D802" s="50"/>
       <c r="E802" s="50"/>
       <c r="F802" s="50"/>
     </row>
-    <row r="803" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C803" s="50"/>
       <c r="D803" s="50"/>
       <c r="E803" s="50"/>
       <c r="F803" s="50"/>
     </row>
-    <row r="804" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C804" s="50"/>
       <c r="D804" s="50"/>
       <c r="E804" s="50"/>
       <c r="F804" s="50"/>
     </row>
-    <row r="805" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C805" s="50"/>
       <c r="D805" s="50"/>
       <c r="E805" s="50"/>
       <c r="F805" s="50"/>
     </row>
-    <row r="806" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C806" s="50"/>
       <c r="D806" s="50"/>
       <c r="E806" s="50"/>
       <c r="F806" s="50"/>
     </row>
-    <row r="807" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C807" s="50"/>
       <c r="D807" s="50"/>
       <c r="E807" s="50"/>
       <c r="F807" s="50"/>
     </row>
-    <row r="808" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C808" s="50"/>
       <c r="D808" s="50"/>
       <c r="E808" s="50"/>
       <c r="F808" s="50"/>
     </row>
-    <row r="809" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C809" s="50"/>
       <c r="D809" s="50"/>
       <c r="E809" s="50"/>
       <c r="F809" s="50"/>
     </row>
-    <row r="810" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C810" s="50"/>
       <c r="D810" s="50"/>
       <c r="E810" s="50"/>
       <c r="F810" s="50"/>
     </row>
-    <row r="811" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C811" s="50"/>
       <c r="D811" s="50"/>
       <c r="E811" s="50"/>
       <c r="F811" s="50"/>
     </row>
-    <row r="812" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C812" s="50"/>
       <c r="D812" s="50"/>
       <c r="E812" s="50"/>
       <c r="F812" s="50"/>
     </row>
-    <row r="813" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C813" s="50"/>
       <c r="D813" s="50"/>
       <c r="E813" s="50"/>
       <c r="F813" s="50"/>
     </row>
-    <row r="814" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C814" s="50"/>
       <c r="D814" s="50"/>
       <c r="E814" s="50"/>
       <c r="F814" s="50"/>
     </row>
-    <row r="815" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C815" s="50"/>
       <c r="D815" s="50"/>
       <c r="E815" s="50"/>
       <c r="F815" s="50"/>
     </row>
-    <row r="816" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C816" s="50"/>
       <c r="D816" s="50"/>
       <c r="E816" s="50"/>
       <c r="F816" s="50"/>
     </row>
-    <row r="817" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C817" s="50"/>
       <c r="D817" s="50"/>
       <c r="E817" s="50"/>
       <c r="F817" s="50"/>
     </row>
-    <row r="818" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C818" s="50"/>
       <c r="D818" s="50"/>
       <c r="E818" s="50"/>
       <c r="F818" s="50"/>
     </row>
-    <row r="819" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C819" s="50"/>
       <c r="D819" s="50"/>
       <c r="E819" s="50"/>
       <c r="F819" s="50"/>
     </row>
-    <row r="820" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C820" s="50"/>
       <c r="D820" s="50"/>
       <c r="E820" s="50"/>
       <c r="F820" s="50"/>
     </row>
-    <row r="821" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C821" s="50"/>
       <c r="D821" s="50"/>
       <c r="E821" s="50"/>
       <c r="F821" s="50"/>
     </row>
-    <row r="822" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C822" s="50"/>
       <c r="D822" s="50"/>
       <c r="E822" s="50"/>
       <c r="F822" s="50"/>
     </row>
-    <row r="823" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C823" s="50"/>
       <c r="D823" s="50"/>
       <c r="E823" s="50"/>
       <c r="F823" s="50"/>
     </row>
-    <row r="824" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C824" s="50"/>
       <c r="D824" s="50"/>
       <c r="E824" s="50"/>
       <c r="F824" s="50"/>
     </row>
-    <row r="825" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C825" s="50"/>
       <c r="D825" s="50"/>
       <c r="E825" s="50"/>
       <c r="F825" s="50"/>
     </row>
-    <row r="826" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C826" s="50"/>
       <c r="D826" s="50"/>
       <c r="E826" s="50"/>
       <c r="F826" s="50"/>
     </row>
-    <row r="827" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C827" s="50"/>
       <c r="D827" s="50"/>
       <c r="E827" s="50"/>
       <c r="F827" s="50"/>
     </row>
-    <row r="828" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C828" s="50"/>
       <c r="D828" s="50"/>
       <c r="E828" s="50"/>
       <c r="F828" s="50"/>
     </row>
-    <row r="829" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C829" s="50"/>
       <c r="D829" s="50"/>
       <c r="E829" s="50"/>
       <c r="F829" s="50"/>
     </row>
-    <row r="830" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C830" s="50"/>
       <c r="D830" s="50"/>
       <c r="E830" s="50"/>
       <c r="F830" s="50"/>
     </row>
-    <row r="831" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C831" s="50"/>
       <c r="D831" s="50"/>
       <c r="E831" s="50"/>
       <c r="F831" s="50"/>
     </row>
-    <row r="832" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C832" s="50"/>
       <c r="D832" s="50"/>
       <c r="E832" s="50"/>
       <c r="F832" s="50"/>
     </row>
-    <row r="833" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C833" s="50"/>
       <c r="D833" s="50"/>
       <c r="E833" s="50"/>
       <c r="F833" s="50"/>
     </row>
-    <row r="834" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C834" s="50"/>
       <c r="D834" s="50"/>
       <c r="E834" s="50"/>
       <c r="F834" s="50"/>
     </row>
-    <row r="835" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C835" s="50"/>
       <c r="D835" s="50"/>
       <c r="E835" s="50"/>
       <c r="F835" s="50"/>
     </row>
-    <row r="836" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C836" s="50"/>
       <c r="D836" s="50"/>
       <c r="E836" s="50"/>
       <c r="F836" s="50"/>
     </row>
-    <row r="837" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C837" s="50"/>
       <c r="D837" s="50"/>
       <c r="E837" s="50"/>
       <c r="F837" s="50"/>
     </row>
-    <row r="838" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C838" s="50"/>
       <c r="D838" s="50"/>
       <c r="E838" s="50"/>
       <c r="F838" s="50"/>
     </row>
-    <row r="839" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C839" s="50"/>
       <c r="D839" s="50"/>
       <c r="E839" s="50"/>
       <c r="F839" s="50"/>
     </row>
-    <row r="840" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C840" s="50"/>
       <c r="D840" s="50"/>
       <c r="E840" s="50"/>
       <c r="F840" s="50"/>
     </row>
-    <row r="841" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C841" s="50"/>
       <c r="D841" s="50"/>
       <c r="E841" s="50"/>
       <c r="F841" s="50"/>
     </row>
-    <row r="842" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C842" s="50"/>
       <c r="D842" s="50"/>
       <c r="E842" s="50"/>
       <c r="F842" s="50"/>
     </row>
-    <row r="843" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C843" s="50"/>
       <c r="D843" s="50"/>
       <c r="E843" s="50"/>
       <c r="F843" s="50"/>
     </row>
-    <row r="844" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C844" s="50"/>
       <c r="D844" s="50"/>
       <c r="E844" s="50"/>
       <c r="F844" s="50"/>
     </row>
-    <row r="845" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C845" s="50"/>
       <c r="D845" s="50"/>
       <c r="E845" s="50"/>
       <c r="F845" s="50"/>
     </row>
-    <row r="846" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C846" s="50"/>
       <c r="D846" s="50"/>
       <c r="E846" s="50"/>
       <c r="F846" s="50"/>
     </row>
-    <row r="847" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C847" s="50"/>
       <c r="D847" s="50"/>
       <c r="E847" s="50"/>
       <c r="F847" s="50"/>
     </row>
-    <row r="848" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C848" s="50"/>
       <c r="D848" s="50"/>
       <c r="E848" s="50"/>
       <c r="F848" s="50"/>
     </row>
-    <row r="849" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C849" s="50"/>
       <c r="D849" s="50"/>
       <c r="E849" s="50"/>
       <c r="F849" s="50"/>
     </row>
-    <row r="850" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C850" s="50"/>
       <c r="D850" s="50"/>
       <c r="E850" s="50"/>
       <c r="F850" s="50"/>
     </row>
-    <row r="851" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C851" s="50"/>
       <c r="D851" s="50"/>
       <c r="E851" s="50"/>
       <c r="F851" s="50"/>
     </row>
-    <row r="852" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C852" s="50"/>
       <c r="D852" s="50"/>
       <c r="E852" s="50"/>
       <c r="F852" s="50"/>
     </row>
-    <row r="853" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C853" s="50"/>
       <c r="D853" s="50"/>
       <c r="E853" s="50"/>
       <c r="F853" s="50"/>
     </row>
-    <row r="854" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C854" s="50"/>
       <c r="D854" s="50"/>
       <c r="E854" s="50"/>
       <c r="F854" s="50"/>
     </row>
-    <row r="855" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C855" s="50"/>
       <c r="D855" s="50"/>
       <c r="E855" s="50"/>
       <c r="F855" s="50"/>
     </row>
-    <row r="856" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C856" s="50"/>
       <c r="D856" s="50"/>
       <c r="E856" s="50"/>
       <c r="F856" s="50"/>
     </row>
-    <row r="857" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C857" s="50"/>
       <c r="D857" s="50"/>
       <c r="E857" s="50"/>
       <c r="F857" s="50"/>
     </row>
-    <row r="858" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C858" s="50"/>
       <c r="D858" s="50"/>
       <c r="E858" s="50"/>
       <c r="F858" s="50"/>
     </row>
-    <row r="859" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C859" s="50"/>
       <c r="D859" s="50"/>
       <c r="E859" s="50"/>
       <c r="F859" s="50"/>
     </row>
-    <row r="860" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C860" s="50"/>
       <c r="D860" s="50"/>
       <c r="E860" s="50"/>
       <c r="F860" s="50"/>
     </row>
-    <row r="861" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C861" s="50"/>
       <c r="D861" s="50"/>
       <c r="E861" s="50"/>
       <c r="F861" s="50"/>
     </row>
-    <row r="862" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C862" s="50"/>
       <c r="D862" s="50"/>
       <c r="E862" s="50"/>
       <c r="F862" s="50"/>
     </row>
-    <row r="863" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C863" s="50"/>
       <c r="D863" s="50"/>
       <c r="E863" s="50"/>
       <c r="F863" s="50"/>
     </row>
-    <row r="864" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C864" s="50"/>
       <c r="D864" s="50"/>
       <c r="E864" s="50"/>
       <c r="F864" s="50"/>
     </row>
-    <row r="865" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C865" s="50"/>
       <c r="D865" s="50"/>
       <c r="E865" s="50"/>
       <c r="F865" s="50"/>
     </row>
-    <row r="866" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C866" s="50"/>
       <c r="D866" s="50"/>
       <c r="E866" s="50"/>
       <c r="F866" s="50"/>
     </row>
-    <row r="867" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C867" s="50"/>
       <c r="D867" s="50"/>
       <c r="E867" s="50"/>
       <c r="F867" s="50"/>
     </row>
-    <row r="868" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C868" s="50"/>
       <c r="D868" s="50"/>
       <c r="E868" s="50"/>
       <c r="F868" s="50"/>
     </row>
-    <row r="869" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C869" s="50"/>
       <c r="D869" s="50"/>
       <c r="E869" s="50"/>
       <c r="F869" s="50"/>
     </row>
-    <row r="870" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C870" s="50"/>
       <c r="D870" s="50"/>
       <c r="E870" s="50"/>
       <c r="F870" s="50"/>
     </row>
-    <row r="871" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C871" s="50"/>
       <c r="D871" s="50"/>
       <c r="E871" s="50"/>
       <c r="F871" s="50"/>
     </row>
-    <row r="872" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C872" s="50"/>
       <c r="D872" s="50"/>
       <c r="E872" s="50"/>
       <c r="F872" s="50"/>
     </row>
-    <row r="873" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C873" s="50"/>
       <c r="D873" s="50"/>
       <c r="E873" s="50"/>
       <c r="F873" s="50"/>
     </row>
-    <row r="874" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C874" s="50"/>
       <c r="D874" s="50"/>
       <c r="E874" s="50"/>
       <c r="F874" s="50"/>
     </row>
-    <row r="875" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C875" s="50"/>
       <c r="D875" s="50"/>
       <c r="E875" s="50"/>
       <c r="F875" s="50"/>
     </row>
-    <row r="876" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C876" s="50"/>
       <c r="D876" s="50"/>
       <c r="E876" s="50"/>
       <c r="F876" s="50"/>
     </row>
-    <row r="877" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C877" s="50"/>
       <c r="D877" s="50"/>
       <c r="E877" s="50"/>
       <c r="F877" s="50"/>
     </row>
-    <row r="878" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C878" s="50"/>
       <c r="D878" s="50"/>
       <c r="E878" s="50"/>
       <c r="F878" s="50"/>
     </row>
-    <row r="879" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C879" s="50"/>
       <c r="D879" s="50"/>
       <c r="E879" s="50"/>
       <c r="F879" s="50"/>
     </row>
-    <row r="880" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C880" s="50"/>
       <c r="D880" s="50"/>
       <c r="E880" s="50"/>
       <c r="F880" s="50"/>
     </row>
-    <row r="881" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C881" s="50"/>
       <c r="D881" s="50"/>
       <c r="E881" s="50"/>
       <c r="F881" s="50"/>
     </row>
-    <row r="882" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C882" s="50"/>
       <c r="D882" s="50"/>
       <c r="E882" s="50"/>
       <c r="F882" s="50"/>
     </row>
-    <row r="883" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C883" s="50"/>
       <c r="D883" s="50"/>
       <c r="E883" s="50"/>
       <c r="F883" s="50"/>
     </row>
-    <row r="884" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C884" s="50"/>
       <c r="D884" s="50"/>
       <c r="E884" s="50"/>
       <c r="F884" s="50"/>
     </row>
-    <row r="885" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C885" s="50"/>
       <c r="D885" s="50"/>
       <c r="E885" s="50"/>
       <c r="F885" s="50"/>
     </row>
-    <row r="886" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C886" s="50"/>
       <c r="D886" s="50"/>
       <c r="E886" s="50"/>
       <c r="F886" s="50"/>
     </row>
-    <row r="887" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C887" s="50"/>
       <c r="D887" s="50"/>
       <c r="E887" s="50"/>
       <c r="F887" s="50"/>
     </row>
-    <row r="888" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C888" s="50"/>
       <c r="D888" s="50"/>
       <c r="E888" s="50"/>
       <c r="F888" s="50"/>
     </row>
-    <row r="889" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C889" s="50"/>
       <c r="D889" s="50"/>
       <c r="E889" s="50"/>
       <c r="F889" s="50"/>
     </row>
-    <row r="890" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C890" s="50"/>
       <c r="D890" s="50"/>
       <c r="E890" s="50"/>
       <c r="F890" s="50"/>
     </row>
-    <row r="891" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C891" s="50"/>
       <c r="D891" s="50"/>
       <c r="E891" s="50"/>
       <c r="F891" s="50"/>
     </row>
-    <row r="892" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C892" s="50"/>
       <c r="D892" s="50"/>
       <c r="E892" s="50"/>
       <c r="F892" s="50"/>
     </row>
-    <row r="893" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C893" s="50"/>
       <c r="D893" s="50"/>
       <c r="E893" s="50"/>
       <c r="F893" s="50"/>
     </row>
-    <row r="894" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C894" s="50"/>
       <c r="D894" s="50"/>
       <c r="E894" s="50"/>
       <c r="F894" s="50"/>
     </row>
-    <row r="895" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C895" s="50"/>
       <c r="D895" s="50"/>
       <c r="E895" s="50"/>
       <c r="F895" s="50"/>
     </row>
-    <row r="896" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C896" s="50"/>
       <c r="D896" s="50"/>
       <c r="E896" s="50"/>
       <c r="F896" s="50"/>
     </row>
-    <row r="897" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C897" s="50"/>
       <c r="D897" s="50"/>
       <c r="E897" s="50"/>
       <c r="F897" s="50"/>
     </row>
-    <row r="898" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C898" s="50"/>
       <c r="D898" s="50"/>
       <c r="E898" s="50"/>
       <c r="F898" s="50"/>
     </row>
-    <row r="899" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C899" s="50"/>
       <c r="D899" s="50"/>
       <c r="E899" s="50"/>
       <c r="F899" s="50"/>
     </row>
-    <row r="900" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C900" s="50"/>
       <c r="D900" s="50"/>
       <c r="E900" s="50"/>
       <c r="F900" s="50"/>
     </row>
-    <row r="901" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C901" s="50"/>
       <c r="D901" s="50"/>
       <c r="E901" s="50"/>
       <c r="F901" s="50"/>
     </row>
-    <row r="902" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C902" s="50"/>
       <c r="D902" s="50"/>
       <c r="E902" s="50"/>
       <c r="F902" s="50"/>
     </row>
-    <row r="903" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C903" s="50"/>
       <c r="D903" s="50"/>
       <c r="E903" s="50"/>
       <c r="F903" s="50"/>
     </row>
-    <row r="904" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C904" s="50"/>
       <c r="D904" s="50"/>
       <c r="E904" s="50"/>
       <c r="F904" s="50"/>
     </row>
-    <row r="905" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C905" s="50"/>
       <c r="D905" s="50"/>
       <c r="E905" s="50"/>
       <c r="F905" s="50"/>
     </row>
-    <row r="906" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C906" s="50"/>
       <c r="D906" s="50"/>
       <c r="E906" s="50"/>
       <c r="F906" s="50"/>
     </row>
-    <row r="907" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C907" s="50"/>
       <c r="D907" s="50"/>
       <c r="E907" s="50"/>
       <c r="F907" s="50"/>
     </row>
-    <row r="908" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C908" s="50"/>
       <c r="D908" s="50"/>
       <c r="E908" s="50"/>
       <c r="F908" s="50"/>
     </row>
-    <row r="909" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C909" s="50"/>
       <c r="D909" s="50"/>
       <c r="E909" s="50"/>
       <c r="F909" s="50"/>
     </row>
-    <row r="910" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C910" s="50"/>
       <c r="D910" s="50"/>
       <c r="E910" s="50"/>
       <c r="F910" s="50"/>
     </row>
-    <row r="911" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C911" s="50"/>
       <c r="D911" s="50"/>
       <c r="E911" s="50"/>
       <c r="F911" s="50"/>
     </row>
-    <row r="912" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C912" s="50"/>
       <c r="D912" s="50"/>
       <c r="E912" s="50"/>
       <c r="F912" s="50"/>
     </row>
-    <row r="913" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C913" s="50"/>
       <c r="D913" s="50"/>
       <c r="E913" s="50"/>
       <c r="F913" s="50"/>
     </row>
-    <row r="914" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C914" s="50"/>
       <c r="D914" s="50"/>
       <c r="E914" s="50"/>
       <c r="F914" s="50"/>
     </row>
-    <row r="915" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C915" s="50"/>
       <c r="D915" s="50"/>
       <c r="E915" s="50"/>
       <c r="F915" s="50"/>
     </row>
-    <row r="916" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C916" s="50"/>
       <c r="D916" s="50"/>
       <c r="E916" s="50"/>
       <c r="F916" s="50"/>
     </row>
-    <row r="917" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C917" s="50"/>
       <c r="D917" s="50"/>
       <c r="E917" s="50"/>
       <c r="F917" s="50"/>
     </row>
-    <row r="918" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C918" s="50"/>
       <c r="D918" s="50"/>
       <c r="E918" s="50"/>
       <c r="F918" s="50"/>
     </row>
-    <row r="919" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C919" s="50"/>
       <c r="D919" s="50"/>
       <c r="E919" s="50"/>
       <c r="F919" s="50"/>
     </row>
-    <row r="920" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C920" s="50"/>
       <c r="D920" s="50"/>
       <c r="E920" s="50"/>
       <c r="F920" s="50"/>
     </row>
-    <row r="921" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C921" s="50"/>
       <c r="D921" s="50"/>
       <c r="E921" s="50"/>
       <c r="F921" s="50"/>
     </row>
-    <row r="922" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C922" s="50"/>
       <c r="D922" s="50"/>
       <c r="E922" s="50"/>
       <c r="F922" s="50"/>
     </row>
-    <row r="923" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C923" s="50"/>
       <c r="D923" s="50"/>
       <c r="E923" s="50"/>
       <c r="F923" s="50"/>
     </row>
-    <row r="924" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C924" s="50"/>
       <c r="D924" s="50"/>
       <c r="E924" s="50"/>
       <c r="F924" s="50"/>
     </row>
-    <row r="925" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C925" s="50"/>
       <c r="D925" s="50"/>
       <c r="E925" s="50"/>
       <c r="F925" s="50"/>
     </row>
-    <row r="926" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C926" s="50"/>
       <c r="D926" s="50"/>
       <c r="E926" s="50"/>
       <c r="F926" s="50"/>
     </row>
-    <row r="927" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C927" s="50"/>
       <c r="D927" s="50"/>
       <c r="E927" s="50"/>
       <c r="F927" s="50"/>
     </row>
-    <row r="928" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C928" s="50"/>
       <c r="D928" s="50"/>
       <c r="E928" s="50"/>
       <c r="F928" s="50"/>
     </row>
-    <row r="929" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C929" s="50"/>
       <c r="D929" s="50"/>
       <c r="E929" s="50"/>
       <c r="F929" s="50"/>
     </row>
-    <row r="930" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C930" s="50"/>
       <c r="D930" s="50"/>
       <c r="E930" s="50"/>
       <c r="F930" s="50"/>
     </row>
-    <row r="931" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C931" s="50"/>
       <c r="D931" s="50"/>
       <c r="E931" s="50"/>
       <c r="F931" s="50"/>
     </row>
-    <row r="932" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C932" s="50"/>
       <c r="D932" s="50"/>
       <c r="E932" s="50"/>
       <c r="F932" s="50"/>
     </row>
-    <row r="933" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C933" s="50"/>
       <c r="D933" s="50"/>
       <c r="E933" s="50"/>
       <c r="F933" s="50"/>
     </row>
-    <row r="934" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C934" s="50"/>
       <c r="D934" s="50"/>
       <c r="E934" s="50"/>
       <c r="F934" s="50"/>
     </row>
-    <row r="935" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C935" s="50"/>
       <c r="D935" s="50"/>
       <c r="E935" s="50"/>
       <c r="F935" s="50"/>
     </row>
-    <row r="936" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C936" s="50"/>
       <c r="D936" s="50"/>
       <c r="E936" s="50"/>
       <c r="F936" s="50"/>
     </row>
-    <row r="937" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C937" s="50"/>
       <c r="D937" s="50"/>
       <c r="E937" s="50"/>
       <c r="F937" s="50"/>
     </row>
-    <row r="938" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C938" s="50"/>
       <c r="D938" s="50"/>
       <c r="E938" s="50"/>
       <c r="F938" s="50"/>
     </row>
-    <row r="939" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C939" s="50"/>
       <c r="D939" s="50"/>
       <c r="E939" s="50"/>
       <c r="F939" s="50"/>
     </row>
-    <row r="940" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C940" s="50"/>
       <c r="D940" s="50"/>
       <c r="E940" s="50"/>
       <c r="F940" s="50"/>
     </row>
-    <row r="941" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C941" s="50"/>
       <c r="D941" s="50"/>
       <c r="E941" s="50"/>
       <c r="F941" s="50"/>
     </row>
-    <row r="942" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C942" s="50"/>
       <c r="D942" s="50"/>
       <c r="E942" s="50"/>
       <c r="F942" s="50"/>
     </row>
-    <row r="943" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C943" s="50"/>
       <c r="D943" s="50"/>
       <c r="E943" s="50"/>
       <c r="F943" s="50"/>
     </row>
-    <row r="944" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C944" s="50"/>
       <c r="D944" s="50"/>
       <c r="E944" s="50"/>
       <c r="F944" s="50"/>
     </row>
-    <row r="945" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C945" s="50"/>
       <c r="D945" s="50"/>
       <c r="E945" s="50"/>
       <c r="F945" s="50"/>
     </row>
-    <row r="946" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C946" s="50"/>
       <c r="D946" s="50"/>
       <c r="E946" s="50"/>
       <c r="F946" s="50"/>
     </row>
-    <row r="947" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C947" s="50"/>
       <c r="D947" s="50"/>
       <c r="E947" s="50"/>
       <c r="F947" s="50"/>
     </row>
-    <row r="948" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C948" s="50"/>
       <c r="D948" s="50"/>
       <c r="E948" s="50"/>
       <c r="F948" s="50"/>
     </row>
-    <row r="949" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C949" s="50"/>
       <c r="D949" s="50"/>
       <c r="E949" s="50"/>
       <c r="F949" s="50"/>
     </row>
-    <row r="950" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C950" s="50"/>
       <c r="D950" s="50"/>
       <c r="E950" s="50"/>
       <c r="F950" s="50"/>
     </row>
-    <row r="951" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C951" s="50"/>
       <c r="D951" s="50"/>
       <c r="E951" s="50"/>
       <c r="F951" s="50"/>
     </row>
-    <row r="952" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C952" s="50"/>
       <c r="D952" s="50"/>
       <c r="E952" s="50"/>
       <c r="F952" s="50"/>
     </row>
-    <row r="953" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C953" s="50"/>
       <c r="D953" s="50"/>
       <c r="E953" s="50"/>
       <c r="F953" s="50"/>
     </row>
-    <row r="954" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C954" s="50"/>
       <c r="D954" s="50"/>
       <c r="E954" s="50"/>
       <c r="F954" s="50"/>
     </row>
-    <row r="955" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C955" s="50"/>
       <c r="D955" s="50"/>
       <c r="E955" s="50"/>
       <c r="F955" s="50"/>
     </row>
-    <row r="956" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C956" s="50"/>
       <c r="D956" s="50"/>
       <c r="E956" s="50"/>
       <c r="F956" s="50"/>
     </row>
-    <row r="957" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C957" s="50"/>
       <c r="D957" s="50"/>
       <c r="E957" s="50"/>
       <c r="F957" s="50"/>
     </row>
-    <row r="958" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C958" s="50"/>
       <c r="D958" s="50"/>
       <c r="E958" s="50"/>
       <c r="F958" s="50"/>
     </row>
-    <row r="959" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C959" s="50"/>
       <c r="D959" s="50"/>
       <c r="E959" s="50"/>
       <c r="F959" s="50"/>
     </row>
-    <row r="960" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C960" s="50"/>
       <c r="D960" s="50"/>
       <c r="E960" s="50"/>
       <c r="F960" s="50"/>
     </row>
-    <row r="961" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C961" s="50"/>
       <c r="D961" s="50"/>
       <c r="E961" s="50"/>
       <c r="F961" s="50"/>
     </row>
-    <row r="962" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C962" s="50"/>
       <c r="D962" s="50"/>
       <c r="E962" s="50"/>
       <c r="F962" s="50"/>
     </row>
-    <row r="963" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C963" s="50"/>
       <c r="D963" s="50"/>
       <c r="E963" s="50"/>
       <c r="F963" s="50"/>
     </row>
-    <row r="964" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C964" s="50"/>
       <c r="D964" s="50"/>
       <c r="E964" s="50"/>
       <c r="F964" s="50"/>
     </row>
-    <row r="965" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C965" s="50"/>
       <c r="D965" s="50"/>
       <c r="E965" s="50"/>
       <c r="F965" s="50"/>
     </row>
-    <row r="966" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C966" s="50"/>
       <c r="D966" s="50"/>
       <c r="E966" s="50"/>
       <c r="F966" s="50"/>
     </row>
-    <row r="967" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C967" s="50"/>
       <c r="D967" s="50"/>
       <c r="E967" s="50"/>
       <c r="F967" s="50"/>
     </row>
-    <row r="968" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C968" s="50"/>
       <c r="D968" s="50"/>
       <c r="E968" s="50"/>
       <c r="F968" s="50"/>
     </row>
-    <row r="969" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C969" s="50"/>
       <c r="D969" s="50"/>
       <c r="E969" s="50"/>
       <c r="F969" s="50"/>
     </row>
-    <row r="970" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C970" s="50"/>
       <c r="D970" s="50"/>
       <c r="E970" s="50"/>
       <c r="F970" s="50"/>
     </row>
-    <row r="971" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C971" s="50"/>
       <c r="D971" s="50"/>
       <c r="E971" s="50"/>
       <c r="F971" s="50"/>
     </row>
-    <row r="972" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C972" s="50"/>
       <c r="D972" s="50"/>
       <c r="E972" s="50"/>
       <c r="F972" s="50"/>
     </row>
-    <row r="973" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C973" s="50"/>
       <c r="D973" s="50"/>
       <c r="E973" s="50"/>
       <c r="F973" s="50"/>
     </row>
-    <row r="974" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C974" s="50"/>
       <c r="D974" s="50"/>
       <c r="E974" s="50"/>
       <c r="F974" s="50"/>
     </row>
-    <row r="975" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C975" s="50"/>
       <c r="D975" s="50"/>
       <c r="E975" s="50"/>
       <c r="F975" s="50"/>
     </row>
-    <row r="976" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C976" s="50"/>
       <c r="D976" s="50"/>
       <c r="E976" s="50"/>
       <c r="F976" s="50"/>
     </row>
-    <row r="977" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C977" s="50"/>
       <c r="D977" s="50"/>
       <c r="E977" s="50"/>
       <c r="F977" s="50"/>
     </row>
-    <row r="978" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C978" s="50"/>
       <c r="D978" s="50"/>
       <c r="E978" s="50"/>
       <c r="F978" s="50"/>
     </row>
-    <row r="979" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C979" s="50"/>
       <c r="D979" s="50"/>
       <c r="E979" s="50"/>
       <c r="F979" s="50"/>
     </row>
-    <row r="980" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C980" s="50"/>
       <c r="D980" s="50"/>
       <c r="E980" s="50"/>
       <c r="F980" s="50"/>
     </row>
-    <row r="981" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C981" s="50"/>
       <c r="D981" s="50"/>
       <c r="E981" s="50"/>
       <c r="F981" s="50"/>
     </row>
-    <row r="982" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C982" s="50"/>
       <c r="D982" s="50"/>
       <c r="E982" s="50"/>
       <c r="F982" s="50"/>
     </row>
-    <row r="983" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C983" s="50"/>
       <c r="D983" s="50"/>
       <c r="E983" s="50"/>
       <c r="F983" s="50"/>
     </row>
-    <row r="984" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C984" s="50"/>
       <c r="D984" s="50"/>
       <c r="E984" s="50"/>
       <c r="F984" s="50"/>
     </row>
-    <row r="985" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C985" s="50"/>
       <c r="D985" s="50"/>
       <c r="E985" s="50"/>
       <c r="F985" s="50"/>
     </row>
-    <row r="986" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C986" s="50"/>
       <c r="D986" s="50"/>
       <c r="E986" s="50"/>
       <c r="F986" s="50"/>
     </row>
-    <row r="987" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C987" s="50"/>
       <c r="D987" s="50"/>
       <c r="E987" s="50"/>
       <c r="F987" s="50"/>
     </row>
-    <row r="988" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C988" s="50"/>
       <c r="D988" s="50"/>
       <c r="E988" s="50"/>
       <c r="F988" s="50"/>
     </row>
-    <row r="989" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C989" s="50"/>
       <c r="D989" s="50"/>
       <c r="E989" s="50"/>
       <c r="F989" s="50"/>
     </row>
-    <row r="990" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C990" s="50"/>
       <c r="D990" s="50"/>
       <c r="E990" s="50"/>
       <c r="F990" s="50"/>
     </row>
-    <row r="991" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C991" s="50"/>
       <c r="D991" s="50"/>
       <c r="E991" s="50"/>
       <c r="F991" s="50"/>
     </row>
-    <row r="992" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C992" s="50"/>
       <c r="D992" s="50"/>
       <c r="E992" s="50"/>
       <c r="F992" s="50"/>
     </row>
-    <row r="993" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C993" s="50"/>
       <c r="D993" s="50"/>
       <c r="E993" s="50"/>
       <c r="F993" s="50"/>
     </row>
-    <row r="994" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C994" s="50"/>
       <c r="D994" s="50"/>
       <c r="E994" s="50"/>
       <c r="F994" s="50"/>
     </row>
-    <row r="995" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C995" s="50"/>
       <c r="D995" s="50"/>
       <c r="E995" s="50"/>
       <c r="F995" s="50"/>
     </row>
-    <row r="996" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C996" s="50"/>
       <c r="D996" s="50"/>
       <c r="E996" s="50"/>
       <c r="F996" s="50"/>
     </row>
-    <row r="997" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C997" s="50"/>
       <c r="D997" s="50"/>
       <c r="E997" s="50"/>
       <c r="F997" s="50"/>
     </row>
-    <row r="998" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C998" s="50"/>
       <c r="D998" s="50"/>
       <c r="E998" s="50"/>
       <c r="F998" s="50"/>
     </row>
-    <row r="999" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C999" s="50"/>
       <c r="D999" s="50"/>
       <c r="E999" s="50"/>
       <c r="F999" s="50"/>
     </row>
-    <row r="1000" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1000" s="50"/>
       <c r="D1000" s="50"/>
       <c r="E1000" s="50"/>
       <c r="F1000" s="50"/>
     </row>
-    <row r="1001" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1001" s="50"/>
       <c r="D1001" s="50"/>
       <c r="E1001" s="50"/>
       <c r="F1001" s="50"/>
     </row>
-    <row r="1002" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1002" s="50"/>
       <c r="D1002" s="50"/>
       <c r="E1002" s="50"/>
       <c r="F1002" s="50"/>
     </row>
-    <row r="1003" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1003" s="50"/>
       <c r="D1003" s="50"/>
       <c r="E1003" s="50"/>
       <c r="F1003" s="50"/>
     </row>
-    <row r="1004" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1004" s="50"/>
       <c r="D1004" s="50"/>
       <c r="E1004" s="50"/>
       <c r="F1004" s="50"/>
     </row>
-    <row r="1005" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1005" s="50"/>
       <c r="D1005" s="50"/>
       <c r="E1005" s="50"/>
       <c r="F1005" s="50"/>
     </row>
-    <row r="1006" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1006" s="50"/>
       <c r="D1006" s="50"/>
       <c r="E1006" s="50"/>
       <c r="F1006" s="50"/>
     </row>
-    <row r="1007" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1007" s="50"/>
       <c r="D1007" s="50"/>
       <c r="E1007" s="50"/>
       <c r="F1007" s="50"/>
     </row>
-    <row r="1008" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1008" s="50"/>
       <c r="D1008" s="50"/>
       <c r="E1008" s="50"/>
       <c r="F1008" s="50"/>
     </row>
-    <row r="1009" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1009" s="50"/>
       <c r="D1009" s="50"/>
       <c r="E1009" s="50"/>
       <c r="F1009" s="50"/>
     </row>
-    <row r="1010" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1010" s="50"/>
       <c r="D1010" s="50"/>
       <c r="E1010" s="50"/>
       <c r="F1010" s="50"/>
     </row>
-    <row r="1011" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1011" s="50"/>
       <c r="D1011" s="50"/>
       <c r="E1011" s="50"/>
       <c r="F1011" s="50"/>
     </row>
-    <row r="1012" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1012" s="50"/>
       <c r="D1012" s="50"/>
       <c r="E1012" s="50"/>
       <c r="F1012" s="50"/>
     </row>
-    <row r="1013" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1013" s="50"/>
       <c r="D1013" s="50"/>
       <c r="E1013" s="50"/>
       <c r="F1013" s="50"/>
     </row>
-    <row r="1014" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1014" s="50"/>
       <c r="D1014" s="50"/>
       <c r="E1014" s="50"/>
       <c r="F1014" s="50"/>
     </row>
-    <row r="1015" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1015" s="50"/>
       <c r="D1015" s="50"/>
       <c r="E1015" s="50"/>
       <c r="F1015" s="50"/>
     </row>
-    <row r="1016" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1016" s="50"/>
       <c r="D1016" s="50"/>
       <c r="E1016" s="50"/>
       <c r="F1016" s="50"/>
     </row>
-    <row r="1017" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1017" s="50"/>
       <c r="D1017" s="50"/>
       <c r="E1017" s="50"/>
       <c r="F1017" s="50"/>
     </row>
-    <row r="1018" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1018" s="50"/>
       <c r="D1018" s="50"/>
       <c r="E1018" s="50"/>
       <c r="F1018" s="50"/>
     </row>
-    <row r="1019" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1019" s="50"/>
       <c r="D1019" s="50"/>
       <c r="E1019" s="50"/>
       <c r="F1019" s="50"/>
     </row>
-    <row r="1020" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1020" s="50"/>
       <c r="D1020" s="50"/>
       <c r="E1020" s="50"/>
       <c r="F1020" s="50"/>
     </row>
-    <row r="1021" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1021" s="50"/>
       <c r="D1021" s="50"/>
       <c r="E1021" s="50"/>
       <c r="F1021" s="50"/>
     </row>
-    <row r="1022" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1022" s="50"/>
       <c r="D1022" s="50"/>
       <c r="E1022" s="50"/>
       <c r="F1022" s="50"/>
     </row>
-    <row r="1023" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1023" s="50"/>
       <c r="D1023" s="50"/>
       <c r="E1023" s="50"/>
       <c r="F1023" s="50"/>
     </row>
-    <row r="1024" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1024" s="50"/>
       <c r="D1024" s="50"/>
       <c r="E1024" s="50"/>
       <c r="F1024" s="50"/>
     </row>
-    <row r="1025" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1025" s="50"/>
       <c r="D1025" s="50"/>
       <c r="E1025" s="50"/>
       <c r="F1025" s="50"/>
     </row>
-    <row r="1026" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1026" s="50"/>
       <c r="D1026" s="50"/>
       <c r="E1026" s="50"/>
       <c r="F1026" s="50"/>
     </row>
-    <row r="1027" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1027" s="50"/>
       <c r="D1027" s="50"/>
       <c r="E1027" s="50"/>
       <c r="F1027" s="50"/>
     </row>
-    <row r="1028" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1028" s="50"/>
       <c r="D1028" s="50"/>
       <c r="E1028" s="50"/>
       <c r="F1028" s="50"/>
     </row>
-    <row r="1029" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1029" s="50"/>
       <c r="D1029" s="50"/>
       <c r="E1029" s="50"/>
       <c r="F1029" s="50"/>
     </row>
-    <row r="1030" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1030" s="50"/>
       <c r="D1030" s="50"/>
       <c r="E1030" s="50"/>
       <c r="F1030" s="50"/>
     </row>
-    <row r="1031" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1031" s="50"/>
       <c r="D1031" s="50"/>
       <c r="E1031" s="50"/>

--- a/genSpacecraft/DownlinkSpecLTM.xlsx
+++ b/genSpacecraft/DownlinkSpecLTM.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="530">
   <si>
     <t xml:space="preserve">//</t>
   </si>
@@ -1627,6 +1627,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1647,12 +1648,14 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1660,30 +1663,35 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1980,8 +1988,8 @@
   </sheetPr>
   <dimension ref="A1:Q264"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A229" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B220" activeCellId="0" sqref="B220"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A160" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G167" activeCellId="0" sqref="G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5179,8 +5187,8 @@
         <v>116</v>
       </c>
       <c r="F73" s="23"/>
-      <c r="G73" s="22" t="n">
-        <v>0</v>
+      <c r="G73" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="H73" s="22"/>
       <c r="I73" s="32" t="s">
@@ -5229,8 +5237,8 @@
         <v>116</v>
       </c>
       <c r="F74" s="23"/>
-      <c r="G74" s="22" t="n">
-        <v>1</v>
+      <c r="G74" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="H74" s="22"/>
       <c r="I74" s="32" t="s">
@@ -5279,8 +5287,8 @@
         <v>116</v>
       </c>
       <c r="F75" s="23"/>
-      <c r="G75" s="22" t="n">
-        <v>2</v>
+      <c r="G75" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="H75" s="22"/>
       <c r="I75" s="32" t="s">
@@ -5329,8 +5337,8 @@
         <v>116</v>
       </c>
       <c r="F76" s="23"/>
-      <c r="G76" s="22" t="n">
-        <v>3</v>
+      <c r="G76" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="H76" s="22"/>
       <c r="I76" s="32" t="s">
@@ -5379,8 +5387,8 @@
         <v>116</v>
       </c>
       <c r="F77" s="23"/>
-      <c r="G77" s="22" t="n">
-        <v>4</v>
+      <c r="G77" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="H77" s="22"/>
       <c r="I77" s="32" t="s">
@@ -5429,8 +5437,8 @@
         <v>116</v>
       </c>
       <c r="F78" s="23"/>
-      <c r="G78" s="22" t="n">
-        <v>5</v>
+      <c r="G78" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="H78" s="22"/>
       <c r="I78" s="32" t="s">
@@ -5479,8 +5487,8 @@
         <v>116</v>
       </c>
       <c r="F79" s="23"/>
-      <c r="G79" s="22" t="n">
-        <v>6</v>
+      <c r="G79" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="H79" s="22"/>
       <c r="I79" s="32" t="s">
@@ -9343,7 +9351,9 @@
         <v>383</v>
       </c>
       <c r="F165" s="23"/>
-      <c r="G165" s="0"/>
+      <c r="G165" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="H165" s="3" t="s">
         <v>384</v>
       </c>

--- a/genSpacecraft/DownlinkSpecLTM.xlsx
+++ b/genSpacecraft/DownlinkSpecLTM.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="545">
   <si>
     <t xml:space="preserve">//</t>
   </si>
@@ -227,7 +227,7 @@
     <t xml:space="preserve">AMSAT Radio</t>
   </si>
   <si>
-    <t xml:space="preserve">3V Prot</t>
+    <t xml:space="preserve">3.3V Prot</t>
   </si>
   <si>
     <t xml:space="preserve">ICR3VProt</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">Interior Temp</t>
   </si>
   <si>
-    <t xml:space="preserve">Bck Btm Left Temp</t>
+    <t xml:space="preserve">BckBtmLft Temp</t>
   </si>
   <si>
     <t xml:space="preserve">hostI2cTemp1</t>
@@ -683,25 +683,25 @@
     <t xml:space="preserve">Other MESat Telemetry</t>
   </si>
   <si>
-    <t xml:space="preserve">Front Center Temp</t>
+    <t xml:space="preserve">Front Ctr Temp</t>
   </si>
   <si>
     <t xml:space="preserve">hostI2cTemp2</t>
   </si>
   <si>
-    <t xml:space="preserve">Bck Top Left Temp</t>
+    <t xml:space="preserve">BckTopLft Temp</t>
   </si>
   <si>
     <t xml:space="preserve">hostI2cTemp3</t>
   </si>
   <si>
-    <t xml:space="preserve">Frnt Btm Left Temp</t>
+    <t xml:space="preserve">FrontBtmLft Temp</t>
   </si>
   <si>
     <t xml:space="preserve">hostI2cTemp4</t>
   </si>
   <si>
-    <t xml:space="preserve">Bck Top Right Temp</t>
+    <t xml:space="preserve">BckTopRgt Temp</t>
   </si>
   <si>
     <t xml:space="preserve">hostI2cTemp5</t>
@@ -2033,8 +2033,8 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H46" activeCellId="0" sqref="H46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B77" activeCellId="0" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4640,7 +4640,9 @@
       <c r="G61" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="H61" s="22"/>
+      <c r="H61" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="I61" s="32" t="s">
         <v>181</v>
       </c>
@@ -4690,7 +4692,9 @@
       <c r="G62" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="H62" s="22"/>
+      <c r="H62" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="I62" s="32" t="s">
         <v>183</v>
       </c>

--- a/genSpacecraft/DownlinkSpecLTM.xlsx
+++ b/genSpacecraft/DownlinkSpecLTM.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="548">
   <si>
     <t xml:space="preserve">//</t>
   </si>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">Reflected Power from the Transmit Antenna</t>
   </si>
   <si>
-    <t xml:space="preserve">AMSAT Radio</t>
+    <t xml:space="preserve">AMSAT Transmitter</t>
   </si>
   <si>
     <t xml:space="preserve">3.3V Prot</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">Host Temp 1</t>
   </si>
   <si>
-    <t xml:space="preserve">MESat Batteries</t>
+    <t xml:space="preserve">MESAT1 Batteries</t>
   </si>
   <si>
     <t xml:space="preserve">Battery 2 Temp</t>
@@ -416,114 +416,117 @@
     <t xml:space="preserve">Host Temp 5</t>
   </si>
   <si>
+    <t xml:space="preserve">Plus Y Volts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hostTlm1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twenty-six_volt_8_bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Host Analog 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESAT1 Solar Panels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bus Voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">busV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golf-t_bus_voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vbatt Bus voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMSAT LTM Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TxPAi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golf-t_tx_current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmit power amplifier current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TX Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TxTemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmitter card temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fwd Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FwdPower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icr_8bit_volts|txv2_fwd_pwr|dBm_to_mW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receiver card temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICR RSSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rssi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icr_8bit_volts|icrv2_rssi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dBm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received Signal Strength Indication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minus Y Volts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinusYVolts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left (-Y) deployable panel Voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minus X Volts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinusXVolts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti-sun Fixed Panel Voltage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Plus X Volts</t>
   </si>
   <si>
-    <t xml:space="preserve">hostTlm1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Host Analog 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MESat Solar Panels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bus Voltage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">busV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golf-t_bus_voltage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vbatt Bus voltage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMSAT LTM Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA Current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TxPAi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golf-t_tx_current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmit power amplifier current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TX Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TxTemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmitter card temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fwd Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FwdPower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">icr_8bit_volts|txv2_fwd_pwr|dBm_to_mW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receiver card temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICR RSSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rssi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">icr_8bit_volts|icrv2_rssi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dBm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Received Signal Strength Indication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minus Y Volts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinusYVolts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Left (-Y) deployable panel Voltage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minus X Volts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinusXVolts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti-sun Fixed Panel Voltage</t>
-  </si>
-  <si>
     <t xml:space="preserve">XVolts</t>
   </si>
   <si>
     <t xml:space="preserve">Sun-side Fixed Panel Voltage</t>
   </si>
   <si>
-    <t xml:space="preserve">Plus Y Volts</t>
-  </si>
-  <si>
     <t xml:space="preserve">YVolts</t>
   </si>
   <si>
@@ -605,7 +608,7 @@
     <t xml:space="preserve">hostCANVolts0</t>
   </si>
   <si>
-    <t xml:space="preserve">can_8bit_volts</t>
+    <t xml:space="preserve">ten_volt_8_bit</t>
   </si>
   <si>
     <t xml:space="preserve">Host Bat Volts 1</t>
@@ -617,6 +620,9 @@
     <t xml:space="preserve">hostCANVolts1</t>
   </si>
   <si>
+    <t xml:space="preserve">mesat_batt_capacity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Host Bat Volts 2</t>
   </si>
   <si>
@@ -629,7 +635,7 @@
     <t xml:space="preserve">Host Bat Volts 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Unused 3</t>
+    <t xml:space="preserve">Battery Current</t>
   </si>
   <si>
     <t xml:space="preserve">hostCANVolts3</t>
@@ -680,7 +686,7 @@
     <t xml:space="preserve">hostI2cTemp1</t>
   </si>
   <si>
-    <t xml:space="preserve">Other MESat Telemetry</t>
+    <t xml:space="preserve">Other MESAT1 Telemetry</t>
   </si>
   <si>
     <t xml:space="preserve">Front Ctr Temp</t>
@@ -896,6 +902,9 @@
     <t xml:space="preserve">Host States Distro</t>
   </si>
   <si>
+    <t xml:space="preserve">MESAT1 Distro States</t>
+  </si>
+  <si>
     <t xml:space="preserve">      Overcurrent</t>
   </si>
   <si>
@@ -923,9 +932,6 @@
     <t xml:space="preserve">hostBits4</t>
   </si>
   <si>
-    <t xml:space="preserve">MESat Distro States</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Over Current</t>
   </si>
   <si>
@@ -1238,406 +1244,409 @@
     <t xml:space="preserve">Timestamp uptime</t>
   </si>
   <si>
+    <t xml:space="preserve">Min Max Info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max CRC Error Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxCRCerror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRC Error for the Max Payload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pad168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make same length as WOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure: minSpecific_t, file: minDownlink.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Last Chg Secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minTimestampUptime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Last Change Secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Last Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minTimestampEpoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIMESTAMP minTimestampEpoch minTimestampUptime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Last Change Epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinMax Reset Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minmaxResetEpoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIMESTAMP minmaxResetEpoch minmaxResetSecs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinMax Reset Epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reset Secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minmaxResetSecs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinMax Reset Secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min CRC Error Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minCRCerror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRC Error for the min payload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pad178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure:wodSpecific_t,file:wodSpecificDownlink.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uptime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WODTimestampUptime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Whole Orbit Data was collected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Capture Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WODTimestampReset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIMESTAMP WODTimestampReset WODTimestampUptime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRC Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WodCRCError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRC Error for the WOD Payload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pad191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure:scienceLong_t, file:sciLongDownlink.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opaque CAN data from host experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LongSciSparebits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longscisparebits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One or more CAN messages lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN Queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure:science_t, file:sciDownlink.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparebits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sparebits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure:sciWodSpecific_t,file:sciWodSpecificDownlink.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uint16_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory CRC Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRC Error for VU Radiataion Payload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pad215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure:infrequentDownlink_t,file:infrequentDownlink.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Uptime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuous seconds countup from start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SecondsInEpoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secsInEpoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seconds within current Epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ifdef LEGACY_IHU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTCValid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATUS_BOOLEAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTCYear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on 2020–5 bits=32 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTCMonth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTCDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTCSeconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTCMinutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTCHours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#endif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnterAutosafe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExitAutosafe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill to 32-bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infreqSpare1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure:legacyErrors_t,file:legacyErrorsDownlink.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pad to 32 bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegFiller1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIHU Data Valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegValid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was this reset still early in boot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegWasStillEarlyInBoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IHU Reset Info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resets in a row that have been too soon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegEarlyResetCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previous task before reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegPreviousTask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOLF_TASK_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task executing at reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegTaskNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cause of Reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegErrorCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOLF_LIHU_ERR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIHU: WD Tasks Ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegWdReports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C1 Errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegI2C1Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legacy  Errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C2 Errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegI2C2Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C1 Resets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegI2C1Reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C2 Resets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegI2C2Reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI Retries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegSPIRetries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRAM CRC Errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegMramCRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRAM Read Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegMramRead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRAM Write Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegMramWrite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICRCmdFailCRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICRCmdFailTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICRCmdFailAuthenticate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICRCmdFailCommand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICRCmdFailNamespace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIHU Version Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegSWVersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegErrorData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payloads per Frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Bytes per Frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codewords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Bytes per Frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time to Downlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinMax Init Epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">initTimestampReset</t>
+  </si>
+  <si>
     <t xml:space="preserve">Min Max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max CRC Error Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxCRCerror</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRC Error for the Max Payload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pad168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make same length as WOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure: minSpecific_t, file: minDownlink.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min Last Chg Secs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minTimestampUptime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min Last Change Secs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min Last Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minTimestampEpoch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIMESTAMP minTimestampEpoch minTimestampUptime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min Last Change Epoch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinMax Reset Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minmaxResetEpoch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIMESTAMP minmaxResetEpoch minmaxResetSecs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinMax Reset Epoch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reset Secs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minmaxResetSecs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinMax Reset Secs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min CRC Error Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minCRCerror</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRC Error for the min payload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pad178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure:wodSpecific_t,file:wodSpecificDownlink.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uptime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WODTimestampUptime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Whole Orbit Data was collected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Capture Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WODTimestampReset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIMESTAMP WODTimestampReset WODTimestampUptime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRC Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WodCRCError</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRC Error for the WOD Payload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pad191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure:scienceLong_t, file:sciLongDownlink.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opaque CAN data from host experiment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LongSciSparebits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longscisparebits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One or more CAN messages lost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN Queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure:science_t, file:sciDownlink.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sparebits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sparebits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure:sciWodSpecific_t,file:sciWodSpecificDownlink.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint16_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memory CRC Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRC Error for VU Radiataion Payload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pad215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure:infrequentDownlink_t,file:infrequentDownlink.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Uptime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Continuous seconds countup from start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SecondsInEpoch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secsInEpoch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seconds within current Epoch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#ifdef LEGACY_IHU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTCValid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATUS_BOOLEAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTCYear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Based on 2020–5 bits=32 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTCMonth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTCDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTCSeconds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTCMinutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTCHours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#endif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnterAutosafe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExitAutosafe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fill to 32-bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infreqSpare1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure:legacyErrors_t,file:legacyErrorsDownlink.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pad to 32 bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LegFiller1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIHU Data Valid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LegValid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was this reset still early in boot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LegWasStillEarlyInBoot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IHU Reset Info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resets in a row that have been too soon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LegEarlyResetCount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previous task before reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LegPreviousTask</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOLF_TASK_NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task executing at reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LegTaskNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cause of Reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LegErrorCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOLF_LIHU_ERR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIHU: WD Tasks Ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LegWdReports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C1 Errors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LegI2C1Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legacy  Errors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C2 Errors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LegI2C2Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C1 Resets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LegI2C1Reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C2 Resets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LegI2C2Reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI Retries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LegSPIRetries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRAM CRC Errors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LegMramCRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRAM Read Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LegMramRead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRAM Write Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LegMramWrite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICRCmdFailCRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICRCmdFailTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICRCmdFailAuthenticate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICRCmdFailCommand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICRCmdFailNamespace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIHU Version Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LegSWVersion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LegErrorData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payloads per Frame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Bytes per Frame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codewords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Bytes per Frame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time to Downlink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinMax Init Epoch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">initTimestampReset</t>
   </si>
   <si>
     <t xml:space="preserve">MinMax Init Secs</t>
@@ -2033,8 +2042,8 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B77" activeCellId="0" sqref="B77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F49" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G67" activeCellId="0" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2950,7 +2959,7 @@
         <v>67</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P28" s="1" t="n">
         <v>4</v>
@@ -3626,10 +3635,10 @@
         <v>118</v>
       </c>
       <c r="O41" s="24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P41" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q41" s="1" t="n">
         <v>3</v>
@@ -3678,10 +3687,10 @@
         <v>118</v>
       </c>
       <c r="O42" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="P42" s="1" t="n">
         <v>5</v>
-      </c>
-      <c r="P42" s="1" t="n">
-        <v>4</v>
       </c>
       <c r="Q42" s="1" t="n">
         <v>3</v>
@@ -3730,10 +3739,10 @@
         <v>118</v>
       </c>
       <c r="O43" s="24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P43" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q43" s="1" t="n">
         <v>3</v>
@@ -3782,10 +3791,10 @@
         <v>118</v>
       </c>
       <c r="O44" s="24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P44" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q44" s="1" t="n">
         <v>3</v>
@@ -3834,10 +3843,10 @@
         <v>118</v>
       </c>
       <c r="O45" s="24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P45" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q45" s="1" t="n">
         <v>3</v>
@@ -3886,10 +3895,10 @@
         <v>135</v>
       </c>
       <c r="O46" s="24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P46" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q46" s="1" t="n">
         <v>3</v>
@@ -3938,7 +3947,7 @@
         <v>140</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P47" s="1" t="n">
         <v>2</v>
@@ -3990,7 +3999,7 @@
         <v>67</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P48" s="1" t="n">
         <v>1</v>
@@ -3999,7 +4008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="31" t="s">
         <v>146</v>
       </c>
@@ -4042,7 +4051,7 @@
         <v>67</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P49" s="1" t="n">
         <v>2</v>
@@ -4051,7 +4060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="31" t="s">
         <v>149</v>
       </c>
@@ -4094,7 +4103,7 @@
         <v>67</v>
       </c>
       <c r="O50" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P50" s="1" t="n">
         <v>3</v>
@@ -4169,14 +4178,14 @@
         <v>26</v>
       </c>
       <c r="F52" s="23"/>
-      <c r="G52" s="23" t="n">
-        <v>52</v>
+      <c r="G52" s="23" t="s">
+        <v>160</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>71</v>
       </c>
       <c r="I52" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J52" s="29" t="n">
         <f aca="false">J51+D51</f>
@@ -4209,10 +4218,10 @@
     </row>
     <row r="53" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="32" t="n">
         <v>8</v>
@@ -4221,14 +4230,14 @@
         <v>26</v>
       </c>
       <c r="F53" s="23"/>
-      <c r="G53" s="23" t="n">
-        <v>52</v>
+      <c r="G53" s="23" t="s">
+        <v>160</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>71</v>
       </c>
       <c r="I53" s="32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J53" s="29" t="n">
         <f aca="false">J52+D52</f>
@@ -4261,10 +4270,10 @@
     </row>
     <row r="54" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="31" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="32" t="n">
         <v>8</v>
@@ -4273,14 +4282,14 @@
         <v>26</v>
       </c>
       <c r="F54" s="23"/>
-      <c r="G54" s="23" t="n">
-        <v>52</v>
+      <c r="G54" s="23" t="s">
+        <v>160</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>71</v>
       </c>
       <c r="I54" s="32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J54" s="29" t="n">
         <f aca="false">J53+D53</f>
@@ -4313,10 +4322,10 @@
     </row>
     <row r="55" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="31" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="32" t="n">
         <v>8</v>
@@ -4325,14 +4334,14 @@
         <v>26</v>
       </c>
       <c r="F55" s="23"/>
-      <c r="G55" s="23" t="n">
-        <v>52</v>
+      <c r="G55" s="23" t="s">
+        <v>160</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>71</v>
       </c>
       <c r="I55" s="32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J55" s="29" t="n">
         <f aca="false">J54+D54</f>
@@ -4365,10 +4374,10 @@
     </row>
     <row r="56" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="32" t="n">
         <v>8</v>
@@ -4377,14 +4386,14 @@
         <v>26</v>
       </c>
       <c r="F56" s="23"/>
-      <c r="G56" s="23" t="n">
-        <v>52</v>
+      <c r="G56" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>77</v>
       </c>
       <c r="I56" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J56" s="29" t="n">
         <f aca="false">J55+D55</f>
@@ -4406,21 +4415,21 @@
         <v>135</v>
       </c>
       <c r="O56" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P56" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q56" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="32" t="n">
         <v>8</v>
@@ -4429,14 +4438,14 @@
         <v>26</v>
       </c>
       <c r="F57" s="23"/>
-      <c r="G57" s="23" t="n">
-        <v>52</v>
+      <c r="G57" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>77</v>
       </c>
       <c r="I57" s="32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J57" s="29" t="n">
         <f aca="false">J56+D56</f>
@@ -4458,7 +4467,7 @@
         <v>135</v>
       </c>
       <c r="O57" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P57" s="1" t="n">
         <v>2</v>
@@ -4467,12 +4476,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="32" t="n">
         <v>8</v>
@@ -4481,14 +4490,14 @@
         <v>26</v>
       </c>
       <c r="F58" s="23"/>
-      <c r="G58" s="23" t="n">
-        <v>52</v>
+      <c r="G58" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>77</v>
       </c>
       <c r="I58" s="32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J58" s="29" t="n">
         <f aca="false">J57+D57</f>
@@ -4510,21 +4519,21 @@
         <v>135</v>
       </c>
       <c r="O58" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="32" t="n">
         <v>8</v>
@@ -4533,14 +4542,14 @@
         <v>26</v>
       </c>
       <c r="F59" s="23"/>
-      <c r="G59" s="23" t="n">
-        <v>52</v>
+      <c r="G59" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>77</v>
       </c>
       <c r="I59" s="32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J59" s="29" t="n">
         <f aca="false">J58+D58</f>
@@ -4562,21 +4571,21 @@
         <v>135</v>
       </c>
       <c r="O59" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P59" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q59" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="31" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="32" t="n">
         <v>8</v>
@@ -4592,7 +4601,7 @@
         <v>71</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J60" s="29" t="n">
         <f aca="false">J59+D59</f>
@@ -4614,7 +4623,7 @@
         <v>67</v>
       </c>
       <c r="O60" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P60" s="1" t="n">
         <v>5</v>
@@ -4625,10 +4634,10 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="31" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="32" t="n">
         <v>8</v>
@@ -4644,7 +4653,7 @@
         <v>71</v>
       </c>
       <c r="I61" s="32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J61" s="29" t="n">
         <f aca="false">J60+D60</f>
@@ -4666,10 +4675,10 @@
         <v>135</v>
       </c>
       <c r="O61" s="24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P61" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q61" s="1" t="n">
         <v>3</v>
@@ -4677,10 +4686,10 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="32" t="n">
         <v>8</v>
@@ -4696,7 +4705,7 @@
         <v>71</v>
       </c>
       <c r="I62" s="32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J62" s="29" t="n">
         <f aca="false">J61+D61</f>
@@ -4718,21 +4727,21 @@
         <v>135</v>
       </c>
       <c r="O62" s="24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P62" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q62" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="32" t="n">
         <v>8</v>
@@ -4748,7 +4757,7 @@
         <v>77</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J63" s="29" t="n">
         <f aca="false">J62+D62</f>
@@ -4770,7 +4779,7 @@
         <v>140</v>
       </c>
       <c r="O63" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P63" s="1" t="n">
         <v>1</v>
@@ -4779,12 +4788,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="32" t="n">
         <v>8</v>
@@ -4800,7 +4809,7 @@
         <v>77</v>
       </c>
       <c r="I64" s="32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J64" s="29" t="n">
         <f aca="false">J63+D63</f>
@@ -4822,7 +4831,7 @@
         <v>67</v>
       </c>
       <c r="O64" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P64" s="1" t="n">
         <v>7</v>
@@ -4833,10 +4842,10 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="31" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="32" t="n">
         <v>8</v>
@@ -4845,14 +4854,14 @@
         <v>116</v>
       </c>
       <c r="F65" s="23"/>
-      <c r="G65" s="22" t="n">
-        <v>52</v>
+      <c r="G65" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="H65" s="22" t="s">
         <v>71</v>
       </c>
       <c r="I65" s="32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J65" s="29" t="n">
         <f aca="false">J64+D64</f>
@@ -4874,10 +4883,10 @@
         <v>135</v>
       </c>
       <c r="O65" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="P65" s="1" t="n">
         <v>6</v>
-      </c>
-      <c r="P65" s="1" t="n">
-        <v>8</v>
       </c>
       <c r="Q65" s="1" t="n">
         <v>3</v>
@@ -4885,10 +4894,10 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="32" t="n">
         <v>8</v>
@@ -4898,13 +4907,13 @@
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H66" s="22" t="s">
         <v>71</v>
       </c>
       <c r="I66" s="32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J66" s="29" t="n">
         <f aca="false">J65+D65</f>
@@ -4926,7 +4935,7 @@
         <v>118</v>
       </c>
       <c r="O66" s="24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P66" s="1" t="n">
         <v>1</v>
@@ -4937,10 +4946,10 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="32" t="n">
         <v>8</v>
@@ -4950,11 +4959,11 @@
       </c>
       <c r="F67" s="23"/>
       <c r="G67" s="22" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="H67" s="22"/>
       <c r="I67" s="32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J67" s="29" t="n">
         <f aca="false">J66+D66</f>
@@ -4976,7 +4985,7 @@
         <v>118</v>
       </c>
       <c r="O67" s="24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P67" s="1" t="n">
         <v>2</v>
@@ -4987,10 +4996,10 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="31" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="32" t="n">
         <v>8</v>
@@ -5000,11 +5009,11 @@
       </c>
       <c r="F68" s="23"/>
       <c r="G68" s="22" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H68" s="22"/>
       <c r="I68" s="32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J68" s="29" t="n">
         <f aca="false">J67+D67</f>
@@ -5037,10 +5046,10 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D69" s="32" t="n">
         <v>8</v>
@@ -5050,11 +5059,11 @@
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="22" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H69" s="22"/>
       <c r="I69" s="32" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J69" s="29" t="n">
         <f aca="false">J68+D68</f>
@@ -5073,24 +5082,24 @@
         <v>10.25</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="O69" s="24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P69" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q69" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="31" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="32" t="n">
         <v>8</v>
@@ -5100,11 +5109,11 @@
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="22" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H70" s="22"/>
       <c r="I70" s="32" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J70" s="29" t="n">
         <f aca="false">J69+D69</f>
@@ -5137,10 +5146,10 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="31" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D71" s="32" t="n">
         <v>8</v>
@@ -5150,11 +5159,11 @@
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="22" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H71" s="22"/>
       <c r="I71" s="32" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J71" s="29" t="n">
         <f aca="false">J70+D70</f>
@@ -5190,10 +5199,10 @@
         <v>1</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="32" t="n">
         <v>8</v>
@@ -5203,11 +5212,11 @@
       </c>
       <c r="F72" s="23"/>
       <c r="G72" s="22" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H72" s="22"/>
       <c r="I72" s="32" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J72" s="29" t="n">
         <f aca="false">J71+D71</f>
@@ -5240,10 +5249,10 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="31" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D73" s="32" t="n">
         <v>8</v>
@@ -5259,7 +5268,7 @@
         <v>77</v>
       </c>
       <c r="I73" s="32" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J73" s="29" t="n">
         <f aca="false">J72+D72</f>
@@ -5292,10 +5301,10 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D74" s="32" t="n">
         <v>8</v>
@@ -5311,7 +5320,7 @@
         <v>77</v>
       </c>
       <c r="I74" s="32" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J74" s="29" t="n">
         <f aca="false">J73+D73</f>
@@ -5330,10 +5339,10 @@
         <v>11.5</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O74" s="24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P74" s="1" t="n">
         <v>1</v>
@@ -5344,10 +5353,10 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="31" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D75" s="32" t="n">
         <v>8</v>
@@ -5363,7 +5372,7 @@
         <v>77</v>
       </c>
       <c r="I75" s="32" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J75" s="29" t="n">
         <f aca="false">J74+D74</f>
@@ -5382,10 +5391,10 @@
         <v>11.75</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O75" s="24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P75" s="1" t="n">
         <v>2</v>
@@ -5396,10 +5405,10 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D76" s="32" t="n">
         <v>8</v>
@@ -5415,7 +5424,7 @@
         <v>77</v>
       </c>
       <c r="I76" s="32" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J76" s="29" t="n">
         <f aca="false">J75+D75</f>
@@ -5434,10 +5443,10 @@
         <v>12</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O76" s="24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P76" s="1" t="n">
         <v>3</v>
@@ -5448,10 +5457,10 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="31" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D77" s="32" t="n">
         <v>8</v>
@@ -5467,7 +5476,7 @@
         <v>77</v>
       </c>
       <c r="I77" s="32" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J77" s="29" t="n">
         <f aca="false">J76+D76</f>
@@ -5486,10 +5495,10 @@
         <v>12.25</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O77" s="24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P77" s="1" t="n">
         <v>4</v>
@@ -5500,10 +5509,10 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="31" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D78" s="32" t="n">
         <v>8</v>
@@ -5519,7 +5528,7 @@
         <v>77</v>
       </c>
       <c r="I78" s="32" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J78" s="29" t="n">
         <f aca="false">J77+D77</f>
@@ -5538,10 +5547,10 @@
         <v>12.5</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O78" s="24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P78" s="1" t="n">
         <v>5</v>
@@ -5552,10 +5561,10 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="31" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D79" s="32" t="n">
         <v>8</v>
@@ -5571,7 +5580,7 @@
         <v>77</v>
       </c>
       <c r="I79" s="32" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J79" s="29" t="n">
         <f aca="false">J78+D78</f>
@@ -5593,10 +5602,10 @@
         <v>118</v>
       </c>
       <c r="O79" s="24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P79" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q79" s="1" t="n">
         <v>3</v>
@@ -5604,10 +5613,10 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="31" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D80" s="32" t="n">
         <v>8</v>
@@ -5623,7 +5632,7 @@
         <v>77</v>
       </c>
       <c r="I80" s="32" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J80" s="29" t="n">
         <f aca="false">J79+D79</f>
@@ -5642,10 +5651,10 @@
         <v>13</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O80" s="24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P80" s="1" t="n">
         <v>6</v>
@@ -5656,10 +5665,10 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="31" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D81" s="32" t="n">
         <v>8</v>
@@ -5673,7 +5682,7 @@
       </c>
       <c r="H81" s="22"/>
       <c r="I81" s="32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J81" s="29" t="n">
         <f aca="false">J80+D80</f>
@@ -5706,10 +5715,10 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="31" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D82" s="32" t="n">
         <v>16</v>
@@ -5723,7 +5732,7 @@
       </c>
       <c r="H82" s="22"/>
       <c r="I82" s="32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J82" s="29" t="n">
         <f aca="false">J81+D81</f>
@@ -5766,7 +5775,7 @@
       <c r="G83" s="23"/>
       <c r="H83" s="23"/>
       <c r="I83" s="23" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J83" s="29" t="n">
         <f aca="false">J82+D82</f>
@@ -5804,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -5816,7 +5825,7 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B86" s="31"/>
       <c r="C86" s="32"/>
@@ -5831,12 +5840,12 @@
       <c r="L86" s="28"/>
       <c r="M86" s="28"/>
     </row>
-    <row r="87" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="31" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D87" s="32" t="n">
         <v>8</v>
@@ -5845,16 +5854,16 @@
         <v>26</v>
       </c>
       <c r="F87" s="23" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H87" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I87" s="23" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J87" s="29" t="n">
         <f aca="false">J83</f>
@@ -5872,11 +5881,11 @@
         <f aca="false">J87/32</f>
         <v>14</v>
       </c>
-      <c r="N87" s="5" t="s">
+      <c r="N87" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O87" s="24" t="n">
-        <v>2</v>
+      <c r="O87" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="P87" s="1" t="n">
         <v>3</v>
@@ -5887,10 +5896,10 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="31" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D88" s="32" t="n">
         <v>8</v>
@@ -5904,7 +5913,7 @@
       </c>
       <c r="H88" s="22"/>
       <c r="I88" s="32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J88" s="29" t="n">
         <f aca="false">J87+D87</f>
@@ -5943,7 +5952,7 @@
       <c r="C89" s="32"/>
       <c r="D89" s="32"/>
       <c r="E89" s="23" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F89" s="23"/>
       <c r="G89" s="23"/>
@@ -5956,10 +5965,10 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D90" s="32" t="n">
         <v>1</v>
@@ -5973,7 +5982,7 @@
       </c>
       <c r="H90" s="22"/>
       <c r="I90" s="32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J90" s="29" t="n">
         <f aca="false">J88+D88</f>
@@ -6006,10 +6015,10 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D91" s="32" t="n">
         <v>1</v>
@@ -6025,7 +6034,7 @@
         <v>27</v>
       </c>
       <c r="I91" s="23" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J91" s="29" t="n">
         <f aca="false">J90+D90</f>
@@ -6046,8 +6055,8 @@
       <c r="N91" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O91" s="24" t="n">
-        <v>2</v>
+      <c r="O91" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="P91" s="1" t="n">
         <v>4</v>
@@ -6056,12 +6065,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="31" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D92" s="32" t="n">
         <v>1</v>
@@ -6077,7 +6086,7 @@
         <v>27</v>
       </c>
       <c r="I92" s="23" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J92" s="29" t="n">
         <f aca="false">J91+D91</f>
@@ -6098,8 +6107,8 @@
       <c r="N92" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O92" s="24" t="n">
-        <v>2</v>
+      <c r="O92" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="P92" s="1" t="n">
         <v>5</v>
@@ -6110,10 +6119,10 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="31" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D93" s="32" t="n">
         <v>1</v>
@@ -6129,7 +6138,7 @@
         <v>27</v>
       </c>
       <c r="I93" s="23" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J93" s="29" t="n">
         <f aca="false">J92+D92</f>
@@ -6162,10 +6171,10 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="31" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D94" s="32" t="n">
         <v>1</v>
@@ -6181,7 +6190,7 @@
         <v>27</v>
       </c>
       <c r="I94" s="23" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J94" s="29" t="n">
         <f aca="false">J93+D93</f>
@@ -6214,10 +6223,10 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="31" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D95" s="32" t="n">
         <v>1</v>
@@ -6253,7 +6262,7 @@
         <v>67</v>
       </c>
       <c r="O95" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P95" s="1" t="n">
         <v>6</v>
@@ -6264,10 +6273,10 @@
     </row>
     <row r="96" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="33" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D96" s="32" t="n">
         <v>1</v>
@@ -6283,7 +6292,7 @@
         <v>27</v>
       </c>
       <c r="I96" s="23" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J96" s="29" t="n">
         <f aca="false">J95+D95</f>
@@ -6314,12 +6323,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="33" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D97" s="32" t="n">
         <v>1</v>
@@ -6329,13 +6338,13 @@
       </c>
       <c r="F97" s="23"/>
       <c r="G97" s="22" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H97" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I97" s="23" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J97" s="29" t="n">
         <f aca="false">J96+D96</f>
@@ -6357,7 +6366,7 @@
         <v>140</v>
       </c>
       <c r="O97" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P97" s="1" t="n">
         <v>6</v>
@@ -6386,12 +6395,12 @@
       <c r="L98" s="28"/>
       <c r="M98" s="28"/>
     </row>
-    <row r="99" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="31" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D99" s="32" t="n">
         <v>8</v>
@@ -6407,7 +6416,7 @@
         <v>27</v>
       </c>
       <c r="I99" s="23" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J99" s="29" t="n">
         <f aca="false">J97+D97</f>
@@ -6429,7 +6438,7 @@
         <v>140</v>
       </c>
       <c r="O99" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P99" s="1" t="n">
         <v>11</v>
@@ -6438,12 +6447,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="31" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D100" s="32" t="n">
         <v>8</v>
@@ -6459,7 +6468,7 @@
         <v>27</v>
       </c>
       <c r="I100" s="23" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J100" s="29" t="n">
         <f aca="false">J99+D99</f>
@@ -6481,7 +6490,7 @@
         <v>140</v>
       </c>
       <c r="O100" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P100" s="1" t="n">
         <v>7</v>
@@ -6492,10 +6501,10 @@
     </row>
     <row r="101" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="31" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D101" s="32" t="n">
         <v>32</v>
@@ -6513,7 +6522,7 @@
         <v>27</v>
       </c>
       <c r="I101" s="23" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J101" s="29" t="n">
         <f aca="false">J100+D100</f>
@@ -6546,10 +6555,10 @@
     </row>
     <row r="102" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="31" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D102" s="32" t="n">
         <v>8</v>
@@ -6565,7 +6574,7 @@
         <v>27</v>
       </c>
       <c r="I102" s="23" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J102" s="29" t="n">
         <f aca="false">J101+D101</f>
@@ -6598,10 +6607,10 @@
     </row>
     <row r="103" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="31" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D103" s="32" t="n">
         <v>8</v>
@@ -6617,7 +6626,7 @@
         <v>27</v>
       </c>
       <c r="I103" s="23" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J103" s="29" t="n">
         <f aca="false">J102+D102</f>
@@ -6650,10 +6659,10 @@
     </row>
     <row r="104" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="31" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D104" s="32" t="n">
         <v>8</v>
@@ -6663,13 +6672,13 @@
       </c>
       <c r="F104" s="23"/>
       <c r="G104" s="23" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H104" s="22" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I104" s="23" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J104" s="29" t="n">
         <f aca="false">J103+D103</f>
@@ -6688,10 +6697,10 @@
         <v>16.75</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O104" s="3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P104" s="1" t="n">
         <v>7</v>
@@ -6702,10 +6711,10 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="31" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D105" s="32" t="n">
         <v>1</v>
@@ -6715,13 +6724,13 @@
       </c>
       <c r="F105" s="23"/>
       <c r="G105" s="22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H105" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I105" s="32" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J105" s="29" t="n">
         <f aca="false">J104+D104</f>
@@ -6740,13 +6749,13 @@
         <v>17</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>219</v>
+        <v>293</v>
       </c>
       <c r="O105" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P105" s="1" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q105" s="1" t="n">
         <v>0</v>
@@ -6754,10 +6763,10 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="31" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D106" s="32" t="n">
         <v>1</v>
@@ -6767,7 +6776,7 @@
       </c>
       <c r="F106" s="23"/>
       <c r="G106" s="22" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H106" s="22" t="s">
         <v>27</v>
@@ -6790,13 +6799,13 @@
         <v>17.03125</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>219</v>
+        <v>293</v>
       </c>
       <c r="O106" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P106" s="1" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q106" s="1" t="n">
         <v>0</v>
@@ -6804,10 +6813,10 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="31" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D107" s="32" t="n">
         <v>1</v>
@@ -6817,7 +6826,7 @@
       </c>
       <c r="F107" s="23"/>
       <c r="G107" s="22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H107" s="22" t="s">
         <v>27</v>
@@ -6840,13 +6849,13 @@
         <v>17.0625</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>219</v>
+        <v>293</v>
       </c>
       <c r="O107" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P107" s="1" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q107" s="1" t="n">
         <v>0</v>
@@ -6854,10 +6863,10 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="31" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D108" s="32" t="n">
         <v>1</v>
@@ -6867,7 +6876,7 @@
       </c>
       <c r="F108" s="23"/>
       <c r="G108" s="22" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H108" s="22" t="s">
         <v>27</v>
@@ -6890,13 +6899,13 @@
         <v>17.09375</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>219</v>
+        <v>293</v>
       </c>
       <c r="O108" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P108" s="1" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q108" s="1" t="n">
         <v>0</v>
@@ -6904,10 +6913,10 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="31" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D109" s="32" t="n">
         <v>1</v>
@@ -6917,7 +6926,7 @@
       </c>
       <c r="F109" s="23"/>
       <c r="G109" s="22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H109" s="22" t="s">
         <v>27</v>
@@ -6940,7 +6949,7 @@
         <v>17.125</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O109" s="24" t="n">
         <v>8</v>
@@ -6954,10 +6963,10 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="31" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D110" s="32" t="n">
         <v>1</v>
@@ -6967,7 +6976,7 @@
       </c>
       <c r="F110" s="23"/>
       <c r="G110" s="22" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H110" s="22" t="s">
         <v>27</v>
@@ -6990,7 +6999,7 @@
         <v>17.15625</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O110" s="24" t="n">
         <v>8</v>
@@ -7004,10 +7013,10 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="31" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D111" s="32" t="n">
         <v>1</v>
@@ -7017,7 +7026,7 @@
       </c>
       <c r="F111" s="23"/>
       <c r="G111" s="22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H111" s="22" t="s">
         <v>27</v>
@@ -7040,7 +7049,7 @@
         <v>17.1875</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O111" s="24" t="n">
         <v>8</v>
@@ -7054,10 +7063,10 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="31" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D112" s="32" t="n">
         <v>1</v>
@@ -7067,7 +7076,7 @@
       </c>
       <c r="F112" s="23"/>
       <c r="G112" s="22" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H112" s="22" t="s">
         <v>27</v>
@@ -7090,7 +7099,7 @@
         <v>17.21875</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O112" s="24" t="n">
         <v>8</v>
@@ -7104,10 +7113,10 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="31" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D113" s="32" t="n">
         <v>1</v>
@@ -7117,13 +7126,13 @@
       </c>
       <c r="F113" s="23"/>
       <c r="G113" s="22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H113" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I113" s="32" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J113" s="29" t="n">
         <f aca="false">J112+D112</f>
@@ -7142,7 +7151,7 @@
         <v>17.25</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O113" s="24" t="n">
         <v>8</v>
@@ -7156,10 +7165,10 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="31" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D114" s="32" t="n">
         <v>1</v>
@@ -7169,7 +7178,7 @@
       </c>
       <c r="F114" s="23"/>
       <c r="G114" s="22" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H114" s="22" t="s">
         <v>27</v>
@@ -7192,7 +7201,7 @@
         <v>17.28125</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O114" s="24" t="n">
         <v>8</v>
@@ -7206,10 +7215,10 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="31" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D115" s="32" t="n">
         <v>1</v>
@@ -7219,7 +7228,7 @@
       </c>
       <c r="F115" s="23"/>
       <c r="G115" s="22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H115" s="22" t="s">
         <v>27</v>
@@ -7242,7 +7251,7 @@
         <v>17.3125</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O115" s="24" t="n">
         <v>8</v>
@@ -7256,10 +7265,10 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="31" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D116" s="32" t="n">
         <v>1</v>
@@ -7269,7 +7278,7 @@
       </c>
       <c r="F116" s="23"/>
       <c r="G116" s="22" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H116" s="22" t="s">
         <v>27</v>
@@ -7292,7 +7301,7 @@
         <v>17.34375</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O116" s="24" t="n">
         <v>8</v>
@@ -7306,10 +7315,10 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="31" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D117" s="32" t="n">
         <v>1</v>
@@ -7319,7 +7328,7 @@
       </c>
       <c r="F117" s="23"/>
       <c r="G117" s="22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H117" s="22" t="s">
         <v>27</v>
@@ -7342,7 +7351,7 @@
         <v>17.375</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O117" s="24" t="n">
         <v>8</v>
@@ -7356,10 +7365,10 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="31" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D118" s="32" t="n">
         <v>1</v>
@@ -7369,7 +7378,7 @@
       </c>
       <c r="F118" s="23"/>
       <c r="G118" s="22" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H118" s="22" t="s">
         <v>27</v>
@@ -7392,7 +7401,7 @@
         <v>17.40625</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O118" s="24" t="n">
         <v>8</v>
@@ -7406,10 +7415,10 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="31" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D119" s="32" t="n">
         <v>1</v>
@@ -7419,7 +7428,7 @@
       </c>
       <c r="F119" s="23"/>
       <c r="G119" s="22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H119" s="22" t="s">
         <v>27</v>
@@ -7442,7 +7451,7 @@
         <v>17.4375</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O119" s="24" t="n">
         <v>8</v>
@@ -7456,10 +7465,10 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="31" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D120" s="32" t="n">
         <v>1</v>
@@ -7469,7 +7478,7 @@
       </c>
       <c r="F120" s="23"/>
       <c r="G120" s="22" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H120" s="22" t="s">
         <v>27</v>
@@ -7492,7 +7501,7 @@
         <v>17.46875</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O120" s="24" t="n">
         <v>8</v>
@@ -7506,10 +7515,10 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="31" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D121" s="32" t="n">
         <v>1</v>
@@ -7519,13 +7528,13 @@
       </c>
       <c r="F121" s="23"/>
       <c r="G121" s="22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H121" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I121" s="32" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J121" s="29" t="n">
         <f aca="false">J120+D120</f>
@@ -7544,13 +7553,13 @@
         <v>17.5</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O121" s="24" t="n">
         <v>8</v>
       </c>
       <c r="P121" s="1" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q121" s="1" t="n">
         <v>0</v>
@@ -7558,10 +7567,10 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="31" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D122" s="32" t="n">
         <v>1</v>
@@ -7571,7 +7580,7 @@
       </c>
       <c r="F122" s="23"/>
       <c r="G122" s="22" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H122" s="22" t="s">
         <v>27</v>
@@ -7594,13 +7603,13 @@
         <v>17.53125</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O122" s="24" t="n">
         <v>8</v>
       </c>
       <c r="P122" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q122" s="1" t="n">
         <v>0</v>
@@ -7608,10 +7617,10 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="31" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D123" s="32" t="n">
         <v>1</v>
@@ -7621,7 +7630,7 @@
       </c>
       <c r="F123" s="23"/>
       <c r="G123" s="22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H123" s="22" t="s">
         <v>27</v>
@@ -7644,13 +7653,13 @@
         <v>17.5625</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O123" s="24" t="n">
         <v>8</v>
       </c>
       <c r="P123" s="1" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q123" s="1" t="n">
         <v>0</v>
@@ -7658,10 +7667,10 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="31" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D124" s="32" t="n">
         <v>1</v>
@@ -7671,7 +7680,7 @@
       </c>
       <c r="F124" s="23"/>
       <c r="G124" s="22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H124" s="22" t="s">
         <v>27</v>
@@ -7694,13 +7703,13 @@
         <v>17.59375</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O124" s="24" t="n">
         <v>8</v>
       </c>
       <c r="P124" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q124" s="1" t="n">
         <v>0</v>
@@ -7708,10 +7717,10 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="31" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D125" s="32" t="n">
         <v>1</v>
@@ -7721,7 +7730,7 @@
       </c>
       <c r="F125" s="23"/>
       <c r="G125" s="22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H125" s="22" t="s">
         <v>27</v>
@@ -7744,13 +7753,13 @@
         <v>17.625</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O125" s="24" t="n">
         <v>8</v>
       </c>
       <c r="P125" s="1" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q125" s="1" t="n">
         <v>0</v>
@@ -7758,10 +7767,10 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="31" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D126" s="32" t="n">
         <v>1</v>
@@ -7771,7 +7780,7 @@
       </c>
       <c r="F126" s="23"/>
       <c r="G126" s="22" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H126" s="22" t="s">
         <v>27</v>
@@ -7808,10 +7817,10 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="31" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D127" s="32" t="n">
         <v>1</v>
@@ -7821,11 +7830,11 @@
       </c>
       <c r="F127" s="23"/>
       <c r="G127" s="22" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H127" s="22"/>
       <c r="I127" s="32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J127" s="29" t="n">
         <f aca="false">J126+D126</f>
@@ -7858,10 +7867,10 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="31" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D128" s="32" t="n">
         <v>1</v>
@@ -7871,7 +7880,7 @@
       </c>
       <c r="F128" s="23"/>
       <c r="G128" s="22" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H128" s="22" t="s">
         <v>27</v>
@@ -7894,13 +7903,13 @@
         <v>17.71875</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O128" s="24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P128" s="1" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Q128" s="1" t="n">
         <v>0</v>
@@ -7908,10 +7917,10 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="31" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D129" s="32" t="n">
         <v>1</v>
@@ -7921,7 +7930,7 @@
       </c>
       <c r="F129" s="23"/>
       <c r="G129" s="22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H129" s="22" t="s">
         <v>27</v>
@@ -7947,10 +7956,10 @@
         <v>118</v>
       </c>
       <c r="O129" s="24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P129" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q129" s="1" t="n">
         <v>0</v>
@@ -7958,10 +7967,10 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="31" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D130" s="32" t="n">
         <v>1</v>
@@ -7971,7 +7980,7 @@
       </c>
       <c r="F130" s="23"/>
       <c r="G130" s="22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H130" s="22" t="s">
         <v>27</v>
@@ -7997,10 +8006,10 @@
         <v>118</v>
       </c>
       <c r="O130" s="24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P130" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q130" s="1" t="n">
         <v>0</v>
@@ -8008,10 +8017,10 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="31" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D131" s="32" t="n">
         <v>1</v>
@@ -8021,7 +8030,7 @@
       </c>
       <c r="F131" s="23"/>
       <c r="G131" s="22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H131" s="22" t="s">
         <v>27</v>
@@ -8047,10 +8056,10 @@
         <v>118</v>
       </c>
       <c r="O131" s="24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P131" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q131" s="1" t="n">
         <v>0</v>
@@ -8058,10 +8067,10 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="31" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D132" s="32" t="n">
         <v>1</v>
@@ -8071,7 +8080,7 @@
       </c>
       <c r="F132" s="23"/>
       <c r="G132" s="22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H132" s="22" t="s">
         <v>27</v>
@@ -8097,10 +8106,10 @@
         <v>118</v>
       </c>
       <c r="O132" s="24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P132" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q132" s="1" t="n">
         <v>0</v>
@@ -8108,10 +8117,10 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="31" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D133" s="32" t="n">
         <v>1</v>
@@ -8121,7 +8130,7 @@
       </c>
       <c r="F133" s="23"/>
       <c r="G133" s="22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H133" s="22" t="s">
         <v>27</v>
@@ -8147,10 +8156,10 @@
         <v>118</v>
       </c>
       <c r="O133" s="24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P133" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q133" s="1" t="n">
         <v>0</v>
@@ -8158,10 +8167,10 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="31" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D134" s="32" t="n">
         <v>1</v>
@@ -8171,7 +8180,7 @@
       </c>
       <c r="F134" s="23"/>
       <c r="G134" s="22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H134" s="22" t="s">
         <v>27</v>
@@ -8188,10 +8197,10 @@
         <v>118</v>
       </c>
       <c r="O134" s="24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P134" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q134" s="1" t="n">
         <v>0</v>
@@ -8199,10 +8208,10 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="31" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D135" s="32" t="n">
         <v>1</v>
@@ -8212,7 +8221,7 @@
       </c>
       <c r="F135" s="23"/>
       <c r="G135" s="22" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H135" s="22" t="s">
         <v>27</v>
@@ -8240,10 +8249,10 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="31" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D136" s="32" t="n">
         <v>1</v>
@@ -8253,7 +8262,7 @@
       </c>
       <c r="F136" s="23"/>
       <c r="G136" s="22" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H136" s="22" t="s">
         <v>27</v>
@@ -8281,10 +8290,10 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="31" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D137" s="32" t="n">
         <v>8</v>
@@ -8300,7 +8309,7 @@
         <v>27</v>
       </c>
       <c r="I137" s="23" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J137" s="29" t="n">
         <f aca="false">J136+D136</f>
@@ -8318,11 +8327,11 @@
         <f aca="false">J137/32</f>
         <v>18</v>
       </c>
-      <c r="N137" s="5" t="s">
+      <c r="N137" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O137" s="24" t="n">
-        <v>2</v>
+      <c r="O137" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="P137" s="1" t="n">
         <v>8</v>
@@ -8331,12 +8340,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="31" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D138" s="32" t="n">
         <v>8</v>
@@ -8352,7 +8361,7 @@
         <v>27</v>
       </c>
       <c r="I138" s="23" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J138" s="29" t="n">
         <f aca="false">J137+D137</f>
@@ -8374,7 +8383,7 @@
         <v>67</v>
       </c>
       <c r="O138" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P138" s="1" t="n">
         <v>9</v>
@@ -8383,12 +8392,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="31" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D139" s="32" t="n">
         <v>8</v>
@@ -8404,7 +8413,7 @@
         <v>27</v>
       </c>
       <c r="I139" s="23" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="J139" s="29" t="n">
         <f aca="false">J138+D138</f>
@@ -8426,7 +8435,7 @@
         <v>67</v>
       </c>
       <c r="O139" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P139" s="1" t="n">
         <v>10</v>
@@ -8435,12 +8444,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="31" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D140" s="32" t="n">
         <v>8</v>
@@ -8456,7 +8465,7 @@
         <v>27</v>
       </c>
       <c r="I140" s="23" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="J140" s="29" t="n">
         <f aca="false">J139+D139</f>
@@ -8478,7 +8487,7 @@
         <v>67</v>
       </c>
       <c r="O140" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P140" s="1" t="n">
         <v>11</v>
@@ -8487,12 +8496,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="31" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D141" s="32" t="n">
         <v>8</v>
@@ -8508,7 +8517,7 @@
         <v>27</v>
       </c>
       <c r="I141" s="23" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J141" s="29" t="n">
         <f aca="false">J140+D140</f>
@@ -8530,7 +8539,7 @@
         <v>67</v>
       </c>
       <c r="O141" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P141" s="1" t="n">
         <v>12</v>
@@ -8541,10 +8550,10 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="31" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D142" s="32" t="n">
         <v>8</v>
@@ -8558,7 +8567,7 @@
       </c>
       <c r="H142" s="22"/>
       <c r="I142" s="32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J142" s="29" t="n">
         <f aca="false">J141+D141</f>
@@ -8591,10 +8600,10 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="31" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D143" s="32" t="n">
         <v>8</v>
@@ -8608,7 +8617,7 @@
       </c>
       <c r="H143" s="22"/>
       <c r="I143" s="32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J143" s="29" t="n">
         <f aca="false">J142+D142</f>
@@ -8641,10 +8650,10 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="31" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D144" s="32" t="n">
         <v>8</v>
@@ -8658,7 +8667,7 @@
       </c>
       <c r="H144" s="22"/>
       <c r="I144" s="32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J144" s="29" t="n">
         <f aca="false">J143+D143</f>
@@ -8691,10 +8700,10 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="31" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D145" s="32" t="n">
         <v>8</v>
@@ -8708,7 +8717,7 @@
       </c>
       <c r="H145" s="22"/>
       <c r="I145" s="32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J145" s="29" t="n">
         <f aca="false">J144+D144</f>
@@ -8741,10 +8750,10 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="31" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D146" s="32" t="n">
         <v>8</v>
@@ -8758,7 +8767,7 @@
       </c>
       <c r="H146" s="22"/>
       <c r="I146" s="32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J146" s="29" t="n">
         <f aca="false">J145+D145</f>
@@ -8791,10 +8800,10 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="31" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D147" s="32" t="n">
         <v>8</v>
@@ -8808,7 +8817,7 @@
       </c>
       <c r="H147" s="22"/>
       <c r="I147" s="32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J147" s="29" t="n">
         <f aca="false">J146+D146</f>
@@ -8863,10 +8872,10 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="31" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C149" s="31" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D149" s="32" t="n">
         <v>1</v>
@@ -8882,7 +8891,7 @@
         <v>27</v>
       </c>
       <c r="I149" s="23" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J149" s="29" t="n">
         <f aca="false">J148+D148</f>
@@ -8910,12 +8919,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="31" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C150" s="32" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D150" s="32" t="n">
         <v>1</v>
@@ -8931,7 +8940,7 @@
         <v>27</v>
       </c>
       <c r="I150" s="23" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J150" s="29" t="n">
         <f aca="false">J149+D149</f>
@@ -8953,7 +8962,7 @@
         <v>67</v>
       </c>
       <c r="O150" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P150" s="1" t="n">
         <v>8</v>
@@ -8964,10 +8973,10 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="31" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D151" s="32" t="n">
         <v>3</v>
@@ -8977,7 +8986,7 @@
       </c>
       <c r="F151" s="23"/>
       <c r="G151" s="23" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H151" s="22" t="s">
         <v>27</v>
@@ -9003,7 +9012,7 @@
         <v>140</v>
       </c>
       <c r="O151" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P151" s="1" t="n">
         <v>9</v>
@@ -9014,10 +9023,10 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="31" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C152" s="32" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D152" s="32" t="n">
         <v>1</v>
@@ -9053,7 +9062,7 @@
         <v>140</v>
       </c>
       <c r="O152" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P152" s="1" t="n">
         <v>10</v>
@@ -9064,10 +9073,10 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="31" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D153" s="32" t="n">
         <v>1</v>
@@ -9083,7 +9092,7 @@
         <v>27</v>
       </c>
       <c r="I153" s="23" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="J153" s="29" t="n">
         <f aca="false">J152+D152</f>
@@ -9116,10 +9125,10 @@
     </row>
     <row r="154" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="31" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D154" s="32" t="n">
         <v>1</v>
@@ -9135,7 +9144,7 @@
         <v>27</v>
       </c>
       <c r="I154" s="23" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J154" s="29" t="n">
         <f aca="false">J153+D153</f>
@@ -9188,10 +9197,10 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="31" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C156" s="31" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D156" s="32" t="n">
         <v>8</v>
@@ -9205,7 +9214,7 @@
       </c>
       <c r="H156" s="22"/>
       <c r="I156" s="32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J156" s="29" t="n">
         <f aca="false">J155+D155</f>
@@ -9238,10 +9247,10 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="31" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C157" s="31" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D157" s="32" t="n">
         <v>8</v>
@@ -9255,7 +9264,7 @@
       </c>
       <c r="H157" s="22"/>
       <c r="I157" s="32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J157" s="29" t="n">
         <f aca="false">J156+D156</f>
@@ -9288,10 +9297,10 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="31" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C158" s="31" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D158" s="32" t="n">
         <v>8</v>
@@ -9305,7 +9314,7 @@
       </c>
       <c r="H158" s="22"/>
       <c r="I158" s="32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J158" s="29" t="n">
         <f aca="false">J157+D157</f>
@@ -9338,10 +9347,10 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="31" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C159" s="31" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D159" s="32" t="n">
         <v>8</v>
@@ -9355,7 +9364,7 @@
       </c>
       <c r="H159" s="22"/>
       <c r="I159" s="32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J159" s="29" t="n">
         <f aca="false">J158+D158</f>
@@ -9398,7 +9407,7 @@
       <c r="G160" s="36"/>
       <c r="H160" s="35"/>
       <c r="I160" s="36" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="J160" s="29" t="n">
         <f aca="false">J159+D159</f>
@@ -9425,7 +9434,7 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B163" s="31"/>
       <c r="C163" s="32"/>
@@ -9445,7 +9454,7 @@
         <v>57</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D164" s="32" t="n">
         <v>32</v>
@@ -9503,7 +9512,7 @@
       <c r="G165" s="36"/>
       <c r="H165" s="35"/>
       <c r="I165" s="36" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="J165" s="29" t="n">
         <f aca="false">J164+D164</f>
@@ -9540,31 +9549,31 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="31" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C168" s="32" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D168" s="27" t="n">
         <v>32</v>
       </c>
       <c r="E168" s="38" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F168" s="23"/>
       <c r="G168" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I168" s="28" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J168" s="29" t="n">
         <f aca="false">J83</f>
@@ -9597,10 +9606,10 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="31" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C169" s="32" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D169" s="27" t="n">
         <v>16</v>
@@ -9610,11 +9619,11 @@
       </c>
       <c r="F169" s="23"/>
       <c r="G169" s="23" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H169" s="0"/>
       <c r="I169" s="28" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J169" s="29" t="n">
         <f aca="false">J168+D168</f>
@@ -9633,10 +9642,10 @@
         <v>15</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="O169" s="3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P169" s="1" t="n">
         <v>1</v>
@@ -9647,16 +9656,16 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="31" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C170" s="32" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D170" s="27" t="n">
         <v>8</v>
       </c>
       <c r="E170" s="38" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F170" s="23"/>
       <c r="G170" s="23" t="n">
@@ -9666,7 +9675,7 @@
         <v>27</v>
       </c>
       <c r="I170" s="28" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J170" s="29" t="n">
         <f aca="false">J169+D169</f>
@@ -9685,10 +9694,10 @@
         <v>15.5</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="O170" s="3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P170" s="1" t="n">
         <v>4</v>
@@ -9699,10 +9708,10 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="31" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C171" s="32" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D171" s="27" t="n">
         <v>8</v>
@@ -9716,7 +9725,7 @@
         <v>27</v>
       </c>
       <c r="I171" s="28" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="J171" s="29" t="n">
         <f aca="false">J170+D170</f>
@@ -9758,7 +9767,7 @@
       <c r="G172" s="36"/>
       <c r="H172" s="35"/>
       <c r="I172" s="36" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="J172" s="29" t="n">
         <f aca="false">J171+D171</f>
@@ -9779,15 +9788,15 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="31" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C176" s="32" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D176" s="27" t="n">
         <v>32</v>
@@ -9799,7 +9808,7 @@
       </c>
       <c r="H176" s="0"/>
       <c r="I176" s="28" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="J176" s="29" t="n">
         <f aca="false">J83</f>
@@ -9832,10 +9841,10 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="31" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C177" s="32" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D177" s="27" t="n">
         <v>16</v>
@@ -9845,10 +9854,10 @@
       </c>
       <c r="F177" s="23"/>
       <c r="G177" s="23" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="I177" s="28" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="J177" s="29" t="n">
         <f aca="false">J176+D176</f>
@@ -9867,10 +9876,10 @@
         <v>15</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="O177" s="3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P177" s="1" t="n">
         <v>2</v>
@@ -9881,10 +9890,10 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="31" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C178" s="32" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D178" s="27" t="n">
         <v>16</v>
@@ -9892,10 +9901,10 @@
       <c r="E178" s="38"/>
       <c r="F178" s="23"/>
       <c r="G178" s="23" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="I178" s="28" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J178" s="29" t="n">
         <f aca="false">J177+D177</f>
@@ -9914,10 +9923,10 @@
         <v>15.5</v>
       </c>
       <c r="N178" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="O178" s="3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P178" s="1" t="n">
         <v>3</v>
@@ -9928,10 +9937,10 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C179" s="32" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D179" s="27" t="n">
         <v>32</v>
@@ -9942,7 +9951,7 @@
         <v>36</v>
       </c>
       <c r="I179" s="28" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J179" s="29" t="n">
         <f aca="false">J178+D178</f>
@@ -9975,16 +9984,16 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="31" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C180" s="32" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D180" s="27" t="n">
         <v>8</v>
       </c>
       <c r="E180" s="38" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F180" s="23"/>
       <c r="G180" s="23" t="n">
@@ -9994,7 +10003,7 @@
         <v>27</v>
       </c>
       <c r="I180" s="28" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J180" s="29" t="n">
         <f aca="false">J179+D179</f>
@@ -10013,10 +10022,10 @@
         <v>17</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="O180" s="3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P180" s="1" t="n">
         <v>5</v>
@@ -10027,10 +10036,10 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="31" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C181" s="32" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D181" s="27" t="n">
         <v>24</v>
@@ -10087,7 +10096,7 @@
       <c r="G182" s="36"/>
       <c r="H182" s="35"/>
       <c r="I182" s="36" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="J182" s="29" t="n">
         <f aca="false">J181+D181</f>
@@ -10113,15 +10122,15 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="31" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C187" s="32" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D187" s="27" t="n">
         <v>32</v>
@@ -10134,10 +10143,10 @@
         <v>1</v>
       </c>
       <c r="H187" s="40" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I187" s="28" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="J187" s="29" t="n">
         <f aca="false">J160</f>
@@ -10170,10 +10179,10 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="31" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C188" s="32" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D188" s="27" t="n">
         <v>16</v>
@@ -10183,13 +10192,13 @@
       </c>
       <c r="F188" s="23"/>
       <c r="G188" s="23" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H188" s="40" t="s">
         <v>27</v>
       </c>
       <c r="I188" s="28" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="J188" s="29" t="n">
         <f aca="false">J187+D187</f>
@@ -10208,10 +10217,10 @@
         <v>23</v>
       </c>
       <c r="N188" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O188" s="3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P188" s="1" t="n">
         <v>1</v>
@@ -10222,10 +10231,10 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="31" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D189" s="27" t="n">
         <v>8</v>
@@ -10235,13 +10244,13 @@
       </c>
       <c r="F189" s="23"/>
       <c r="G189" s="40" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H189" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I189" s="28" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J189" s="29" t="n">
         <f aca="false">J188+D188</f>
@@ -10260,10 +10269,10 @@
         <v>23.5</v>
       </c>
       <c r="N189" s="5" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O189" s="24" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P189" s="1" t="n">
         <v>2</v>
@@ -10331,8 +10340,8 @@
       <c r="N191" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O191" s="24" t="n">
-        <v>2</v>
+      <c r="O191" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="P191" s="1" t="n">
         <v>12</v>
@@ -10383,8 +10392,8 @@
       <c r="N192" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O192" s="24" t="n">
-        <v>2</v>
+      <c r="O192" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="P192" s="1" t="n">
         <v>13</v>
@@ -10435,8 +10444,8 @@
       <c r="N193" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O193" s="24" t="n">
-        <v>2</v>
+      <c r="O193" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="P193" s="1" t="n">
         <v>14</v>
@@ -10450,7 +10459,7 @@
         <v>55</v>
       </c>
       <c r="C194" s="22" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D194" s="22" t="n">
         <v>5</v>
@@ -10518,7 +10527,7 @@
       </c>
       <c r="B196" s="31"/>
       <c r="I196" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J196" s="29" t="n">
         <f aca="false">J194+D194</f>
@@ -10539,7 +10548,7 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="41" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B197" s="11"/>
       <c r="C197" s="42"/>
@@ -10605,10 +10614,10 @@
     </row>
     <row r="199" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="31" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C199" s="22" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D199" s="22" t="n">
         <v>5248</v>
@@ -10626,7 +10635,7 @@
         <v>27</v>
       </c>
       <c r="I199" s="23" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J199" s="4" t="n">
         <v>0</v>
@@ -10658,10 +10667,10 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="31" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C200" s="22" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D200" s="22" t="n">
         <v>7</v>
@@ -10710,10 +10719,10 @@
     </row>
     <row r="201" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="31" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C201" s="22" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D201" s="22" t="n">
         <v>1</v>
@@ -10727,7 +10736,7 @@
       </c>
       <c r="H201" s="22"/>
       <c r="I201" s="23" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="J201" s="4" t="n">
         <f aca="false">J200+D200</f>
@@ -10746,7 +10755,7 @@
         <v>164.21875</v>
       </c>
       <c r="N201" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="O201" s="3" t="n">
         <v>1</v>
@@ -10763,7 +10772,7 @@
         <v>59</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J202" s="4" t="n">
         <f aca="false">J201+D201</f>
@@ -10791,7 +10800,7 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="43" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B204" s="11"/>
       <c r="C204" s="42"/>
@@ -10857,10 +10866,10 @@
     </row>
     <row r="206" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="31" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C206" s="22" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D206" s="22" t="n">
         <v>664</v>
@@ -10878,7 +10887,7 @@
         <v>27</v>
       </c>
       <c r="I206" s="23" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J206" s="4" t="n">
         <v>0</v>
@@ -10910,10 +10919,10 @@
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="31" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C207" s="22" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D207" s="22" t="n">
         <v>7</v>
@@ -10962,10 +10971,10 @@
     </row>
     <row r="208" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="31" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C208" s="22" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D208" s="22" t="n">
         <v>1</v>
@@ -10979,7 +10988,7 @@
       </c>
       <c r="H208" s="22"/>
       <c r="I208" s="23" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="J208" s="4" t="n">
         <f aca="false">J207+D207</f>
@@ -10998,7 +11007,7 @@
         <v>20.96875</v>
       </c>
       <c r="N208" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="O208" s="3" t="n">
         <v>1</v>
@@ -11015,7 +11024,7 @@
         <v>59</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J209" s="4" t="n">
         <f aca="false">J208+D208</f>
@@ -11036,7 +11045,7 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="43" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B213" s="11"/>
       <c r="C213" s="42"/>
@@ -11102,10 +11111,10 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="31" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D215" s="27" t="n">
         <v>32</v>
@@ -11118,10 +11127,10 @@
         <v>1</v>
       </c>
       <c r="H215" s="40" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="I215" s="28" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="J215" s="4" t="n">
         <f aca="false">J209</f>
@@ -11154,10 +11163,10 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="31" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D216" s="27" t="n">
         <v>16</v>
@@ -11166,16 +11175,16 @@
         <v>26</v>
       </c>
       <c r="F216" s="23" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G216" s="23" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H216" s="40" t="s">
         <v>27</v>
       </c>
       <c r="I216" s="28" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="J216" s="4" t="n">
         <f aca="false">J215+D215</f>
@@ -11194,7 +11203,7 @@
         <v>22</v>
       </c>
       <c r="N216" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O216" s="3" t="n">
         <v>2</v>
@@ -11208,10 +11217,10 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="31" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C217" s="32" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D217" s="27" t="n">
         <v>8</v>
@@ -11219,13 +11228,13 @@
       <c r="E217" s="38"/>
       <c r="F217" s="23"/>
       <c r="G217" s="40" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H217" s="40" t="s">
         <v>27</v>
       </c>
       <c r="I217" s="28" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="J217" s="4" t="n">
         <f aca="false">J216+D216</f>
@@ -11244,7 +11253,7 @@
         <v>22.5</v>
       </c>
       <c r="N217" s="5" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O217" s="24" t="n">
         <v>2</v>
@@ -11261,7 +11270,7 @@
         <v>28</v>
       </c>
       <c r="C218" s="32" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D218" s="27" t="n">
         <v>8</v>
@@ -11275,7 +11284,7 @@
         <v>27</v>
       </c>
       <c r="I218" s="28" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J218" s="4" t="n">
         <f aca="false">J217+D217</f>
@@ -11311,7 +11320,7 @@
         <v>59</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J219" s="4" t="n">
         <f aca="false">J218+D218</f>
@@ -11344,7 +11353,7 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="43" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="222" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11402,10 +11411,10 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="44" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C223" s="38" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D223" s="38" t="n">
         <v>32</v>
@@ -11415,13 +11424,13 @@
       </c>
       <c r="F223" s="38"/>
       <c r="G223" s="38" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H223" s="38" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I223" s="38" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="J223" s="45" t="n">
         <v>0</v>
@@ -11439,7 +11448,7 @@
         <v>0</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O223" s="3" t="n">
         <v>1</v>
@@ -11453,10 +11462,10 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="44" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C224" s="38" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D224" s="38" t="n">
         <v>32</v>
@@ -11466,13 +11475,13 @@
       </c>
       <c r="F224" s="38"/>
       <c r="G224" s="38" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H224" s="38" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I224" s="38" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="J224" s="45" t="n">
         <f aca="false">J223+D223</f>
@@ -11491,7 +11500,7 @@
         <v>1</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O224" s="3" t="n">
         <v>1</v>
@@ -11505,7 +11514,7 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B225" s="44"/>
       <c r="C225" s="38"/>
@@ -11522,10 +11531,10 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="44" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C226" s="38" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D226" s="38" t="n">
         <v>1</v>
@@ -11535,13 +11544,13 @@
       </c>
       <c r="F226" s="38"/>
       <c r="G226" s="38" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H226" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I226" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J226" s="45" t="n">
         <f aca="false">J224+D224</f>
@@ -11560,7 +11569,7 @@
         <v>2</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O226" s="3" t="n">
         <v>1</v>
@@ -11574,10 +11583,10 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="44" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C227" s="38" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D227" s="38" t="n">
         <v>5</v>
@@ -11587,11 +11596,11 @@
       </c>
       <c r="F227" s="38"/>
       <c r="G227" s="38" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H227" s="38"/>
       <c r="I227" s="38" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="J227" s="45" t="n">
         <f aca="false">J226+D226</f>
@@ -11610,7 +11619,7 @@
         <v>2.03125</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O227" s="3" t="n">
         <v>1</v>
@@ -11624,10 +11633,10 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="44" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C228" s="38" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D228" s="38" t="n">
         <v>4</v>
@@ -11637,13 +11646,13 @@
       </c>
       <c r="F228" s="38"/>
       <c r="G228" s="38" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H228" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I228" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J228" s="45" t="n">
         <f aca="false">J227+D227</f>
@@ -11662,7 +11671,7 @@
         <v>2.1875</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O228" s="3" t="n">
         <v>1</v>
@@ -11676,10 +11685,10 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="44" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C229" s="38" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D229" s="38" t="n">
         <v>5</v>
@@ -11689,13 +11698,13 @@
       </c>
       <c r="F229" s="38"/>
       <c r="G229" s="38" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H229" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I229" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J229" s="45" t="n">
         <f aca="false">J228+D228</f>
@@ -11714,7 +11723,7 @@
         <v>2.3125</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O229" s="3" t="n">
         <v>1</v>
@@ -11728,10 +11737,10 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="44" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C230" s="38" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D230" s="38" t="n">
         <v>6</v>
@@ -11741,13 +11750,13 @@
       </c>
       <c r="F230" s="38"/>
       <c r="G230" s="38" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H230" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I230" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J230" s="45" t="n">
         <f aca="false">J229+D229</f>
@@ -11766,7 +11775,7 @@
         <v>2.46875</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O230" s="3" t="n">
         <v>1</v>
@@ -11780,10 +11789,10 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="44" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C231" s="38" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D231" s="38" t="n">
         <v>6</v>
@@ -11793,13 +11802,13 @@
       </c>
       <c r="F231" s="38"/>
       <c r="G231" s="38" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H231" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I231" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J231" s="45" t="n">
         <f aca="false">J230+D230</f>
@@ -11818,7 +11827,7 @@
         <v>2.65625</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O231" s="3" t="n">
         <v>1</v>
@@ -11832,10 +11841,10 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="44" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C232" s="38" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D232" s="38" t="n">
         <v>5</v>
@@ -11845,13 +11854,13 @@
       </c>
       <c r="F232" s="38"/>
       <c r="G232" s="38" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H232" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I232" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J232" s="45" t="n">
         <f aca="false">J231+D231</f>
@@ -11870,7 +11879,7 @@
         <v>2.84375</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O232" s="3" t="n">
         <v>1</v>
@@ -11884,7 +11893,7 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B233" s="44"/>
       <c r="C233" s="38"/>
@@ -11901,10 +11910,10 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="44" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C234" s="38" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D234" s="38" t="n">
         <v>8</v>
@@ -11920,7 +11929,7 @@
         <v>71</v>
       </c>
       <c r="I234" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J234" s="45" t="n">
         <f aca="false">J232+D232</f>
@@ -11939,7 +11948,7 @@
         <v>3</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O234" s="3" t="n">
         <v>1</v>
@@ -11953,10 +11962,10 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="44" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C235" s="38" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D235" s="38" t="n">
         <v>8</v>
@@ -11972,7 +11981,7 @@
         <v>71</v>
       </c>
       <c r="I235" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J235" s="45" t="n">
         <f aca="false">J234+D234</f>
@@ -11991,7 +12000,7 @@
         <v>3.25</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O235" s="3" t="n">
         <v>1</v>
@@ -12005,10 +12014,10 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="44" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C236" s="38" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D236" s="38" t="n">
         <v>16</v>
@@ -12024,7 +12033,7 @@
         <v>27</v>
       </c>
       <c r="I236" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J236" s="45" t="n">
         <f aca="false">J235+D235</f>
@@ -12066,7 +12075,7 @@
       <c r="G237" s="38"/>
       <c r="H237" s="38"/>
       <c r="I237" s="38" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J237" s="45" t="n">
         <f aca="false">J236+D236</f>
@@ -12087,7 +12096,7 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="43" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F238" s="38"/>
       <c r="G238" s="38"/>
@@ -12171,10 +12180,10 @@
     </row>
     <row r="241" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="21" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C241" s="46" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D241" s="1" t="n">
         <v>5</v>
@@ -12190,7 +12199,7 @@
         <v>27</v>
       </c>
       <c r="I241" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J241" s="45" t="n">
         <f aca="false">J237</f>
@@ -12223,10 +12232,10 @@
     </row>
     <row r="242" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="21" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C242" s="46" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D242" s="1" t="n">
         <v>1</v>
@@ -12236,13 +12245,13 @@
       </c>
       <c r="F242" s="47"/>
       <c r="G242" s="38" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H242" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I242" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J242" s="45" t="n">
         <f aca="false">J241+D241</f>
@@ -12261,7 +12270,7 @@
         <v>4.15625</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O242" s="3" t="n">
         <v>1</v>
@@ -12275,10 +12284,10 @@
     </row>
     <row r="243" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="21" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C243" s="46" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D243" s="1" t="n">
         <v>1</v>
@@ -12288,13 +12297,13 @@
       </c>
       <c r="F243" s="47"/>
       <c r="G243" s="38" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H243" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I243" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J243" s="45" t="n">
         <f aca="false">J242+D242</f>
@@ -12313,7 +12322,7 @@
         <v>4.1875</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O243" s="3" t="n">
         <v>2</v>
@@ -12327,10 +12336,10 @@
     </row>
     <row r="244" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="21" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C244" s="46" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D244" s="1" t="n">
         <v>3</v>
@@ -12340,13 +12349,13 @@
       </c>
       <c r="F244" s="47"/>
       <c r="G244" s="38" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H244" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I244" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J244" s="45" t="n">
         <f aca="false">J243+D243</f>
@@ -12365,7 +12374,7 @@
         <v>4.21875</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O244" s="3" t="n">
         <v>2</v>
@@ -12379,10 +12388,10 @@
     </row>
     <row r="245" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="21" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C245" s="46" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D245" s="1" t="n">
         <v>4</v>
@@ -12392,13 +12401,13 @@
       </c>
       <c r="F245" s="47"/>
       <c r="G245" s="38" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H245" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I245" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J245" s="45" t="n">
         <f aca="false">J244+D244</f>
@@ -12417,7 +12426,7 @@
         <v>4.3125</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O245" s="3" t="n">
         <v>2</v>
@@ -12431,10 +12440,10 @@
     </row>
     <row r="246" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="21" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C246" s="46" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D246" s="1" t="n">
         <v>4</v>
@@ -12444,13 +12453,13 @@
       </c>
       <c r="F246" s="47"/>
       <c r="G246" s="38" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H246" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I246" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J246" s="45" t="n">
         <f aca="false">J245+D245</f>
@@ -12469,7 +12478,7 @@
         <v>4.4375</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O246" s="3" t="n">
         <v>2</v>
@@ -12483,10 +12492,10 @@
     </row>
     <row r="247" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="21" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C247" s="46" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D247" s="1" t="n">
         <v>5</v>
@@ -12496,13 +12505,13 @@
       </c>
       <c r="F247" s="47"/>
       <c r="G247" s="38" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H247" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I247" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J247" s="45" t="n">
         <f aca="false">J246+D246</f>
@@ -12521,7 +12530,7 @@
         <v>4.5625</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O247" s="3" t="n">
         <v>2</v>
@@ -12535,10 +12544,10 @@
     </row>
     <row r="248" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="21" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C248" s="46" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D248" s="1" t="n">
         <v>9</v>
@@ -12548,13 +12557,13 @@
       </c>
       <c r="F248" s="47"/>
       <c r="G248" s="38" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H248" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I248" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J248" s="45" t="n">
         <f aca="false">J247+D247</f>
@@ -12573,7 +12582,7 @@
         <v>4.71875</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O248" s="3" t="n">
         <v>2</v>
@@ -12606,10 +12615,10 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="48" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D250" s="1" t="n">
         <v>8</v>
@@ -12619,13 +12628,13 @@
       </c>
       <c r="F250" s="38"/>
       <c r="G250" s="38" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H250" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I250" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J250" s="45" t="n">
         <f aca="false">J248+D248</f>
@@ -12644,7 +12653,7 @@
         <v>5</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="O250" s="3" t="n">
         <v>3</v>
@@ -12658,10 +12667,10 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="48" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D251" s="1" t="n">
         <v>8</v>
@@ -12671,13 +12680,13 @@
       </c>
       <c r="F251" s="38"/>
       <c r="G251" s="38" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H251" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I251" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J251" s="45" t="n">
         <f aca="false">J250+D250</f>
@@ -12696,7 +12705,7 @@
         <v>5.25</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="O251" s="3" t="n">
         <v>3</v>
@@ -12710,10 +12719,10 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="48" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D252" s="1" t="n">
         <v>8</v>
@@ -12723,13 +12732,13 @@
       </c>
       <c r="F252" s="38"/>
       <c r="G252" s="38" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H252" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I252" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J252" s="45" t="n">
         <f aca="false">J251+D251</f>
@@ -12748,7 +12757,7 @@
         <v>5.5</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="O252" s="3" t="n">
         <v>3</v>
@@ -12762,10 +12771,10 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="48" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D253" s="1" t="n">
         <v>8</v>
@@ -12775,13 +12784,13 @@
       </c>
       <c r="F253" s="38"/>
       <c r="G253" s="38" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H253" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I253" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J253" s="45" t="n">
         <f aca="false">J252+D252</f>
@@ -12800,7 +12809,7 @@
         <v>5.75</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="O253" s="3" t="n">
         <v>3</v>
@@ -12814,10 +12823,10 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="48" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D254" s="1" t="n">
         <v>8</v>
@@ -12827,13 +12836,13 @@
       </c>
       <c r="F254" s="38"/>
       <c r="G254" s="38" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H254" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I254" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J254" s="45" t="n">
         <f aca="false">J253+D253</f>
@@ -12852,7 +12861,7 @@
         <v>6</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="O254" s="3" t="n">
         <v>3</v>
@@ -12866,10 +12875,10 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="48" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D255" s="1" t="n">
         <v>8</v>
@@ -12879,13 +12888,13 @@
       </c>
       <c r="F255" s="38"/>
       <c r="G255" s="38" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H255" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I255" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J255" s="45" t="n">
         <f aca="false">J254+D254</f>
@@ -12904,7 +12913,7 @@
         <v>6.25</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="O255" s="3" t="n">
         <v>3</v>
@@ -12918,10 +12927,10 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="48" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D256" s="1" t="n">
         <v>8</v>
@@ -12931,13 +12940,13 @@
       </c>
       <c r="F256" s="38"/>
       <c r="G256" s="38" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H256" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I256" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J256" s="45" t="n">
         <f aca="false">J255+D255</f>
@@ -12956,7 +12965,7 @@
         <v>6.5</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="O256" s="3" t="n">
         <v>3</v>
@@ -12970,10 +12979,10 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="48" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D257" s="1" t="n">
         <v>8</v>
@@ -12983,13 +12992,13 @@
       </c>
       <c r="F257" s="38"/>
       <c r="G257" s="38" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H257" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I257" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J257" s="45" t="n">
         <f aca="false">J256+D256</f>
@@ -13008,7 +13017,7 @@
         <v>6.75</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="O257" s="3" t="n">
         <v>3</v>
@@ -13022,10 +13031,10 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="48" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D258" s="1" t="n">
         <v>8</v>
@@ -13035,13 +13044,13 @@
       </c>
       <c r="F258" s="38"/>
       <c r="G258" s="38" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H258" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I258" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J258" s="45" t="n">
         <f aca="false">J257+D257</f>
@@ -13060,7 +13069,7 @@
         <v>7</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="O258" s="3" t="n">
         <v>3</v>
@@ -13074,10 +13083,10 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="48" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D259" s="1" t="n">
         <v>8</v>
@@ -13087,13 +13096,13 @@
       </c>
       <c r="F259" s="38"/>
       <c r="G259" s="38" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H259" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I259" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J259" s="45" t="n">
         <f aca="false">J258+D258</f>
@@ -13112,7 +13121,7 @@
         <v>7.25</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="O259" s="3" t="n">
         <v>3</v>
@@ -13126,10 +13135,10 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="48" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D260" s="1" t="n">
         <v>8</v>
@@ -13139,13 +13148,13 @@
       </c>
       <c r="F260" s="38"/>
       <c r="G260" s="38" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H260" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I260" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J260" s="45" t="n">
         <f aca="false">J259+D259</f>
@@ -13164,7 +13173,7 @@
         <v>7.5</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="O260" s="3" t="n">
         <v>3</v>
@@ -13178,10 +13187,10 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="48" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D261" s="1" t="n">
         <v>8</v>
@@ -13191,13 +13200,13 @@
       </c>
       <c r="F261" s="38"/>
       <c r="G261" s="38" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H261" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I261" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J261" s="45" t="n">
         <f aca="false">J260+D260</f>
@@ -13216,7 +13225,7 @@
         <v>7.75</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="O261" s="3" t="n">
         <v>3</v>
@@ -13230,10 +13239,10 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="48" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D262" s="1" t="n">
         <v>8</v>
@@ -13243,13 +13252,13 @@
       </c>
       <c r="F262" s="38"/>
       <c r="G262" s="38" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H262" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I262" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J262" s="45" t="n">
         <f aca="false">J261+D261</f>
@@ -13268,7 +13277,7 @@
         <v>8</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="O262" s="3" t="n">
         <v>3</v>
@@ -13282,10 +13291,10 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="48" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D263" s="1" t="n">
         <v>16</v>
@@ -13297,13 +13306,13 @@
         <v>116</v>
       </c>
       <c r="G263" s="38" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H263" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I263" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J263" s="45" t="n">
         <f aca="false">J262+D262</f>
@@ -13322,7 +13331,7 @@
         <v>8.25</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O263" s="3" t="n">
         <v>1</v>
@@ -13336,10 +13345,10 @@
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="48" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D264" s="1" t="n">
         <v>8</v>
@@ -13349,13 +13358,13 @@
       </c>
       <c r="F264" s="38"/>
       <c r="G264" s="38" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H264" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I264" s="38" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J264" s="45" t="n">
         <f aca="false">J263+D263</f>
@@ -13374,7 +13383,7 @@
         <v>8.75</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O264" s="3" t="n">
         <v>2</v>
@@ -13478,22 +13487,22 @@
     <row r="6" s="51" customFormat="true" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="52"/>
       <c r="C6" s="52" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H6" s="52" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="I6" s="52"/>
     </row>
@@ -13863,10 +13872,10 @@
     </row>
     <row r="26" s="1" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="32" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D26" s="27" t="n">
         <v>16</v>
@@ -13879,10 +13888,10 @@
         <v>1</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J26" s="29" t="n">
         <f aca="false">DownlinkSpecLTM!J169+DownlinkSpecLTM!D169</f>
@@ -13901,7 +13910,7 @@
         <v>15.5</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>405</v>
+        <v>541</v>
       </c>
       <c r="O26" s="3" t="n">
         <v>6</v>
@@ -13915,10 +13924,10 @@
     </row>
     <row r="27" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="32" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D27" s="27" t="n">
         <v>32</v>
@@ -13929,10 +13938,10 @@
         <v>1</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J27" s="29" t="n">
         <f aca="false">J26+D26</f>
@@ -13951,7 +13960,7 @@
         <v>16</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>405</v>
+        <v>541</v>
       </c>
       <c r="O27" s="3" t="n">
         <v>6</v>
@@ -13965,16 +13974,16 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="50" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D30" s="50" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F30" s="50"/>
     </row>

--- a/genSpacecraft/DownlinkSpecLTM.xlsx
+++ b/genSpacecraft/DownlinkSpecLTM.xlsx
@@ -1019,7 +1019,7 @@
     <t xml:space="preserve">hostBits20</t>
   </si>
   <si>
-    <t xml:space="preserve">spareField0</t>
+    <t xml:space="preserve">Batt Heartbeat</t>
   </si>
   <si>
     <t xml:space="preserve">hostBits21</t>
@@ -2042,8 +2042,8 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F49" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G67" activeCellId="0" sqref="G67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F102" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P126" activeCellId="0" sqref="P126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7780,7 +7780,7 @@
       </c>
       <c r="F126" s="23"/>
       <c r="G126" s="22" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="H126" s="22" t="s">
         <v>27</v>
@@ -7803,13 +7803,13 @@
         <v>17.65625</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="O126" s="24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P126" s="1" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q126" s="1" t="n">
         <v>0</v>
@@ -7853,13 +7853,13 @@
         <v>17.6875</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>28</v>
+        <v>221</v>
       </c>
       <c r="O127" s="24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P127" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q127" s="1" t="n">
         <v>0</v>
@@ -8190,9 +8190,18 @@
         <f aca="false">J133+D133</f>
         <v>573</v>
       </c>
-      <c r="K134" s="28"/>
-      <c r="L134" s="28"/>
-      <c r="M134" s="28"/>
+      <c r="K134" s="28" t="n">
+        <f aca="false">J134/8</f>
+        <v>71.625</v>
+      </c>
+      <c r="L134" s="28" t="n">
+        <f aca="false">J134/16</f>
+        <v>35.8125</v>
+      </c>
+      <c r="M134" s="28" t="n">
+        <f aca="false">J134/32</f>
+        <v>17.90625</v>
+      </c>
       <c r="N134" s="1" t="s">
         <v>118</v>
       </c>
@@ -8231,17 +8240,26 @@
         <f aca="false">J134+D134</f>
         <v>574</v>
       </c>
-      <c r="K135" s="28"/>
-      <c r="L135" s="28"/>
-      <c r="M135" s="28"/>
+      <c r="K135" s="28" t="n">
+        <f aca="false">J135/8</f>
+        <v>71.75</v>
+      </c>
+      <c r="L135" s="28" t="n">
+        <f aca="false">J135/16</f>
+        <v>35.875</v>
+      </c>
+      <c r="M135" s="28" t="n">
+        <f aca="false">J135/32</f>
+        <v>17.9375</v>
+      </c>
       <c r="N135" s="1" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="O135" s="24" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P135" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q135" s="1" t="n">
         <v>0</v>
@@ -8272,17 +8290,26 @@
         <f aca="false">J135+D135</f>
         <v>575</v>
       </c>
-      <c r="K136" s="28"/>
-      <c r="L136" s="28"/>
-      <c r="M136" s="28"/>
+      <c r="K136" s="28" t="n">
+        <f aca="false">J136/8</f>
+        <v>71.875</v>
+      </c>
+      <c r="L136" s="28" t="n">
+        <f aca="false">J136/16</f>
+        <v>35.9375</v>
+      </c>
+      <c r="M136" s="28" t="n">
+        <f aca="false">J136/32</f>
+        <v>17.96875</v>
+      </c>
       <c r="N136" s="1" t="s">
-        <v>28</v>
+        <v>293</v>
       </c>
       <c r="O136" s="24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P136" s="1" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q136" s="1" t="n">
         <v>0</v>

--- a/genSpacecraft/DownlinkSpecLTM.xlsx
+++ b/genSpacecraft/DownlinkSpecLTM.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="549">
   <si>
     <t xml:space="preserve">//</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t xml:space="preserve">uint8_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8_bit_temp|INVALID_BYTE</t>
   </si>
   <si>
     <t xml:space="preserve">Host Temp 1</t>
@@ -2042,8 +2045,8 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F102" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P126" activeCellId="0" sqref="P126"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G56" activeCellId="0" sqref="G56:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3607,13 +3610,13 @@
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="23" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="H41" s="22" t="s">
         <v>77</v>
       </c>
       <c r="I41" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J41" s="29" t="n">
         <f aca="false">J40+D40</f>
@@ -3632,7 +3635,7 @@
         <v>3.25</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O41" s="24" t="n">
         <v>6</v>
@@ -3646,10 +3649,10 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D42" s="32" t="n">
         <v>8</v>
@@ -3659,13 +3662,13 @@
       </c>
       <c r="F42" s="23"/>
       <c r="G42" s="23" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="H42" s="22" t="s">
         <v>77</v>
       </c>
       <c r="I42" s="32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J42" s="29" t="n">
         <f aca="false">J41+D41</f>
@@ -3684,7 +3687,7 @@
         <v>3.5</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O42" s="24" t="n">
         <v>6</v>
@@ -3698,10 +3701,10 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D43" s="32" t="n">
         <v>8</v>
@@ -3711,13 +3714,13 @@
       </c>
       <c r="F43" s="23"/>
       <c r="G43" s="23" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="H43" s="22" t="s">
         <v>77</v>
       </c>
       <c r="I43" s="32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J43" s="29" t="n">
         <f aca="false">J42+D42</f>
@@ -3736,7 +3739,7 @@
         <v>3.75</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O43" s="24" t="n">
         <v>6</v>
@@ -3750,10 +3753,10 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D44" s="32" t="n">
         <v>8</v>
@@ -3763,13 +3766,13 @@
       </c>
       <c r="F44" s="23"/>
       <c r="G44" s="23" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="H44" s="22" t="s">
         <v>77</v>
       </c>
       <c r="I44" s="32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J44" s="29" t="n">
         <f aca="false">J43+D43</f>
@@ -3788,7 +3791,7 @@
         <v>4</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O44" s="24" t="n">
         <v>6</v>
@@ -3802,10 +3805,10 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D45" s="32" t="n">
         <v>8</v>
@@ -3815,13 +3818,13 @@
       </c>
       <c r="F45" s="23"/>
       <c r="G45" s="23" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="H45" s="22" t="s">
         <v>77</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J45" s="29" t="n">
         <f aca="false">J44+D44</f>
@@ -3840,7 +3843,7 @@
         <v>4.25</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O45" s="24" t="n">
         <v>6</v>
@@ -3854,10 +3857,10 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D46" s="32" t="n">
         <v>8</v>
@@ -3867,13 +3870,13 @@
       </c>
       <c r="F46" s="23"/>
       <c r="G46" s="22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H46" s="22" t="s">
         <v>71</v>
       </c>
       <c r="I46" s="32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J46" s="29" t="n">
         <f aca="false">J45+D45</f>
@@ -3892,7 +3895,7 @@
         <v>4.5</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O46" s="24" t="n">
         <v>7</v>
@@ -3906,10 +3909,10 @@
     </row>
     <row r="47" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="32" t="n">
         <v>8</v>
@@ -3919,13 +3922,13 @@
       </c>
       <c r="F47" s="23"/>
       <c r="G47" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>71</v>
       </c>
       <c r="I47" s="32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J47" s="29" t="n">
         <f aca="false">J46+D46</f>
@@ -3944,7 +3947,7 @@
         <v>4.75</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="3" t="n">
         <v>1</v>
@@ -3958,10 +3961,10 @@
     </row>
     <row r="48" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="32" t="n">
         <v>8</v>
@@ -3971,13 +3974,13 @@
       </c>
       <c r="F48" s="23"/>
       <c r="G48" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J48" s="29" t="n">
         <f aca="false">J47+D47</f>
@@ -4010,10 +4013,10 @@
     </row>
     <row r="49" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="32" t="n">
         <v>8</v>
@@ -4029,7 +4032,7 @@
         <v>77</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J49" s="29" t="n">
         <f aca="false">J48+D48</f>
@@ -4062,10 +4065,10 @@
     </row>
     <row r="50" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="32" t="n">
         <v>8</v>
@@ -4075,13 +4078,13 @@
       </c>
       <c r="F50" s="23"/>
       <c r="G50" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>65</v>
       </c>
       <c r="I50" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J50" s="29" t="n">
         <f aca="false">J49+D49</f>
@@ -4114,10 +4117,10 @@
     </row>
     <row r="51" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="32" t="n">
         <v>8</v>
@@ -4127,13 +4130,13 @@
       </c>
       <c r="F51" s="23"/>
       <c r="G51" s="23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I51" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J51" s="29" t="n">
         <f aca="false">J50+D50</f>
@@ -4166,10 +4169,10 @@
     </row>
     <row r="52" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="32" t="n">
         <v>8</v>
@@ -4179,13 +4182,13 @@
       </c>
       <c r="F52" s="23"/>
       <c r="G52" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>71</v>
       </c>
       <c r="I52" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J52" s="29" t="n">
         <f aca="false">J51+D51</f>
@@ -4218,10 +4221,10 @@
     </row>
     <row r="53" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="32" t="n">
         <v>8</v>
@@ -4231,13 +4234,13 @@
       </c>
       <c r="F53" s="23"/>
       <c r="G53" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>71</v>
       </c>
       <c r="I53" s="32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J53" s="29" t="n">
         <f aca="false">J52+D52</f>
@@ -4270,10 +4273,10 @@
     </row>
     <row r="54" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="32" t="n">
         <v>8</v>
@@ -4283,13 +4286,13 @@
       </c>
       <c r="F54" s="23"/>
       <c r="G54" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>71</v>
       </c>
       <c r="I54" s="32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J54" s="29" t="n">
         <f aca="false">J53+D53</f>
@@ -4322,10 +4325,10 @@
     </row>
     <row r="55" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="32" t="n">
         <v>8</v>
@@ -4335,13 +4338,13 @@
       </c>
       <c r="F55" s="23"/>
       <c r="G55" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>71</v>
       </c>
       <c r="I55" s="32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J55" s="29" t="n">
         <f aca="false">J54+D54</f>
@@ -4372,12 +4375,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="32" t="n">
         <v>8</v>
@@ -4387,13 +4390,13 @@
       </c>
       <c r="F56" s="23"/>
       <c r="G56" s="23" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>77</v>
       </c>
       <c r="I56" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J56" s="29" t="n">
         <f aca="false">J55+D55</f>
@@ -4412,7 +4415,7 @@
         <v>7</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O56" s="3" t="n">
         <v>7</v>
@@ -4426,10 +4429,10 @@
     </row>
     <row r="57" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="32" t="n">
         <v>8</v>
@@ -4439,13 +4442,13 @@
       </c>
       <c r="F57" s="23"/>
       <c r="G57" s="23" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>77</v>
       </c>
       <c r="I57" s="32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J57" s="29" t="n">
         <f aca="false">J56+D56</f>
@@ -4464,7 +4467,7 @@
         <v>7.25</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O57" s="3" t="n">
         <v>7</v>
@@ -4478,10 +4481,10 @@
     </row>
     <row r="58" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="32" t="n">
         <v>8</v>
@@ -4491,13 +4494,13 @@
       </c>
       <c r="F58" s="23"/>
       <c r="G58" s="23" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>77</v>
       </c>
       <c r="I58" s="32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J58" s="29" t="n">
         <f aca="false">J57+D57</f>
@@ -4516,7 +4519,7 @@
         <v>7.5</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O58" s="3" t="n">
         <v>7</v>
@@ -4530,10 +4533,10 @@
     </row>
     <row r="59" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="32" t="n">
         <v>8</v>
@@ -4543,13 +4546,13 @@
       </c>
       <c r="F59" s="23"/>
       <c r="G59" s="23" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>77</v>
       </c>
       <c r="I59" s="32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J59" s="29" t="n">
         <f aca="false">J58+D58</f>
@@ -4568,7 +4571,7 @@
         <v>7.75</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O59" s="3" t="n">
         <v>7</v>
@@ -4582,10 +4585,10 @@
     </row>
     <row r="60" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="32" t="n">
         <v>8</v>
@@ -4601,7 +4604,7 @@
         <v>71</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J60" s="29" t="n">
         <f aca="false">J59+D59</f>
@@ -4634,10 +4637,10 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="32" t="n">
         <v>8</v>
@@ -4647,13 +4650,13 @@
       </c>
       <c r="F61" s="23"/>
       <c r="G61" s="22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H61" s="22" t="s">
         <v>71</v>
       </c>
       <c r="I61" s="32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J61" s="29" t="n">
         <f aca="false">J60+D60</f>
@@ -4672,7 +4675,7 @@
         <v>8.25</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O61" s="24" t="n">
         <v>7</v>
@@ -4686,10 +4689,10 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="32" t="n">
         <v>8</v>
@@ -4699,13 +4702,13 @@
       </c>
       <c r="F62" s="23"/>
       <c r="G62" s="22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H62" s="22" t="s">
         <v>71</v>
       </c>
       <c r="I62" s="32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J62" s="29" t="n">
         <f aca="false">J61+D61</f>
@@ -4724,7 +4727,7 @@
         <v>8.5</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O62" s="24" t="n">
         <v>7</v>
@@ -4738,10 +4741,10 @@
     </row>
     <row r="63" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="32" t="n">
         <v>8</v>
@@ -4757,7 +4760,7 @@
         <v>77</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J63" s="29" t="n">
         <f aca="false">J62+D62</f>
@@ -4776,7 +4779,7 @@
         <v>8.75</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O63" s="3" t="n">
         <v>1</v>
@@ -4790,10 +4793,10 @@
     </row>
     <row r="64" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="32" t="n">
         <v>8</v>
@@ -4809,7 +4812,7 @@
         <v>77</v>
       </c>
       <c r="I64" s="32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J64" s="29" t="n">
         <f aca="false">J63+D63</f>
@@ -4842,10 +4845,10 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="32" t="n">
         <v>8</v>
@@ -4855,13 +4858,13 @@
       </c>
       <c r="F65" s="23"/>
       <c r="G65" s="22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H65" s="22" t="s">
         <v>71</v>
       </c>
       <c r="I65" s="32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J65" s="29" t="n">
         <f aca="false">J64+D64</f>
@@ -4880,7 +4883,7 @@
         <v>9.25</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O65" s="24" t="n">
         <v>7</v>
@@ -4894,10 +4897,10 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="32" t="n">
         <v>8</v>
@@ -4907,13 +4910,13 @@
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H66" s="22" t="s">
         <v>71</v>
       </c>
       <c r="I66" s="32" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J66" s="29" t="n">
         <f aca="false">J65+D65</f>
@@ -4932,7 +4935,7 @@
         <v>9.5</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O66" s="24" t="n">
         <v>6</v>
@@ -4946,10 +4949,10 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="32" t="n">
         <v>8</v>
@@ -4959,11 +4962,11 @@
       </c>
       <c r="F67" s="23"/>
       <c r="G67" s="22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H67" s="22"/>
       <c r="I67" s="32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J67" s="29" t="n">
         <f aca="false">J66+D66</f>
@@ -4982,7 +4985,7 @@
         <v>9.75</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O67" s="24" t="n">
         <v>6</v>
@@ -4996,10 +4999,10 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="32" t="n">
         <v>8</v>
@@ -5009,11 +5012,11 @@
       </c>
       <c r="F68" s="23"/>
       <c r="G68" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H68" s="22"/>
       <c r="I68" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J68" s="29" t="n">
         <f aca="false">J67+D67</f>
@@ -5046,10 +5049,10 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="32" t="n">
         <v>8</v>
@@ -5059,11 +5062,11 @@
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H69" s="22"/>
       <c r="I69" s="32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J69" s="29" t="n">
         <f aca="false">J68+D68</f>
@@ -5082,7 +5085,7 @@
         <v>10.25</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O69" s="24" t="n">
         <v>6</v>
@@ -5096,10 +5099,10 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="32" t="n">
         <v>8</v>
@@ -5109,11 +5112,11 @@
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H70" s="22"/>
       <c r="I70" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J70" s="29" t="n">
         <f aca="false">J69+D69</f>
@@ -5146,10 +5149,10 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="32" t="n">
         <v>8</v>
@@ -5159,11 +5162,11 @@
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H71" s="22"/>
       <c r="I71" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J71" s="29" t="n">
         <f aca="false">J70+D70</f>
@@ -5199,10 +5202,10 @@
         <v>1</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D72" s="32" t="n">
         <v>8</v>
@@ -5212,11 +5215,11 @@
       </c>
       <c r="F72" s="23"/>
       <c r="G72" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H72" s="22"/>
       <c r="I72" s="32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J72" s="29" t="n">
         <f aca="false">J71+D71</f>
@@ -5249,10 +5252,10 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D73" s="32" t="n">
         <v>8</v>
@@ -5261,14 +5264,14 @@
         <v>116</v>
       </c>
       <c r="F73" s="23"/>
-      <c r="G73" s="22" t="s">
-        <v>76</v>
+      <c r="G73" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="H73" s="22" t="s">
         <v>77</v>
       </c>
       <c r="I73" s="32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J73" s="29" t="n">
         <f aca="false">J72+D72</f>
@@ -5301,10 +5304,10 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D74" s="32" t="n">
         <v>8</v>
@@ -5313,14 +5316,14 @@
         <v>116</v>
       </c>
       <c r="F74" s="23"/>
-      <c r="G74" s="22" t="s">
-        <v>76</v>
+      <c r="G74" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="H74" s="22" t="s">
         <v>77</v>
       </c>
       <c r="I74" s="32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J74" s="29" t="n">
         <f aca="false">J73+D73</f>
@@ -5339,7 +5342,7 @@
         <v>11.5</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O74" s="24" t="n">
         <v>9</v>
@@ -5353,10 +5356,10 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="31" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" s="32" t="n">
         <v>8</v>
@@ -5365,14 +5368,14 @@
         <v>116</v>
       </c>
       <c r="F75" s="23"/>
-      <c r="G75" s="22" t="s">
-        <v>76</v>
+      <c r="G75" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="H75" s="22" t="s">
         <v>77</v>
       </c>
       <c r="I75" s="32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J75" s="29" t="n">
         <f aca="false">J74+D74</f>
@@ -5391,7 +5394,7 @@
         <v>11.75</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O75" s="24" t="n">
         <v>9</v>
@@ -5405,10 +5408,10 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="31" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D76" s="32" t="n">
         <v>8</v>
@@ -5417,14 +5420,14 @@
         <v>116</v>
       </c>
       <c r="F76" s="23"/>
-      <c r="G76" s="22" t="s">
-        <v>76</v>
+      <c r="G76" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="H76" s="22" t="s">
         <v>77</v>
       </c>
       <c r="I76" s="32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J76" s="29" t="n">
         <f aca="false">J75+D75</f>
@@ -5443,7 +5446,7 @@
         <v>12</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O76" s="24" t="n">
         <v>9</v>
@@ -5457,10 +5460,10 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="31" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D77" s="32" t="n">
         <v>8</v>
@@ -5469,14 +5472,14 @@
         <v>116</v>
       </c>
       <c r="F77" s="23"/>
-      <c r="G77" s="22" t="s">
-        <v>76</v>
+      <c r="G77" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="H77" s="22" t="s">
         <v>77</v>
       </c>
       <c r="I77" s="32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J77" s="29" t="n">
         <f aca="false">J76+D76</f>
@@ -5495,7 +5498,7 @@
         <v>12.25</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O77" s="24" t="n">
         <v>9</v>
@@ -5509,10 +5512,10 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="32" t="n">
         <v>8</v>
@@ -5521,14 +5524,14 @@
         <v>116</v>
       </c>
       <c r="F78" s="23"/>
-      <c r="G78" s="22" t="s">
-        <v>76</v>
+      <c r="G78" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="H78" s="22" t="s">
         <v>77</v>
       </c>
       <c r="I78" s="32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J78" s="29" t="n">
         <f aca="false">J77+D77</f>
@@ -5547,7 +5550,7 @@
         <v>12.5</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O78" s="24" t="n">
         <v>9</v>
@@ -5561,10 +5564,10 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D79" s="32" t="n">
         <v>8</v>
@@ -5573,14 +5576,14 @@
         <v>116</v>
       </c>
       <c r="F79" s="23"/>
-      <c r="G79" s="22" t="s">
-        <v>76</v>
+      <c r="G79" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="H79" s="22" t="s">
         <v>77</v>
       </c>
       <c r="I79" s="32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J79" s="29" t="n">
         <f aca="false">J78+D78</f>
@@ -5599,7 +5602,7 @@
         <v>12.75</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O79" s="24" t="n">
         <v>6</v>
@@ -5613,10 +5616,10 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D80" s="32" t="n">
         <v>8</v>
@@ -5625,14 +5628,14 @@
         <v>116</v>
       </c>
       <c r="F80" s="23"/>
-      <c r="G80" s="22" t="s">
-        <v>76</v>
+      <c r="G80" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="H80" s="22" t="s">
         <v>77</v>
       </c>
       <c r="I80" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J80" s="29" t="n">
         <f aca="false">J79+D79</f>
@@ -5651,7 +5654,7 @@
         <v>13</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O80" s="24" t="n">
         <v>9</v>
@@ -5665,10 +5668,10 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D81" s="32" t="n">
         <v>8</v>
@@ -5682,7 +5685,7 @@
       </c>
       <c r="H81" s="22"/>
       <c r="I81" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J81" s="29" t="n">
         <f aca="false">J80+D80</f>
@@ -5715,10 +5718,10 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D82" s="32" t="n">
         <v>16</v>
@@ -5732,7 +5735,7 @@
       </c>
       <c r="H82" s="22"/>
       <c r="I82" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J82" s="29" t="n">
         <f aca="false">J81+D81</f>
@@ -5775,7 +5778,7 @@
       <c r="G83" s="23"/>
       <c r="H83" s="23"/>
       <c r="I83" s="23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J83" s="29" t="n">
         <f aca="false">J82+D82</f>
@@ -5813,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -5825,7 +5828,7 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B86" s="31"/>
       <c r="C86" s="32"/>
@@ -5842,10 +5845,10 @@
     </row>
     <row r="87" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D87" s="32" t="n">
         <v>8</v>
@@ -5854,16 +5857,16 @@
         <v>26</v>
       </c>
       <c r="F87" s="23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H87" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I87" s="23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J87" s="29" t="n">
         <f aca="false">J83</f>
@@ -5882,7 +5885,7 @@
         <v>14</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O87" s="3" t="n">
         <v>1</v>
@@ -5896,10 +5899,10 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="32" t="n">
         <v>8</v>
@@ -5913,7 +5916,7 @@
       </c>
       <c r="H88" s="22"/>
       <c r="I88" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J88" s="29" t="n">
         <f aca="false">J87+D87</f>
@@ -5952,7 +5955,7 @@
       <c r="C89" s="32"/>
       <c r="D89" s="32"/>
       <c r="E89" s="23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F89" s="23"/>
       <c r="G89" s="23"/>
@@ -5965,10 +5968,10 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D90" s="32" t="n">
         <v>1</v>
@@ -5982,7 +5985,7 @@
       </c>
       <c r="H90" s="22"/>
       <c r="I90" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J90" s="29" t="n">
         <f aca="false">J88+D88</f>
@@ -6015,10 +6018,10 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D91" s="32" t="n">
         <v>1</v>
@@ -6034,7 +6037,7 @@
         <v>27</v>
       </c>
       <c r="I91" s="23" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J91" s="29" t="n">
         <f aca="false">J90+D90</f>
@@ -6053,7 +6056,7 @@
         <v>14.53125</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O91" s="3" t="n">
         <v>1</v>
@@ -6067,10 +6070,10 @@
     </row>
     <row r="92" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D92" s="32" t="n">
         <v>1</v>
@@ -6086,7 +6089,7 @@
         <v>27</v>
       </c>
       <c r="I92" s="23" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J92" s="29" t="n">
         <f aca="false">J91+D91</f>
@@ -6105,7 +6108,7 @@
         <v>14.5625</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O92" s="3" t="n">
         <v>1</v>
@@ -6119,10 +6122,10 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="31" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D93" s="32" t="n">
         <v>1</v>
@@ -6138,7 +6141,7 @@
         <v>27</v>
       </c>
       <c r="I93" s="23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J93" s="29" t="n">
         <f aca="false">J92+D92</f>
@@ -6171,10 +6174,10 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D94" s="32" t="n">
         <v>1</v>
@@ -6190,7 +6193,7 @@
         <v>27</v>
       </c>
       <c r="I94" s="23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J94" s="29" t="n">
         <f aca="false">J93+D93</f>
@@ -6223,10 +6226,10 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="31" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D95" s="32" t="n">
         <v>1</v>
@@ -6273,10 +6276,10 @@
     </row>
     <row r="96" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="33" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D96" s="32" t="n">
         <v>1</v>
@@ -6292,7 +6295,7 @@
         <v>27</v>
       </c>
       <c r="I96" s="23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J96" s="29" t="n">
         <f aca="false">J95+D95</f>
@@ -6325,10 +6328,10 @@
     </row>
     <row r="97" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="33" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D97" s="32" t="n">
         <v>1</v>
@@ -6338,13 +6341,13 @@
       </c>
       <c r="F97" s="23"/>
       <c r="G97" s="22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H97" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I97" s="23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J97" s="29" t="n">
         <f aca="false">J96+D96</f>
@@ -6363,7 +6366,7 @@
         <v>14.71875</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O97" s="3" t="n">
         <v>1</v>
@@ -6397,10 +6400,10 @@
     </row>
     <row r="99" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D99" s="32" t="n">
         <v>8</v>
@@ -6416,7 +6419,7 @@
         <v>27</v>
       </c>
       <c r="I99" s="23" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J99" s="29" t="n">
         <f aca="false">J97+D97</f>
@@ -6435,7 +6438,7 @@
         <v>14.75</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O99" s="3" t="n">
         <v>1</v>
@@ -6449,10 +6452,10 @@
     </row>
     <row r="100" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D100" s="32" t="n">
         <v>8</v>
@@ -6468,7 +6471,7 @@
         <v>27</v>
       </c>
       <c r="I100" s="23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J100" s="29" t="n">
         <f aca="false">J99+D99</f>
@@ -6487,7 +6490,7 @@
         <v>15</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O100" s="3" t="n">
         <v>1</v>
@@ -6501,10 +6504,10 @@
     </row>
     <row r="101" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="31" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D101" s="32" t="n">
         <v>32</v>
@@ -6522,7 +6525,7 @@
         <v>27</v>
       </c>
       <c r="I101" s="23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J101" s="29" t="n">
         <f aca="false">J100+D100</f>
@@ -6555,10 +6558,10 @@
     </row>
     <row r="102" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D102" s="32" t="n">
         <v>8</v>
@@ -6574,7 +6577,7 @@
         <v>27</v>
       </c>
       <c r="I102" s="23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J102" s="29" t="n">
         <f aca="false">J101+D101</f>
@@ -6607,10 +6610,10 @@
     </row>
     <row r="103" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D103" s="32" t="n">
         <v>8</v>
@@ -6626,7 +6629,7 @@
         <v>27</v>
       </c>
       <c r="I103" s="23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J103" s="29" t="n">
         <f aca="false">J102+D102</f>
@@ -6659,10 +6662,10 @@
     </row>
     <row r="104" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="31" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D104" s="32" t="n">
         <v>8</v>
@@ -6672,13 +6675,13 @@
       </c>
       <c r="F104" s="23"/>
       <c r="G104" s="23" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H104" s="22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I104" s="23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J104" s="29" t="n">
         <f aca="false">J103+D103</f>
@@ -6697,7 +6700,7 @@
         <v>16.75</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O104" s="3" t="n">
         <v>9</v>
@@ -6711,10 +6714,10 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D105" s="32" t="n">
         <v>1</v>
@@ -6724,13 +6727,13 @@
       </c>
       <c r="F105" s="23"/>
       <c r="G105" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H105" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I105" s="32" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J105" s="29" t="n">
         <f aca="false">J104+D104</f>
@@ -6749,7 +6752,7 @@
         <v>17</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O105" s="3" t="n">
         <v>8</v>
@@ -6763,10 +6766,10 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="31" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D106" s="32" t="n">
         <v>1</v>
@@ -6776,7 +6779,7 @@
       </c>
       <c r="F106" s="23"/>
       <c r="G106" s="22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H106" s="22" t="s">
         <v>27</v>
@@ -6799,7 +6802,7 @@
         <v>17.03125</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O106" s="3" t="n">
         <v>8</v>
@@ -6813,10 +6816,10 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="31" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D107" s="32" t="n">
         <v>1</v>
@@ -6826,7 +6829,7 @@
       </c>
       <c r="F107" s="23"/>
       <c r="G107" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H107" s="22" t="s">
         <v>27</v>
@@ -6849,7 +6852,7 @@
         <v>17.0625</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O107" s="3" t="n">
         <v>8</v>
@@ -6863,10 +6866,10 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="31" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D108" s="32" t="n">
         <v>1</v>
@@ -6876,7 +6879,7 @@
       </c>
       <c r="F108" s="23"/>
       <c r="G108" s="22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H108" s="22" t="s">
         <v>27</v>
@@ -6899,7 +6902,7 @@
         <v>17.09375</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O108" s="3" t="n">
         <v>8</v>
@@ -6913,10 +6916,10 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="31" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D109" s="32" t="n">
         <v>1</v>
@@ -6926,7 +6929,7 @@
       </c>
       <c r="F109" s="23"/>
       <c r="G109" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H109" s="22" t="s">
         <v>27</v>
@@ -6949,7 +6952,7 @@
         <v>17.125</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O109" s="24" t="n">
         <v>8</v>
@@ -6963,10 +6966,10 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D110" s="32" t="n">
         <v>1</v>
@@ -6976,7 +6979,7 @@
       </c>
       <c r="F110" s="23"/>
       <c r="G110" s="22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H110" s="22" t="s">
         <v>27</v>
@@ -6999,7 +7002,7 @@
         <v>17.15625</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O110" s="24" t="n">
         <v>8</v>
@@ -7013,10 +7016,10 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D111" s="32" t="n">
         <v>1</v>
@@ -7026,7 +7029,7 @@
       </c>
       <c r="F111" s="23"/>
       <c r="G111" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H111" s="22" t="s">
         <v>27</v>
@@ -7049,7 +7052,7 @@
         <v>17.1875</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O111" s="24" t="n">
         <v>8</v>
@@ -7063,10 +7066,10 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D112" s="32" t="n">
         <v>1</v>
@@ -7076,7 +7079,7 @@
       </c>
       <c r="F112" s="23"/>
       <c r="G112" s="22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H112" s="22" t="s">
         <v>27</v>
@@ -7099,7 +7102,7 @@
         <v>17.21875</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O112" s="24" t="n">
         <v>8</v>
@@ -7113,10 +7116,10 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D113" s="32" t="n">
         <v>1</v>
@@ -7126,13 +7129,13 @@
       </c>
       <c r="F113" s="23"/>
       <c r="G113" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H113" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I113" s="32" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J113" s="29" t="n">
         <f aca="false">J112+D112</f>
@@ -7151,7 +7154,7 @@
         <v>17.25</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O113" s="24" t="n">
         <v>8</v>
@@ -7165,10 +7168,10 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D114" s="32" t="n">
         <v>1</v>
@@ -7178,7 +7181,7 @@
       </c>
       <c r="F114" s="23"/>
       <c r="G114" s="22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H114" s="22" t="s">
         <v>27</v>
@@ -7201,7 +7204,7 @@
         <v>17.28125</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O114" s="24" t="n">
         <v>8</v>
@@ -7215,10 +7218,10 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="31" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D115" s="32" t="n">
         <v>1</v>
@@ -7228,7 +7231,7 @@
       </c>
       <c r="F115" s="23"/>
       <c r="G115" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H115" s="22" t="s">
         <v>27</v>
@@ -7251,7 +7254,7 @@
         <v>17.3125</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O115" s="24" t="n">
         <v>8</v>
@@ -7265,10 +7268,10 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D116" s="32" t="n">
         <v>1</v>
@@ -7278,7 +7281,7 @@
       </c>
       <c r="F116" s="23"/>
       <c r="G116" s="22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H116" s="22" t="s">
         <v>27</v>
@@ -7301,7 +7304,7 @@
         <v>17.34375</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O116" s="24" t="n">
         <v>8</v>
@@ -7315,10 +7318,10 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D117" s="32" t="n">
         <v>1</v>
@@ -7328,7 +7331,7 @@
       </c>
       <c r="F117" s="23"/>
       <c r="G117" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H117" s="22" t="s">
         <v>27</v>
@@ -7351,7 +7354,7 @@
         <v>17.375</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O117" s="24" t="n">
         <v>8</v>
@@ -7365,10 +7368,10 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D118" s="32" t="n">
         <v>1</v>
@@ -7378,7 +7381,7 @@
       </c>
       <c r="F118" s="23"/>
       <c r="G118" s="22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H118" s="22" t="s">
         <v>27</v>
@@ -7401,7 +7404,7 @@
         <v>17.40625</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O118" s="24" t="n">
         <v>8</v>
@@ -7415,10 +7418,10 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="31" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D119" s="32" t="n">
         <v>1</v>
@@ -7428,7 +7431,7 @@
       </c>
       <c r="F119" s="23"/>
       <c r="G119" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H119" s="22" t="s">
         <v>27</v>
@@ -7451,7 +7454,7 @@
         <v>17.4375</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O119" s="24" t="n">
         <v>8</v>
@@ -7465,10 +7468,10 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D120" s="32" t="n">
         <v>1</v>
@@ -7478,7 +7481,7 @@
       </c>
       <c r="F120" s="23"/>
       <c r="G120" s="22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H120" s="22" t="s">
         <v>27</v>
@@ -7501,7 +7504,7 @@
         <v>17.46875</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O120" s="24" t="n">
         <v>8</v>
@@ -7515,10 +7518,10 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="31" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D121" s="32" t="n">
         <v>1</v>
@@ -7528,13 +7531,13 @@
       </c>
       <c r="F121" s="23"/>
       <c r="G121" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H121" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I121" s="32" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J121" s="29" t="n">
         <f aca="false">J120+D120</f>
@@ -7553,7 +7556,7 @@
         <v>17.5</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O121" s="24" t="n">
         <v>8</v>
@@ -7567,10 +7570,10 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="31" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D122" s="32" t="n">
         <v>1</v>
@@ -7580,7 +7583,7 @@
       </c>
       <c r="F122" s="23"/>
       <c r="G122" s="22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H122" s="22" t="s">
         <v>27</v>
@@ -7603,7 +7606,7 @@
         <v>17.53125</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O122" s="24" t="n">
         <v>8</v>
@@ -7617,10 +7620,10 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="31" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D123" s="32" t="n">
         <v>1</v>
@@ -7630,7 +7633,7 @@
       </c>
       <c r="F123" s="23"/>
       <c r="G123" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H123" s="22" t="s">
         <v>27</v>
@@ -7653,7 +7656,7 @@
         <v>17.5625</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O123" s="24" t="n">
         <v>8</v>
@@ -7667,10 +7670,10 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="31" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D124" s="32" t="n">
         <v>1</v>
@@ -7680,7 +7683,7 @@
       </c>
       <c r="F124" s="23"/>
       <c r="G124" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H124" s="22" t="s">
         <v>27</v>
@@ -7703,7 +7706,7 @@
         <v>17.59375</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O124" s="24" t="n">
         <v>8</v>
@@ -7717,10 +7720,10 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="31" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D125" s="32" t="n">
         <v>1</v>
@@ -7730,7 +7733,7 @@
       </c>
       <c r="F125" s="23"/>
       <c r="G125" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H125" s="22" t="s">
         <v>27</v>
@@ -7753,7 +7756,7 @@
         <v>17.625</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O125" s="24" t="n">
         <v>8</v>
@@ -7767,10 +7770,10 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="31" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D126" s="32" t="n">
         <v>1</v>
@@ -7780,7 +7783,7 @@
       </c>
       <c r="F126" s="23"/>
       <c r="G126" s="22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H126" s="22" t="s">
         <v>27</v>
@@ -7803,7 +7806,7 @@
         <v>17.65625</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O126" s="24" t="n">
         <v>6</v>
@@ -7817,10 +7820,10 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="31" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D127" s="32" t="n">
         <v>1</v>
@@ -7830,11 +7833,11 @@
       </c>
       <c r="F127" s="23"/>
       <c r="G127" s="22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H127" s="22"/>
       <c r="I127" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J127" s="29" t="n">
         <f aca="false">J126+D126</f>
@@ -7853,7 +7856,7 @@
         <v>17.6875</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O127" s="24" t="n">
         <v>9</v>
@@ -7867,10 +7870,10 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="31" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D128" s="32" t="n">
         <v>1</v>
@@ -7880,7 +7883,7 @@
       </c>
       <c r="F128" s="23"/>
       <c r="G128" s="22" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H128" s="22" t="s">
         <v>27</v>
@@ -7903,7 +7906,7 @@
         <v>17.71875</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O128" s="24" t="n">
         <v>9</v>
@@ -7917,10 +7920,10 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="31" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D129" s="32" t="n">
         <v>1</v>
@@ -7930,7 +7933,7 @@
       </c>
       <c r="F129" s="23"/>
       <c r="G129" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H129" s="22" t="s">
         <v>27</v>
@@ -7953,7 +7956,7 @@
         <v>17.75</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O129" s="24" t="n">
         <v>6</v>
@@ -7967,10 +7970,10 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="31" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D130" s="32" t="n">
         <v>1</v>
@@ -7980,7 +7983,7 @@
       </c>
       <c r="F130" s="23"/>
       <c r="G130" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H130" s="22" t="s">
         <v>27</v>
@@ -8003,7 +8006,7 @@
         <v>17.78125</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O130" s="24" t="n">
         <v>6</v>
@@ -8017,10 +8020,10 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="31" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D131" s="32" t="n">
         <v>1</v>
@@ -8030,7 +8033,7 @@
       </c>
       <c r="F131" s="23"/>
       <c r="G131" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H131" s="22" t="s">
         <v>27</v>
@@ -8053,7 +8056,7 @@
         <v>17.8125</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O131" s="24" t="n">
         <v>6</v>
@@ -8067,10 +8070,10 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="31" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D132" s="32" t="n">
         <v>1</v>
@@ -8080,7 +8083,7 @@
       </c>
       <c r="F132" s="23"/>
       <c r="G132" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H132" s="22" t="s">
         <v>27</v>
@@ -8103,7 +8106,7 @@
         <v>17.84375</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O132" s="24" t="n">
         <v>6</v>
@@ -8117,10 +8120,10 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="31" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D133" s="32" t="n">
         <v>1</v>
@@ -8130,7 +8133,7 @@
       </c>
       <c r="F133" s="23"/>
       <c r="G133" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H133" s="22" t="s">
         <v>27</v>
@@ -8153,7 +8156,7 @@
         <v>17.875</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O133" s="24" t="n">
         <v>6</v>
@@ -8167,10 +8170,10 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="31" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D134" s="32" t="n">
         <v>1</v>
@@ -8180,7 +8183,7 @@
       </c>
       <c r="F134" s="23"/>
       <c r="G134" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H134" s="22" t="s">
         <v>27</v>
@@ -8203,7 +8206,7 @@
         <v>17.90625</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O134" s="24" t="n">
         <v>6</v>
@@ -8217,10 +8220,10 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="31" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D135" s="32" t="n">
         <v>1</v>
@@ -8230,7 +8233,7 @@
       </c>
       <c r="F135" s="23"/>
       <c r="G135" s="22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H135" s="22" t="s">
         <v>27</v>
@@ -8253,7 +8256,7 @@
         <v>17.9375</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O135" s="24" t="n">
         <v>7</v>
@@ -8267,10 +8270,10 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D136" s="32" t="n">
         <v>1</v>
@@ -8280,7 +8283,7 @@
       </c>
       <c r="F136" s="23"/>
       <c r="G136" s="22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H136" s="22" t="s">
         <v>27</v>
@@ -8303,7 +8306,7 @@
         <v>17.96875</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O136" s="24" t="n">
         <v>8</v>
@@ -8317,10 +8320,10 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="31" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D137" s="32" t="n">
         <v>8</v>
@@ -8336,7 +8339,7 @@
         <v>27</v>
       </c>
       <c r="I137" s="23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J137" s="29" t="n">
         <f aca="false">J136+D136</f>
@@ -8355,7 +8358,7 @@
         <v>18</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O137" s="3" t="n">
         <v>1</v>
@@ -8369,10 +8372,10 @@
     </row>
     <row r="138" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="31" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D138" s="32" t="n">
         <v>8</v>
@@ -8388,7 +8391,7 @@
         <v>27</v>
       </c>
       <c r="I138" s="23" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J138" s="29" t="n">
         <f aca="false">J137+D137</f>
@@ -8421,10 +8424,10 @@
     </row>
     <row r="139" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="31" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D139" s="32" t="n">
         <v>8</v>
@@ -8440,7 +8443,7 @@
         <v>27</v>
       </c>
       <c r="I139" s="23" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J139" s="29" t="n">
         <f aca="false">J138+D138</f>
@@ -8473,10 +8476,10 @@
     </row>
     <row r="140" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="31" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D140" s="32" t="n">
         <v>8</v>
@@ -8492,7 +8495,7 @@
         <v>27</v>
       </c>
       <c r="I140" s="23" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J140" s="29" t="n">
         <f aca="false">J139+D139</f>
@@ -8525,10 +8528,10 @@
     </row>
     <row r="141" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="31" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D141" s="32" t="n">
         <v>8</v>
@@ -8544,7 +8547,7 @@
         <v>27</v>
       </c>
       <c r="I141" s="23" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J141" s="29" t="n">
         <f aca="false">J140+D140</f>
@@ -8577,10 +8580,10 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="31" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D142" s="32" t="n">
         <v>8</v>
@@ -8594,7 +8597,7 @@
       </c>
       <c r="H142" s="22"/>
       <c r="I142" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J142" s="29" t="n">
         <f aca="false">J141+D141</f>
@@ -8627,10 +8630,10 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="31" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D143" s="32" t="n">
         <v>8</v>
@@ -8644,7 +8647,7 @@
       </c>
       <c r="H143" s="22"/>
       <c r="I143" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J143" s="29" t="n">
         <f aca="false">J142+D142</f>
@@ -8677,10 +8680,10 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="31" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D144" s="32" t="n">
         <v>8</v>
@@ -8694,7 +8697,7 @@
       </c>
       <c r="H144" s="22"/>
       <c r="I144" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J144" s="29" t="n">
         <f aca="false">J143+D143</f>
@@ -8727,10 +8730,10 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="31" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D145" s="32" t="n">
         <v>8</v>
@@ -8744,7 +8747,7 @@
       </c>
       <c r="H145" s="22"/>
       <c r="I145" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J145" s="29" t="n">
         <f aca="false">J144+D144</f>
@@ -8777,10 +8780,10 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="31" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D146" s="32" t="n">
         <v>8</v>
@@ -8794,7 +8797,7 @@
       </c>
       <c r="H146" s="22"/>
       <c r="I146" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J146" s="29" t="n">
         <f aca="false">J145+D145</f>
@@ -8827,10 +8830,10 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="31" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D147" s="32" t="n">
         <v>8</v>
@@ -8844,7 +8847,7 @@
       </c>
       <c r="H147" s="22"/>
       <c r="I147" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J147" s="29" t="n">
         <f aca="false">J146+D146</f>
@@ -8899,10 +8902,10 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="31" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C149" s="31" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D149" s="32" t="n">
         <v>1</v>
@@ -8918,7 +8921,7 @@
         <v>27</v>
       </c>
       <c r="I149" s="23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J149" s="29" t="n">
         <f aca="false">J148+D148</f>
@@ -8948,10 +8951,10 @@
     </row>
     <row r="150" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="31" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C150" s="32" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D150" s="32" t="n">
         <v>1</v>
@@ -8967,7 +8970,7 @@
         <v>27</v>
       </c>
       <c r="I150" s="23" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J150" s="29" t="n">
         <f aca="false">J149+D149</f>
@@ -9000,10 +9003,10 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="31" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D151" s="32" t="n">
         <v>3</v>
@@ -9013,7 +9016,7 @@
       </c>
       <c r="F151" s="23"/>
       <c r="G151" s="23" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H151" s="22" t="s">
         <v>27</v>
@@ -9036,7 +9039,7 @@
         <v>20.8125</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O151" s="3" t="n">
         <v>1</v>
@@ -9050,10 +9053,10 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C152" s="32" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D152" s="32" t="n">
         <v>1</v>
@@ -9086,7 +9089,7 @@
         <v>20.90625</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O152" s="3" t="n">
         <v>1</v>
@@ -9100,10 +9103,10 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="31" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D153" s="32" t="n">
         <v>1</v>
@@ -9119,7 +9122,7 @@
         <v>27</v>
       </c>
       <c r="I153" s="23" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J153" s="29" t="n">
         <f aca="false">J152+D152</f>
@@ -9152,10 +9155,10 @@
     </row>
     <row r="154" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="31" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D154" s="32" t="n">
         <v>1</v>
@@ -9171,7 +9174,7 @@
         <v>27</v>
       </c>
       <c r="I154" s="23" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J154" s="29" t="n">
         <f aca="false">J153+D153</f>
@@ -9224,10 +9227,10 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="31" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C156" s="31" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D156" s="32" t="n">
         <v>8</v>
@@ -9241,7 +9244,7 @@
       </c>
       <c r="H156" s="22"/>
       <c r="I156" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J156" s="29" t="n">
         <f aca="false">J155+D155</f>
@@ -9274,10 +9277,10 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="31" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C157" s="31" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D157" s="32" t="n">
         <v>8</v>
@@ -9291,7 +9294,7 @@
       </c>
       <c r="H157" s="22"/>
       <c r="I157" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J157" s="29" t="n">
         <f aca="false">J156+D156</f>
@@ -9324,10 +9327,10 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="31" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C158" s="31" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D158" s="32" t="n">
         <v>8</v>
@@ -9341,7 +9344,7 @@
       </c>
       <c r="H158" s="22"/>
       <c r="I158" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J158" s="29" t="n">
         <f aca="false">J157+D157</f>
@@ -9374,10 +9377,10 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="31" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C159" s="31" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D159" s="32" t="n">
         <v>8</v>
@@ -9391,7 +9394,7 @@
       </c>
       <c r="H159" s="22"/>
       <c r="I159" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J159" s="29" t="n">
         <f aca="false">J158+D158</f>
@@ -9434,7 +9437,7 @@
       <c r="G160" s="36"/>
       <c r="H160" s="35"/>
       <c r="I160" s="36" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J160" s="29" t="n">
         <f aca="false">J159+D159</f>
@@ -9461,7 +9464,7 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B163" s="31"/>
       <c r="C163" s="32"/>
@@ -9481,7 +9484,7 @@
         <v>57</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D164" s="32" t="n">
         <v>32</v>
@@ -9539,7 +9542,7 @@
       <c r="G165" s="36"/>
       <c r="H165" s="35"/>
       <c r="I165" s="36" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J165" s="29" t="n">
         <f aca="false">J164+D164</f>
@@ -9576,31 +9579,31 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="31" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C168" s="32" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D168" s="27" t="n">
         <v>32</v>
       </c>
       <c r="E168" s="38" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F168" s="23"/>
       <c r="G168" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I168" s="28" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J168" s="29" t="n">
         <f aca="false">J83</f>
@@ -9633,10 +9636,10 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="31" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C169" s="32" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D169" s="27" t="n">
         <v>16</v>
@@ -9646,11 +9649,11 @@
       </c>
       <c r="F169" s="23"/>
       <c r="G169" s="23" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H169" s="0"/>
       <c r="I169" s="28" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J169" s="29" t="n">
         <f aca="false">J168+D168</f>
@@ -9669,7 +9672,7 @@
         <v>15</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O169" s="3" t="n">
         <v>5</v>
@@ -9683,16 +9686,16 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="31" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C170" s="32" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D170" s="27" t="n">
         <v>8</v>
       </c>
       <c r="E170" s="38" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F170" s="23"/>
       <c r="G170" s="23" t="n">
@@ -9702,7 +9705,7 @@
         <v>27</v>
       </c>
       <c r="I170" s="28" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J170" s="29" t="n">
         <f aca="false">J169+D169</f>
@@ -9721,7 +9724,7 @@
         <v>15.5</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O170" s="3" t="n">
         <v>5</v>
@@ -9735,10 +9738,10 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="31" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C171" s="32" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D171" s="27" t="n">
         <v>8</v>
@@ -9752,7 +9755,7 @@
         <v>27</v>
       </c>
       <c r="I171" s="28" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="J171" s="29" t="n">
         <f aca="false">J170+D170</f>
@@ -9794,7 +9797,7 @@
       <c r="G172" s="36"/>
       <c r="H172" s="35"/>
       <c r="I172" s="36" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J172" s="29" t="n">
         <f aca="false">J171+D171</f>
@@ -9815,15 +9818,15 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="31" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C176" s="32" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D176" s="27" t="n">
         <v>32</v>
@@ -9835,7 +9838,7 @@
       </c>
       <c r="H176" s="0"/>
       <c r="I176" s="28" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J176" s="29" t="n">
         <f aca="false">J83</f>
@@ -9868,10 +9871,10 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="31" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C177" s="32" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D177" s="27" t="n">
         <v>16</v>
@@ -9881,10 +9884,10 @@
       </c>
       <c r="F177" s="23"/>
       <c r="G177" s="23" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I177" s="28" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J177" s="29" t="n">
         <f aca="false">J176+D176</f>
@@ -9903,7 +9906,7 @@
         <v>15</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O177" s="3" t="n">
         <v>5</v>
@@ -9917,10 +9920,10 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="31" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C178" s="32" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D178" s="27" t="n">
         <v>16</v>
@@ -9928,10 +9931,10 @@
       <c r="E178" s="38"/>
       <c r="F178" s="23"/>
       <c r="G178" s="23" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I178" s="28" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J178" s="29" t="n">
         <f aca="false">J177+D177</f>
@@ -9950,7 +9953,7 @@
         <v>15.5</v>
       </c>
       <c r="N178" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O178" s="3" t="n">
         <v>5</v>
@@ -9964,10 +9967,10 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C179" s="32" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D179" s="27" t="n">
         <v>32</v>
@@ -9978,7 +9981,7 @@
         <v>36</v>
       </c>
       <c r="I179" s="28" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J179" s="29" t="n">
         <f aca="false">J178+D178</f>
@@ -10011,16 +10014,16 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="31" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C180" s="32" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D180" s="27" t="n">
         <v>8</v>
       </c>
       <c r="E180" s="38" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F180" s="23"/>
       <c r="G180" s="23" t="n">
@@ -10030,7 +10033,7 @@
         <v>27</v>
       </c>
       <c r="I180" s="28" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="J180" s="29" t="n">
         <f aca="false">J179+D179</f>
@@ -10049,7 +10052,7 @@
         <v>17</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O180" s="3" t="n">
         <v>5</v>
@@ -10063,10 +10066,10 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="31" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C181" s="32" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D181" s="27" t="n">
         <v>24</v>
@@ -10123,7 +10126,7 @@
       <c r="G182" s="36"/>
       <c r="H182" s="35"/>
       <c r="I182" s="36" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J182" s="29" t="n">
         <f aca="false">J181+D181</f>
@@ -10149,15 +10152,15 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="31" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C187" s="32" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D187" s="27" t="n">
         <v>32</v>
@@ -10170,10 +10173,10 @@
         <v>1</v>
       </c>
       <c r="H187" s="40" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I187" s="28" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J187" s="29" t="n">
         <f aca="false">J160</f>
@@ -10206,10 +10209,10 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="31" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C188" s="32" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D188" s="27" t="n">
         <v>16</v>
@@ -10219,13 +10222,13 @@
       </c>
       <c r="F188" s="23"/>
       <c r="G188" s="23" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H188" s="40" t="s">
         <v>27</v>
       </c>
       <c r="I188" s="28" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J188" s="29" t="n">
         <f aca="false">J187+D187</f>
@@ -10244,7 +10247,7 @@
         <v>23</v>
       </c>
       <c r="N188" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O188" s="3" t="n">
         <v>5</v>
@@ -10258,10 +10261,10 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="31" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D189" s="27" t="n">
         <v>8</v>
@@ -10271,13 +10274,13 @@
       </c>
       <c r="F189" s="23"/>
       <c r="G189" s="40" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H189" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I189" s="28" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J189" s="29" t="n">
         <f aca="false">J188+D188</f>
@@ -10296,7 +10299,7 @@
         <v>23.5</v>
       </c>
       <c r="N189" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O189" s="24" t="n">
         <v>5</v>
@@ -10365,7 +10368,7 @@
         <v>23.75</v>
       </c>
       <c r="N191" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O191" s="3" t="n">
         <v>1</v>
@@ -10417,7 +10420,7 @@
         <v>23.78125</v>
       </c>
       <c r="N192" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O192" s="3" t="n">
         <v>1</v>
@@ -10469,7 +10472,7 @@
         <v>23.8125</v>
       </c>
       <c r="N193" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O193" s="3" t="n">
         <v>1</v>
@@ -10486,7 +10489,7 @@
         <v>55</v>
       </c>
       <c r="C194" s="22" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D194" s="22" t="n">
         <v>5</v>
@@ -10554,7 +10557,7 @@
       </c>
       <c r="B196" s="31"/>
       <c r="I196" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J196" s="29" t="n">
         <f aca="false">J194+D194</f>
@@ -10575,7 +10578,7 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="41" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B197" s="11"/>
       <c r="C197" s="42"/>
@@ -10641,10 +10644,10 @@
     </row>
     <row r="199" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="31" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C199" s="22" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D199" s="22" t="n">
         <v>5248</v>
@@ -10662,7 +10665,7 @@
         <v>27</v>
       </c>
       <c r="I199" s="23" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J199" s="4" t="n">
         <v>0</v>
@@ -10694,10 +10697,10 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="31" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C200" s="22" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D200" s="22" t="n">
         <v>7</v>
@@ -10746,10 +10749,10 @@
     </row>
     <row r="201" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="31" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C201" s="22" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D201" s="22" t="n">
         <v>1</v>
@@ -10763,7 +10766,7 @@
       </c>
       <c r="H201" s="22"/>
       <c r="I201" s="23" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J201" s="4" t="n">
         <f aca="false">J200+D200</f>
@@ -10782,7 +10785,7 @@
         <v>164.21875</v>
       </c>
       <c r="N201" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O201" s="3" t="n">
         <v>1</v>
@@ -10799,7 +10802,7 @@
         <v>59</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J202" s="4" t="n">
         <f aca="false">J201+D201</f>
@@ -10827,7 +10830,7 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="43" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B204" s="11"/>
       <c r="C204" s="42"/>
@@ -10893,10 +10896,10 @@
     </row>
     <row r="206" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="31" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C206" s="22" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D206" s="22" t="n">
         <v>664</v>
@@ -10914,7 +10917,7 @@
         <v>27</v>
       </c>
       <c r="I206" s="23" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J206" s="4" t="n">
         <v>0</v>
@@ -10946,10 +10949,10 @@
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="31" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C207" s="22" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D207" s="22" t="n">
         <v>7</v>
@@ -10998,10 +11001,10 @@
     </row>
     <row r="208" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="31" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C208" s="22" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D208" s="22" t="n">
         <v>1</v>
@@ -11015,7 +11018,7 @@
       </c>
       <c r="H208" s="22"/>
       <c r="I208" s="23" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J208" s="4" t="n">
         <f aca="false">J207+D207</f>
@@ -11034,7 +11037,7 @@
         <v>20.96875</v>
       </c>
       <c r="N208" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O208" s="3" t="n">
         <v>1</v>
@@ -11051,7 +11054,7 @@
         <v>59</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J209" s="4" t="n">
         <f aca="false">J208+D208</f>
@@ -11072,7 +11075,7 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="43" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B213" s="11"/>
       <c r="C213" s="42"/>
@@ -11138,10 +11141,10 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="31" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D215" s="27" t="n">
         <v>32</v>
@@ -11154,10 +11157,10 @@
         <v>1</v>
       </c>
       <c r="H215" s="40" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I215" s="28" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J215" s="4" t="n">
         <f aca="false">J209</f>
@@ -11190,10 +11193,10 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="31" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D216" s="27" t="n">
         <v>16</v>
@@ -11202,16 +11205,16 @@
         <v>26</v>
       </c>
       <c r="F216" s="23" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G216" s="23" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H216" s="40" t="s">
         <v>27</v>
       </c>
       <c r="I216" s="28" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J216" s="4" t="n">
         <f aca="false">J215+D215</f>
@@ -11230,7 +11233,7 @@
         <v>22</v>
       </c>
       <c r="N216" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O216" s="3" t="n">
         <v>2</v>
@@ -11244,10 +11247,10 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="31" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C217" s="32" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D217" s="27" t="n">
         <v>8</v>
@@ -11255,13 +11258,13 @@
       <c r="E217" s="38"/>
       <c r="F217" s="23"/>
       <c r="G217" s="40" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H217" s="40" t="s">
         <v>27</v>
       </c>
       <c r="I217" s="28" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J217" s="4" t="n">
         <f aca="false">J216+D216</f>
@@ -11280,7 +11283,7 @@
         <v>22.5</v>
       </c>
       <c r="N217" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O217" s="24" t="n">
         <v>2</v>
@@ -11297,7 +11300,7 @@
         <v>28</v>
       </c>
       <c r="C218" s="32" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D218" s="27" t="n">
         <v>8</v>
@@ -11311,7 +11314,7 @@
         <v>27</v>
       </c>
       <c r="I218" s="28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J218" s="4" t="n">
         <f aca="false">J217+D217</f>
@@ -11347,7 +11350,7 @@
         <v>59</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J219" s="4" t="n">
         <f aca="false">J218+D218</f>
@@ -11380,7 +11383,7 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="43" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="222" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11438,10 +11441,10 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="44" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C223" s="38" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D223" s="38" t="n">
         <v>32</v>
@@ -11451,13 +11454,13 @@
       </c>
       <c r="F223" s="38"/>
       <c r="G223" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H223" s="38" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I223" s="38" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J223" s="45" t="n">
         <v>0</v>
@@ -11475,7 +11478,7 @@
         <v>0</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O223" s="3" t="n">
         <v>1</v>
@@ -11489,10 +11492,10 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="44" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C224" s="38" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D224" s="38" t="n">
         <v>32</v>
@@ -11502,13 +11505,13 @@
       </c>
       <c r="F224" s="38"/>
       <c r="G224" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H224" s="38" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I224" s="38" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J224" s="45" t="n">
         <f aca="false">J223+D223</f>
@@ -11527,7 +11530,7 @@
         <v>1</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O224" s="3" t="n">
         <v>1</v>
@@ -11541,7 +11544,7 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B225" s="44"/>
       <c r="C225" s="38"/>
@@ -11558,10 +11561,10 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="44" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C226" s="38" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D226" s="38" t="n">
         <v>1</v>
@@ -11571,13 +11574,13 @@
       </c>
       <c r="F226" s="38"/>
       <c r="G226" s="38" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H226" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I226" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J226" s="45" t="n">
         <f aca="false">J224+D224</f>
@@ -11596,7 +11599,7 @@
         <v>2</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O226" s="3" t="n">
         <v>1</v>
@@ -11610,10 +11613,10 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="44" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C227" s="38" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D227" s="38" t="n">
         <v>5</v>
@@ -11623,11 +11626,11 @@
       </c>
       <c r="F227" s="38"/>
       <c r="G227" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H227" s="38"/>
       <c r="I227" s="38" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J227" s="45" t="n">
         <f aca="false">J226+D226</f>
@@ -11646,7 +11649,7 @@
         <v>2.03125</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O227" s="3" t="n">
         <v>1</v>
@@ -11660,10 +11663,10 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="44" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C228" s="38" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D228" s="38" t="n">
         <v>4</v>
@@ -11673,13 +11676,13 @@
       </c>
       <c r="F228" s="38"/>
       <c r="G228" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H228" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I228" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J228" s="45" t="n">
         <f aca="false">J227+D227</f>
@@ -11698,7 +11701,7 @@
         <v>2.1875</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O228" s="3" t="n">
         <v>1</v>
@@ -11712,10 +11715,10 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="44" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C229" s="38" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D229" s="38" t="n">
         <v>5</v>
@@ -11725,13 +11728,13 @@
       </c>
       <c r="F229" s="38"/>
       <c r="G229" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H229" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I229" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J229" s="45" t="n">
         <f aca="false">J228+D228</f>
@@ -11750,7 +11753,7 @@
         <v>2.3125</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O229" s="3" t="n">
         <v>1</v>
@@ -11764,10 +11767,10 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="44" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C230" s="38" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D230" s="38" t="n">
         <v>6</v>
@@ -11777,13 +11780,13 @@
       </c>
       <c r="F230" s="38"/>
       <c r="G230" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H230" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I230" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J230" s="45" t="n">
         <f aca="false">J229+D229</f>
@@ -11802,7 +11805,7 @@
         <v>2.46875</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O230" s="3" t="n">
         <v>1</v>
@@ -11816,10 +11819,10 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="44" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C231" s="38" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D231" s="38" t="n">
         <v>6</v>
@@ -11829,13 +11832,13 @@
       </c>
       <c r="F231" s="38"/>
       <c r="G231" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H231" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I231" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J231" s="45" t="n">
         <f aca="false">J230+D230</f>
@@ -11854,7 +11857,7 @@
         <v>2.65625</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O231" s="3" t="n">
         <v>1</v>
@@ -11868,10 +11871,10 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="44" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C232" s="38" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D232" s="38" t="n">
         <v>5</v>
@@ -11881,13 +11884,13 @@
       </c>
       <c r="F232" s="38"/>
       <c r="G232" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H232" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I232" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J232" s="45" t="n">
         <f aca="false">J231+D231</f>
@@ -11906,7 +11909,7 @@
         <v>2.84375</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O232" s="3" t="n">
         <v>1</v>
@@ -11920,7 +11923,7 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B233" s="44"/>
       <c r="C233" s="38"/>
@@ -11937,10 +11940,10 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="44" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C234" s="38" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D234" s="38" t="n">
         <v>8</v>
@@ -11950,13 +11953,13 @@
       </c>
       <c r="F234" s="38"/>
       <c r="G234" s="38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H234" s="38" t="s">
         <v>71</v>
       </c>
       <c r="I234" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J234" s="45" t="n">
         <f aca="false">J232+D232</f>
@@ -11975,7 +11978,7 @@
         <v>3</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O234" s="3" t="n">
         <v>1</v>
@@ -11989,10 +11992,10 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="44" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C235" s="38" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D235" s="38" t="n">
         <v>8</v>
@@ -12002,13 +12005,13 @@
       </c>
       <c r="F235" s="38"/>
       <c r="G235" s="38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H235" s="38" t="s">
         <v>71</v>
       </c>
       <c r="I235" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J235" s="45" t="n">
         <f aca="false">J234+D234</f>
@@ -12027,7 +12030,7 @@
         <v>3.25</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O235" s="3" t="n">
         <v>1</v>
@@ -12041,10 +12044,10 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="44" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C236" s="38" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D236" s="38" t="n">
         <v>16</v>
@@ -12060,7 +12063,7 @@
         <v>27</v>
       </c>
       <c r="I236" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J236" s="45" t="n">
         <f aca="false">J235+D235</f>
@@ -12102,7 +12105,7 @@
       <c r="G237" s="38"/>
       <c r="H237" s="38"/>
       <c r="I237" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J237" s="45" t="n">
         <f aca="false">J236+D236</f>
@@ -12123,7 +12126,7 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="43" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F238" s="38"/>
       <c r="G238" s="38"/>
@@ -12207,10 +12210,10 @@
     </row>
     <row r="241" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="21" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C241" s="46" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D241" s="1" t="n">
         <v>5</v>
@@ -12226,7 +12229,7 @@
         <v>27</v>
       </c>
       <c r="I241" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J241" s="45" t="n">
         <f aca="false">J237</f>
@@ -12259,10 +12262,10 @@
     </row>
     <row r="242" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="21" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C242" s="46" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D242" s="1" t="n">
         <v>1</v>
@@ -12272,13 +12275,13 @@
       </c>
       <c r="F242" s="47"/>
       <c r="G242" s="38" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H242" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I242" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J242" s="45" t="n">
         <f aca="false">J241+D241</f>
@@ -12297,7 +12300,7 @@
         <v>4.15625</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O242" s="3" t="n">
         <v>1</v>
@@ -12311,10 +12314,10 @@
     </row>
     <row r="243" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="21" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C243" s="46" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D243" s="1" t="n">
         <v>1</v>
@@ -12324,13 +12327,13 @@
       </c>
       <c r="F243" s="47"/>
       <c r="G243" s="38" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H243" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I243" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J243" s="45" t="n">
         <f aca="false">J242+D242</f>
@@ -12349,7 +12352,7 @@
         <v>4.1875</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O243" s="3" t="n">
         <v>2</v>
@@ -12363,10 +12366,10 @@
     </row>
     <row r="244" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="21" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C244" s="46" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D244" s="1" t="n">
         <v>3</v>
@@ -12376,13 +12379,13 @@
       </c>
       <c r="F244" s="47"/>
       <c r="G244" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H244" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I244" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J244" s="45" t="n">
         <f aca="false">J243+D243</f>
@@ -12401,7 +12404,7 @@
         <v>4.21875</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O244" s="3" t="n">
         <v>2</v>
@@ -12415,10 +12418,10 @@
     </row>
     <row r="245" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="21" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C245" s="46" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D245" s="1" t="n">
         <v>4</v>
@@ -12428,13 +12431,13 @@
       </c>
       <c r="F245" s="47"/>
       <c r="G245" s="38" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H245" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I245" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J245" s="45" t="n">
         <f aca="false">J244+D244</f>
@@ -12453,7 +12456,7 @@
         <v>4.3125</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O245" s="3" t="n">
         <v>2</v>
@@ -12467,10 +12470,10 @@
     </row>
     <row r="246" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="21" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C246" s="46" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D246" s="1" t="n">
         <v>4</v>
@@ -12480,13 +12483,13 @@
       </c>
       <c r="F246" s="47"/>
       <c r="G246" s="38" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H246" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I246" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J246" s="45" t="n">
         <f aca="false">J245+D245</f>
@@ -12505,7 +12508,7 @@
         <v>4.4375</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O246" s="3" t="n">
         <v>2</v>
@@ -12519,10 +12522,10 @@
     </row>
     <row r="247" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="21" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C247" s="46" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D247" s="1" t="n">
         <v>5</v>
@@ -12532,13 +12535,13 @@
       </c>
       <c r="F247" s="47"/>
       <c r="G247" s="38" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H247" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I247" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J247" s="45" t="n">
         <f aca="false">J246+D246</f>
@@ -12557,7 +12560,7 @@
         <v>4.5625</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O247" s="3" t="n">
         <v>2</v>
@@ -12571,10 +12574,10 @@
     </row>
     <row r="248" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="21" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C248" s="46" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D248" s="1" t="n">
         <v>9</v>
@@ -12584,13 +12587,13 @@
       </c>
       <c r="F248" s="47"/>
       <c r="G248" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H248" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I248" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J248" s="45" t="n">
         <f aca="false">J247+D247</f>
@@ -12609,7 +12612,7 @@
         <v>4.71875</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O248" s="3" t="n">
         <v>2</v>
@@ -12642,10 +12645,10 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="48" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D250" s="1" t="n">
         <v>8</v>
@@ -12655,13 +12658,13 @@
       </c>
       <c r="F250" s="38"/>
       <c r="G250" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H250" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I250" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J250" s="45" t="n">
         <f aca="false">J248+D248</f>
@@ -12680,7 +12683,7 @@
         <v>5</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O250" s="3" t="n">
         <v>3</v>
@@ -12694,10 +12697,10 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="48" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D251" s="1" t="n">
         <v>8</v>
@@ -12707,13 +12710,13 @@
       </c>
       <c r="F251" s="38"/>
       <c r="G251" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H251" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I251" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J251" s="45" t="n">
         <f aca="false">J250+D250</f>
@@ -12732,7 +12735,7 @@
         <v>5.25</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O251" s="3" t="n">
         <v>3</v>
@@ -12746,10 +12749,10 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="48" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D252" s="1" t="n">
         <v>8</v>
@@ -12759,13 +12762,13 @@
       </c>
       <c r="F252" s="38"/>
       <c r="G252" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H252" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I252" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J252" s="45" t="n">
         <f aca="false">J251+D251</f>
@@ -12784,7 +12787,7 @@
         <v>5.5</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O252" s="3" t="n">
         <v>3</v>
@@ -12798,10 +12801,10 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="48" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D253" s="1" t="n">
         <v>8</v>
@@ -12811,13 +12814,13 @@
       </c>
       <c r="F253" s="38"/>
       <c r="G253" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H253" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I253" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J253" s="45" t="n">
         <f aca="false">J252+D252</f>
@@ -12836,7 +12839,7 @@
         <v>5.75</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O253" s="3" t="n">
         <v>3</v>
@@ -12850,10 +12853,10 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="48" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D254" s="1" t="n">
         <v>8</v>
@@ -12863,13 +12866,13 @@
       </c>
       <c r="F254" s="38"/>
       <c r="G254" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H254" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I254" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J254" s="45" t="n">
         <f aca="false">J253+D253</f>
@@ -12888,7 +12891,7 @@
         <v>6</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O254" s="3" t="n">
         <v>3</v>
@@ -12902,10 +12905,10 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="48" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D255" s="1" t="n">
         <v>8</v>
@@ -12915,13 +12918,13 @@
       </c>
       <c r="F255" s="38"/>
       <c r="G255" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H255" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I255" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J255" s="45" t="n">
         <f aca="false">J254+D254</f>
@@ -12940,7 +12943,7 @@
         <v>6.25</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O255" s="3" t="n">
         <v>3</v>
@@ -12954,10 +12957,10 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="48" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D256" s="1" t="n">
         <v>8</v>
@@ -12967,13 +12970,13 @@
       </c>
       <c r="F256" s="38"/>
       <c r="G256" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H256" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I256" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J256" s="45" t="n">
         <f aca="false">J255+D255</f>
@@ -12992,7 +12995,7 @@
         <v>6.5</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O256" s="3" t="n">
         <v>3</v>
@@ -13006,10 +13009,10 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="48" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D257" s="1" t="n">
         <v>8</v>
@@ -13019,13 +13022,13 @@
       </c>
       <c r="F257" s="38"/>
       <c r="G257" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H257" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I257" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J257" s="45" t="n">
         <f aca="false">J256+D256</f>
@@ -13044,7 +13047,7 @@
         <v>6.75</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O257" s="3" t="n">
         <v>3</v>
@@ -13058,10 +13061,10 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="48" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D258" s="1" t="n">
         <v>8</v>
@@ -13071,13 +13074,13 @@
       </c>
       <c r="F258" s="38"/>
       <c r="G258" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H258" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I258" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J258" s="45" t="n">
         <f aca="false">J257+D257</f>
@@ -13096,7 +13099,7 @@
         <v>7</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O258" s="3" t="n">
         <v>3</v>
@@ -13110,10 +13113,10 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="48" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D259" s="1" t="n">
         <v>8</v>
@@ -13123,13 +13126,13 @@
       </c>
       <c r="F259" s="38"/>
       <c r="G259" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H259" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I259" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J259" s="45" t="n">
         <f aca="false">J258+D258</f>
@@ -13148,7 +13151,7 @@
         <v>7.25</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O259" s="3" t="n">
         <v>3</v>
@@ -13162,10 +13165,10 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="48" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D260" s="1" t="n">
         <v>8</v>
@@ -13175,13 +13178,13 @@
       </c>
       <c r="F260" s="38"/>
       <c r="G260" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H260" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I260" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J260" s="45" t="n">
         <f aca="false">J259+D259</f>
@@ -13200,7 +13203,7 @@
         <v>7.5</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O260" s="3" t="n">
         <v>3</v>
@@ -13214,10 +13217,10 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="48" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D261" s="1" t="n">
         <v>8</v>
@@ -13227,13 +13230,13 @@
       </c>
       <c r="F261" s="38"/>
       <c r="G261" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H261" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I261" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J261" s="45" t="n">
         <f aca="false">J260+D260</f>
@@ -13252,7 +13255,7 @@
         <v>7.75</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O261" s="3" t="n">
         <v>3</v>
@@ -13266,10 +13269,10 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="48" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D262" s="1" t="n">
         <v>8</v>
@@ -13279,13 +13282,13 @@
       </c>
       <c r="F262" s="38"/>
       <c r="G262" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H262" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I262" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J262" s="45" t="n">
         <f aca="false">J261+D261</f>
@@ -13304,7 +13307,7 @@
         <v>8</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O262" s="3" t="n">
         <v>3</v>
@@ -13318,10 +13321,10 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="48" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D263" s="1" t="n">
         <v>16</v>
@@ -13333,13 +13336,13 @@
         <v>116</v>
       </c>
       <c r="G263" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H263" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I263" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J263" s="45" t="n">
         <f aca="false">J262+D262</f>
@@ -13358,7 +13361,7 @@
         <v>8.25</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O263" s="3" t="n">
         <v>1</v>
@@ -13372,10 +13375,10 @@
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="48" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D264" s="1" t="n">
         <v>8</v>
@@ -13385,13 +13388,13 @@
       </c>
       <c r="F264" s="38"/>
       <c r="G264" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H264" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I264" s="38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J264" s="45" t="n">
         <f aca="false">J263+D263</f>
@@ -13410,7 +13413,7 @@
         <v>8.75</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O264" s="3" t="n">
         <v>2</v>
@@ -13499,7 +13502,7 @@
   <dimension ref="B6:Q1031"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+      <selection pane="topLeft" activeCell="C33" activeCellId="1" sqref="G56:G59 C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13514,22 +13517,22 @@
     <row r="6" s="51" customFormat="true" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="52"/>
       <c r="C6" s="52" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H6" s="52" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I6" s="52"/>
     </row>
@@ -13899,10 +13902,10 @@
     </row>
     <row r="26" s="1" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="32" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D26" s="27" t="n">
         <v>16</v>
@@ -13915,10 +13918,10 @@
         <v>1</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J26" s="29" t="n">
         <f aca="false">DownlinkSpecLTM!J169+DownlinkSpecLTM!D169</f>
@@ -13937,7 +13940,7 @@
         <v>15.5</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O26" s="3" t="n">
         <v>6</v>
@@ -13951,10 +13954,10 @@
     </row>
     <row r="27" s="1" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="32" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D27" s="27" t="n">
         <v>32</v>
@@ -13965,10 +13968,10 @@
         <v>1</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J27" s="29" t="n">
         <f aca="false">J26+D26</f>
@@ -13987,7 +13990,7 @@
         <v>16</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O27" s="3" t="n">
         <v>6</v>
@@ -14001,16 +14004,16 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="50" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D30" s="50" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F30" s="50"/>
     </row>

--- a/genSpacecraft/DownlinkSpecLTM.xlsx
+++ b/genSpacecraft/DownlinkSpecLTM.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="549">
   <si>
     <t xml:space="preserve">//</t>
   </si>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">wodSize</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of WOD data payloads kept for each of Science and Housekeeping.  In hundreds</t>
+    <t xml:space="preserve">Number of WOD data payloads kept for each of Science and Housekeeping. </t>
   </si>
   <si>
     <t xml:space="preserve">Diagnostic</t>
@@ -1970,7 +1970,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2045,8 +2045,8 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G56" activeCellId="0" sqref="G56:G59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I100" activeCellId="0" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="31" t="s">
         <v>273</v>
       </c>
@@ -9698,8 +9698,8 @@
         <v>401</v>
       </c>
       <c r="F170" s="23"/>
-      <c r="G170" s="23" t="n">
-        <v>36</v>
+      <c r="G170" s="23" t="s">
+        <v>161</v>
       </c>
       <c r="H170" s="22" t="s">
         <v>27</v>
@@ -9833,8 +9833,8 @@
       </c>
       <c r="E176" s="38"/>
       <c r="F176" s="23"/>
-      <c r="G176" s="39" t="n">
-        <v>36</v>
+      <c r="G176" s="39" t="s">
+        <v>161</v>
       </c>
       <c r="H176" s="0"/>
       <c r="I176" s="28" t="s">
@@ -9977,8 +9977,8 @@
       </c>
       <c r="E179" s="38"/>
       <c r="F179" s="23"/>
-      <c r="G179" s="39" t="n">
-        <v>36</v>
+      <c r="G179" s="39" t="s">
+        <v>161</v>
       </c>
       <c r="I179" s="28" t="s">
         <v>429</v>
@@ -10026,8 +10026,8 @@
         <v>401</v>
       </c>
       <c r="F180" s="23"/>
-      <c r="G180" s="23" t="n">
-        <v>36</v>
+      <c r="G180" s="23" t="s">
+        <v>161</v>
       </c>
       <c r="H180" s="22" t="s">
         <v>27</v>
@@ -10169,8 +10169,8 @@
         <v>26</v>
       </c>
       <c r="F187" s="23"/>
-      <c r="G187" s="40" t="n">
-        <v>1</v>
+      <c r="G187" s="40" t="s">
+        <v>161</v>
       </c>
       <c r="H187" s="40" t="s">
         <v>402</v>
@@ -13502,7 +13502,7 @@
   <dimension ref="B6:Q1031"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="1" sqref="G56:G59 C33"/>
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
